--- a/f_factor/dP_f_Agulhas/fxReynoldsV3.xlsx
+++ b/f_factor/dP_f_Agulhas/fxReynoldsV3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T2F\Documents\GitHub\Artificial-Neural-Network\f_factor\dP_f_Agulhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB018A96-5BA5-4D77-B7D0-3C16848803E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDB816F-7F61-4608-91DA-9A4DA10C006E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="780" windowWidth="28485" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8280" yWindow="660" windowWidth="20460" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,10 +487,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1101.5247587833969</v>
+        <v>1026.1991877189132</v>
       </c>
       <c r="C2">
-        <v>0.7654334670393137</v>
+        <v>0.88192700309826344</v>
       </c>
       <c r="D2">
         <v>0.33260000000000001</v>
@@ -507,10 +507,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1483.4949956291193</v>
+        <v>1408.1744455999012</v>
       </c>
       <c r="C3">
-        <v>0.7398404207866599</v>
+        <v>0.82110627648799162</v>
       </c>
       <c r="D3">
         <v>0.33260000000000001</v>
@@ -527,10 +527,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1874.4880328483164</v>
+        <v>1799.162461783832</v>
       </c>
       <c r="C4">
-        <v>0.71632156886738718</v>
+        <v>0.77756006000995648</v>
       </c>
       <c r="D4">
         <v>0.33260000000000001</v>
@@ -547,10 +547,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2272.626003251406</v>
+        <v>2197.3054532221881</v>
       </c>
       <c r="C5">
-        <v>0.69686632985683461</v>
+        <v>0.7454611657460507</v>
       </c>
       <c r="D5">
         <v>0.33260000000000001</v>
@@ -567,10 +567,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2663.5587880474072</v>
+        <v>2588.2432590534563</v>
       </c>
       <c r="C6">
-        <v>0.68418111374121449</v>
+        <v>0.72457970217060974</v>
       </c>
       <c r="D6">
         <v>0.33260000000000001</v>
@@ -581,10 +581,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3053.4873657901571</v>
+        <v>2978.1768578314723</v>
       </c>
       <c r="C7">
-        <v>0.67303851808139969</v>
+        <v>0.7075073201448463</v>
       </c>
       <c r="D7">
         <v>0.33260000000000001</v>
@@ -595,10 +595,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3465.1419631300269</v>
+        <v>3389.8264341360768</v>
       </c>
       <c r="C8">
-        <v>0.65440835383918772</v>
+        <v>0.68381015629165998</v>
       </c>
       <c r="D8">
         <v>0.33260000000000001</v>
@@ -609,10 +609,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3875.310334031084</v>
+        <v>3799.9948050371336</v>
       </c>
       <c r="C9">
-        <v>0.63956554011543876</v>
+        <v>0.66516849816937607</v>
       </c>
       <c r="D9">
         <v>0.33260000000000001</v>
@@ -623,10 +623,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4277.4500695413844</v>
+        <v>4202.1295195121693</v>
       </c>
       <c r="C10">
-        <v>0.62991073013443866</v>
+        <v>0.65269440458081818</v>
       </c>
       <c r="D10">
         <v>0.33260000000000001</v>
@@ -637,10 +637,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4524.6908670874627</v>
+        <v>4449.3652960229783</v>
       </c>
       <c r="C11">
-        <v>0.62236695732821268</v>
+        <v>0.64361767648428247</v>
       </c>
       <c r="D11">
         <v>0.33260000000000001</v>
@@ -651,10 +651,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1337.918235633085</v>
+        <v>1362.29943354895</v>
       </c>
       <c r="C12">
-        <v>0.70216543919976415</v>
+        <v>0.67911878304983297</v>
       </c>
       <c r="D12">
         <v>0.3745</v>
@@ -665,10 +665,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1822.4945442108992</v>
+        <v>1822.7993091848477</v>
       </c>
       <c r="C13">
-        <v>0.64460259861917957</v>
+        <v>0.64555702489220013</v>
       </c>
       <c r="D13">
         <v>0.3745</v>
@@ -679,10 +679,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2328.4044009650956</v>
+        <v>2317.4328619029566</v>
       </c>
       <c r="C14">
-        <v>0.60357153505220029</v>
+        <v>0.60849585135714135</v>
       </c>
       <c r="D14">
         <v>0.3745</v>
@@ -693,10 +693,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2837.361907458775</v>
+        <v>2856.8668657914668</v>
       </c>
       <c r="C15">
-        <v>0.57760442882797847</v>
+        <v>0.56910923736712749</v>
       </c>
       <c r="D15">
         <v>0.3745</v>
@@ -707,10 +707,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3334.1288149945217</v>
+        <v>3334.7383449424183</v>
       </c>
       <c r="C16">
-        <v>0.55795001932045341</v>
+        <v>0.55856171695526347</v>
       </c>
       <c r="D16">
         <v>0.3745</v>
@@ -721,10 +721,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3852.2292707066508</v>
+        <v>3846.1339712276845</v>
       </c>
       <c r="C17">
-        <v>0.53851775891466369</v>
+        <v>0.54060555951788369</v>
       </c>
       <c r="D17">
         <v>0.3745</v>
@@ -735,10 +735,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4461.7592186032725</v>
+        <v>4389.2251548035747</v>
       </c>
       <c r="C18">
-        <v>0.49893692667901601</v>
+        <v>0.51572046705520536</v>
       </c>
       <c r="D18">
         <v>0.3745</v>
@@ -749,10 +749,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4900.62078108884</v>
+        <v>4911.5923201509795</v>
       </c>
       <c r="C19">
-        <v>0.50375169569404377</v>
+        <v>0.5039386485241597</v>
       </c>
       <c r="D19">
         <v>0.3745</v>
@@ -763,10 +763,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5418.1117068530721</v>
+        <v>5419.0260017749169</v>
       </c>
       <c r="C20">
-        <v>0.49267440480130492</v>
+        <v>0.49166979697700824</v>
       </c>
       <c r="D20">
         <v>0.3745</v>
@@ -777,10 +777,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5760.0580076230772</v>
+        <v>5763.7151873104567</v>
       </c>
       <c r="C21">
-        <v>0.48612669150546356</v>
+        <v>0.48623807112173217</v>
       </c>
       <c r="D21">
         <v>0.3745</v>
@@ -791,10 +791,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1648.2437451287669</v>
+        <v>1529.6253668182446</v>
       </c>
       <c r="C22">
-        <v>0.57674878728949219</v>
+        <v>0.66144379617213656</v>
       </c>
       <c r="D22">
         <v>0.39960000000000001</v>
@@ -805,10 +805,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2172.3714632450274</v>
+        <v>2100.9935437384052</v>
       </c>
       <c r="C23">
-        <v>0.56661460953913534</v>
+        <v>0.60203182810776934</v>
       </c>
       <c r="D23">
         <v>0.39960000000000001</v>
@@ -819,10 +819,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2689.602764017653</v>
+        <v>2682.3615258068362</v>
       </c>
       <c r="C24">
-        <v>0.56210830268590961</v>
+        <v>0.56361910750851607</v>
       </c>
       <c r="D24">
         <v>0.39960000000000001</v>
@@ -833,10 +833,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3258.5571948675411</v>
+        <v>3253.3848818598149</v>
       </c>
       <c r="C25">
-        <v>0.53964220729744539</v>
+        <v>0.54467071023307589</v>
       </c>
       <c r="D25">
         <v>0.39960000000000001</v>
@@ -847,10 +847,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>3830.9598343892467</v>
+        <v>3828.5460883189744</v>
       </c>
       <c r="C26">
-        <v>0.51788656573997871</v>
+        <v>0.52022761829855446</v>
       </c>
       <c r="D26">
         <v>0.39960000000000001</v>
@@ -861,10 +861,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>4427.4999346136747</v>
+        <v>4428.5343972152195</v>
       </c>
       <c r="C27">
-        <v>0.4969011675602687</v>
+        <v>0.49656392954568312</v>
       </c>
       <c r="D27">
         <v>0.39960000000000001</v>
@@ -875,10 +875,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>5013.6954088226503</v>
+        <v>5036.7984069238273</v>
       </c>
       <c r="C28">
-        <v>0.48034202508520379</v>
+        <v>0.47553929709936676</v>
       </c>
       <c r="D28">
         <v>0.39960000000000001</v>
@@ -889,10 +889,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5599.8908830316259</v>
+        <v>5634.3729697498011</v>
       </c>
       <c r="C29">
-        <v>0.46757210018985995</v>
+        <v>0.4632087077895814</v>
       </c>
       <c r="D29">
         <v>0.39960000000000001</v>
@@ -906,7 +906,7 @@
         <v>6199.879191927871</v>
       </c>
       <c r="C30">
-        <v>0.4565066575102773</v>
+        <v>0.45395004859573318</v>
       </c>
       <c r="D30">
         <v>0.39960000000000001</v>
@@ -917,10 +917,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6592.9749805150677</v>
+        <v>6615.3883368818806</v>
       </c>
       <c r="C31">
-        <v>0.46045042985249923</v>
+        <v>0.4546818291318041</v>
       </c>
       <c r="D31">
         <v>0.39960000000000001</v>
@@ -931,10 +931,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1736.8718487353215</v>
+        <v>1726.8588402947191</v>
       </c>
       <c r="C32">
-        <v>0.62104947484954753</v>
+        <v>0.63405063909068027</v>
       </c>
       <c r="D32">
         <v>0.41620000000000001</v>
@@ -945,10 +945,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>2372.312769004342</v>
+        <v>2392.7239015948012</v>
       </c>
       <c r="C33">
-        <v>0.5537499385458885</v>
+        <v>0.54032985921411636</v>
       </c>
       <c r="D33">
         <v>0.41620000000000001</v>
@@ -959,10 +959,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3023.1583176435206</v>
+        <v>3037.0224831766627</v>
       </c>
       <c r="C34">
-        <v>0.51568859315664273</v>
+        <v>0.51198737616109957</v>
       </c>
       <c r="D34">
         <v>0.41620000000000001</v>
@@ -973,10 +973,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>3679.0103705030001</v>
+        <v>3668.6122463531433</v>
       </c>
       <c r="C35">
-        <v>0.49537656733461755</v>
+        <v>0.50151734114054314</v>
       </c>
       <c r="D35">
         <v>0.41620000000000001</v>
@@ -987,10 +987,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>4344.4903160938284</v>
+        <v>4332.5517291069564</v>
       </c>
       <c r="C36">
-        <v>0.48048768102540873</v>
+        <v>0.49048282375129537</v>
       </c>
       <c r="D36">
         <v>0.41620000000000001</v>
@@ -1001,10 +1001,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>5119.3431231127788</v>
+        <v>4998.4167904070382</v>
       </c>
       <c r="C37">
-        <v>0.4496600888065625</v>
+        <v>0.47085287102666035</v>
       </c>
       <c r="D37">
         <v>0.41620000000000001</v>
@@ -1015,10 +1015,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5769.0333246241953</v>
+        <v>5642.7153719888993</v>
       </c>
       <c r="C38">
-        <v>0.43905906427433727</v>
+        <v>0.46041582447805318</v>
       </c>
       <c r="D38">
         <v>0.41620000000000001</v>
@@ -1029,10 +1029,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6439.1346587260705</v>
+        <v>6323.9850616591393</v>
       </c>
       <c r="C39">
-        <v>0.42077832827589434</v>
+        <v>0.43908478159656739</v>
       </c>
       <c r="D39">
         <v>0.41620000000000001</v>
@@ -1043,10 +1043,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>7101.5336786428688</v>
+        <v>6998.7077842720628</v>
       </c>
       <c r="C40">
-        <v>0.41183754309330939</v>
+        <v>0.42426249541640981</v>
       </c>
       <c r="D40">
         <v>0.41620000000000001</v>
@@ -1057,153 +1057,13 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>7425.0308744161875</v>
+        <v>7425.8011058346956</v>
       </c>
       <c r="C41">
-        <v>0.4224260620386216</v>
+        <v>0.42233843541187216</v>
       </c>
       <c r="D41">
         <v>0.41620000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>2019.7302130456737</v>
-      </c>
-      <c r="C42">
-        <v>0.67357466123075416</v>
-      </c>
-      <c r="D42">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>2754.7891730760771</v>
-      </c>
-      <c r="C43">
-        <v>0.60839484099168306</v>
-      </c>
-      <c r="D43">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>3526.0413304397084</v>
-      </c>
-      <c r="C44">
-        <v>0.56154914555513069</v>
-      </c>
-      <c r="D44">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>4305.8535936027747</v>
-      </c>
-      <c r="C45">
-        <v>0.52860462582876655</v>
-      </c>
-      <c r="D45">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>5057.4175076277097</v>
-      </c>
-      <c r="C46">
-        <v>0.50451071386289259</v>
-      </c>
-      <c r="D46">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>5834.7553652081278</v>
-      </c>
-      <c r="C47">
-        <v>0.48524286379124681</v>
-      </c>
-      <c r="D47">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>6608.6691804687716</v>
-      </c>
-      <c r="C48">
-        <v>0.4691741443637984</v>
-      </c>
-      <c r="D48">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>7388.1336893337311</v>
-      </c>
-      <c r="C49">
-        <v>0.45660475174041765</v>
-      </c>
-      <c r="D49">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>8172.2795060577637</v>
-      </c>
-      <c r="C50">
-        <v>0.44599239880780833</v>
-      </c>
-      <c r="D50">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>8678.0212568205334</v>
-      </c>
-      <c r="C51">
-        <v>0.44318555622170491</v>
-      </c>
-      <c r="D51">
-        <v>0.43309999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -1213,10 +1073,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4636E6-F12B-406A-BB7D-E3F2A83B97CD}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C8"/>
+      <selection activeCell="C8" sqref="C8:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,10 +1094,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1428.207683778973</v>
+        <v>1026.1991877189132</v>
       </c>
       <c r="B2">
-        <v>0.5887717973508243</v>
+        <v>0.88192700309826344</v>
       </c>
       <c r="C2">
         <v>0.33260000000000001</v>
@@ -1245,10 +1105,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1830.26810757559</v>
+        <v>1408.1744455999012</v>
       </c>
       <c r="B3">
-        <v>0.63884885553862081</v>
+        <v>0.82110627648799162</v>
       </c>
       <c r="C3">
         <v>0.33260000000000001</v>
@@ -1256,10 +1116,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2403.8980597694322</v>
+        <v>1799.162461783832</v>
       </c>
       <c r="B4">
-        <v>0.57447047799389572</v>
+        <v>0.77756006000995648</v>
       </c>
       <c r="C4">
         <v>0.33260000000000001</v>
@@ -1267,10 +1127,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4773.2504482531858</v>
+        <v>2197.3054532221881</v>
       </c>
       <c r="B5">
-        <v>0.20825472569764211</v>
+        <v>0.7454611657460507</v>
       </c>
       <c r="C5">
         <v>0.33260000000000001</v>
@@ -1278,10 +1138,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3125.5582161795492</v>
+        <v>2588.2432590534563</v>
       </c>
       <c r="B6">
-        <v>0.64142113146056989</v>
+        <v>0.72457970217060974</v>
       </c>
       <c r="C6">
         <v>0.33260000000000001</v>
@@ -1289,10 +1149,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3412.138907478864</v>
+        <v>2978.1768578314723</v>
       </c>
       <c r="B7">
-        <v>0.67774760437215809</v>
+        <v>0.7075073201448463</v>
       </c>
       <c r="C7">
         <v>0.33260000000000001</v>
@@ -1300,12 +1160,45 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3813.506553648152</v>
+        <v>3389.8264341360768</v>
       </c>
       <c r="B8">
-        <v>0.66614230182714285</v>
+        <v>0.68381015629165998</v>
       </c>
       <c r="C8">
+        <v>0.33260000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3799.9948050371336</v>
+      </c>
+      <c r="B9">
+        <v>0.66516849816937607</v>
+      </c>
+      <c r="C9">
+        <v>0.33260000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4202.1295195121693</v>
+      </c>
+      <c r="B10">
+        <v>0.65269440458081818</v>
+      </c>
+      <c r="C10">
+        <v>0.33260000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4449.3652960229783</v>
+      </c>
+      <c r="B11">
+        <v>0.64361767648428247</v>
+      </c>
+      <c r="C11">
         <v>0.33260000000000001</v>
       </c>
     </row>
@@ -1316,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80853FB9-B5DB-4D08-8B01-B22D634BEAA3}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="C4" sqref="C4:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,10 +1230,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2389.8264065406811</v>
+        <v>1362.29943354895</v>
       </c>
       <c r="B2">
-        <v>0.60076504047800838</v>
+        <v>0.67911878304983297</v>
       </c>
       <c r="C2">
         <v>0.3745</v>
@@ -1348,10 +1241,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2898.392441046225</v>
+        <v>1822.7993091848477</v>
       </c>
       <c r="B3">
-        <v>0.58422693832737127</v>
+        <v>0.64555702489220013</v>
       </c>
       <c r="C3">
         <v>0.3745</v>
@@ -1359,10 +1252,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3400.2274230255871</v>
+        <v>2317.4328619029566</v>
       </c>
       <c r="B4">
-        <v>0.57068037956527695</v>
+        <v>0.60849585135714135</v>
       </c>
       <c r="C4">
         <v>0.3745</v>
@@ -1370,10 +1263,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3913.4969372154869</v>
+        <v>2856.8668657914668</v>
       </c>
       <c r="B5">
-        <v>0.55640024024286239</v>
+        <v>0.56910923736712749</v>
       </c>
       <c r="C5">
         <v>0.3745</v>
@@ -1381,10 +1274,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4433.8553109036593</v>
+        <v>3334.7383449424183</v>
       </c>
       <c r="B6">
-        <v>0.54241127359770858</v>
+        <v>0.55856171695526347</v>
       </c>
       <c r="C6">
         <v>0.3745</v>
@@ -1392,12 +1285,56 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>4967.9785493898089</v>
+        <v>3846.1339712276845</v>
       </c>
       <c r="B7">
-        <v>0.52814622132033928</v>
+        <v>0.54060555951788369</v>
       </c>
       <c r="C7">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4389.2251548035747</v>
+      </c>
+      <c r="B8">
+        <v>0.51572046705520536</v>
+      </c>
+      <c r="C8">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4911.5923201509795</v>
+      </c>
+      <c r="B9">
+        <v>0.5039386485241597</v>
+      </c>
+      <c r="C9">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5419.0260017749169</v>
+      </c>
+      <c r="B10">
+        <v>0.49166979697700824</v>
+      </c>
+      <c r="C10">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5763.7151873104567</v>
+      </c>
+      <c r="B11">
+        <v>0.48623807112173217</v>
+      </c>
+      <c r="C11">
         <v>0.3745</v>
       </c>
     </row>
@@ -1408,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63AEDFE7-D36A-4323-815C-0BCEA75EC9D5}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1429,10 +1366,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2740.8007737311718</v>
+        <v>1529.6253668182446</v>
       </c>
       <c r="B2">
-        <v>0.53705350286095055</v>
+        <v>0.66144379617213656</v>
       </c>
       <c r="C2">
         <v>0.39960000000000001</v>
@@ -1440,10 +1377,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3323.0701200771791</v>
+        <v>2100.9935437384052</v>
       </c>
       <c r="B3">
-        <v>0.51595979809171921</v>
+        <v>0.60203182810776934</v>
       </c>
       <c r="C3">
         <v>0.39960000000000001</v>
@@ -1451,10 +1388,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3323.0701200771791</v>
+        <v>2682.3615258068362</v>
       </c>
       <c r="B4">
-        <v>0.51595979809171921</v>
+        <v>0.56361910750851607</v>
       </c>
       <c r="C4">
         <v>0.39960000000000001</v>
@@ -1462,10 +1399,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4491.1208366968203</v>
+        <v>3253.3848818598149</v>
       </c>
       <c r="B5">
-        <v>0.48391264325848571</v>
+        <v>0.54467071023307589</v>
       </c>
       <c r="C5">
         <v>0.39960000000000001</v>
@@ -1473,10 +1410,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5081.0785743405486</v>
+        <v>3828.5460883189744</v>
       </c>
       <c r="B6">
-        <v>0.47086251591572931</v>
+        <v>0.52022761829855446</v>
       </c>
       <c r="C6">
         <v>0.39960000000000001</v>
@@ -1484,12 +1421,56 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5684.2193771707443</v>
+        <v>4428.5343972152195</v>
       </c>
       <c r="B7">
-        <v>0.45700186331879128</v>
+        <v>0.49656392954568312</v>
       </c>
       <c r="C7">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5036.7984069238273</v>
+      </c>
+      <c r="B8">
+        <v>0.47553929709936676</v>
+      </c>
+      <c r="C8">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5634.3729697498011</v>
+      </c>
+      <c r="B9">
+        <v>0.4632087077895814</v>
+      </c>
+      <c r="C9">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6199.879191927871</v>
+      </c>
+      <c r="B10">
+        <v>0.45395004859573318</v>
+      </c>
+      <c r="C10">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6615.3883368818806</v>
+      </c>
+      <c r="B11">
+        <v>0.4546818291318041</v>
+      </c>
+      <c r="C11">
         <v>0.39960000000000001</v>
       </c>
     </row>
@@ -1500,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5488D633-9556-4011-918F-B4604527FBF4}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+      <selection activeCell="C5" sqref="C5:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,10 +1502,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3084.849849576909</v>
+        <v>1726.8588402947191</v>
       </c>
       <c r="B2">
-        <v>0.49822066399631421</v>
+        <v>0.63405063909068027</v>
       </c>
       <c r="C2">
         <v>0.41620000000000001</v>
@@ -1532,10 +1513,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3749.711332688898</v>
+        <v>2392.7239015948012</v>
       </c>
       <c r="B3">
-        <v>0.4766281150417494</v>
+        <v>0.54032985921411636</v>
       </c>
       <c r="C3">
         <v>0.41620000000000001</v>
@@ -1543,10 +1524,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4389.7900165844176</v>
+        <v>3037.0224831766627</v>
       </c>
       <c r="B4">
-        <v>0.46661369275563941</v>
+        <v>0.51198737616109957</v>
       </c>
       <c r="C4">
         <v>0.41620000000000001</v>
@@ -1554,10 +1535,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4389.7900165844176</v>
+        <v>3668.6122463531433</v>
       </c>
       <c r="B5">
-        <v>0.46661369275563941</v>
+        <v>0.50151734114054314</v>
       </c>
       <c r="C5">
         <v>0.41620000000000001</v>
@@ -1565,10 +1546,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5766.0024689418906</v>
+        <v>4332.5517291069564</v>
       </c>
       <c r="B6">
-        <v>0.44411500149425298</v>
+        <v>0.49048282375129537</v>
       </c>
       <c r="C6">
         <v>0.41620000000000001</v>
@@ -1576,12 +1557,56 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6530.3313571735853</v>
+        <v>4998.4167904070382</v>
       </c>
       <c r="B7">
-        <v>0.42338523485758911</v>
+        <v>0.47085287102666035</v>
       </c>
       <c r="C7">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5642.7153719888993</v>
+      </c>
+      <c r="B8">
+        <v>0.46041582447805318</v>
+      </c>
+      <c r="C8">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6323.9850616591393</v>
+      </c>
+      <c r="B9">
+        <v>0.43908478159656739</v>
+      </c>
+      <c r="C9">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>6998.7077842720628</v>
+      </c>
+      <c r="B10">
+        <v>0.42426249541640981</v>
+      </c>
+      <c r="C10">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>7425.8011058346956</v>
+      </c>
+      <c r="B11">
+        <v>0.42233843541187216</v>
+      </c>
+      <c r="C11">
         <v>0.41620000000000001</v>
       </c>
     </row>
@@ -1592,10 +1617,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{689FE8B4-2C2C-4801-8BE2-57F7183CD753}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1613,10 +1638,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3577.962613051327</v>
+        <v>2019.7302130456737</v>
       </c>
       <c r="B2">
-        <v>0.48928959033011382</v>
+        <v>0.67357466123075416</v>
       </c>
       <c r="C2">
         <v>0.43309999999999998</v>
@@ -1624,10 +1649,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4340.1142378848308</v>
+        <v>2754.7891730760771</v>
       </c>
       <c r="B3">
-        <v>0.46974679184201151</v>
+        <v>0.60839484099168306</v>
       </c>
       <c r="C3">
         <v>0.43309999999999998</v>
@@ -1635,10 +1660,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5106.6904877369816</v>
+        <v>3526.0413304397084</v>
       </c>
       <c r="B4">
-        <v>0.45061035093020518</v>
+        <v>0.56154914555513069</v>
       </c>
       <c r="C4">
         <v>0.43309999999999998</v>
@@ -1646,10 +1671,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5106.6904877369816</v>
+        <v>4305.8535936027747</v>
       </c>
       <c r="B5">
-        <v>0.45061035093020518</v>
+        <v>0.52860462582876655</v>
       </c>
       <c r="C5">
         <v>0.43309999999999998</v>
@@ -1657,10 +1682,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5106.6904877369816</v>
+        <v>5057.4175076277097</v>
       </c>
       <c r="B6">
-        <v>0.45061035093020518</v>
+        <v>0.50451071386289259</v>
       </c>
       <c r="C6">
         <v>0.43309999999999998</v>
@@ -1668,12 +1693,56 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5106.6904877369816</v>
+        <v>5834.7553652081278</v>
       </c>
       <c r="B7">
-        <v>0.45061035093020518</v>
+        <v>0.48524286379124681</v>
       </c>
       <c r="C7">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6608.6691804687716</v>
+      </c>
+      <c r="B8">
+        <v>0.4691741443637984</v>
+      </c>
+      <c r="C8">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7388.1336893337311</v>
+      </c>
+      <c r="B9">
+        <v>0.45660475174041765</v>
+      </c>
+      <c r="C9">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8172.2795060577637</v>
+      </c>
+      <c r="B10">
+        <v>0.44599239880780833</v>
+      </c>
+      <c r="C10">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8678.0212568205334</v>
+      </c>
+      <c r="B11">
+        <v>0.44318555622170491</v>
+      </c>
+      <c r="C11">
         <v>0.43309999999999998</v>
       </c>
     </row>

--- a/f_factor/dP_f_Agulhas/fxReynoldsV3.xlsx
+++ b/f_factor/dP_f_Agulhas/fxReynoldsV3.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Re</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>cs6</t>
+  </si>
+  <si>
+    <t>cs60.8</t>
+  </si>
+  <si>
+    <t>cs61.2</t>
   </si>
 </sst>
 </file>
@@ -456,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41:D53"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="D142" sqref="D142:D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,6 +594,12 @@
       <c r="D7">
         <v>0.33260000000000001</v>
       </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <v>0.36599999999999999</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -602,6 +614,12 @@
       <c r="D8">
         <v>0.33260000000000001</v>
       </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <v>0.39960000000000001</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -616,6 +634,12 @@
       <c r="D9">
         <v>0.33260000000000001</v>
       </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9">
+        <v>0.41970000000000002</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -630,6 +654,12 @@
       <c r="D10">
         <v>0.33260000000000001</v>
       </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10">
+        <v>0.43309999999999998</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -644,6 +674,9 @@
       <c r="D11">
         <v>0.33260000000000001</v>
       </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -672,6 +705,12 @@
       <c r="D13">
         <v>0.33260000000000001</v>
       </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13">
+        <v>0.29920000000000002</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -686,19 +725,31 @@
       <c r="D14">
         <v>0.33260000000000001</v>
       </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14">
+        <v>0.34939999999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1416.337311079722</v>
+        <v>4168.4233097697434</v>
       </c>
       <c r="C15">
-        <v>0.63564560484741928</v>
+        <v>0.59801524385348059</v>
       </c>
       <c r="D15">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="J15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15">
+        <v>0.3795</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -706,237 +757,246 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1720.1209418119224</v>
+        <v>1416.337311079722</v>
       </c>
       <c r="C16">
-        <v>0.61561582967208395</v>
+        <v>0.63564560484741928</v>
       </c>
       <c r="D16">
         <v>0.3745</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2021.1891166262369</v>
+        <v>1720.1209418119224</v>
       </c>
       <c r="C17">
-        <v>0.59773451367019637</v>
+        <v>0.61561582967208395</v>
       </c>
       <c r="D17">
         <v>0.3745</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2325.2836076318649</v>
+        <v>2021.1891166262369</v>
       </c>
       <c r="C18">
-        <v>0.58108009548877726</v>
+        <v>0.59773451367019637</v>
       </c>
       <c r="D18">
         <v>0.3745</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2621.9204997249717</v>
+        <v>2325.2836076318649</v>
       </c>
       <c r="C19">
-        <v>0.56657139746924468</v>
+        <v>0.58108009548877726</v>
       </c>
       <c r="D19">
         <v>0.3745</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2913.9310595135485</v>
+        <v>2621.9204997249717</v>
       </c>
       <c r="C20">
-        <v>0.55770711573118326</v>
+        <v>0.56657139746924468</v>
       </c>
       <c r="D20">
         <v>0.3745</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3252.6346609607435</v>
+        <v>2913.9310595135485</v>
       </c>
       <c r="C21">
-        <v>0.54305091754903756</v>
+        <v>0.55770711573118326</v>
       </c>
       <c r="D21">
         <v>0.3745</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3576.2127767508841</v>
+        <v>3252.6346609607435</v>
       </c>
       <c r="C22">
-        <v>0.53272618768852431</v>
+        <v>0.54305091754903756</v>
       </c>
       <c r="D22">
         <v>0.3745</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3860.3878290592461</v>
+        <v>3576.2127767508841</v>
       </c>
       <c r="C23">
-        <v>0.52357866054493363</v>
+        <v>0.53272618768852431</v>
       </c>
       <c r="D23">
         <v>0.3745</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4145.4040326957074</v>
+        <v>3860.3878290592461</v>
       </c>
       <c r="C24">
-        <v>0.51386797876462376</v>
+        <v>0.52357866054493363</v>
       </c>
       <c r="D24">
         <v>0.3745</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4433.4313142747469</v>
+        <v>4145.4040326957074</v>
       </c>
       <c r="C25">
-        <v>0.50482592427558204</v>
+        <v>0.51386797876462376</v>
       </c>
       <c r="D25">
         <v>0.3745</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>4733.6674807102163</v>
+        <v>4433.4313142747469</v>
       </c>
       <c r="C26">
-        <v>0.49283468396267899</v>
+        <v>0.50482592427558204</v>
       </c>
       <c r="D26">
         <v>0.3745</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>5023.9043083504102</v>
+        <v>4733.6674807102163</v>
       </c>
       <c r="C27">
-        <v>0.48208276732176392</v>
+        <v>0.49283468396267899</v>
       </c>
       <c r="D27">
         <v>0.3745</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1672.7811980374165</v>
+        <v>5023.9043083504102</v>
       </c>
       <c r="C28">
-        <v>0.60628379421242085</v>
+        <v>0.48208276732176392</v>
       </c>
       <c r="D28">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>2014.7193627695276</v>
+        <v>5310.0207135428245</v>
       </c>
       <c r="C29">
-        <v>0.58853236420422406</v>
+        <v>0.4721748781766924</v>
       </c>
       <c r="D29">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>2350.6610926213516</v>
+        <v>1885.3763173807381</v>
       </c>
       <c r="C30">
-        <v>0.57148510942959829</v>
+        <v>0.54442025046644815</v>
       </c>
       <c r="D30">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>2691.5165198305117</v>
+        <v>2272.0825545139087</v>
       </c>
       <c r="C31">
-        <v>0.55468299434983115</v>
+        <v>0.51804418494415505</v>
       </c>
       <c r="D31">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>3032.454704047796</v>
+        <v>2657.8991743587026</v>
       </c>
       <c r="C32">
-        <v>0.53891271374274485</v>
+        <v>0.49750269528836849</v>
       </c>
       <c r="D32">
-        <v>0.39960000000000001</v>
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -944,13 +1004,13 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>3402.7026619755279</v>
+        <v>3057.7494106487102</v>
       </c>
       <c r="C33">
-        <v>0.52785369187574727</v>
+        <v>0.4765090605503054</v>
       </c>
       <c r="D33">
-        <v>0.39960000000000001</v>
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -958,13 +1018,13 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>3754.2544324846322</v>
+        <v>3442.9382918874162</v>
       </c>
       <c r="C34">
-        <v>0.51846892292798652</v>
+        <v>0.46076624205715572</v>
       </c>
       <c r="D34">
-        <v>0.39960000000000001</v>
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -972,13 +1032,13 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>4097.1925777316037</v>
+        <v>3830.1220725000653</v>
       </c>
       <c r="C35">
-        <v>0.50590187175238499</v>
+        <v>0.44939931312140946</v>
       </c>
       <c r="D35">
-        <v>0.39960000000000001</v>
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -986,13 +1046,13 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>4431.5688208464189</v>
+        <v>4283.507243533465</v>
       </c>
       <c r="C36">
-        <v>0.49496522583192631</v>
+        <v>0.43767569448667865</v>
       </c>
       <c r="D36">
-        <v>0.39960000000000001</v>
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1000,13 +1060,13 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>4762.2416878476679</v>
+        <v>4709.3681948264466</v>
       </c>
       <c r="C37">
-        <v>0.48550350887097776</v>
+        <v>0.42563934296165284</v>
       </c>
       <c r="D37">
-        <v>0.39960000000000001</v>
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1014,13 +1074,13 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5098.3213460463958</v>
+        <v>5083.4349343819404</v>
       </c>
       <c r="C38">
-        <v>0.47551055809696841</v>
+        <v>0.41975767183662277</v>
       </c>
       <c r="D38">
-        <v>0.39960000000000001</v>
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1028,13 +1088,13 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5444.9456263635066</v>
+        <v>5461.6185608692822</v>
       </c>
       <c r="C39">
-        <v>0.46580537178948195</v>
+        <v>0.41251570540292365</v>
       </c>
       <c r="D39">
-        <v>0.39960000000000001</v>
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1042,13 +1102,13 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5773.6668072565062</v>
+        <v>5843.9306277599044</v>
       </c>
       <c r="C40">
-        <v>0.45833569761744403</v>
+        <v>0.40600855043868744</v>
       </c>
       <c r="D40">
-        <v>0.39960000000000001</v>
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1056,144 +1116,1266 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1885.3763173807381</v>
+        <v>6227.6560693034498</v>
       </c>
       <c r="C41">
-        <v>0.54442025046644815</v>
+        <v>0.40167452085663224</v>
       </c>
       <c r="D41">
-        <v>0.43309999999999998</v>
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42">
-        <v>2272.0825545139087</v>
+        <v>6598.8228875682235</v>
       </c>
       <c r="C42">
-        <v>0.51804418494415505</v>
+        <v>0.40130369029566082</v>
       </c>
       <c r="D42">
-        <v>0.43309999999999998</v>
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43">
-        <v>2657.8991743587026</v>
+        <v>6968.9460422608799</v>
       </c>
       <c r="C43">
-        <v>0.49750269528836849</v>
+        <v>0.39691014541645614</v>
       </c>
       <c r="D43">
-        <v>0.43309999999999998</v>
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44">
-        <v>3057.7494106487102</v>
+        <v>1068.8656796375699</v>
       </c>
       <c r="C44">
-        <v>0.4765090605503054</v>
+        <v>0.87582456635999661</v>
       </c>
       <c r="D44">
-        <v>0.43309999999999998</v>
+        <v>0.29920000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45">
-        <v>3442.9382918874162</v>
+        <v>1302.1775386598492</v>
       </c>
       <c r="C45">
-        <v>0.46076624205715572</v>
+        <v>0.86027452009692007</v>
       </c>
       <c r="D45">
-        <v>0.43309999999999998</v>
+        <v>0.29920000000000002</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46">
-        <v>3830.1220725000653</v>
+        <v>1526.7943699806624</v>
       </c>
       <c r="C46">
-        <v>0.44939931312140946</v>
+        <v>0.84622092080375544</v>
       </c>
       <c r="D46">
-        <v>0.43309999999999998</v>
+        <v>0.29920000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47">
-        <v>4283.507243533465</v>
+        <v>1747.8446702585011</v>
       </c>
       <c r="C47">
-        <v>0.43767569448667865</v>
+        <v>0.8338261164010744</v>
       </c>
       <c r="D47">
-        <v>0.43309999999999998</v>
+        <v>0.29920000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48">
-        <v>4709.3681948264466</v>
+        <v>1967.9428662896544</v>
       </c>
       <c r="C48">
-        <v>0.42563934296165284</v>
+        <v>0.82041590776779172</v>
       </c>
       <c r="D48">
-        <v>0.43309999999999998</v>
+        <v>0.29920000000000002</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49">
-        <v>5083.4349343819404</v>
+        <v>2190.112532371023</v>
       </c>
       <c r="C49">
-        <v>0.41975767183662277</v>
+        <v>0.80669951865071909</v>
       </c>
       <c r="D49">
-        <v>0.43309999999999998</v>
+        <v>0.29920000000000002</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50">
-        <v>5461.6185608692822</v>
+        <v>2407.1717145769535</v>
       </c>
       <c r="C50">
-        <v>0.41251570540292365</v>
+        <v>0.79781688819599172</v>
       </c>
       <c r="D50">
-        <v>0.43309999999999998</v>
+        <v>0.29920000000000002</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51">
-        <v>5843.9306277599044</v>
+        <v>2628.1679765056538</v>
       </c>
       <c r="C51">
-        <v>0.40600855043868744</v>
+        <v>0.78700472898173701</v>
       </c>
       <c r="D51">
-        <v>0.43309999999999998</v>
+        <v>0.29920000000000002</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52">
-        <v>6227.6560693034498</v>
+        <v>2886.4609923571147</v>
       </c>
       <c r="C52">
-        <v>0.40167452085663224</v>
+        <v>0.77653052671149525</v>
       </c>
       <c r="D52">
-        <v>0.43309999999999998</v>
+        <v>0.29920000000000002</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53">
-        <v>6598.8228875682235</v>
+        <v>3101.7960939001073</v>
       </c>
       <c r="C53">
-        <v>0.40130369029566082</v>
+        <v>0.77102097233721034</v>
       </c>
       <c r="D53">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>3315.0211265721241</v>
+      </c>
+      <c r="C54">
+        <v>0.76156579545196035</v>
+      </c>
+      <c r="D54">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>3541.2127897820474</v>
+      </c>
+      <c r="C55">
+        <v>0.7509774916744445</v>
+      </c>
+      <c r="D55">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>3764.8131854881617</v>
+      </c>
+      <c r="C56">
+        <v>0.74160191376069273</v>
+      </c>
+      <c r="D56">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>3989.77740619628</v>
+      </c>
+      <c r="C57">
+        <v>0.73115079373733549</v>
+      </c>
+      <c r="D57">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>1407.7318228900219</v>
+      </c>
+      <c r="C58">
+        <v>0.68570265887934279</v>
+      </c>
+      <c r="D58">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>1720.6917066878934</v>
+      </c>
+      <c r="C59">
+        <v>0.66825409211451303</v>
+      </c>
+      <c r="D59">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>2036.4568660634598</v>
+      </c>
+      <c r="C60">
+        <v>0.65543302683370186</v>
+      </c>
+      <c r="D60">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>2331.2551421521512</v>
+      </c>
+      <c r="C61">
+        <v>0.64552484260553811</v>
+      </c>
+      <c r="D61">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>2623.7337306076874</v>
+      </c>
+      <c r="C62">
+        <v>0.6334404047344705</v>
+      </c>
+      <c r="D62">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>2919.9145405257395</v>
+      </c>
+      <c r="C63">
+        <v>0.62622663780006493</v>
+      </c>
+      <c r="D63">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>3252.0133937555602</v>
+      </c>
+      <c r="C64">
+        <v>0.61787908629023369</v>
+      </c>
+      <c r="D64">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>3545.5497597718149</v>
+      </c>
+      <c r="C65">
+        <v>0.60887024272211243</v>
+      </c>
+      <c r="D65">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>3833.3178358736245</v>
+      </c>
+      <c r="C66">
+        <v>0.60131977720793761</v>
+      </c>
+      <c r="D66">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>4122.0045082781335</v>
+      </c>
+      <c r="C67">
+        <v>0.59344527947575143</v>
+      </c>
+      <c r="D67">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>4410.6571585974179</v>
+      </c>
+      <c r="C68">
+        <v>0.58609140270906845</v>
+      </c>
+      <c r="D68">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>4706.6307430869065</v>
+      </c>
+      <c r="C69">
+        <v>0.57454329322564379</v>
+      </c>
+      <c r="D69">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>4963.7882211816059</v>
+      </c>
+      <c r="C70">
+        <v>0.57111089364068701</v>
+      </c>
+      <c r="D70">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>5264.9857422209598</v>
+      </c>
+      <c r="C71">
+        <v>0.56087374644144861</v>
+      </c>
+      <c r="D71">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>1953.8968184184394</v>
+      </c>
+      <c r="C72">
+        <v>0.62185388929089114</v>
+      </c>
+      <c r="D72">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>2257.5719329410449</v>
+      </c>
+      <c r="C73">
+        <v>0.60823672513871652</v>
+      </c>
+      <c r="D73">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>2564.9842858576803</v>
+      </c>
+      <c r="C74">
+        <v>0.59485269879474845</v>
+      </c>
+      <c r="D74">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75">
+        <v>2885.6659346452275</v>
+      </c>
+      <c r="C75">
+        <v>0.57878829040364632</v>
+      </c>
+      <c r="D75">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76">
+        <v>3197.4593947428652</v>
+      </c>
+      <c r="C76">
+        <v>0.56691866309880534</v>
+      </c>
+      <c r="D76">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77">
+        <v>3513.3120276280256</v>
+      </c>
+      <c r="C77">
+        <v>0.55683975044604561</v>
+      </c>
+      <c r="D77">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B78">
+        <v>3825.3679342421005</v>
+      </c>
+      <c r="C78">
+        <v>0.54754567313703617</v>
+      </c>
+      <c r="D78">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B79">
+        <v>4145.1257712917641</v>
+      </c>
+      <c r="C79">
+        <v>0.53757107753842615</v>
+      </c>
+      <c r="D79">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B80">
+        <v>4465.0725698333308</v>
+      </c>
+      <c r="C80">
+        <v>0.52884240006767558</v>
+      </c>
+      <c r="D80">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81">
+        <v>4786.744516809521</v>
+      </c>
+      <c r="C81">
+        <v>0.51963701441802479</v>
+      </c>
+      <c r="D81">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82">
+        <v>5111.4398476551041</v>
+      </c>
+      <c r="C82">
+        <v>0.50962873224070482</v>
+      </c>
+      <c r="D82">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83">
+        <v>5454.6429068395946</v>
+      </c>
+      <c r="C83">
+        <v>0.49949464087878953</v>
+      </c>
+      <c r="D83">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84">
+        <v>5772.4236467988212</v>
+      </c>
+      <c r="C84">
+        <v>0.4969660365749386</v>
+      </c>
+      <c r="D84">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85">
+        <v>6096.4996038655845</v>
+      </c>
+      <c r="C85">
+        <v>0.49109283989593644</v>
+      </c>
+      <c r="D85">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86">
+        <v>2141.5903352656219</v>
+      </c>
+      <c r="C86">
+        <v>0.55954495619372691</v>
+      </c>
+      <c r="D86">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87">
+        <v>2496.6432854156697</v>
+      </c>
+      <c r="C87">
+        <v>0.54385403877935079</v>
+      </c>
+      <c r="D87">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88">
+        <v>2864.6543156079233</v>
+      </c>
+      <c r="C88">
+        <v>0.52693494239587124</v>
+      </c>
+      <c r="D88">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89">
+        <v>3234.304081666126</v>
+      </c>
+      <c r="C89">
+        <v>0.51226769152776963</v>
+      </c>
+      <c r="D89">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90">
+        <v>3584.8651050007065</v>
+      </c>
+      <c r="C90">
+        <v>0.50124205720980253</v>
+      </c>
+      <c r="D90">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>3964.7015023206473</v>
+      </c>
+      <c r="C91">
+        <v>0.48571310375028676</v>
+      </c>
+      <c r="D91">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>4318.3804055332066</v>
+      </c>
+      <c r="C92">
+        <v>0.47609479341864336</v>
+      </c>
+      <c r="D92">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>4674.0016583826127</v>
+      </c>
+      <c r="C93">
+        <v>0.46696885997974735</v>
+      </c>
+      <c r="D93">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>5037.2872127048995</v>
+      </c>
+      <c r="C94">
+        <v>0.45723317431933536</v>
+      </c>
+      <c r="D94">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>5393.5234780645687</v>
+      </c>
+      <c r="C95">
+        <v>0.45120451132339667</v>
+      </c>
+      <c r="D95">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>5765.3530352983935</v>
+      </c>
+      <c r="C96">
+        <v>0.44240560428678088</v>
+      </c>
+      <c r="D96">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>6142.5775756918738</v>
+      </c>
+      <c r="C97">
+        <v>0.43573800244986083</v>
+      </c>
+      <c r="D97">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>6476.6033259656879</v>
+      </c>
+      <c r="C98">
+        <v>0.42868394758001344</v>
+      </c>
+      <c r="D98">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>6831.7730506430007</v>
+      </c>
+      <c r="C99">
+        <v>0.42382271184688741</v>
+      </c>
+      <c r="D99">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>1081.8486206034447</v>
+      </c>
+      <c r="C100">
+        <v>0.69582240103522719</v>
+      </c>
+      <c r="D100">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B101">
+        <v>1317.1924313487164</v>
+      </c>
+      <c r="C101">
+        <v>0.67438709471971481</v>
+      </c>
+      <c r="D101">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <v>1545.9005119612536</v>
+      </c>
+      <c r="C102">
+        <v>0.65968931959758947</v>
+      </c>
+      <c r="D102">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B103">
+        <v>1776.8986274761098</v>
+      </c>
+      <c r="C103">
+        <v>0.64367794711725745</v>
+      </c>
+      <c r="D103">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B104">
+        <v>1999.1809385119795</v>
+      </c>
+      <c r="C104">
+        <v>0.62962969307720162</v>
+      </c>
+      <c r="D104">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B105">
+        <v>2223.4627576342064</v>
+      </c>
+      <c r="C105">
+        <v>0.61677212963070194</v>
+      </c>
+      <c r="D105">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B106">
+        <v>2453.3817735469052</v>
+      </c>
+      <c r="C106">
+        <v>0.60654343943795186</v>
+      </c>
+      <c r="D106">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B107">
+        <v>2712.976028519</v>
+      </c>
+      <c r="C107">
+        <v>0.59549582625576203</v>
+      </c>
+      <c r="D107">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B108">
+        <v>2931.2349093640132</v>
+      </c>
+      <c r="C108">
+        <v>0.58664136173384795</v>
+      </c>
+      <c r="D108">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B109">
+        <v>3148.2120542562102</v>
+      </c>
+      <c r="C109">
+        <v>0.58004103822159037</v>
+      </c>
+      <c r="D109">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B110">
+        <v>3373.2555907446681</v>
+      </c>
+      <c r="C110">
+        <v>0.57002875503202111</v>
+      </c>
+      <c r="D110">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B111">
+        <v>3599.3513714153464</v>
+      </c>
+      <c r="C111">
+        <v>0.55579508111971754</v>
+      </c>
+      <c r="D111">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B112">
+        <v>3831.7215547501442</v>
+      </c>
+      <c r="C112">
+        <v>0.54473873191078903</v>
+      </c>
+      <c r="D112">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B113">
+        <v>4054.0136313932753</v>
+      </c>
+      <c r="C113">
+        <v>0.53643048072458122</v>
+      </c>
+      <c r="D113">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B114">
+        <v>1384.2676466608452</v>
+      </c>
+      <c r="C114">
+        <v>0.59221665376153432</v>
+      </c>
+      <c r="D114">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B115">
+        <v>1687.0359226657638</v>
+      </c>
+      <c r="C115">
+        <v>0.56796453442381589</v>
+      </c>
+      <c r="D115">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B116">
+        <v>1982.848245504561</v>
+      </c>
+      <c r="C116">
+        <v>0.55058957119263807</v>
+      </c>
+      <c r="D116">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B117">
+        <v>2278.4417899800983</v>
+      </c>
+      <c r="C117">
+        <v>0.53364285167699388</v>
+      </c>
+      <c r="D117">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B118">
+        <v>2563.1653464618703</v>
+      </c>
+      <c r="C118">
+        <v>0.52019342053678419</v>
+      </c>
+      <c r="D118">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B119">
+        <v>2852.1745612924433</v>
+      </c>
+      <c r="C119">
+        <v>0.50877833405903861</v>
+      </c>
+      <c r="D119">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B120">
+        <v>3153.2285739578438</v>
+      </c>
+      <c r="C120">
+        <v>0.5010213689355969</v>
+      </c>
+      <c r="D120">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B121">
+        <v>3464.0167253063819</v>
+      </c>
+      <c r="C121">
+        <v>0.49150313854072264</v>
+      </c>
+      <c r="D121">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B122">
+        <v>3746.6663827830057</v>
+      </c>
+      <c r="C122">
+        <v>0.48276719440907151</v>
+      </c>
+      <c r="D122">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B123">
+        <v>4031.8664565217146</v>
+      </c>
+      <c r="C123">
+        <v>0.47316213114695449</v>
+      </c>
+      <c r="D123">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B124">
+        <v>4328.3021478476385</v>
+      </c>
+      <c r="C124">
+        <v>0.46304613779772757</v>
+      </c>
+      <c r="D124">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B125">
+        <v>4613.7120090579674</v>
+      </c>
+      <c r="C125">
+        <v>0.45234390776917993</v>
+      </c>
+      <c r="D125">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B126">
+        <v>4896.409617956705</v>
+      </c>
+      <c r="C126">
+        <v>0.44305712059334951</v>
+      </c>
+      <c r="D126">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B127">
+        <v>5180.4169000710936</v>
+      </c>
+      <c r="C127">
+        <v>0.4370054647362957</v>
+      </c>
+      <c r="D127">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B128">
+        <v>1966.2782952771413</v>
+      </c>
+      <c r="C128">
+        <v>0.55467947899567072</v>
+      </c>
+      <c r="D128">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B129">
+        <v>2262.648164067075</v>
+      </c>
+      <c r="C129">
+        <v>0.54405905317221526</v>
+      </c>
+      <c r="D129">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B130">
+        <v>2572.0740042005195</v>
+      </c>
+      <c r="C130">
+        <v>0.52999574193795862</v>
+      </c>
+      <c r="D130">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B131">
+        <v>2888.1843927486207</v>
+      </c>
+      <c r="C131">
+        <v>0.51505817746950311</v>
+      </c>
+      <c r="D131">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B132">
+        <v>3188.4479088839616</v>
+      </c>
+      <c r="C132">
+        <v>0.5065823577046995</v>
+      </c>
+      <c r="D132">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B133">
+        <v>3500.8892835873226</v>
+      </c>
+      <c r="C133">
+        <v>0.49638808545844326</v>
+      </c>
+      <c r="D133">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B134">
+        <v>3816.928197839748</v>
+      </c>
+      <c r="C134">
+        <v>0.47618572154254735</v>
+      </c>
+      <c r="D134">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B135">
+        <v>4021.3378763976798</v>
+      </c>
+      <c r="C135">
+        <v>0.47396215200875025</v>
+      </c>
+      <c r="D135">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B136">
+        <v>4450.6431280694042</v>
+      </c>
+      <c r="C136">
+        <v>0.45415570436883845</v>
+      </c>
+      <c r="D136">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B137">
+        <v>4767.4546454227093</v>
+      </c>
+      <c r="C137">
+        <v>0.44372283346166674</v>
+      </c>
+      <c r="D137">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B138">
+        <v>5095.6067510232906</v>
+      </c>
+      <c r="C138">
+        <v>0.43234154658868795</v>
+      </c>
+      <c r="D138">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B139">
+        <v>5431.1002878511763</v>
+      </c>
+      <c r="C139">
+        <v>0.42162991186507964</v>
+      </c>
+      <c r="D139">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B140">
+        <v>5751.7271711784297</v>
+      </c>
+      <c r="C140">
+        <v>0.41302653151363045</v>
+      </c>
+      <c r="D140">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B141">
+        <v>6076.9011811258406</v>
+      </c>
+      <c r="C141">
+        <v>0.40475012545601829</v>
+      </c>
+      <c r="D141">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B142">
+        <v>1782.279216224799</v>
+      </c>
+      <c r="C142">
+        <v>0.56259739752591464</v>
+      </c>
+      <c r="D142">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B143">
+        <v>2171.6069075924634</v>
+      </c>
+      <c r="C143">
+        <v>0.53247203522982089</v>
+      </c>
+      <c r="D143">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B144">
+        <v>2552.3911070014738</v>
+      </c>
+      <c r="C144">
+        <v>0.51024244877140823</v>
+      </c>
+      <c r="D144">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B145">
+        <v>2937.8017598684519</v>
+      </c>
+      <c r="C145">
+        <v>0.48933265570617623</v>
+      </c>
+      <c r="D145">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B146">
+        <v>3307.7921725618367</v>
+      </c>
+      <c r="C146">
+        <v>0.47380979623259978</v>
+      </c>
+      <c r="D146">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B147">
+        <v>3680.9978369164519</v>
+      </c>
+      <c r="C147">
+        <v>0.46174525930464705</v>
+      </c>
+      <c r="D147">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B148">
+        <v>4102.9281038477711</v>
+      </c>
+      <c r="C148">
+        <v>0.44940587494097672</v>
+      </c>
+      <c r="D148">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B149">
+        <v>4490.9056183612556</v>
+      </c>
+      <c r="C149">
+        <v>0.44036422525935165</v>
+      </c>
+      <c r="D149">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B150">
+        <v>4857.4977045657333</v>
+      </c>
+      <c r="C150">
+        <v>0.43288220741601707</v>
+      </c>
+      <c r="D150">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B151">
+        <v>5241.6954866992955</v>
+      </c>
+      <c r="C151">
+        <v>0.42325108122609173</v>
+      </c>
+      <c r="D151">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <v>5624.1235454985645</v>
+      </c>
+      <c r="C152">
+        <v>0.41462752595281693</v>
+      </c>
+      <c r="D152">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <v>5998.2674683450286</v>
+      </c>
+      <c r="C153">
+        <v>0.40503385031667233</v>
+      </c>
+      <c r="D153">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <v>6401.451635733175</v>
+      </c>
+      <c r="C154">
+        <v>0.3979543942022144</v>
+      </c>
+      <c r="D154">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <v>6770.0155903941441</v>
+      </c>
+      <c r="C155">
+        <v>0.39043732594249264</v>
+      </c>
+      <c r="D155">
         <v>0.43309999999999998</v>
       </c>
     </row>
@@ -1343,7 +2525,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C11"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/f_factor/dP_f_Agulhas/fxReynoldsV3.xlsx
+++ b/f_factor/dP_f_Agulhas/fxReynoldsV3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlos.correa\Documents\GitHub\Artificial-Neural-Network\f_factor\dP_f_Agulhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\GitHub\Artificial-Neural-Network\f_factor\dP_f_Agulhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DE02E7-2CDD-45C2-AD7B-31FF1C9BE169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="14710" yWindow="1900" windowWidth="19030" windowHeight="18410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,19 +21,6 @@
     <sheet name="cs15" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -105,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -461,16 +449,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="D142" sqref="D142:D155"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,6 +468,15 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F1">
+        <v>1068.8656796375699</v>
+      </c>
+      <c r="G1">
+        <v>0.87582456635999661</v>
+      </c>
+      <c r="H1">
+        <v>0.29920000000000002</v>
+      </c>
       <c r="J1" t="s">
         <v>18</v>
       </c>
@@ -487,7 +484,7 @@
         <v>0.33260000000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -500,6 +497,15 @@
       <c r="D2">
         <v>0.33260000000000001</v>
       </c>
+      <c r="F2">
+        <v>1302.1775386598492</v>
+      </c>
+      <c r="G2">
+        <v>0.86027452009692007</v>
+      </c>
+      <c r="H2">
+        <v>0.29920000000000002</v>
+      </c>
       <c r="J2" t="s">
         <v>14</v>
       </c>
@@ -507,7 +513,7 @@
         <v>0.3745</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -520,6 +526,15 @@
       <c r="D3">
         <v>0.33260000000000001</v>
       </c>
+      <c r="F3">
+        <v>1526.7943699806624</v>
+      </c>
+      <c r="G3">
+        <v>0.84622092080375544</v>
+      </c>
+      <c r="H3">
+        <v>0.29920000000000002</v>
+      </c>
       <c r="J3" t="s">
         <v>15</v>
       </c>
@@ -527,7 +542,7 @@
         <v>0.39960000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -540,6 +555,15 @@
       <c r="D4">
         <v>0.33260000000000001</v>
       </c>
+      <c r="F4">
+        <v>1747.8446702585011</v>
+      </c>
+      <c r="G4">
+        <v>0.8338261164010744</v>
+      </c>
+      <c r="H4">
+        <v>0.29920000000000002</v>
+      </c>
       <c r="J4" t="s">
         <v>16</v>
       </c>
@@ -547,7 +571,7 @@
         <v>0.41620000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -560,6 +584,15 @@
       <c r="D5">
         <v>0.33260000000000001</v>
       </c>
+      <c r="F5">
+        <v>1967.9428662896544</v>
+      </c>
+      <c r="G5">
+        <v>0.82041590776779172</v>
+      </c>
+      <c r="H5">
+        <v>0.29920000000000002</v>
+      </c>
       <c r="J5" t="s">
         <v>17</v>
       </c>
@@ -567,7 +600,7 @@
         <v>0.43309999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -580,8 +613,17 @@
       <c r="D6">
         <v>0.33260000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>2190.112532371023</v>
+      </c>
+      <c r="G6">
+        <v>0.80669951865071909</v>
+      </c>
+      <c r="H6">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -594,6 +636,15 @@
       <c r="D7">
         <v>0.33260000000000001</v>
       </c>
+      <c r="F7">
+        <v>2407.1717145769535</v>
+      </c>
+      <c r="G7">
+        <v>0.79781688819599172</v>
+      </c>
+      <c r="H7">
+        <v>0.29920000000000002</v>
+      </c>
       <c r="J7" t="s">
         <v>19</v>
       </c>
@@ -601,7 +652,7 @@
         <v>0.36599999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -614,6 +665,15 @@
       <c r="D8">
         <v>0.33260000000000001</v>
       </c>
+      <c r="F8">
+        <v>2628.1679765056538</v>
+      </c>
+      <c r="G8">
+        <v>0.78700472898173701</v>
+      </c>
+      <c r="H8">
+        <v>0.29920000000000002</v>
+      </c>
       <c r="J8" t="s">
         <v>14</v>
       </c>
@@ -621,7 +681,7 @@
         <v>0.39960000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -634,6 +694,15 @@
       <c r="D9">
         <v>0.33260000000000001</v>
       </c>
+      <c r="F9">
+        <v>2886.4609923571147</v>
+      </c>
+      <c r="G9">
+        <v>0.77653052671149525</v>
+      </c>
+      <c r="H9">
+        <v>0.29920000000000002</v>
+      </c>
       <c r="J9" t="s">
         <v>15</v>
       </c>
@@ -641,7 +710,7 @@
         <v>0.41970000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -654,6 +723,15 @@
       <c r="D10">
         <v>0.33260000000000001</v>
       </c>
+      <c r="F10">
+        <v>3101.7960939001073</v>
+      </c>
+      <c r="G10">
+        <v>0.77102097233721034</v>
+      </c>
+      <c r="H10">
+        <v>0.29920000000000002</v>
+      </c>
       <c r="J10" t="s">
         <v>16</v>
       </c>
@@ -661,7 +739,7 @@
         <v>0.43309999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -674,11 +752,20 @@
       <c r="D11">
         <v>0.33260000000000001</v>
       </c>
+      <c r="F11">
+        <v>3315.0211265721241</v>
+      </c>
+      <c r="G11">
+        <v>0.76156579545196035</v>
+      </c>
+      <c r="H11">
+        <v>0.29920000000000002</v>
+      </c>
       <c r="J11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -691,8 +778,17 @@
       <c r="D12">
         <v>0.33260000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>3541.2127897820474</v>
+      </c>
+      <c r="G12">
+        <v>0.7509774916744445</v>
+      </c>
+      <c r="H12">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -705,6 +801,15 @@
       <c r="D13">
         <v>0.33260000000000001</v>
       </c>
+      <c r="F13">
+        <v>3764.8131854881617</v>
+      </c>
+      <c r="G13">
+        <v>0.74160191376069273</v>
+      </c>
+      <c r="H13">
+        <v>0.29920000000000002</v>
+      </c>
       <c r="J13" t="s">
         <v>20</v>
       </c>
@@ -712,7 +817,7 @@
         <v>0.29920000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -725,6 +830,15 @@
       <c r="D14">
         <v>0.33260000000000001</v>
       </c>
+      <c r="F14">
+        <v>3989.77740619628</v>
+      </c>
+      <c r="G14">
+        <v>0.73115079373733549</v>
+      </c>
+      <c r="H14">
+        <v>0.29920000000000002</v>
+      </c>
       <c r="J14" t="s">
         <v>14</v>
       </c>
@@ -732,7 +846,7 @@
         <v>0.34939999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -745,6 +859,15 @@
       <c r="D15">
         <v>0.33260000000000001</v>
       </c>
+      <c r="F15">
+        <v>1407.7318228900219</v>
+      </c>
+      <c r="G15">
+        <v>0.68570265887934279</v>
+      </c>
+      <c r="H15">
+        <v>0.34939999999999999</v>
+      </c>
       <c r="J15" t="s">
         <v>15</v>
       </c>
@@ -752,7 +875,7 @@
         <v>0.3795</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -765,6 +888,15 @@
       <c r="D16">
         <v>0.3745</v>
       </c>
+      <c r="F16">
+        <v>1720.6917066878934</v>
+      </c>
+      <c r="G16">
+        <v>0.66825409211451303</v>
+      </c>
+      <c r="H16">
+        <v>0.34939999999999999</v>
+      </c>
       <c r="J16" t="s">
         <v>16</v>
       </c>
@@ -772,7 +904,7 @@
         <v>0.39960000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -785,11 +917,20 @@
       <c r="D17">
         <v>0.3745</v>
       </c>
+      <c r="F17">
+        <v>2036.4568660634598</v>
+      </c>
+      <c r="G17">
+        <v>0.65543302683370186</v>
+      </c>
+      <c r="H17">
+        <v>0.34939999999999999</v>
+      </c>
       <c r="J17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -802,8 +943,17 @@
       <c r="D18">
         <v>0.3745</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>2331.2551421521512</v>
+      </c>
+      <c r="G18">
+        <v>0.64552484260553811</v>
+      </c>
+      <c r="H18">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -816,8 +966,17 @@
       <c r="D19">
         <v>0.3745</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>2623.7337306076874</v>
+      </c>
+      <c r="G19">
+        <v>0.6334404047344705</v>
+      </c>
+      <c r="H19">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -830,8 +989,17 @@
       <c r="D20">
         <v>0.3745</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>2919.9145405257395</v>
+      </c>
+      <c r="G20">
+        <v>0.62622663780006493</v>
+      </c>
+      <c r="H20">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -844,8 +1012,17 @@
       <c r="D21">
         <v>0.3745</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>3252.0133937555602</v>
+      </c>
+      <c r="G21">
+        <v>0.61787908629023369</v>
+      </c>
+      <c r="H21">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -858,8 +1035,17 @@
       <c r="D22">
         <v>0.3745</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>3545.5497597718149</v>
+      </c>
+      <c r="G22">
+        <v>0.60887024272211243</v>
+      </c>
+      <c r="H22">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -872,8 +1058,17 @@
       <c r="D23">
         <v>0.3745</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <v>3833.3178358736245</v>
+      </c>
+      <c r="G23">
+        <v>0.60131977720793761</v>
+      </c>
+      <c r="H23">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -886,8 +1081,17 @@
       <c r="D24">
         <v>0.3745</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <v>4122.0045082781335</v>
+      </c>
+      <c r="G24">
+        <v>0.59344527947575143</v>
+      </c>
+      <c r="H24">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -900,8 +1104,17 @@
       <c r="D25">
         <v>0.3745</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <v>4410.6571585974179</v>
+      </c>
+      <c r="G25">
+        <v>0.58609140270906845</v>
+      </c>
+      <c r="H25">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -914,8 +1127,17 @@
       <c r="D26">
         <v>0.3745</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>4706.6307430869065</v>
+      </c>
+      <c r="G26">
+        <v>0.57454329322564379</v>
+      </c>
+      <c r="H26">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -928,8 +1150,17 @@
       <c r="D27">
         <v>0.3745</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>4963.7882211816059</v>
+      </c>
+      <c r="G27">
+        <v>0.57111089364068701</v>
+      </c>
+      <c r="H27">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -942,8 +1173,17 @@
       <c r="D28">
         <v>0.3745</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <v>5264.9857422209598</v>
+      </c>
+      <c r="G28">
+        <v>0.56087374644144861</v>
+      </c>
+      <c r="H28">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -956,8 +1196,17 @@
       <c r="D29">
         <v>0.3745</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <v>1953.8968184184394</v>
+      </c>
+      <c r="G29">
+        <v>0.62185388929089114</v>
+      </c>
+      <c r="H29">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -970,8 +1219,17 @@
       <c r="D30">
         <v>0.41620000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <v>2257.5719329410449</v>
+      </c>
+      <c r="G30">
+        <v>0.60823672513871652</v>
+      </c>
+      <c r="H30">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -984,8 +1242,17 @@
       <c r="D31">
         <v>0.41620000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <v>2564.9842858576803</v>
+      </c>
+      <c r="G31">
+        <v>0.59485269879474845</v>
+      </c>
+      <c r="H31">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -998,8 +1265,17 @@
       <c r="D32">
         <v>0.41620000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>2885.6659346452275</v>
+      </c>
+      <c r="G32">
+        <v>0.57878829040364632</v>
+      </c>
+      <c r="H32">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1012,8 +1288,17 @@
       <c r="D33">
         <v>0.41620000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <v>3197.4593947428652</v>
+      </c>
+      <c r="G33">
+        <v>0.56691866309880534</v>
+      </c>
+      <c r="H33">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1026,8 +1311,17 @@
       <c r="D34">
         <v>0.41620000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <v>3513.3120276280256</v>
+      </c>
+      <c r="G34">
+        <v>0.55683975044604561</v>
+      </c>
+      <c r="H34">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1040,8 +1334,17 @@
       <c r="D35">
         <v>0.41620000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <v>3825.3679342421005</v>
+      </c>
+      <c r="G35">
+        <v>0.54754567313703617</v>
+      </c>
+      <c r="H35">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1054,8 +1357,17 @@
       <c r="D36">
         <v>0.41620000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <v>4145.1257712917641</v>
+      </c>
+      <c r="G36">
+        <v>0.53757107753842615</v>
+      </c>
+      <c r="H36">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1068,8 +1380,17 @@
       <c r="D37">
         <v>0.41620000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>4465.0725698333308</v>
+      </c>
+      <c r="G37">
+        <v>0.52884240006767558</v>
+      </c>
+      <c r="H37">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1082,8 +1403,17 @@
       <c r="D38">
         <v>0.41620000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>4786.744516809521</v>
+      </c>
+      <c r="G38">
+        <v>0.51963701441802479</v>
+      </c>
+      <c r="H38">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1096,8 +1426,17 @@
       <c r="D39">
         <v>0.41620000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>5111.4398476551041</v>
+      </c>
+      <c r="G39">
+        <v>0.50962873224070482</v>
+      </c>
+      <c r="H39">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1110,8 +1449,17 @@
       <c r="D40">
         <v>0.41620000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>5454.6429068395946</v>
+      </c>
+      <c r="G40">
+        <v>0.49949464087878953</v>
+      </c>
+      <c r="H40">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1124,8 +1472,17 @@
       <c r="D41">
         <v>0.41620000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>5772.4236467988212</v>
+      </c>
+      <c r="G41">
+        <v>0.4969660365749386</v>
+      </c>
+      <c r="H41">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>6598.8228875682235</v>
       </c>
@@ -1135,8 +1492,17 @@
       <c r="D42">
         <v>0.41620000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>6096.4996038655845</v>
+      </c>
+      <c r="G42">
+        <v>0.49109283989593644</v>
+      </c>
+      <c r="H42">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>6968.9460422608799</v>
       </c>
@@ -1146,1236 +1512,772 @@
       <c r="D43">
         <v>0.41620000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B44">
-        <v>1068.8656796375699</v>
-      </c>
-      <c r="C44">
-        <v>0.87582456635999661</v>
-      </c>
-      <c r="D44">
-        <v>0.29920000000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B45">
-        <v>1302.1775386598492</v>
-      </c>
-      <c r="C45">
-        <v>0.86027452009692007</v>
-      </c>
-      <c r="D45">
-        <v>0.29920000000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B46">
-        <v>1526.7943699806624</v>
-      </c>
-      <c r="C46">
-        <v>0.84622092080375544</v>
-      </c>
-      <c r="D46">
-        <v>0.29920000000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B47">
-        <v>1747.8446702585011</v>
-      </c>
-      <c r="C47">
-        <v>0.8338261164010744</v>
-      </c>
-      <c r="D47">
-        <v>0.29920000000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B48">
-        <v>1967.9428662896544</v>
-      </c>
-      <c r="C48">
-        <v>0.82041590776779172</v>
-      </c>
-      <c r="D48">
-        <v>0.29920000000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49">
-        <v>2190.112532371023</v>
-      </c>
-      <c r="C49">
-        <v>0.80669951865071909</v>
-      </c>
-      <c r="D49">
-        <v>0.29920000000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50">
-        <v>2407.1717145769535</v>
-      </c>
-      <c r="C50">
-        <v>0.79781688819599172</v>
-      </c>
-      <c r="D50">
-        <v>0.29920000000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51">
-        <v>2628.1679765056538</v>
-      </c>
-      <c r="C51">
-        <v>0.78700472898173701</v>
-      </c>
-      <c r="D51">
-        <v>0.29920000000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52">
-        <v>2886.4609923571147</v>
-      </c>
-      <c r="C52">
-        <v>0.77653052671149525</v>
-      </c>
-      <c r="D52">
-        <v>0.29920000000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53">
-        <v>3101.7960939001073</v>
-      </c>
-      <c r="C53">
-        <v>0.77102097233721034</v>
-      </c>
-      <c r="D53">
-        <v>0.29920000000000002</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54">
-        <v>3315.0211265721241</v>
-      </c>
-      <c r="C54">
-        <v>0.76156579545196035</v>
-      </c>
-      <c r="D54">
-        <v>0.29920000000000002</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55">
-        <v>3541.2127897820474</v>
-      </c>
-      <c r="C55">
-        <v>0.7509774916744445</v>
-      </c>
-      <c r="D55">
-        <v>0.29920000000000002</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56">
-        <v>3764.8131854881617</v>
-      </c>
-      <c r="C56">
-        <v>0.74160191376069273</v>
-      </c>
-      <c r="D56">
-        <v>0.29920000000000002</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57">
-        <v>3989.77740619628</v>
-      </c>
-      <c r="C57">
-        <v>0.73115079373733549</v>
-      </c>
-      <c r="D57">
-        <v>0.29920000000000002</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58">
-        <v>1407.7318228900219</v>
-      </c>
-      <c r="C58">
-        <v>0.68570265887934279</v>
-      </c>
-      <c r="D58">
-        <v>0.34939999999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59">
-        <v>1720.6917066878934</v>
-      </c>
-      <c r="C59">
-        <v>0.66825409211451303</v>
-      </c>
-      <c r="D59">
-        <v>0.34939999999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60">
-        <v>2036.4568660634598</v>
-      </c>
-      <c r="C60">
-        <v>0.65543302683370186</v>
-      </c>
-      <c r="D60">
-        <v>0.34939999999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61">
-        <v>2331.2551421521512</v>
-      </c>
-      <c r="C61">
-        <v>0.64552484260553811</v>
-      </c>
-      <c r="D61">
-        <v>0.34939999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62">
-        <v>2623.7337306076874</v>
-      </c>
-      <c r="C62">
-        <v>0.6334404047344705</v>
-      </c>
-      <c r="D62">
-        <v>0.34939999999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63">
-        <v>2919.9145405257395</v>
-      </c>
-      <c r="C63">
-        <v>0.62622663780006493</v>
-      </c>
-      <c r="D63">
-        <v>0.34939999999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64">
-        <v>3252.0133937555602</v>
-      </c>
-      <c r="C64">
-        <v>0.61787908629023369</v>
-      </c>
-      <c r="D64">
-        <v>0.34939999999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65">
-        <v>3545.5497597718149</v>
-      </c>
-      <c r="C65">
-        <v>0.60887024272211243</v>
-      </c>
-      <c r="D65">
-        <v>0.34939999999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66">
-        <v>3833.3178358736245</v>
-      </c>
-      <c r="C66">
-        <v>0.60131977720793761</v>
-      </c>
-      <c r="D66">
-        <v>0.34939999999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67">
-        <v>4122.0045082781335</v>
-      </c>
-      <c r="C67">
-        <v>0.59344527947575143</v>
-      </c>
-      <c r="D67">
-        <v>0.34939999999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68">
-        <v>4410.6571585974179</v>
-      </c>
-      <c r="C68">
-        <v>0.58609140270906845</v>
-      </c>
-      <c r="D68">
-        <v>0.34939999999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69">
-        <v>4706.6307430869065</v>
-      </c>
-      <c r="C69">
-        <v>0.57454329322564379</v>
-      </c>
-      <c r="D69">
-        <v>0.34939999999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B70">
-        <v>4963.7882211816059</v>
-      </c>
-      <c r="C70">
-        <v>0.57111089364068701</v>
-      </c>
-      <c r="D70">
-        <v>0.34939999999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B71">
-        <v>5264.9857422209598</v>
-      </c>
-      <c r="C71">
-        <v>0.56087374644144861</v>
-      </c>
-      <c r="D71">
-        <v>0.34939999999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B72">
-        <v>1953.8968184184394</v>
-      </c>
-      <c r="C72">
-        <v>0.62185388929089114</v>
-      </c>
-      <c r="D72">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73">
-        <v>2257.5719329410449</v>
-      </c>
-      <c r="C73">
-        <v>0.60823672513871652</v>
-      </c>
-      <c r="D73">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74">
-        <v>2564.9842858576803</v>
-      </c>
-      <c r="C74">
-        <v>0.59485269879474845</v>
-      </c>
-      <c r="D74">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75">
-        <v>2885.6659346452275</v>
-      </c>
-      <c r="C75">
-        <v>0.57878829040364632</v>
-      </c>
-      <c r="D75">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B76">
-        <v>3197.4593947428652</v>
-      </c>
-      <c r="C76">
-        <v>0.56691866309880534</v>
-      </c>
-      <c r="D76">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B77">
-        <v>3513.3120276280256</v>
-      </c>
-      <c r="C77">
-        <v>0.55683975044604561</v>
-      </c>
-      <c r="D77">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B78">
-        <v>3825.3679342421005</v>
-      </c>
-      <c r="C78">
-        <v>0.54754567313703617</v>
-      </c>
-      <c r="D78">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B79">
-        <v>4145.1257712917641</v>
-      </c>
-      <c r="C79">
-        <v>0.53757107753842615</v>
-      </c>
-      <c r="D79">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B80">
-        <v>4465.0725698333308</v>
-      </c>
-      <c r="C80">
-        <v>0.52884240006767558</v>
-      </c>
-      <c r="D80">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81">
-        <v>4786.744516809521</v>
-      </c>
-      <c r="C81">
-        <v>0.51963701441802479</v>
-      </c>
-      <c r="D81">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B82">
-        <v>5111.4398476551041</v>
-      </c>
-      <c r="C82">
-        <v>0.50962873224070482</v>
-      </c>
-      <c r="D82">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83">
-        <v>5454.6429068395946</v>
-      </c>
-      <c r="C83">
-        <v>0.49949464087878953</v>
-      </c>
-      <c r="D83">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84">
-        <v>5772.4236467988212</v>
-      </c>
-      <c r="C84">
-        <v>0.4969660365749386</v>
-      </c>
-      <c r="D84">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B85">
-        <v>6096.4996038655845</v>
-      </c>
-      <c r="C85">
-        <v>0.49109283989593644</v>
-      </c>
-      <c r="D85">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B86">
+      <c r="F43">
         <v>2141.5903352656219</v>
       </c>
-      <c r="C86">
+      <c r="G43">
         <v>0.55954495619372691</v>
       </c>
-      <c r="D86">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B87">
+      <c r="H43">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F44">
         <v>2496.6432854156697</v>
       </c>
-      <c r="C87">
+      <c r="G44">
         <v>0.54385403877935079</v>
       </c>
-      <c r="D87">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B88">
+      <c r="H44">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F45">
         <v>2864.6543156079233</v>
       </c>
-      <c r="C88">
+      <c r="G45">
         <v>0.52693494239587124</v>
       </c>
-      <c r="D88">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B89">
+      <c r="H45">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F46">
         <v>3234.304081666126</v>
       </c>
-      <c r="C89">
+      <c r="G46">
         <v>0.51226769152776963</v>
       </c>
-      <c r="D89">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B90">
+      <c r="H46">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F47">
         <v>3584.8651050007065</v>
       </c>
-      <c r="C90">
+      <c r="G47">
         <v>0.50124205720980253</v>
       </c>
-      <c r="D90">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B91">
+      <c r="H47">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F48">
         <v>3964.7015023206473</v>
       </c>
-      <c r="C91">
+      <c r="G48">
         <v>0.48571310375028676</v>
       </c>
-      <c r="D91">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B92">
+      <c r="H48">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F49">
         <v>4318.3804055332066</v>
       </c>
-      <c r="C92">
+      <c r="G49">
         <v>0.47609479341864336</v>
       </c>
-      <c r="D92">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B93">
+      <c r="H49">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F50">
         <v>4674.0016583826127</v>
       </c>
-      <c r="C93">
+      <c r="G50">
         <v>0.46696885997974735</v>
       </c>
-      <c r="D93">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B94">
+      <c r="H50">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F51">
         <v>5037.2872127048995</v>
       </c>
-      <c r="C94">
+      <c r="G51">
         <v>0.45723317431933536</v>
       </c>
-      <c r="D94">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B95">
+      <c r="H51">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F52">
         <v>5393.5234780645687</v>
       </c>
-      <c r="C95">
+      <c r="G52">
         <v>0.45120451132339667</v>
       </c>
-      <c r="D95">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B96">
+      <c r="H52">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F53">
         <v>5765.3530352983935</v>
       </c>
-      <c r="C96">
+      <c r="G53">
         <v>0.44240560428678088</v>
       </c>
-      <c r="D96">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B97">
+      <c r="H53">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F54">
         <v>6142.5775756918738</v>
       </c>
-      <c r="C97">
+      <c r="G54">
         <v>0.43573800244986083</v>
       </c>
-      <c r="D97">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B98">
+      <c r="H54">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F55">
         <v>6476.6033259656879</v>
       </c>
-      <c r="C98">
+      <c r="G55">
         <v>0.42868394758001344</v>
       </c>
-      <c r="D98">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B99">
+      <c r="H55">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F56">
         <v>6831.7730506430007</v>
       </c>
-      <c r="C99">
+      <c r="G56">
         <v>0.42382271184688741</v>
       </c>
-      <c r="D99">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B100">
+      <c r="H56">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F57">
         <v>1081.8486206034447</v>
       </c>
-      <c r="C100">
+      <c r="G57">
         <v>0.69582240103522719</v>
       </c>
-      <c r="D100">
+      <c r="H57">
         <v>0.36599999999999999</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B101">
+    <row r="58" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F58">
         <v>1317.1924313487164</v>
       </c>
-      <c r="C101">
+      <c r="G58">
         <v>0.67438709471971481</v>
       </c>
-      <c r="D101">
+      <c r="H58">
         <v>0.36599999999999999</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B102">
+    <row r="59" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F59">
         <v>1545.9005119612536</v>
       </c>
-      <c r="C102">
+      <c r="G59">
         <v>0.65968931959758947</v>
       </c>
-      <c r="D102">
+      <c r="H59">
         <v>0.36599999999999999</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B103">
+    <row r="60" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F60">
         <v>1776.8986274761098</v>
       </c>
-      <c r="C103">
+      <c r="G60">
         <v>0.64367794711725745</v>
       </c>
-      <c r="D103">
+      <c r="H60">
         <v>0.36599999999999999</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B104">
+    <row r="61" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F61">
         <v>1999.1809385119795</v>
       </c>
-      <c r="C104">
+      <c r="G61">
         <v>0.62962969307720162</v>
       </c>
-      <c r="D104">
+      <c r="H61">
         <v>0.36599999999999999</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B105">
+    <row r="62" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F62">
         <v>2223.4627576342064</v>
       </c>
-      <c r="C105">
+      <c r="G62">
         <v>0.61677212963070194</v>
       </c>
-      <c r="D105">
+      <c r="H62">
         <v>0.36599999999999999</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B106">
+    <row r="63" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F63">
         <v>2453.3817735469052</v>
       </c>
-      <c r="C106">
+      <c r="G63">
         <v>0.60654343943795186</v>
       </c>
-      <c r="D106">
+      <c r="H63">
         <v>0.36599999999999999</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B107">
+    <row r="64" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F64">
         <v>2712.976028519</v>
       </c>
-      <c r="C107">
+      <c r="G64">
         <v>0.59549582625576203</v>
       </c>
-      <c r="D107">
+      <c r="H64">
         <v>0.36599999999999999</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B108">
+    <row r="65" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F65">
         <v>2931.2349093640132</v>
       </c>
-      <c r="C108">
+      <c r="G65">
         <v>0.58664136173384795</v>
       </c>
-      <c r="D108">
+      <c r="H65">
         <v>0.36599999999999999</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B109">
+    <row r="66" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F66">
         <v>3148.2120542562102</v>
       </c>
-      <c r="C109">
+      <c r="G66">
         <v>0.58004103822159037</v>
       </c>
-      <c r="D109">
+      <c r="H66">
         <v>0.36599999999999999</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B110">
+    <row r="67" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F67">
         <v>3373.2555907446681</v>
       </c>
-      <c r="C110">
+      <c r="G67">
         <v>0.57002875503202111</v>
       </c>
-      <c r="D110">
+      <c r="H67">
         <v>0.36599999999999999</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B111">
+    <row r="68" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F68">
         <v>3599.3513714153464</v>
       </c>
-      <c r="C111">
+      <c r="G68">
         <v>0.55579508111971754</v>
       </c>
-      <c r="D111">
+      <c r="H68">
         <v>0.36599999999999999</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B112">
+    <row r="69" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F69">
         <v>3831.7215547501442</v>
       </c>
-      <c r="C112">
+      <c r="G69">
         <v>0.54473873191078903</v>
       </c>
-      <c r="D112">
+      <c r="H69">
         <v>0.36599999999999999</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B113">
+    <row r="70" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F70">
         <v>4054.0136313932753</v>
       </c>
-      <c r="C113">
+      <c r="G70">
         <v>0.53643048072458122</v>
       </c>
-      <c r="D113">
+      <c r="H70">
         <v>0.36599999999999999</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B114">
+    <row r="71" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F71">
         <v>1384.2676466608452</v>
       </c>
-      <c r="C114">
+      <c r="G71">
         <v>0.59221665376153432</v>
       </c>
-      <c r="D114">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B115">
+      <c r="H71">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F72">
         <v>1687.0359226657638</v>
       </c>
-      <c r="C115">
+      <c r="G72">
         <v>0.56796453442381589</v>
       </c>
-      <c r="D115">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B116">
+      <c r="H72">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F73">
         <v>1982.848245504561</v>
       </c>
-      <c r="C116">
+      <c r="G73">
         <v>0.55058957119263807</v>
       </c>
-      <c r="D116">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B117">
+      <c r="H73">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F74">
         <v>2278.4417899800983</v>
       </c>
-      <c r="C117">
+      <c r="G74">
         <v>0.53364285167699388</v>
       </c>
-      <c r="D117">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B118">
+      <c r="H74">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F75">
         <v>2563.1653464618703</v>
       </c>
-      <c r="C118">
+      <c r="G75">
         <v>0.52019342053678419</v>
       </c>
-      <c r="D118">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B119">
+      <c r="H75">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F76">
         <v>2852.1745612924433</v>
       </c>
-      <c r="C119">
+      <c r="G76">
         <v>0.50877833405903861</v>
       </c>
-      <c r="D119">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B120">
+      <c r="H76">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F77">
         <v>3153.2285739578438</v>
       </c>
-      <c r="C120">
+      <c r="G77">
         <v>0.5010213689355969</v>
       </c>
-      <c r="D120">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B121">
+      <c r="H77">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F78">
         <v>3464.0167253063819</v>
       </c>
-      <c r="C121">
+      <c r="G78">
         <v>0.49150313854072264</v>
       </c>
-      <c r="D121">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B122">
+      <c r="H78">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F79">
         <v>3746.6663827830057</v>
       </c>
-      <c r="C122">
+      <c r="G79">
         <v>0.48276719440907151</v>
       </c>
-      <c r="D122">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B123">
+      <c r="H79">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F80">
         <v>4031.8664565217146</v>
       </c>
-      <c r="C123">
+      <c r="G80">
         <v>0.47316213114695449</v>
       </c>
-      <c r="D123">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B124">
+      <c r="H80">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F81">
         <v>4328.3021478476385</v>
       </c>
-      <c r="C124">
+      <c r="G81">
         <v>0.46304613779772757</v>
       </c>
-      <c r="D124">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B125">
+      <c r="H81">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F82">
         <v>4613.7120090579674</v>
       </c>
-      <c r="C125">
+      <c r="G82">
         <v>0.45234390776917993</v>
       </c>
-      <c r="D125">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B126">
+      <c r="H82">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F83">
         <v>4896.409617956705</v>
       </c>
-      <c r="C126">
+      <c r="G83">
         <v>0.44305712059334951</v>
       </c>
-      <c r="D126">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B127">
+      <c r="H83">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F84">
         <v>5180.4169000710936</v>
       </c>
-      <c r="C127">
+      <c r="G84">
         <v>0.4370054647362957</v>
       </c>
-      <c r="D127">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B128">
+      <c r="H84">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F85">
         <v>1966.2782952771413</v>
       </c>
-      <c r="C128">
+      <c r="G85">
         <v>0.55467947899567072</v>
       </c>
-      <c r="D128">
+      <c r="H85">
         <v>0.41970000000000002</v>
       </c>
     </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B129">
+    <row r="86" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F86">
         <v>2262.648164067075</v>
       </c>
-      <c r="C129">
+      <c r="G86">
         <v>0.54405905317221526</v>
       </c>
-      <c r="D129">
+      <c r="H86">
         <v>0.41970000000000002</v>
       </c>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B130">
+    <row r="87" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F87">
         <v>2572.0740042005195</v>
       </c>
-      <c r="C130">
+      <c r="G87">
         <v>0.52999574193795862</v>
       </c>
-      <c r="D130">
+      <c r="H87">
         <v>0.41970000000000002</v>
       </c>
     </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B131">
+    <row r="88" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F88">
         <v>2888.1843927486207</v>
       </c>
-      <c r="C131">
+      <c r="G88">
         <v>0.51505817746950311</v>
       </c>
-      <c r="D131">
+      <c r="H88">
         <v>0.41970000000000002</v>
       </c>
     </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B132">
+    <row r="89" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F89">
         <v>3188.4479088839616</v>
       </c>
-      <c r="C132">
+      <c r="G89">
         <v>0.5065823577046995</v>
       </c>
-      <c r="D132">
+      <c r="H89">
         <v>0.41970000000000002</v>
       </c>
     </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B133">
+    <row r="90" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F90">
         <v>3500.8892835873226</v>
       </c>
-      <c r="C133">
+      <c r="G90">
         <v>0.49638808545844326</v>
       </c>
-      <c r="D133">
+      <c r="H90">
         <v>0.41970000000000002</v>
       </c>
     </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B134">
+    <row r="91" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F91">
         <v>3816.928197839748</v>
       </c>
-      <c r="C134">
+      <c r="G91">
         <v>0.47618572154254735</v>
       </c>
-      <c r="D134">
+      <c r="H91">
         <v>0.41970000000000002</v>
       </c>
     </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B135">
+    <row r="92" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F92">
         <v>4021.3378763976798</v>
       </c>
-      <c r="C135">
+      <c r="G92">
         <v>0.47396215200875025</v>
       </c>
-      <c r="D135">
+      <c r="H92">
         <v>0.41970000000000002</v>
       </c>
     </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B136">
+    <row r="93" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F93">
         <v>4450.6431280694042</v>
       </c>
-      <c r="C136">
+      <c r="G93">
         <v>0.45415570436883845</v>
       </c>
-      <c r="D136">
+      <c r="H93">
         <v>0.41970000000000002</v>
       </c>
     </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B137">
+    <row r="94" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F94">
         <v>4767.4546454227093</v>
       </c>
-      <c r="C137">
+      <c r="G94">
         <v>0.44372283346166674</v>
       </c>
-      <c r="D137">
+      <c r="H94">
         <v>0.41970000000000002</v>
       </c>
     </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B138">
+    <row r="95" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F95">
         <v>5095.6067510232906</v>
       </c>
-      <c r="C138">
+      <c r="G95">
         <v>0.43234154658868795</v>
       </c>
-      <c r="D138">
+      <c r="H95">
         <v>0.41970000000000002</v>
       </c>
     </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B139">
+    <row r="96" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F96">
         <v>5431.1002878511763</v>
       </c>
-      <c r="C139">
+      <c r="G96">
         <v>0.42162991186507964</v>
       </c>
-      <c r="D139">
+      <c r="H96">
         <v>0.41970000000000002</v>
       </c>
     </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B140">
+    <row r="97" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F97">
         <v>5751.7271711784297</v>
       </c>
-      <c r="C140">
+      <c r="G97">
         <v>0.41302653151363045</v>
       </c>
-      <c r="D140">
+      <c r="H97">
         <v>0.41970000000000002</v>
       </c>
     </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B141">
+    <row r="98" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F98">
         <v>6076.9011811258406</v>
       </c>
-      <c r="C141">
+      <c r="G98">
         <v>0.40475012545601829</v>
       </c>
-      <c r="D141">
+      <c r="H98">
         <v>0.41970000000000002</v>
       </c>
     </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B142">
+    <row r="99" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F99">
         <v>1782.279216224799</v>
       </c>
-      <c r="C142">
+      <c r="G99">
         <v>0.56259739752591464</v>
       </c>
-      <c r="D142">
+      <c r="H99">
         <v>0.43309999999999998</v>
       </c>
     </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B143">
+    <row r="100" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F100">
         <v>2171.6069075924634</v>
       </c>
-      <c r="C143">
+      <c r="G100">
         <v>0.53247203522982089</v>
       </c>
-      <c r="D143">
+      <c r="H100">
         <v>0.43309999999999998</v>
       </c>
     </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B144">
+    <row r="101" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F101">
         <v>2552.3911070014738</v>
       </c>
-      <c r="C144">
+      <c r="G101">
         <v>0.51024244877140823</v>
       </c>
-      <c r="D144">
+      <c r="H101">
         <v>0.43309999999999998</v>
       </c>
     </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B145">
+    <row r="102" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F102">
         <v>2937.8017598684519</v>
       </c>
-      <c r="C145">
+      <c r="G102">
         <v>0.48933265570617623</v>
       </c>
-      <c r="D145">
+      <c r="H102">
         <v>0.43309999999999998</v>
       </c>
     </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B146">
+    <row r="103" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F103">
         <v>3307.7921725618367</v>
       </c>
-      <c r="C146">
+      <c r="G103">
         <v>0.47380979623259978</v>
       </c>
-      <c r="D146">
+      <c r="H103">
         <v>0.43309999999999998</v>
       </c>
     </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B147">
+    <row r="104" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F104">
         <v>3680.9978369164519</v>
       </c>
-      <c r="C147">
+      <c r="G104">
         <v>0.46174525930464705</v>
       </c>
-      <c r="D147">
+      <c r="H104">
         <v>0.43309999999999998</v>
       </c>
     </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B148">
+    <row r="105" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F105">
         <v>4102.9281038477711</v>
       </c>
-      <c r="C148">
+      <c r="G105">
         <v>0.44940587494097672</v>
       </c>
-      <c r="D148">
+      <c r="H105">
         <v>0.43309999999999998</v>
       </c>
     </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B149">
+    <row r="106" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F106">
         <v>4490.9056183612556</v>
       </c>
-      <c r="C149">
+      <c r="G106">
         <v>0.44036422525935165</v>
       </c>
-      <c r="D149">
+      <c r="H106">
         <v>0.43309999999999998</v>
       </c>
     </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B150">
+    <row r="107" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F107">
         <v>4857.4977045657333</v>
       </c>
-      <c r="C150">
+      <c r="G107">
         <v>0.43288220741601707</v>
       </c>
-      <c r="D150">
+      <c r="H107">
         <v>0.43309999999999998</v>
       </c>
     </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B151">
+    <row r="108" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F108">
         <v>5241.6954866992955</v>
       </c>
-      <c r="C151">
+      <c r="G108">
         <v>0.42325108122609173</v>
       </c>
-      <c r="D151">
+      <c r="H108">
         <v>0.43309999999999998</v>
       </c>
     </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B152">
+    <row r="109" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F109">
         <v>5624.1235454985645</v>
       </c>
-      <c r="C152">
+      <c r="G109">
         <v>0.41462752595281693</v>
       </c>
-      <c r="D152">
+      <c r="H109">
         <v>0.43309999999999998</v>
       </c>
     </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B153">
+    <row r="110" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F110">
         <v>5998.2674683450286</v>
       </c>
-      <c r="C153">
+      <c r="G110">
         <v>0.40503385031667233</v>
       </c>
-      <c r="D153">
+      <c r="H110">
         <v>0.43309999999999998</v>
       </c>
     </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B154">
+    <row r="111" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F111">
         <v>6401.451635733175</v>
       </c>
-      <c r="C154">
+      <c r="G111">
         <v>0.3979543942022144</v>
       </c>
-      <c r="D154">
+      <c r="H111">
         <v>0.43309999999999998</v>
       </c>
     </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B155">
+    <row r="112" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F112">
         <v>6770.0155903941441</v>
       </c>
-      <c r="C155">
+      <c r="G112">
         <v>0.39043732594249264</v>
       </c>
-      <c r="D155">
+      <c r="H112">
         <v>0.43309999999999998</v>
       </c>
     </row>
@@ -2385,16 +2287,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2405,7 +2307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1026.1991877189132</v>
       </c>
@@ -2416,7 +2318,7 @@
         <v>0.33260000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1408.1744455999012</v>
       </c>
@@ -2427,7 +2329,7 @@
         <v>0.33260000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1799.162461783832</v>
       </c>
@@ -2438,7 +2340,7 @@
         <v>0.33260000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2197.3054532221881</v>
       </c>
@@ -2449,7 +2351,7 @@
         <v>0.33260000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2588.2432590534563</v>
       </c>
@@ -2460,7 +2362,7 @@
         <v>0.33260000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2978.1768578314723</v>
       </c>
@@ -2471,7 +2373,7 @@
         <v>0.33260000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3389.8264341360768</v>
       </c>
@@ -2482,7 +2384,7 @@
         <v>0.33260000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3799.9948050371336</v>
       </c>
@@ -2493,7 +2395,7 @@
         <v>0.33260000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>4202.1295195121693</v>
       </c>
@@ -2504,7 +2406,7 @@
         <v>0.33260000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>4449.3652960229783</v>
       </c>
@@ -2521,16 +2423,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2541,7 +2443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1362.29943354895</v>
       </c>
@@ -2552,7 +2454,7 @@
         <v>0.3745</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1822.7993091848477</v>
       </c>
@@ -2563,7 +2465,7 @@
         <v>0.3745</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2317.4328619029566</v>
       </c>
@@ -2574,7 +2476,7 @@
         <v>0.3745</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2856.8668657914668</v>
       </c>
@@ -2585,7 +2487,7 @@
         <v>0.3745</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3334.7383449424183</v>
       </c>
@@ -2596,7 +2498,7 @@
         <v>0.3745</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3846.1339712276845</v>
       </c>
@@ -2607,7 +2509,7 @@
         <v>0.3745</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4389.2251548035747</v>
       </c>
@@ -2618,7 +2520,7 @@
         <v>0.3745</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4911.5923201509795</v>
       </c>
@@ -2629,7 +2531,7 @@
         <v>0.3745</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>5419.0260017749169</v>
       </c>
@@ -2640,7 +2542,7 @@
         <v>0.3745</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>5763.7151873104567</v>
       </c>
@@ -2657,16 +2559,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2677,7 +2579,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1529.6253668182446</v>
       </c>
@@ -2688,7 +2590,7 @@
         <v>0.39960000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2100.9935437384052</v>
       </c>
@@ -2699,7 +2601,7 @@
         <v>0.39960000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2682.3615258068362</v>
       </c>
@@ -2710,7 +2612,7 @@
         <v>0.39960000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3253.3848818598149</v>
       </c>
@@ -2721,7 +2623,7 @@
         <v>0.39960000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3828.5460883189744</v>
       </c>
@@ -2732,7 +2634,7 @@
         <v>0.39960000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4428.5343972152195</v>
       </c>
@@ -2743,7 +2645,7 @@
         <v>0.39960000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5036.7984069238273</v>
       </c>
@@ -2754,7 +2656,7 @@
         <v>0.39960000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>5634.3729697498011</v>
       </c>
@@ -2765,7 +2667,7 @@
         <v>0.39960000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>6199.879191927871</v>
       </c>
@@ -2776,7 +2678,7 @@
         <v>0.39960000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>6615.3883368818806</v>
       </c>
@@ -2793,16 +2695,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -2813,7 +2715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1726.8588402947191</v>
       </c>
@@ -2824,7 +2726,7 @@
         <v>0.41620000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2392.7239015948012</v>
       </c>
@@ -2835,7 +2737,7 @@
         <v>0.41620000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3037.0224831766627</v>
       </c>
@@ -2846,7 +2748,7 @@
         <v>0.41620000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3668.6122463531433</v>
       </c>
@@ -2857,7 +2759,7 @@
         <v>0.41620000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4332.5517291069564</v>
       </c>
@@ -2868,7 +2770,7 @@
         <v>0.41620000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>4998.4167904070382</v>
       </c>
@@ -2879,7 +2781,7 @@
         <v>0.41620000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>5642.7153719888993</v>
       </c>
@@ -2890,7 +2792,7 @@
         <v>0.41620000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>6323.9850616591393</v>
       </c>
@@ -2901,7 +2803,7 @@
         <v>0.41620000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>6998.7077842720628</v>
       </c>
@@ -2912,7 +2814,7 @@
         <v>0.41620000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>7425.8011058346956</v>
       </c>
@@ -2929,16 +2831,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -2949,7 +2851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2019.7302130456737</v>
       </c>
@@ -2960,7 +2862,7 @@
         <v>0.43309999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2754.7891730760771</v>
       </c>
@@ -2971,7 +2873,7 @@
         <v>0.43309999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3526.0413304397084</v>
       </c>
@@ -2982,7 +2884,7 @@
         <v>0.43309999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4305.8535936027747</v>
       </c>
@@ -2993,7 +2895,7 @@
         <v>0.43309999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5057.4175076277097</v>
       </c>
@@ -3004,7 +2906,7 @@
         <v>0.43309999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5834.7553652081278</v>
       </c>
@@ -3015,7 +2917,7 @@
         <v>0.43309999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6608.6691804687716</v>
       </c>
@@ -3026,7 +2928,7 @@
         <v>0.43309999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7388.1336893337311</v>
       </c>
@@ -3037,7 +2939,7 @@
         <v>0.43309999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8172.2795060577637</v>
       </c>
@@ -3048,7 +2950,7 @@
         <v>0.43309999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>8678.0212568205334</v>
       </c>

--- a/f_factor/dP_f_Agulhas/fxReynoldsV3.xlsx
+++ b/f_factor/dP_f_Agulhas/fxReynoldsV3.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\GitHub\Artificial-Neural-Network\f_factor\dP_f_Agulhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DE02E7-2CDD-45C2-AD7B-31FF1C9BE169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6DC70B-B176-4672-B8D3-01334F5C58D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14710" yWindow="1900" windowWidth="19030" windowHeight="18410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="cs6" sheetId="2" r:id="rId2"/>
-    <sheet name="cs8" sheetId="3" r:id="rId3"/>
-    <sheet name="cs10" sheetId="4" r:id="rId4"/>
-    <sheet name="cs12" sheetId="5" r:id="rId5"/>
-    <sheet name="cs15" sheetId="6" r:id="rId6"/>
+    <sheet name="Planilha1" sheetId="7" r:id="rId2"/>
+    <sheet name="cs6" sheetId="2" r:id="rId3"/>
+    <sheet name="cs8" sheetId="3" r:id="rId4"/>
+    <sheet name="cs10" sheetId="4" r:id="rId5"/>
+    <sheet name="cs12" sheetId="5" r:id="rId6"/>
+    <sheet name="cs15" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -94,6 +95,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,11 +147,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,13 +455,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H112"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
@@ -468,15 +477,6 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1">
-        <v>1068.8656796375699</v>
-      </c>
-      <c r="G1">
-        <v>0.87582456635999661</v>
-      </c>
-      <c r="H1">
-        <v>0.29920000000000002</v>
-      </c>
       <c r="J1" t="s">
         <v>18</v>
       </c>
@@ -488,23 +488,14 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>1096.4936814466009</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0.80024139272919437</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>0.33260000000000001</v>
-      </c>
-      <c r="F2">
-        <v>1302.1775386598492</v>
-      </c>
-      <c r="G2">
-        <v>0.86027452009692007</v>
-      </c>
-      <c r="H2">
-        <v>0.29920000000000002</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
@@ -517,23 +508,14 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1347.352134902017</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0.73348942790784233</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>0.33260000000000001</v>
-      </c>
-      <c r="F3">
-        <v>1526.7943699806624</v>
-      </c>
-      <c r="G3">
-        <v>0.84622092080375544</v>
-      </c>
-      <c r="H3">
-        <v>0.29920000000000002</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
@@ -546,23 +528,14 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>1580.4536971382979</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0.72327362634113168</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>0.33260000000000001</v>
-      </c>
-      <c r="F4">
-        <v>1747.8446702585011</v>
-      </c>
-      <c r="G4">
-        <v>0.8338261164010744</v>
-      </c>
-      <c r="H4">
-        <v>0.29920000000000002</v>
       </c>
       <c r="J4" t="s">
         <v>16</v>
@@ -575,23 +548,14 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>1815.0891856484172</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0.7143185851715016</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>0.33260000000000001</v>
-      </c>
-      <c r="F5">
-        <v>1967.9428662896544</v>
-      </c>
-      <c r="G5">
-        <v>0.82041590776779172</v>
-      </c>
-      <c r="H5">
-        <v>0.29920000000000002</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
@@ -604,46 +568,28 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>2046.7421792103808</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0.69923458716957554</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>0.33260000000000001</v>
-      </c>
-      <c r="F6">
-        <v>2190.112532371023</v>
-      </c>
-      <c r="G6">
-        <v>0.80669951865071909</v>
-      </c>
-      <c r="H6">
-        <v>0.29920000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>2278.9625497574302</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0.68530216711425473</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>0.33260000000000001</v>
-      </c>
-      <c r="F7">
-        <v>2407.1717145769535</v>
-      </c>
-      <c r="G7">
-        <v>0.79781688819599172</v>
-      </c>
-      <c r="H7">
-        <v>0.29920000000000002</v>
       </c>
       <c r="J7" t="s">
         <v>19</v>
@@ -656,23 +602,14 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>2515.2625114582929</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>0.67366753049674266</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>0.33260000000000001</v>
-      </c>
-      <c r="F8">
-        <v>2628.1679765056538</v>
-      </c>
-      <c r="G8">
-        <v>0.78700472898173701</v>
-      </c>
-      <c r="H8">
-        <v>0.29920000000000002</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
@@ -685,23 +622,14 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>2785.4795663827904</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>0.66274985262174613</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>0.33260000000000001</v>
-      </c>
-      <c r="F9">
-        <v>2886.4609923571147</v>
-      </c>
-      <c r="G9">
-        <v>0.77653052671149525</v>
-      </c>
-      <c r="H9">
-        <v>0.29920000000000002</v>
       </c>
       <c r="J9" t="s">
         <v>15</v>
@@ -714,23 +642,14 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>3024.3101298579004</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>0.65213044190085878</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>0.33260000000000001</v>
-      </c>
-      <c r="F10">
-        <v>3101.7960939001073</v>
-      </c>
-      <c r="G10">
-        <v>0.77102097233721034</v>
-      </c>
-      <c r="H10">
-        <v>0.29920000000000002</v>
       </c>
       <c r="J10" t="s">
         <v>16</v>
@@ -743,23 +662,14 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>3250.7412467429222</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>0.64194708146574031</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>0.33260000000000001</v>
-      </c>
-      <c r="F11">
-        <v>3315.0211265721241</v>
-      </c>
-      <c r="G11">
-        <v>0.76156579545196035</v>
-      </c>
-      <c r="H11">
-        <v>0.29920000000000002</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
@@ -769,46 +679,28 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>3475.5681428604234</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>0.63119802143857862</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>0.33260000000000001</v>
-      </c>
-      <c r="F12">
-        <v>3541.2127897820474</v>
-      </c>
-      <c r="G12">
-        <v>0.7509774916744445</v>
-      </c>
-      <c r="H12">
-        <v>0.29920000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>3716.0832636673399</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>0.6185726811478971</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>0.33260000000000001</v>
-      </c>
-      <c r="F13">
-        <v>3764.8131854881617</v>
-      </c>
-      <c r="G13">
-        <v>0.74160191376069273</v>
-      </c>
-      <c r="H13">
-        <v>0.29920000000000002</v>
       </c>
       <c r="J13" t="s">
         <v>20</v>
@@ -821,23 +713,14 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>3942.8357268094273</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>0.60733235129415708</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>0.33260000000000001</v>
-      </c>
-      <c r="F14">
-        <v>3989.77740619628</v>
-      </c>
-      <c r="G14">
-        <v>0.73115079373733549</v>
-      </c>
-      <c r="H14">
-        <v>0.29920000000000002</v>
       </c>
       <c r="J14" t="s">
         <v>14</v>
@@ -850,23 +733,14 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>4168.4233097697434</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>0.59801524385348059</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>0.33260000000000001</v>
-      </c>
-      <c r="F15">
-        <v>1407.7318228900219</v>
-      </c>
-      <c r="G15">
-        <v>0.68570265887934279</v>
-      </c>
-      <c r="H15">
-        <v>0.34939999999999999</v>
       </c>
       <c r="J15" t="s">
         <v>15</v>
@@ -879,23 +753,14 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>1416.337311079722</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>0.63564560484741928</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>0.3745</v>
-      </c>
-      <c r="F16">
-        <v>1720.6917066878934</v>
-      </c>
-      <c r="G16">
-        <v>0.66825409211451303</v>
-      </c>
-      <c r="H16">
-        <v>0.34939999999999999</v>
       </c>
       <c r="J16" t="s">
         <v>16</v>
@@ -908,23 +773,14 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>1720.1209418119224</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>0.61561582967208395</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>0.3745</v>
-      </c>
-      <c r="F17">
-        <v>2036.4568660634598</v>
-      </c>
-      <c r="G17">
-        <v>0.65543302683370186</v>
-      </c>
-      <c r="H17">
-        <v>0.34939999999999999</v>
       </c>
       <c r="J17" t="s">
         <v>17</v>
@@ -934,1351 +790,364 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>2021.1891166262369</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>0.59773451367019637</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>0.3745</v>
-      </c>
-      <c r="F18">
-        <v>2331.2551421521512</v>
-      </c>
-      <c r="G18">
-        <v>0.64552484260553811</v>
-      </c>
-      <c r="H18">
-        <v>0.34939999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>2325.2836076318649</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>0.58108009548877726</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>0.3745</v>
-      </c>
-      <c r="F19">
-        <v>2623.7337306076874</v>
-      </c>
-      <c r="G19">
-        <v>0.6334404047344705</v>
-      </c>
-      <c r="H19">
-        <v>0.34939999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>2621.9204997249717</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>0.56657139746924468</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>0.3745</v>
-      </c>
-      <c r="F20">
-        <v>2919.9145405257395</v>
-      </c>
-      <c r="G20">
-        <v>0.62622663780006493</v>
-      </c>
-      <c r="H20">
-        <v>0.34939999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>2913.9310595135485</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>0.55770711573118326</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>0.3745</v>
-      </c>
-      <c r="F21">
-        <v>3252.0133937555602</v>
-      </c>
-      <c r="G21">
-        <v>0.61787908629023369</v>
-      </c>
-      <c r="H21">
-        <v>0.34939999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>3252.6346609607435</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>0.54305091754903756</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>0.3745</v>
-      </c>
-      <c r="F22">
-        <v>3545.5497597718149</v>
-      </c>
-      <c r="G22">
-        <v>0.60887024272211243</v>
-      </c>
-      <c r="H22">
-        <v>0.34939999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>3576.2127767508841</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>0.53272618768852431</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>0.3745</v>
-      </c>
-      <c r="F23">
-        <v>3833.3178358736245</v>
-      </c>
-      <c r="G23">
-        <v>0.60131977720793761</v>
-      </c>
-      <c r="H23">
-        <v>0.34939999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>3860.3878290592461</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>0.52357866054493363</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>0.3745</v>
-      </c>
-      <c r="F24">
-        <v>4122.0045082781335</v>
-      </c>
-      <c r="G24">
-        <v>0.59344527947575143</v>
-      </c>
-      <c r="H24">
-        <v>0.34939999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>4145.4040326957074</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>0.51386797876462376</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>0.3745</v>
-      </c>
-      <c r="F25">
-        <v>4410.6571585974179</v>
-      </c>
-      <c r="G25">
-        <v>0.58609140270906845</v>
-      </c>
-      <c r="H25">
-        <v>0.34939999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>4433.4313142747469</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>0.50482592427558204</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>0.3745</v>
-      </c>
-      <c r="F26">
-        <v>4706.6307430869065</v>
-      </c>
-      <c r="G26">
-        <v>0.57454329322564379</v>
-      </c>
-      <c r="H26">
-        <v>0.34939999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>4733.6674807102163</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>0.49283468396267899</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>0.3745</v>
-      </c>
-      <c r="F27">
-        <v>4963.7882211816059</v>
-      </c>
-      <c r="G27">
-        <v>0.57111089364068701</v>
-      </c>
-      <c r="H27">
-        <v>0.34939999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>5023.9043083504102</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>0.48208276732176392</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>0.3745</v>
-      </c>
-      <c r="F28">
-        <v>5264.9857422209598</v>
-      </c>
-      <c r="G28">
-        <v>0.56087374644144861</v>
-      </c>
-      <c r="H28">
-        <v>0.34939999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>5310.0207135428245</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>0.4721748781766924</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>0.3745</v>
-      </c>
-      <c r="F29">
-        <v>1953.8968184184394</v>
-      </c>
-      <c r="G29">
-        <v>0.62185388929089114</v>
-      </c>
-      <c r="H29">
-        <v>0.3795</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>1885.3763173807381</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>0.54442025046644815</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>0.41620000000000001</v>
-      </c>
-      <c r="F30">
-        <v>2257.5719329410449</v>
-      </c>
-      <c r="G30">
-        <v>0.60823672513871652</v>
-      </c>
-      <c r="H30">
-        <v>0.3795</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>2272.0825545139087</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>0.51804418494415505</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>0.41620000000000001</v>
-      </c>
-      <c r="F31">
-        <v>2564.9842858576803</v>
-      </c>
-      <c r="G31">
-        <v>0.59485269879474845</v>
-      </c>
-      <c r="H31">
-        <v>0.3795</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>2657.8991743587026</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>0.49750269528836849</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>0.41620000000000001</v>
       </c>
-      <c r="F32">
-        <v>2885.6659346452275</v>
-      </c>
-      <c r="G32">
-        <v>0.57878829040364632</v>
-      </c>
-      <c r="H32">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>3057.7494106487102</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>0.4765090605503054</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>0.41620000000000001</v>
       </c>
-      <c r="F33">
-        <v>3197.4593947428652</v>
-      </c>
-      <c r="G33">
-        <v>0.56691866309880534</v>
-      </c>
-      <c r="H33">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>3442.9382918874162</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>0.46076624205715572</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>0.41620000000000001</v>
       </c>
-      <c r="F34">
-        <v>3513.3120276280256</v>
-      </c>
-      <c r="G34">
-        <v>0.55683975044604561</v>
-      </c>
-      <c r="H34">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>3830.1220725000653</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>0.44939931312140946</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>0.41620000000000001</v>
       </c>
-      <c r="F35">
-        <v>3825.3679342421005</v>
-      </c>
-      <c r="G35">
-        <v>0.54754567313703617</v>
-      </c>
-      <c r="H35">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>4283.507243533465</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>0.43767569448667865</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>0.41620000000000001</v>
       </c>
-      <c r="F36">
-        <v>4145.1257712917641</v>
-      </c>
-      <c r="G36">
-        <v>0.53757107753842615</v>
-      </c>
-      <c r="H36">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>4709.3681948264466</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>0.42563934296165284</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>0.41620000000000001</v>
       </c>
-      <c r="F37">
-        <v>4465.0725698333308</v>
-      </c>
-      <c r="G37">
-        <v>0.52884240006767558</v>
-      </c>
-      <c r="H37">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>5083.4349343819404</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>0.41975767183662277</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>0.41620000000000001</v>
       </c>
-      <c r="F38">
-        <v>4786.744516809521</v>
-      </c>
-      <c r="G38">
-        <v>0.51963701441802479</v>
-      </c>
-      <c r="H38">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>5461.6185608692822</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>0.41251570540292365</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>0.41620000000000001</v>
       </c>
-      <c r="F39">
-        <v>5111.4398476551041</v>
-      </c>
-      <c r="G39">
-        <v>0.50962873224070482</v>
-      </c>
-      <c r="H39">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>5843.9306277599044</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>0.40600855043868744</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>0.41620000000000001</v>
       </c>
-      <c r="F40">
-        <v>5454.6429068395946</v>
-      </c>
-      <c r="G40">
-        <v>0.49949464087878953</v>
-      </c>
-      <c r="H40">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>6227.6560693034498</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>0.40167452085663224</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>0.41620000000000001</v>
       </c>
-      <c r="F41">
-        <v>5772.4236467988212</v>
-      </c>
-      <c r="G41">
-        <v>0.4969660365749386</v>
-      </c>
-      <c r="H41">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B42">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
         <v>6598.8228875682235</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>0.40130369029566082</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>0.41620000000000001</v>
       </c>
-      <c r="F42">
-        <v>6096.4996038655845</v>
-      </c>
-      <c r="G42">
-        <v>0.49109283989593644</v>
-      </c>
-      <c r="H42">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B43">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
         <v>6968.9460422608799</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>0.39691014541645614</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="2">
         <v>0.41620000000000001</v>
-      </c>
-      <c r="F43">
-        <v>2141.5903352656219</v>
-      </c>
-      <c r="G43">
-        <v>0.55954495619372691</v>
-      </c>
-      <c r="H43">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F44">
-        <v>2496.6432854156697</v>
-      </c>
-      <c r="G44">
-        <v>0.54385403877935079</v>
-      </c>
-      <c r="H44">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F45">
-        <v>2864.6543156079233</v>
-      </c>
-      <c r="G45">
-        <v>0.52693494239587124</v>
-      </c>
-      <c r="H45">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F46">
-        <v>3234.304081666126</v>
-      </c>
-      <c r="G46">
-        <v>0.51226769152776963</v>
-      </c>
-      <c r="H46">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F47">
-        <v>3584.8651050007065</v>
-      </c>
-      <c r="G47">
-        <v>0.50124205720980253</v>
-      </c>
-      <c r="H47">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="F48">
-        <v>3964.7015023206473</v>
-      </c>
-      <c r="G48">
-        <v>0.48571310375028676</v>
-      </c>
-      <c r="H48">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F49">
-        <v>4318.3804055332066</v>
-      </c>
-      <c r="G49">
-        <v>0.47609479341864336</v>
-      </c>
-      <c r="H49">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F50">
-        <v>4674.0016583826127</v>
-      </c>
-      <c r="G50">
-        <v>0.46696885997974735</v>
-      </c>
-      <c r="H50">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F51">
-        <v>5037.2872127048995</v>
-      </c>
-      <c r="G51">
-        <v>0.45723317431933536</v>
-      </c>
-      <c r="H51">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F52">
-        <v>5393.5234780645687</v>
-      </c>
-      <c r="G52">
-        <v>0.45120451132339667</v>
-      </c>
-      <c r="H52">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F53">
-        <v>5765.3530352983935</v>
-      </c>
-      <c r="G53">
-        <v>0.44240560428678088</v>
-      </c>
-      <c r="H53">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F54">
-        <v>6142.5775756918738</v>
-      </c>
-      <c r="G54">
-        <v>0.43573800244986083</v>
-      </c>
-      <c r="H54">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F55">
-        <v>6476.6033259656879</v>
-      </c>
-      <c r="G55">
-        <v>0.42868394758001344</v>
-      </c>
-      <c r="H55">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F56">
-        <v>6831.7730506430007</v>
-      </c>
-      <c r="G56">
-        <v>0.42382271184688741</v>
-      </c>
-      <c r="H56">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F57">
-        <v>1081.8486206034447</v>
-      </c>
-      <c r="G57">
-        <v>0.69582240103522719</v>
-      </c>
-      <c r="H57">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F58">
-        <v>1317.1924313487164</v>
-      </c>
-      <c r="G58">
-        <v>0.67438709471971481</v>
-      </c>
-      <c r="H58">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F59">
-        <v>1545.9005119612536</v>
-      </c>
-      <c r="G59">
-        <v>0.65968931959758947</v>
-      </c>
-      <c r="H59">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F60">
-        <v>1776.8986274761098</v>
-      </c>
-      <c r="G60">
-        <v>0.64367794711725745</v>
-      </c>
-      <c r="H60">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F61">
-        <v>1999.1809385119795</v>
-      </c>
-      <c r="G61">
-        <v>0.62962969307720162</v>
-      </c>
-      <c r="H61">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F62">
-        <v>2223.4627576342064</v>
-      </c>
-      <c r="G62">
-        <v>0.61677212963070194</v>
-      </c>
-      <c r="H62">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F63">
-        <v>2453.3817735469052</v>
-      </c>
-      <c r="G63">
-        <v>0.60654343943795186</v>
-      </c>
-      <c r="H63">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F64">
-        <v>2712.976028519</v>
-      </c>
-      <c r="G64">
-        <v>0.59549582625576203</v>
-      </c>
-      <c r="H64">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F65">
-        <v>2931.2349093640132</v>
-      </c>
-      <c r="G65">
-        <v>0.58664136173384795</v>
-      </c>
-      <c r="H65">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F66">
-        <v>3148.2120542562102</v>
-      </c>
-      <c r="G66">
-        <v>0.58004103822159037</v>
-      </c>
-      <c r="H66">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F67">
-        <v>3373.2555907446681</v>
-      </c>
-      <c r="G67">
-        <v>0.57002875503202111</v>
-      </c>
-      <c r="H67">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F68">
-        <v>3599.3513714153464</v>
-      </c>
-      <c r="G68">
-        <v>0.55579508111971754</v>
-      </c>
-      <c r="H68">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F69">
-        <v>3831.7215547501442</v>
-      </c>
-      <c r="G69">
-        <v>0.54473873191078903</v>
-      </c>
-      <c r="H69">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F70">
-        <v>4054.0136313932753</v>
-      </c>
-      <c r="G70">
-        <v>0.53643048072458122</v>
-      </c>
-      <c r="H70">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F71">
-        <v>1384.2676466608452</v>
-      </c>
-      <c r="G71">
-        <v>0.59221665376153432</v>
-      </c>
-      <c r="H71">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F72">
-        <v>1687.0359226657638</v>
-      </c>
-      <c r="G72">
-        <v>0.56796453442381589</v>
-      </c>
-      <c r="H72">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F73">
-        <v>1982.848245504561</v>
-      </c>
-      <c r="G73">
-        <v>0.55058957119263807</v>
-      </c>
-      <c r="H73">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F74">
-        <v>2278.4417899800983</v>
-      </c>
-      <c r="G74">
-        <v>0.53364285167699388</v>
-      </c>
-      <c r="H74">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F75">
-        <v>2563.1653464618703</v>
-      </c>
-      <c r="G75">
-        <v>0.52019342053678419</v>
-      </c>
-      <c r="H75">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F76">
-        <v>2852.1745612924433</v>
-      </c>
-      <c r="G76">
-        <v>0.50877833405903861</v>
-      </c>
-      <c r="H76">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F77">
-        <v>3153.2285739578438</v>
-      </c>
-      <c r="G77">
-        <v>0.5010213689355969</v>
-      </c>
-      <c r="H77">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F78">
-        <v>3464.0167253063819</v>
-      </c>
-      <c r="G78">
-        <v>0.49150313854072264</v>
-      </c>
-      <c r="H78">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F79">
-        <v>3746.6663827830057</v>
-      </c>
-      <c r="G79">
-        <v>0.48276719440907151</v>
-      </c>
-      <c r="H79">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F80">
-        <v>4031.8664565217146</v>
-      </c>
-      <c r="G80">
-        <v>0.47316213114695449</v>
-      </c>
-      <c r="H80">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F81">
-        <v>4328.3021478476385</v>
-      </c>
-      <c r="G81">
-        <v>0.46304613779772757</v>
-      </c>
-      <c r="H81">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F82">
-        <v>4613.7120090579674</v>
-      </c>
-      <c r="G82">
-        <v>0.45234390776917993</v>
-      </c>
-      <c r="H82">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F83">
-        <v>4896.409617956705</v>
-      </c>
-      <c r="G83">
-        <v>0.44305712059334951</v>
-      </c>
-      <c r="H83">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F84">
-        <v>5180.4169000710936</v>
-      </c>
-      <c r="G84">
-        <v>0.4370054647362957</v>
-      </c>
-      <c r="H84">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F85">
-        <v>1966.2782952771413</v>
-      </c>
-      <c r="G85">
-        <v>0.55467947899567072</v>
-      </c>
-      <c r="H85">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="86" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F86">
-        <v>2262.648164067075</v>
-      </c>
-      <c r="G86">
-        <v>0.54405905317221526</v>
-      </c>
-      <c r="H86">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="87" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F87">
-        <v>2572.0740042005195</v>
-      </c>
-      <c r="G87">
-        <v>0.52999574193795862</v>
-      </c>
-      <c r="H87">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="88" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F88">
-        <v>2888.1843927486207</v>
-      </c>
-      <c r="G88">
-        <v>0.51505817746950311</v>
-      </c>
-      <c r="H88">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="89" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F89">
-        <v>3188.4479088839616</v>
-      </c>
-      <c r="G89">
-        <v>0.5065823577046995</v>
-      </c>
-      <c r="H89">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="90" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F90">
-        <v>3500.8892835873226</v>
-      </c>
-      <c r="G90">
-        <v>0.49638808545844326</v>
-      </c>
-      <c r="H90">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="91" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F91">
-        <v>3816.928197839748</v>
-      </c>
-      <c r="G91">
-        <v>0.47618572154254735</v>
-      </c>
-      <c r="H91">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="92" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F92">
-        <v>4021.3378763976798</v>
-      </c>
-      <c r="G92">
-        <v>0.47396215200875025</v>
-      </c>
-      <c r="H92">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="93" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F93">
-        <v>4450.6431280694042</v>
-      </c>
-      <c r="G93">
-        <v>0.45415570436883845</v>
-      </c>
-      <c r="H93">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="94" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F94">
-        <v>4767.4546454227093</v>
-      </c>
-      <c r="G94">
-        <v>0.44372283346166674</v>
-      </c>
-      <c r="H94">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="95" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F95">
-        <v>5095.6067510232906</v>
-      </c>
-      <c r="G95">
-        <v>0.43234154658868795</v>
-      </c>
-      <c r="H95">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="96" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F96">
-        <v>5431.1002878511763</v>
-      </c>
-      <c r="G96">
-        <v>0.42162991186507964</v>
-      </c>
-      <c r="H96">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="97" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F97">
-        <v>5751.7271711784297</v>
-      </c>
-      <c r="G97">
-        <v>0.41302653151363045</v>
-      </c>
-      <c r="H97">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="98" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F98">
-        <v>6076.9011811258406</v>
-      </c>
-      <c r="G98">
-        <v>0.40475012545601829</v>
-      </c>
-      <c r="H98">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="99" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F99">
-        <v>1782.279216224799</v>
-      </c>
-      <c r="G99">
-        <v>0.56259739752591464</v>
-      </c>
-      <c r="H99">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="100" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F100">
-        <v>2171.6069075924634</v>
-      </c>
-      <c r="G100">
-        <v>0.53247203522982089</v>
-      </c>
-      <c r="H100">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="101" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F101">
-        <v>2552.3911070014738</v>
-      </c>
-      <c r="G101">
-        <v>0.51024244877140823</v>
-      </c>
-      <c r="H101">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="102" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F102">
-        <v>2937.8017598684519</v>
-      </c>
-      <c r="G102">
-        <v>0.48933265570617623</v>
-      </c>
-      <c r="H102">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="103" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F103">
-        <v>3307.7921725618367</v>
-      </c>
-      <c r="G103">
-        <v>0.47380979623259978</v>
-      </c>
-      <c r="H103">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="104" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F104">
-        <v>3680.9978369164519</v>
-      </c>
-      <c r="G104">
-        <v>0.46174525930464705</v>
-      </c>
-      <c r="H104">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="105" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F105">
-        <v>4102.9281038477711</v>
-      </c>
-      <c r="G105">
-        <v>0.44940587494097672</v>
-      </c>
-      <c r="H105">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="106" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F106">
-        <v>4490.9056183612556</v>
-      </c>
-      <c r="G106">
-        <v>0.44036422525935165</v>
-      </c>
-      <c r="H106">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="107" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F107">
-        <v>4857.4977045657333</v>
-      </c>
-      <c r="G107">
-        <v>0.43288220741601707</v>
-      </c>
-      <c r="H107">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="108" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F108">
-        <v>5241.6954866992955</v>
-      </c>
-      <c r="G108">
-        <v>0.42325108122609173</v>
-      </c>
-      <c r="H108">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="109" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F109">
-        <v>5624.1235454985645</v>
-      </c>
-      <c r="G109">
-        <v>0.41462752595281693</v>
-      </c>
-      <c r="H109">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="110" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F110">
-        <v>5998.2674683450286</v>
-      </c>
-      <c r="G110">
-        <v>0.40503385031667233</v>
-      </c>
-      <c r="H110">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="111" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F111">
-        <v>6401.451635733175</v>
-      </c>
-      <c r="G111">
-        <v>0.3979543942022144</v>
-      </c>
-      <c r="H111">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="112" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F112">
-        <v>6770.0155903941441</v>
-      </c>
-      <c r="G112">
-        <v>0.39043732594249264</v>
-      </c>
-      <c r="H112">
-        <v>0.43309999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -2287,6 +1156,1253 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260C75BB-56D7-41F6-9CA0-85B181E05CF0}">
+  <dimension ref="A1:C112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C112"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>1068.8656796375699</v>
+      </c>
+      <c r="B1">
+        <v>0.87582456635999661</v>
+      </c>
+      <c r="C1">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1302.1775386598492</v>
+      </c>
+      <c r="B2">
+        <v>0.86027452009692007</v>
+      </c>
+      <c r="C2">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1526.7943699806624</v>
+      </c>
+      <c r="B3">
+        <v>0.84622092080375544</v>
+      </c>
+      <c r="C3">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1747.8446702585011</v>
+      </c>
+      <c r="B4">
+        <v>0.8338261164010744</v>
+      </c>
+      <c r="C4">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1967.9428662896544</v>
+      </c>
+      <c r="B5">
+        <v>0.82041590776779172</v>
+      </c>
+      <c r="C5">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2190.112532371023</v>
+      </c>
+      <c r="B6">
+        <v>0.80669951865071909</v>
+      </c>
+      <c r="C6">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2407.1717145769535</v>
+      </c>
+      <c r="B7">
+        <v>0.79781688819599172</v>
+      </c>
+      <c r="C7">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2628.1679765056538</v>
+      </c>
+      <c r="B8">
+        <v>0.78700472898173701</v>
+      </c>
+      <c r="C8">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2886.4609923571147</v>
+      </c>
+      <c r="B9">
+        <v>0.77653052671149525</v>
+      </c>
+      <c r="C9">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>3101.7960939001073</v>
+      </c>
+      <c r="B10">
+        <v>0.77102097233721034</v>
+      </c>
+      <c r="C10">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>3315.0211265721241</v>
+      </c>
+      <c r="B11">
+        <v>0.76156579545196035</v>
+      </c>
+      <c r="C11">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>3541.2127897820474</v>
+      </c>
+      <c r="B12">
+        <v>0.7509774916744445</v>
+      </c>
+      <c r="C12">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>3764.8131854881617</v>
+      </c>
+      <c r="B13">
+        <v>0.74160191376069273</v>
+      </c>
+      <c r="C13">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>3989.77740619628</v>
+      </c>
+      <c r="B14">
+        <v>0.73115079373733549</v>
+      </c>
+      <c r="C14">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1407.7318228900219</v>
+      </c>
+      <c r="B15">
+        <v>0.68570265887934279</v>
+      </c>
+      <c r="C15">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1720.6917066878934</v>
+      </c>
+      <c r="B16">
+        <v>0.66825409211451303</v>
+      </c>
+      <c r="C16">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>2036.4568660634598</v>
+      </c>
+      <c r="B17">
+        <v>0.65543302683370186</v>
+      </c>
+      <c r="C17">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>2331.2551421521512</v>
+      </c>
+      <c r="B18">
+        <v>0.64552484260553811</v>
+      </c>
+      <c r="C18">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>2623.7337306076874</v>
+      </c>
+      <c r="B19">
+        <v>0.6334404047344705</v>
+      </c>
+      <c r="C19">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>2919.9145405257395</v>
+      </c>
+      <c r="B20">
+        <v>0.62622663780006493</v>
+      </c>
+      <c r="C20">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>3252.0133937555602</v>
+      </c>
+      <c r="B21">
+        <v>0.61787908629023369</v>
+      </c>
+      <c r="C21">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>3545.5497597718149</v>
+      </c>
+      <c r="B22">
+        <v>0.60887024272211243</v>
+      </c>
+      <c r="C22">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>3833.3178358736245</v>
+      </c>
+      <c r="B23">
+        <v>0.60131977720793761</v>
+      </c>
+      <c r="C23">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>4122.0045082781335</v>
+      </c>
+      <c r="B24">
+        <v>0.59344527947575143</v>
+      </c>
+      <c r="C24">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>4410.6571585974179</v>
+      </c>
+      <c r="B25">
+        <v>0.58609140270906845</v>
+      </c>
+      <c r="C25">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>4706.6307430869065</v>
+      </c>
+      <c r="B26">
+        <v>0.57454329322564379</v>
+      </c>
+      <c r="C26">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>4963.7882211816059</v>
+      </c>
+      <c r="B27">
+        <v>0.57111089364068701</v>
+      </c>
+      <c r="C27">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>5264.9857422209598</v>
+      </c>
+      <c r="B28">
+        <v>0.56087374644144861</v>
+      </c>
+      <c r="C28">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>1953.8968184184394</v>
+      </c>
+      <c r="B29">
+        <v>0.62185388929089114</v>
+      </c>
+      <c r="C29">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>2257.5719329410449</v>
+      </c>
+      <c r="B30">
+        <v>0.60823672513871652</v>
+      </c>
+      <c r="C30">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>2564.9842858576803</v>
+      </c>
+      <c r="B31">
+        <v>0.59485269879474845</v>
+      </c>
+      <c r="C31">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>2885.6659346452275</v>
+      </c>
+      <c r="B32">
+        <v>0.57878829040364632</v>
+      </c>
+      <c r="C32">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>3197.4593947428652</v>
+      </c>
+      <c r="B33">
+        <v>0.56691866309880534</v>
+      </c>
+      <c r="C33">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>3513.3120276280256</v>
+      </c>
+      <c r="B34">
+        <v>0.55683975044604561</v>
+      </c>
+      <c r="C34">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>3825.3679342421005</v>
+      </c>
+      <c r="B35">
+        <v>0.54754567313703617</v>
+      </c>
+      <c r="C35">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>4145.1257712917641</v>
+      </c>
+      <c r="B36">
+        <v>0.53757107753842615</v>
+      </c>
+      <c r="C36">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>4465.0725698333308</v>
+      </c>
+      <c r="B37">
+        <v>0.52884240006767558</v>
+      </c>
+      <c r="C37">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>4786.744516809521</v>
+      </c>
+      <c r="B38">
+        <v>0.51963701441802479</v>
+      </c>
+      <c r="C38">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>5111.4398476551041</v>
+      </c>
+      <c r="B39">
+        <v>0.50962873224070482</v>
+      </c>
+      <c r="C39">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>5454.6429068395946</v>
+      </c>
+      <c r="B40">
+        <v>0.49949464087878953</v>
+      </c>
+      <c r="C40">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>5772.4236467988212</v>
+      </c>
+      <c r="B41">
+        <v>0.4969660365749386</v>
+      </c>
+      <c r="C41">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>6096.4996038655845</v>
+      </c>
+      <c r="B42">
+        <v>0.49109283989593644</v>
+      </c>
+      <c r="C42">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>2141.5903352656219</v>
+      </c>
+      <c r="B43">
+        <v>0.55954495619372691</v>
+      </c>
+      <c r="C43">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>2496.6432854156697</v>
+      </c>
+      <c r="B44">
+        <v>0.54385403877935079</v>
+      </c>
+      <c r="C44">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>2864.6543156079233</v>
+      </c>
+      <c r="B45">
+        <v>0.52693494239587124</v>
+      </c>
+      <c r="C45">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>3234.304081666126</v>
+      </c>
+      <c r="B46">
+        <v>0.51226769152776963</v>
+      </c>
+      <c r="C46">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>3584.8651050007065</v>
+      </c>
+      <c r="B47">
+        <v>0.50124205720980253</v>
+      </c>
+      <c r="C47">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>3964.7015023206473</v>
+      </c>
+      <c r="B48">
+        <v>0.48571310375028676</v>
+      </c>
+      <c r="C48">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>4318.3804055332066</v>
+      </c>
+      <c r="B49">
+        <v>0.47609479341864336</v>
+      </c>
+      <c r="C49">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>4674.0016583826127</v>
+      </c>
+      <c r="B50">
+        <v>0.46696885997974735</v>
+      </c>
+      <c r="C50">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>5037.2872127048995</v>
+      </c>
+      <c r="B51">
+        <v>0.45723317431933536</v>
+      </c>
+      <c r="C51">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>5393.5234780645687</v>
+      </c>
+      <c r="B52">
+        <v>0.45120451132339667</v>
+      </c>
+      <c r="C52">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>5765.3530352983935</v>
+      </c>
+      <c r="B53">
+        <v>0.44240560428678088</v>
+      </c>
+      <c r="C53">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>6142.5775756918738</v>
+      </c>
+      <c r="B54">
+        <v>0.43573800244986083</v>
+      </c>
+      <c r="C54">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>6476.6033259656879</v>
+      </c>
+      <c r="B55">
+        <v>0.42868394758001344</v>
+      </c>
+      <c r="C55">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>6831.7730506430007</v>
+      </c>
+      <c r="B56">
+        <v>0.42382271184688741</v>
+      </c>
+      <c r="C56">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>1081.8486206034447</v>
+      </c>
+      <c r="B57">
+        <v>0.69582240103522719</v>
+      </c>
+      <c r="C57">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>1317.1924313487164</v>
+      </c>
+      <c r="B58">
+        <v>0.67438709471971481</v>
+      </c>
+      <c r="C58">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>1545.9005119612536</v>
+      </c>
+      <c r="B59">
+        <v>0.65968931959758947</v>
+      </c>
+      <c r="C59">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>1776.8986274761098</v>
+      </c>
+      <c r="B60">
+        <v>0.64367794711725745</v>
+      </c>
+      <c r="C60">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>1999.1809385119795</v>
+      </c>
+      <c r="B61">
+        <v>0.62962969307720162</v>
+      </c>
+      <c r="C61">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>2223.4627576342064</v>
+      </c>
+      <c r="B62">
+        <v>0.61677212963070194</v>
+      </c>
+      <c r="C62">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>2453.3817735469052</v>
+      </c>
+      <c r="B63">
+        <v>0.60654343943795186</v>
+      </c>
+      <c r="C63">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>2712.976028519</v>
+      </c>
+      <c r="B64">
+        <v>0.59549582625576203</v>
+      </c>
+      <c r="C64">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>2931.2349093640132</v>
+      </c>
+      <c r="B65">
+        <v>0.58664136173384795</v>
+      </c>
+      <c r="C65">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>3148.2120542562102</v>
+      </c>
+      <c r="B66">
+        <v>0.58004103822159037</v>
+      </c>
+      <c r="C66">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>3373.2555907446681</v>
+      </c>
+      <c r="B67">
+        <v>0.57002875503202111</v>
+      </c>
+      <c r="C67">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>3599.3513714153464</v>
+      </c>
+      <c r="B68">
+        <v>0.55579508111971754</v>
+      </c>
+      <c r="C68">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>3831.7215547501442</v>
+      </c>
+      <c r="B69">
+        <v>0.54473873191078903</v>
+      </c>
+      <c r="C69">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>4054.0136313932753</v>
+      </c>
+      <c r="B70">
+        <v>0.53643048072458122</v>
+      </c>
+      <c r="C70">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>1384.2676466608452</v>
+      </c>
+      <c r="B71">
+        <v>0.59221665376153432</v>
+      </c>
+      <c r="C71">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>1687.0359226657638</v>
+      </c>
+      <c r="B72">
+        <v>0.56796453442381589</v>
+      </c>
+      <c r="C72">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>1982.848245504561</v>
+      </c>
+      <c r="B73">
+        <v>0.55058957119263807</v>
+      </c>
+      <c r="C73">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>2278.4417899800983</v>
+      </c>
+      <c r="B74">
+        <v>0.53364285167699388</v>
+      </c>
+      <c r="C74">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>2563.1653464618703</v>
+      </c>
+      <c r="B75">
+        <v>0.52019342053678419</v>
+      </c>
+      <c r="C75">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>2852.1745612924433</v>
+      </c>
+      <c r="B76">
+        <v>0.50877833405903861</v>
+      </c>
+      <c r="C76">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>3153.2285739578438</v>
+      </c>
+      <c r="B77">
+        <v>0.5010213689355969</v>
+      </c>
+      <c r="C77">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>3464.0167253063819</v>
+      </c>
+      <c r="B78">
+        <v>0.49150313854072264</v>
+      </c>
+      <c r="C78">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>3746.6663827830057</v>
+      </c>
+      <c r="B79">
+        <v>0.48276719440907151</v>
+      </c>
+      <c r="C79">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>4031.8664565217146</v>
+      </c>
+      <c r="B80">
+        <v>0.47316213114695449</v>
+      </c>
+      <c r="C80">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>4328.3021478476385</v>
+      </c>
+      <c r="B81">
+        <v>0.46304613779772757</v>
+      </c>
+      <c r="C81">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>4613.7120090579674</v>
+      </c>
+      <c r="B82">
+        <v>0.45234390776917993</v>
+      </c>
+      <c r="C82">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>4896.409617956705</v>
+      </c>
+      <c r="B83">
+        <v>0.44305712059334951</v>
+      </c>
+      <c r="C83">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>5180.4169000710936</v>
+      </c>
+      <c r="B84">
+        <v>0.4370054647362957</v>
+      </c>
+      <c r="C84">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>1966.2782952771413</v>
+      </c>
+      <c r="B85">
+        <v>0.55467947899567072</v>
+      </c>
+      <c r="C85">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>2262.648164067075</v>
+      </c>
+      <c r="B86">
+        <v>0.54405905317221526</v>
+      </c>
+      <c r="C86">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>2572.0740042005195</v>
+      </c>
+      <c r="B87">
+        <v>0.52999574193795862</v>
+      </c>
+      <c r="C87">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>2888.1843927486207</v>
+      </c>
+      <c r="B88">
+        <v>0.51505817746950311</v>
+      </c>
+      <c r="C88">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>3188.4479088839616</v>
+      </c>
+      <c r="B89">
+        <v>0.5065823577046995</v>
+      </c>
+      <c r="C89">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>3500.8892835873226</v>
+      </c>
+      <c r="B90">
+        <v>0.49638808545844326</v>
+      </c>
+      <c r="C90">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>3816.928197839748</v>
+      </c>
+      <c r="B91">
+        <v>0.47618572154254735</v>
+      </c>
+      <c r="C91">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>4021.3378763976798</v>
+      </c>
+      <c r="B92">
+        <v>0.47396215200875025</v>
+      </c>
+      <c r="C92">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>4450.6431280694042</v>
+      </c>
+      <c r="B93">
+        <v>0.45415570436883845</v>
+      </c>
+      <c r="C93">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>4767.4546454227093</v>
+      </c>
+      <c r="B94">
+        <v>0.44372283346166674</v>
+      </c>
+      <c r="C94">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>5095.6067510232906</v>
+      </c>
+      <c r="B95">
+        <v>0.43234154658868795</v>
+      </c>
+      <c r="C95">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>5431.1002878511763</v>
+      </c>
+      <c r="B96">
+        <v>0.42162991186507964</v>
+      </c>
+      <c r="C96">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>5751.7271711784297</v>
+      </c>
+      <c r="B97">
+        <v>0.41302653151363045</v>
+      </c>
+      <c r="C97">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>6076.9011811258406</v>
+      </c>
+      <c r="B98">
+        <v>0.40475012545601829</v>
+      </c>
+      <c r="C98">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>1782.279216224799</v>
+      </c>
+      <c r="B99">
+        <v>0.56259739752591464</v>
+      </c>
+      <c r="C99">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>2171.6069075924634</v>
+      </c>
+      <c r="B100">
+        <v>0.53247203522982089</v>
+      </c>
+      <c r="C100">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>2552.3911070014738</v>
+      </c>
+      <c r="B101">
+        <v>0.51024244877140823</v>
+      </c>
+      <c r="C101">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>2937.8017598684519</v>
+      </c>
+      <c r="B102">
+        <v>0.48933265570617623</v>
+      </c>
+      <c r="C102">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>3307.7921725618367</v>
+      </c>
+      <c r="B103">
+        <v>0.47380979623259978</v>
+      </c>
+      <c r="C103">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>3680.9978369164519</v>
+      </c>
+      <c r="B104">
+        <v>0.46174525930464705</v>
+      </c>
+      <c r="C104">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>4102.9281038477711</v>
+      </c>
+      <c r="B105">
+        <v>0.44940587494097672</v>
+      </c>
+      <c r="C105">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>4490.9056183612556</v>
+      </c>
+      <c r="B106">
+        <v>0.44036422525935165</v>
+      </c>
+      <c r="C106">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>4857.4977045657333</v>
+      </c>
+      <c r="B107">
+        <v>0.43288220741601707</v>
+      </c>
+      <c r="C107">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>5241.6954866992955</v>
+      </c>
+      <c r="B108">
+        <v>0.42325108122609173</v>
+      </c>
+      <c r="C108">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>5624.1235454985645</v>
+      </c>
+      <c r="B109">
+        <v>0.41462752595281693</v>
+      </c>
+      <c r="C109">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>5998.2674683450286</v>
+      </c>
+      <c r="B110">
+        <v>0.40503385031667233</v>
+      </c>
+      <c r="C110">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>6401.451635733175</v>
+      </c>
+      <c r="B111">
+        <v>0.3979543942022144</v>
+      </c>
+      <c r="C111">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>6770.0155903941441</v>
+      </c>
+      <c r="B112">
+        <v>0.39043732594249264</v>
+      </c>
+      <c r="C112">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -2422,7 +2538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -2558,7 +2674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -2694,7 +2810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -2830,7 +2946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>

--- a/f_factor/dP_f_Agulhas/fxReynoldsV3.xlsx
+++ b/f_factor/dP_f_Agulhas/fxReynoldsV3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\GitHub\Artificial-Neural-Network\f_factor\dP_f_Agulhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6DC70B-B176-4672-B8D3-01334F5C58D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C141E44D-7396-449C-8A7F-4F8E46234263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="18760" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -152,7 +152,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D43"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1150,6 +1150,1238 @@
         <v>0.41620000000000001</v>
       </c>
     </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>1068.8656796375699</v>
+      </c>
+      <c r="C44">
+        <v>0.87582456635999661</v>
+      </c>
+      <c r="D44">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>1302.1775386598492</v>
+      </c>
+      <c r="C45">
+        <v>0.86027452009692007</v>
+      </c>
+      <c r="D45">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>1526.7943699806624</v>
+      </c>
+      <c r="C46">
+        <v>0.84622092080375544</v>
+      </c>
+      <c r="D46">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>1747.8446702585011</v>
+      </c>
+      <c r="C47">
+        <v>0.8338261164010744</v>
+      </c>
+      <c r="D47">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>1967.9428662896544</v>
+      </c>
+      <c r="C48">
+        <v>0.82041590776779172</v>
+      </c>
+      <c r="D48">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>2190.112532371023</v>
+      </c>
+      <c r="C49">
+        <v>0.80669951865071909</v>
+      </c>
+      <c r="D49">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>2407.1717145769535</v>
+      </c>
+      <c r="C50">
+        <v>0.79781688819599172</v>
+      </c>
+      <c r="D50">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>2628.1679765056538</v>
+      </c>
+      <c r="C51">
+        <v>0.78700472898173701</v>
+      </c>
+      <c r="D51">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>2886.4609923571147</v>
+      </c>
+      <c r="C52">
+        <v>0.77653052671149525</v>
+      </c>
+      <c r="D52">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>3101.7960939001073</v>
+      </c>
+      <c r="C53">
+        <v>0.77102097233721034</v>
+      </c>
+      <c r="D53">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>3315.0211265721241</v>
+      </c>
+      <c r="C54">
+        <v>0.76156579545196035</v>
+      </c>
+      <c r="D54">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>3541.2127897820474</v>
+      </c>
+      <c r="C55">
+        <v>0.7509774916744445</v>
+      </c>
+      <c r="D55">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>3764.8131854881617</v>
+      </c>
+      <c r="C56">
+        <v>0.74160191376069273</v>
+      </c>
+      <c r="D56">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B57">
+        <v>3989.77740619628</v>
+      </c>
+      <c r="C57">
+        <v>0.73115079373733549</v>
+      </c>
+      <c r="D57">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <v>1407.7318228900219</v>
+      </c>
+      <c r="C58">
+        <v>0.68570265887934279</v>
+      </c>
+      <c r="D58">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <v>1720.6917066878934</v>
+      </c>
+      <c r="C59">
+        <v>0.66825409211451303</v>
+      </c>
+      <c r="D59">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B60">
+        <v>2036.4568660634598</v>
+      </c>
+      <c r="C60">
+        <v>0.65543302683370186</v>
+      </c>
+      <c r="D60">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B61">
+        <v>2331.2551421521512</v>
+      </c>
+      <c r="C61">
+        <v>0.64552484260553811</v>
+      </c>
+      <c r="D61">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <v>2623.7337306076874</v>
+      </c>
+      <c r="C62">
+        <v>0.6334404047344705</v>
+      </c>
+      <c r="D62">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B63">
+        <v>2919.9145405257395</v>
+      </c>
+      <c r="C63">
+        <v>0.62622663780006493</v>
+      </c>
+      <c r="D63">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>3252.0133937555602</v>
+      </c>
+      <c r="C64">
+        <v>0.61787908629023369</v>
+      </c>
+      <c r="D64">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>3545.5497597718149</v>
+      </c>
+      <c r="C65">
+        <v>0.60887024272211243</v>
+      </c>
+      <c r="D65">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B66">
+        <v>3833.3178358736245</v>
+      </c>
+      <c r="C66">
+        <v>0.60131977720793761</v>
+      </c>
+      <c r="D66">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B67">
+        <v>4122.0045082781335</v>
+      </c>
+      <c r="C67">
+        <v>0.59344527947575143</v>
+      </c>
+      <c r="D67">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B68">
+        <v>4410.6571585974179</v>
+      </c>
+      <c r="C68">
+        <v>0.58609140270906845</v>
+      </c>
+      <c r="D68">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B69">
+        <v>4706.6307430869065</v>
+      </c>
+      <c r="C69">
+        <v>0.57454329322564379</v>
+      </c>
+      <c r="D69">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B70">
+        <v>4963.7882211816059</v>
+      </c>
+      <c r="C70">
+        <v>0.57111089364068701</v>
+      </c>
+      <c r="D70">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B71">
+        <v>5264.9857422209598</v>
+      </c>
+      <c r="C71">
+        <v>0.56087374644144861</v>
+      </c>
+      <c r="D71">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B72">
+        <v>1953.8968184184394</v>
+      </c>
+      <c r="C72">
+        <v>0.62185388929089114</v>
+      </c>
+      <c r="D72">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B73">
+        <v>2257.5719329410449</v>
+      </c>
+      <c r="C73">
+        <v>0.60823672513871652</v>
+      </c>
+      <c r="D73">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>2564.9842858576803</v>
+      </c>
+      <c r="C74">
+        <v>0.59485269879474845</v>
+      </c>
+      <c r="D74">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B75">
+        <v>2885.6659346452275</v>
+      </c>
+      <c r="C75">
+        <v>0.57878829040364632</v>
+      </c>
+      <c r="D75">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B76">
+        <v>3197.4593947428652</v>
+      </c>
+      <c r="C76">
+        <v>0.56691866309880534</v>
+      </c>
+      <c r="D76">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <v>3513.3120276280256</v>
+      </c>
+      <c r="C77">
+        <v>0.55683975044604561</v>
+      </c>
+      <c r="D77">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B78">
+        <v>3825.3679342421005</v>
+      </c>
+      <c r="C78">
+        <v>0.54754567313703617</v>
+      </c>
+      <c r="D78">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B79">
+        <v>4145.1257712917641</v>
+      </c>
+      <c r="C79">
+        <v>0.53757107753842615</v>
+      </c>
+      <c r="D79">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B80">
+        <v>4465.0725698333308</v>
+      </c>
+      <c r="C80">
+        <v>0.52884240006767558</v>
+      </c>
+      <c r="D80">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B81">
+        <v>4786.744516809521</v>
+      </c>
+      <c r="C81">
+        <v>0.51963701441802479</v>
+      </c>
+      <c r="D81">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B82">
+        <v>5111.4398476551041</v>
+      </c>
+      <c r="C82">
+        <v>0.50962873224070482</v>
+      </c>
+      <c r="D82">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B83">
+        <v>5454.6429068395946</v>
+      </c>
+      <c r="C83">
+        <v>0.49949464087878953</v>
+      </c>
+      <c r="D83">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B84">
+        <v>5772.4236467988212</v>
+      </c>
+      <c r="C84">
+        <v>0.4969660365749386</v>
+      </c>
+      <c r="D84">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B85">
+        <v>6096.4996038655845</v>
+      </c>
+      <c r="C85">
+        <v>0.49109283989593644</v>
+      </c>
+      <c r="D85">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B86">
+        <v>2141.5903352656219</v>
+      </c>
+      <c r="C86">
+        <v>0.55954495619372691</v>
+      </c>
+      <c r="D86">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B87">
+        <v>2496.6432854156697</v>
+      </c>
+      <c r="C87">
+        <v>0.54385403877935079</v>
+      </c>
+      <c r="D87">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B88">
+        <v>2864.6543156079233</v>
+      </c>
+      <c r="C88">
+        <v>0.52693494239587124</v>
+      </c>
+      <c r="D88">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B89">
+        <v>3234.304081666126</v>
+      </c>
+      <c r="C89">
+        <v>0.51226769152776963</v>
+      </c>
+      <c r="D89">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B90">
+        <v>3584.8651050007065</v>
+      </c>
+      <c r="C90">
+        <v>0.50124205720980253</v>
+      </c>
+      <c r="D90">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B91">
+        <v>3964.7015023206473</v>
+      </c>
+      <c r="C91">
+        <v>0.48571310375028676</v>
+      </c>
+      <c r="D91">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B92">
+        <v>4318.3804055332066</v>
+      </c>
+      <c r="C92">
+        <v>0.47609479341864336</v>
+      </c>
+      <c r="D92">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B93">
+        <v>4674.0016583826127</v>
+      </c>
+      <c r="C93">
+        <v>0.46696885997974735</v>
+      </c>
+      <c r="D93">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B94">
+        <v>5037.2872127048995</v>
+      </c>
+      <c r="C94">
+        <v>0.45723317431933536</v>
+      </c>
+      <c r="D94">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B95">
+        <v>5393.5234780645687</v>
+      </c>
+      <c r="C95">
+        <v>0.45120451132339667</v>
+      </c>
+      <c r="D95">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B96">
+        <v>5765.3530352983935</v>
+      </c>
+      <c r="C96">
+        <v>0.44240560428678088</v>
+      </c>
+      <c r="D96">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B97">
+        <v>6142.5775756918738</v>
+      </c>
+      <c r="C97">
+        <v>0.43573800244986083</v>
+      </c>
+      <c r="D97">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B98">
+        <v>6476.6033259656879</v>
+      </c>
+      <c r="C98">
+        <v>0.42868394758001344</v>
+      </c>
+      <c r="D98">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B99">
+        <v>6831.7730506430007</v>
+      </c>
+      <c r="C99">
+        <v>0.42382271184688741</v>
+      </c>
+      <c r="D99">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B100">
+        <v>1081.8486206034447</v>
+      </c>
+      <c r="C100">
+        <v>0.69582240103522719</v>
+      </c>
+      <c r="D100">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B101">
+        <v>1317.1924313487164</v>
+      </c>
+      <c r="C101">
+        <v>0.67438709471971481</v>
+      </c>
+      <c r="D101">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B102">
+        <v>1545.9005119612536</v>
+      </c>
+      <c r="C102">
+        <v>0.65968931959758947</v>
+      </c>
+      <c r="D102">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B103">
+        <v>1776.8986274761098</v>
+      </c>
+      <c r="C103">
+        <v>0.64367794711725745</v>
+      </c>
+      <c r="D103">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B104">
+        <v>1999.1809385119795</v>
+      </c>
+      <c r="C104">
+        <v>0.62962969307720162</v>
+      </c>
+      <c r="D104">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B105">
+        <v>2223.4627576342064</v>
+      </c>
+      <c r="C105">
+        <v>0.61677212963070194</v>
+      </c>
+      <c r="D105">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B106">
+        <v>2453.3817735469052</v>
+      </c>
+      <c r="C106">
+        <v>0.60654343943795186</v>
+      </c>
+      <c r="D106">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B107">
+        <v>2712.976028519</v>
+      </c>
+      <c r="C107">
+        <v>0.59549582625576203</v>
+      </c>
+      <c r="D107">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B108">
+        <v>2931.2349093640132</v>
+      </c>
+      <c r="C108">
+        <v>0.58664136173384795</v>
+      </c>
+      <c r="D108">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B109">
+        <v>3148.2120542562102</v>
+      </c>
+      <c r="C109">
+        <v>0.58004103822159037</v>
+      </c>
+      <c r="D109">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B110">
+        <v>3373.2555907446681</v>
+      </c>
+      <c r="C110">
+        <v>0.57002875503202111</v>
+      </c>
+      <c r="D110">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B111">
+        <v>3599.3513714153464</v>
+      </c>
+      <c r="C111">
+        <v>0.55579508111971754</v>
+      </c>
+      <c r="D111">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B112">
+        <v>3831.7215547501442</v>
+      </c>
+      <c r="C112">
+        <v>0.54473873191078903</v>
+      </c>
+      <c r="D112">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B113">
+        <v>4054.0136313932753</v>
+      </c>
+      <c r="C113">
+        <v>0.53643048072458122</v>
+      </c>
+      <c r="D113">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B114">
+        <v>1384.2676466608452</v>
+      </c>
+      <c r="C114">
+        <v>0.59221665376153432</v>
+      </c>
+      <c r="D114">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B115">
+        <v>1687.0359226657638</v>
+      </c>
+      <c r="C115">
+        <v>0.56796453442381589</v>
+      </c>
+      <c r="D115">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B116">
+        <v>1982.848245504561</v>
+      </c>
+      <c r="C116">
+        <v>0.55058957119263807</v>
+      </c>
+      <c r="D116">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B117">
+        <v>2278.4417899800983</v>
+      </c>
+      <c r="C117">
+        <v>0.53364285167699388</v>
+      </c>
+      <c r="D117">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B118">
+        <v>2563.1653464618703</v>
+      </c>
+      <c r="C118">
+        <v>0.52019342053678419</v>
+      </c>
+      <c r="D118">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B119">
+        <v>2852.1745612924433</v>
+      </c>
+      <c r="C119">
+        <v>0.50877833405903861</v>
+      </c>
+      <c r="D119">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B120">
+        <v>3153.2285739578438</v>
+      </c>
+      <c r="C120">
+        <v>0.5010213689355969</v>
+      </c>
+      <c r="D120">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B121">
+        <v>3464.0167253063819</v>
+      </c>
+      <c r="C121">
+        <v>0.49150313854072264</v>
+      </c>
+      <c r="D121">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B122">
+        <v>3746.6663827830057</v>
+      </c>
+      <c r="C122">
+        <v>0.48276719440907151</v>
+      </c>
+      <c r="D122">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B123">
+        <v>4031.8664565217146</v>
+      </c>
+      <c r="C123">
+        <v>0.47316213114695449</v>
+      </c>
+      <c r="D123">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B124">
+        <v>4328.3021478476385</v>
+      </c>
+      <c r="C124">
+        <v>0.46304613779772757</v>
+      </c>
+      <c r="D124">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B125">
+        <v>4613.7120090579674</v>
+      </c>
+      <c r="C125">
+        <v>0.45234390776917993</v>
+      </c>
+      <c r="D125">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B126">
+        <v>4896.409617956705</v>
+      </c>
+      <c r="C126">
+        <v>0.44305712059334951</v>
+      </c>
+      <c r="D126">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B127">
+        <v>5180.4169000710936</v>
+      </c>
+      <c r="C127">
+        <v>0.4370054647362957</v>
+      </c>
+      <c r="D127">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B128">
+        <v>1966.2782952771413</v>
+      </c>
+      <c r="C128">
+        <v>0.55467947899567072</v>
+      </c>
+      <c r="D128">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B129">
+        <v>2262.648164067075</v>
+      </c>
+      <c r="C129">
+        <v>0.54405905317221526</v>
+      </c>
+      <c r="D129">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B130">
+        <v>2572.0740042005195</v>
+      </c>
+      <c r="C130">
+        <v>0.52999574193795862</v>
+      </c>
+      <c r="D130">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B131">
+        <v>2888.1843927486207</v>
+      </c>
+      <c r="C131">
+        <v>0.51505817746950311</v>
+      </c>
+      <c r="D131">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B132">
+        <v>3188.4479088839616</v>
+      </c>
+      <c r="C132">
+        <v>0.5065823577046995</v>
+      </c>
+      <c r="D132">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B133">
+        <v>3500.8892835873226</v>
+      </c>
+      <c r="C133">
+        <v>0.49638808545844326</v>
+      </c>
+      <c r="D133">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B134">
+        <v>3816.928197839748</v>
+      </c>
+      <c r="C134">
+        <v>0.47618572154254735</v>
+      </c>
+      <c r="D134">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B135">
+        <v>4021.3378763976798</v>
+      </c>
+      <c r="C135">
+        <v>0.47396215200875025</v>
+      </c>
+      <c r="D135">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B136">
+        <v>4450.6431280694042</v>
+      </c>
+      <c r="C136">
+        <v>0.45415570436883845</v>
+      </c>
+      <c r="D136">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B137">
+        <v>4767.4546454227093</v>
+      </c>
+      <c r="C137">
+        <v>0.44372283346166674</v>
+      </c>
+      <c r="D137">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B138">
+        <v>5095.6067510232906</v>
+      </c>
+      <c r="C138">
+        <v>0.43234154658868795</v>
+      </c>
+      <c r="D138">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B139">
+        <v>5431.1002878511763</v>
+      </c>
+      <c r="C139">
+        <v>0.42162991186507964</v>
+      </c>
+      <c r="D139">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B140">
+        <v>5751.7271711784297</v>
+      </c>
+      <c r="C140">
+        <v>0.41302653151363045</v>
+      </c>
+      <c r="D140">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B141">
+        <v>6076.9011811258406</v>
+      </c>
+      <c r="C141">
+        <v>0.40475012545601829</v>
+      </c>
+      <c r="D141">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B142">
+        <v>1782.279216224799</v>
+      </c>
+      <c r="C142">
+        <v>0.56259739752591464</v>
+      </c>
+      <c r="D142">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B143">
+        <v>2171.6069075924634</v>
+      </c>
+      <c r="C143">
+        <v>0.53247203522982089</v>
+      </c>
+      <c r="D143">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B144">
+        <v>2552.3911070014738</v>
+      </c>
+      <c r="C144">
+        <v>0.51024244877140823</v>
+      </c>
+      <c r="D144">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B145">
+        <v>2937.8017598684519</v>
+      </c>
+      <c r="C145">
+        <v>0.48933265570617623</v>
+      </c>
+      <c r="D145">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B146">
+        <v>3307.7921725618367</v>
+      </c>
+      <c r="C146">
+        <v>0.47380979623259978</v>
+      </c>
+      <c r="D146">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B147">
+        <v>3680.9978369164519</v>
+      </c>
+      <c r="C147">
+        <v>0.46174525930464705</v>
+      </c>
+      <c r="D147">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B148">
+        <v>4102.9281038477711</v>
+      </c>
+      <c r="C148">
+        <v>0.44940587494097672</v>
+      </c>
+      <c r="D148">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B149">
+        <v>4490.9056183612556</v>
+      </c>
+      <c r="C149">
+        <v>0.44036422525935165</v>
+      </c>
+      <c r="D149">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B150">
+        <v>4857.4977045657333</v>
+      </c>
+      <c r="C150">
+        <v>0.43288220741601707</v>
+      </c>
+      <c r="D150">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B151">
+        <v>5241.6954866992955</v>
+      </c>
+      <c r="C151">
+        <v>0.42325108122609173</v>
+      </c>
+      <c r="D151">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B152">
+        <v>5624.1235454985645</v>
+      </c>
+      <c r="C152">
+        <v>0.41462752595281693</v>
+      </c>
+      <c r="D152">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B153">
+        <v>5998.2674683450286</v>
+      </c>
+      <c r="C153">
+        <v>0.40503385031667233</v>
+      </c>
+      <c r="D153">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B154">
+        <v>6401.451635733175</v>
+      </c>
+      <c r="C154">
+        <v>0.3979543942022144</v>
+      </c>
+      <c r="D154">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B155">
+        <v>6770.0155903941441</v>
+      </c>
+      <c r="C155">
+        <v>0.39043732594249264</v>
+      </c>
+      <c r="D155">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1157,1247 +2389,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260C75BB-56D7-41F6-9CA0-85B181E05CF0}">
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1">
-        <v>1068.8656796375699</v>
-      </c>
-      <c r="B1">
-        <v>0.87582456635999661</v>
-      </c>
-      <c r="C1">
-        <v>0.29920000000000002</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1302.1775386598492</v>
-      </c>
-      <c r="B2">
-        <v>0.86027452009692007</v>
-      </c>
-      <c r="C2">
-        <v>0.29920000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1526.7943699806624</v>
-      </c>
-      <c r="B3">
-        <v>0.84622092080375544</v>
-      </c>
-      <c r="C3">
-        <v>0.29920000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>1747.8446702585011</v>
-      </c>
-      <c r="B4">
-        <v>0.8338261164010744</v>
-      </c>
-      <c r="C4">
-        <v>0.29920000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>1967.9428662896544</v>
-      </c>
-      <c r="B5">
-        <v>0.82041590776779172</v>
-      </c>
-      <c r="C5">
-        <v>0.29920000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>2190.112532371023</v>
-      </c>
-      <c r="B6">
-        <v>0.80669951865071909</v>
-      </c>
-      <c r="C6">
-        <v>0.29920000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>2407.1717145769535</v>
-      </c>
-      <c r="B7">
-        <v>0.79781688819599172</v>
-      </c>
-      <c r="C7">
-        <v>0.29920000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>2628.1679765056538</v>
-      </c>
-      <c r="B8">
-        <v>0.78700472898173701</v>
-      </c>
-      <c r="C8">
-        <v>0.29920000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>2886.4609923571147</v>
-      </c>
-      <c r="B9">
-        <v>0.77653052671149525</v>
-      </c>
-      <c r="C9">
-        <v>0.29920000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>3101.7960939001073</v>
-      </c>
-      <c r="B10">
-        <v>0.77102097233721034</v>
-      </c>
-      <c r="C10">
-        <v>0.29920000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>3315.0211265721241</v>
-      </c>
-      <c r="B11">
-        <v>0.76156579545196035</v>
-      </c>
-      <c r="C11">
-        <v>0.29920000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>3541.2127897820474</v>
-      </c>
-      <c r="B12">
-        <v>0.7509774916744445</v>
-      </c>
-      <c r="C12">
-        <v>0.29920000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>3764.8131854881617</v>
-      </c>
-      <c r="B13">
-        <v>0.74160191376069273</v>
-      </c>
-      <c r="C13">
-        <v>0.29920000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>3989.77740619628</v>
-      </c>
-      <c r="B14">
-        <v>0.73115079373733549</v>
-      </c>
-      <c r="C14">
-        <v>0.29920000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>1407.7318228900219</v>
-      </c>
-      <c r="B15">
-        <v>0.68570265887934279</v>
-      </c>
-      <c r="C15">
-        <v>0.34939999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>1720.6917066878934</v>
-      </c>
-      <c r="B16">
-        <v>0.66825409211451303</v>
-      </c>
-      <c r="C16">
-        <v>0.34939999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>2036.4568660634598</v>
-      </c>
-      <c r="B17">
-        <v>0.65543302683370186</v>
-      </c>
-      <c r="C17">
-        <v>0.34939999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>2331.2551421521512</v>
-      </c>
-      <c r="B18">
-        <v>0.64552484260553811</v>
-      </c>
-      <c r="C18">
-        <v>0.34939999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>2623.7337306076874</v>
-      </c>
-      <c r="B19">
-        <v>0.6334404047344705</v>
-      </c>
-      <c r="C19">
-        <v>0.34939999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>2919.9145405257395</v>
-      </c>
-      <c r="B20">
-        <v>0.62622663780006493</v>
-      </c>
-      <c r="C20">
-        <v>0.34939999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>3252.0133937555602</v>
-      </c>
-      <c r="B21">
-        <v>0.61787908629023369</v>
-      </c>
-      <c r="C21">
-        <v>0.34939999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>3545.5497597718149</v>
-      </c>
-      <c r="B22">
-        <v>0.60887024272211243</v>
-      </c>
-      <c r="C22">
-        <v>0.34939999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>3833.3178358736245</v>
-      </c>
-      <c r="B23">
-        <v>0.60131977720793761</v>
-      </c>
-      <c r="C23">
-        <v>0.34939999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>4122.0045082781335</v>
-      </c>
-      <c r="B24">
-        <v>0.59344527947575143</v>
-      </c>
-      <c r="C24">
-        <v>0.34939999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>4410.6571585974179</v>
-      </c>
-      <c r="B25">
-        <v>0.58609140270906845</v>
-      </c>
-      <c r="C25">
-        <v>0.34939999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>4706.6307430869065</v>
-      </c>
-      <c r="B26">
-        <v>0.57454329322564379</v>
-      </c>
-      <c r="C26">
-        <v>0.34939999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>4963.7882211816059</v>
-      </c>
-      <c r="B27">
-        <v>0.57111089364068701</v>
-      </c>
-      <c r="C27">
-        <v>0.34939999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>5264.9857422209598</v>
-      </c>
-      <c r="B28">
-        <v>0.56087374644144861</v>
-      </c>
-      <c r="C28">
-        <v>0.34939999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>1953.8968184184394</v>
-      </c>
-      <c r="B29">
-        <v>0.62185388929089114</v>
-      </c>
-      <c r="C29">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>2257.5719329410449</v>
-      </c>
-      <c r="B30">
-        <v>0.60823672513871652</v>
-      </c>
-      <c r="C30">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>2564.9842858576803</v>
-      </c>
-      <c r="B31">
-        <v>0.59485269879474845</v>
-      </c>
-      <c r="C31">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>2885.6659346452275</v>
-      </c>
-      <c r="B32">
-        <v>0.57878829040364632</v>
-      </c>
-      <c r="C32">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>3197.4593947428652</v>
-      </c>
-      <c r="B33">
-        <v>0.56691866309880534</v>
-      </c>
-      <c r="C33">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>3513.3120276280256</v>
-      </c>
-      <c r="B34">
-        <v>0.55683975044604561</v>
-      </c>
-      <c r="C34">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>3825.3679342421005</v>
-      </c>
-      <c r="B35">
-        <v>0.54754567313703617</v>
-      </c>
-      <c r="C35">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>4145.1257712917641</v>
-      </c>
-      <c r="B36">
-        <v>0.53757107753842615</v>
-      </c>
-      <c r="C36">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>4465.0725698333308</v>
-      </c>
-      <c r="B37">
-        <v>0.52884240006767558</v>
-      </c>
-      <c r="C37">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>4786.744516809521</v>
-      </c>
-      <c r="B38">
-        <v>0.51963701441802479</v>
-      </c>
-      <c r="C38">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>5111.4398476551041</v>
-      </c>
-      <c r="B39">
-        <v>0.50962873224070482</v>
-      </c>
-      <c r="C39">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>5454.6429068395946</v>
-      </c>
-      <c r="B40">
-        <v>0.49949464087878953</v>
-      </c>
-      <c r="C40">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>5772.4236467988212</v>
-      </c>
-      <c r="B41">
-        <v>0.4969660365749386</v>
-      </c>
-      <c r="C41">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>6096.4996038655845</v>
-      </c>
-      <c r="B42">
-        <v>0.49109283989593644</v>
-      </c>
-      <c r="C42">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>2141.5903352656219</v>
-      </c>
-      <c r="B43">
-        <v>0.55954495619372691</v>
-      </c>
-      <c r="C43">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>2496.6432854156697</v>
-      </c>
-      <c r="B44">
-        <v>0.54385403877935079</v>
-      </c>
-      <c r="C44">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>2864.6543156079233</v>
-      </c>
-      <c r="B45">
-        <v>0.52693494239587124</v>
-      </c>
-      <c r="C45">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>3234.304081666126</v>
-      </c>
-      <c r="B46">
-        <v>0.51226769152776963</v>
-      </c>
-      <c r="C46">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>3584.8651050007065</v>
-      </c>
-      <c r="B47">
-        <v>0.50124205720980253</v>
-      </c>
-      <c r="C47">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>3964.7015023206473</v>
-      </c>
-      <c r="B48">
-        <v>0.48571310375028676</v>
-      </c>
-      <c r="C48">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>4318.3804055332066</v>
-      </c>
-      <c r="B49">
-        <v>0.47609479341864336</v>
-      </c>
-      <c r="C49">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>4674.0016583826127</v>
-      </c>
-      <c r="B50">
-        <v>0.46696885997974735</v>
-      </c>
-      <c r="C50">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>5037.2872127048995</v>
-      </c>
-      <c r="B51">
-        <v>0.45723317431933536</v>
-      </c>
-      <c r="C51">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>5393.5234780645687</v>
-      </c>
-      <c r="B52">
-        <v>0.45120451132339667</v>
-      </c>
-      <c r="C52">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>5765.3530352983935</v>
-      </c>
-      <c r="B53">
-        <v>0.44240560428678088</v>
-      </c>
-      <c r="C53">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>6142.5775756918738</v>
-      </c>
-      <c r="B54">
-        <v>0.43573800244986083</v>
-      </c>
-      <c r="C54">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>6476.6033259656879</v>
-      </c>
-      <c r="B55">
-        <v>0.42868394758001344</v>
-      </c>
-      <c r="C55">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>6831.7730506430007</v>
-      </c>
-      <c r="B56">
-        <v>0.42382271184688741</v>
-      </c>
-      <c r="C56">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>1081.8486206034447</v>
-      </c>
-      <c r="B57">
-        <v>0.69582240103522719</v>
-      </c>
-      <c r="C57">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>1317.1924313487164</v>
-      </c>
-      <c r="B58">
-        <v>0.67438709471971481</v>
-      </c>
-      <c r="C58">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>1545.9005119612536</v>
-      </c>
-      <c r="B59">
-        <v>0.65968931959758947</v>
-      </c>
-      <c r="C59">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>1776.8986274761098</v>
-      </c>
-      <c r="B60">
-        <v>0.64367794711725745</v>
-      </c>
-      <c r="C60">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>1999.1809385119795</v>
-      </c>
-      <c r="B61">
-        <v>0.62962969307720162</v>
-      </c>
-      <c r="C61">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>2223.4627576342064</v>
-      </c>
-      <c r="B62">
-        <v>0.61677212963070194</v>
-      </c>
-      <c r="C62">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>2453.3817735469052</v>
-      </c>
-      <c r="B63">
-        <v>0.60654343943795186</v>
-      </c>
-      <c r="C63">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>2712.976028519</v>
-      </c>
-      <c r="B64">
-        <v>0.59549582625576203</v>
-      </c>
-      <c r="C64">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>2931.2349093640132</v>
-      </c>
-      <c r="B65">
-        <v>0.58664136173384795</v>
-      </c>
-      <c r="C65">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>3148.2120542562102</v>
-      </c>
-      <c r="B66">
-        <v>0.58004103822159037</v>
-      </c>
-      <c r="C66">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>3373.2555907446681</v>
-      </c>
-      <c r="B67">
-        <v>0.57002875503202111</v>
-      </c>
-      <c r="C67">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68">
-        <v>3599.3513714153464</v>
-      </c>
-      <c r="B68">
-        <v>0.55579508111971754</v>
-      </c>
-      <c r="C68">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>3831.7215547501442</v>
-      </c>
-      <c r="B69">
-        <v>0.54473873191078903</v>
-      </c>
-      <c r="C69">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>4054.0136313932753</v>
-      </c>
-      <c r="B70">
-        <v>0.53643048072458122</v>
-      </c>
-      <c r="C70">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>1384.2676466608452</v>
-      </c>
-      <c r="B71">
-        <v>0.59221665376153432</v>
-      </c>
-      <c r="C71">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>1687.0359226657638</v>
-      </c>
-      <c r="B72">
-        <v>0.56796453442381589</v>
-      </c>
-      <c r="C72">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73">
-        <v>1982.848245504561</v>
-      </c>
-      <c r="B73">
-        <v>0.55058957119263807</v>
-      </c>
-      <c r="C73">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74">
-        <v>2278.4417899800983</v>
-      </c>
-      <c r="B74">
-        <v>0.53364285167699388</v>
-      </c>
-      <c r="C74">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75">
-        <v>2563.1653464618703</v>
-      </c>
-      <c r="B75">
-        <v>0.52019342053678419</v>
-      </c>
-      <c r="C75">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <v>2852.1745612924433</v>
-      </c>
-      <c r="B76">
-        <v>0.50877833405903861</v>
-      </c>
-      <c r="C76">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <v>3153.2285739578438</v>
-      </c>
-      <c r="B77">
-        <v>0.5010213689355969</v>
-      </c>
-      <c r="C77">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78">
-        <v>3464.0167253063819</v>
-      </c>
-      <c r="B78">
-        <v>0.49150313854072264</v>
-      </c>
-      <c r="C78">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79">
-        <v>3746.6663827830057</v>
-      </c>
-      <c r="B79">
-        <v>0.48276719440907151</v>
-      </c>
-      <c r="C79">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80">
-        <v>4031.8664565217146</v>
-      </c>
-      <c r="B80">
-        <v>0.47316213114695449</v>
-      </c>
-      <c r="C80">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81">
-        <v>4328.3021478476385</v>
-      </c>
-      <c r="B81">
-        <v>0.46304613779772757</v>
-      </c>
-      <c r="C81">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82">
-        <v>4613.7120090579674</v>
-      </c>
-      <c r="B82">
-        <v>0.45234390776917993</v>
-      </c>
-      <c r="C82">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83">
-        <v>4896.409617956705</v>
-      </c>
-      <c r="B83">
-        <v>0.44305712059334951</v>
-      </c>
-      <c r="C83">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84">
-        <v>5180.4169000710936</v>
-      </c>
-      <c r="B84">
-        <v>0.4370054647362957</v>
-      </c>
-      <c r="C84">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85">
-        <v>1966.2782952771413</v>
-      </c>
-      <c r="B85">
-        <v>0.55467947899567072</v>
-      </c>
-      <c r="C85">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86">
-        <v>2262.648164067075</v>
-      </c>
-      <c r="B86">
-        <v>0.54405905317221526</v>
-      </c>
-      <c r="C86">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87">
-        <v>2572.0740042005195</v>
-      </c>
-      <c r="B87">
-        <v>0.52999574193795862</v>
-      </c>
-      <c r="C87">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88">
-        <v>2888.1843927486207</v>
-      </c>
-      <c r="B88">
-        <v>0.51505817746950311</v>
-      </c>
-      <c r="C88">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89">
-        <v>3188.4479088839616</v>
-      </c>
-      <c r="B89">
-        <v>0.5065823577046995</v>
-      </c>
-      <c r="C89">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90">
-        <v>3500.8892835873226</v>
-      </c>
-      <c r="B90">
-        <v>0.49638808545844326</v>
-      </c>
-      <c r="C90">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91">
-        <v>3816.928197839748</v>
-      </c>
-      <c r="B91">
-        <v>0.47618572154254735</v>
-      </c>
-      <c r="C91">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92">
-        <v>4021.3378763976798</v>
-      </c>
-      <c r="B92">
-        <v>0.47396215200875025</v>
-      </c>
-      <c r="C92">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93">
-        <v>4450.6431280694042</v>
-      </c>
-      <c r="B93">
-        <v>0.45415570436883845</v>
-      </c>
-      <c r="C93">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94">
-        <v>4767.4546454227093</v>
-      </c>
-      <c r="B94">
-        <v>0.44372283346166674</v>
-      </c>
-      <c r="C94">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95">
-        <v>5095.6067510232906</v>
-      </c>
-      <c r="B95">
-        <v>0.43234154658868795</v>
-      </c>
-      <c r="C95">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96">
-        <v>5431.1002878511763</v>
-      </c>
-      <c r="B96">
-        <v>0.42162991186507964</v>
-      </c>
-      <c r="C96">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97">
-        <v>5751.7271711784297</v>
-      </c>
-      <c r="B97">
-        <v>0.41302653151363045</v>
-      </c>
-      <c r="C97">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98">
-        <v>6076.9011811258406</v>
-      </c>
-      <c r="B98">
-        <v>0.40475012545601829</v>
-      </c>
-      <c r="C98">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99">
-        <v>1782.279216224799</v>
-      </c>
-      <c r="B99">
-        <v>0.56259739752591464</v>
-      </c>
-      <c r="C99">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100">
-        <v>2171.6069075924634</v>
-      </c>
-      <c r="B100">
-        <v>0.53247203522982089</v>
-      </c>
-      <c r="C100">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101">
-        <v>2552.3911070014738</v>
-      </c>
-      <c r="B101">
-        <v>0.51024244877140823</v>
-      </c>
-      <c r="C101">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102">
-        <v>2937.8017598684519</v>
-      </c>
-      <c r="B102">
-        <v>0.48933265570617623</v>
-      </c>
-      <c r="C102">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103">
-        <v>3307.7921725618367</v>
-      </c>
-      <c r="B103">
-        <v>0.47380979623259978</v>
-      </c>
-      <c r="C103">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104">
-        <v>3680.9978369164519</v>
-      </c>
-      <c r="B104">
-        <v>0.46174525930464705</v>
-      </c>
-      <c r="C104">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105">
-        <v>4102.9281038477711</v>
-      </c>
-      <c r="B105">
-        <v>0.44940587494097672</v>
-      </c>
-      <c r="C105">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106">
-        <v>4490.9056183612556</v>
-      </c>
-      <c r="B106">
-        <v>0.44036422525935165</v>
-      </c>
-      <c r="C106">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107">
-        <v>4857.4977045657333</v>
-      </c>
-      <c r="B107">
-        <v>0.43288220741601707</v>
-      </c>
-      <c r="C107">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108">
-        <v>5241.6954866992955</v>
-      </c>
-      <c r="B108">
-        <v>0.42325108122609173</v>
-      </c>
-      <c r="C108">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109">
-        <v>5624.1235454985645</v>
-      </c>
-      <c r="B109">
-        <v>0.41462752595281693</v>
-      </c>
-      <c r="C109">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110">
-        <v>5998.2674683450286</v>
-      </c>
-      <c r="B110">
-        <v>0.40503385031667233</v>
-      </c>
-      <c r="C110">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111">
-        <v>6401.451635733175</v>
-      </c>
-      <c r="B111">
-        <v>0.3979543942022144</v>
-      </c>
-      <c r="C111">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112">
-        <v>6770.0155903941441</v>
-      </c>
-      <c r="B112">
-        <v>0.39043732594249264</v>
-      </c>
-      <c r="C112">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>

--- a/f_factor/dP_f_Agulhas/fxReynoldsV3.xlsx
+++ b/f_factor/dP_f_Agulhas/fxReynoldsV3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="18756" windowHeight="15372" activeTab="1"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="18756" windowHeight="15372"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10079,7 +10079,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>537210</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10108,7 +10108,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>377190</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10132,13 +10132,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>567690</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>262890</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10162,13 +10162,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>567690</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>262890</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10192,13 +10192,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>163830</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>468630</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10222,13 +10222,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>163830</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>468630</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10536,10 +10536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q151"/>
+  <dimension ref="A1:T711"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10548,7 +10548,7 @@
     <col min="3" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10564,17 +10564,17 @@
       <c r="K1">
         <v>0.33260000000000001</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -10595,16 +10595,16 @@
         <v>0.3745</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1500</v>
+        <v>1100</v>
       </c>
       <c r="C3">
-        <f>(-0.133*LN(B3)+1.711)</f>
-        <v>0.73834168851698989</v>
+        <f t="shared" ref="C3:C66" si="0">(-0.133*LN(B3)+1.711)</f>
+        <v>0.77959229398140062</v>
       </c>
       <c r="D3">
         <v>0.33260000000000001</v>
@@ -10616,16 +10616,16 @@
         <v>0.39960000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="C4">
-        <f>(-0.133*LN(B4)+1.711)</f>
-        <v>0.70007997288090307</v>
+        <f t="shared" si="0"/>
+        <v>0.7680197808417798</v>
       </c>
       <c r="D4">
         <v>0.33260000000000001</v>
@@ -10637,16 +10637,16 @@
         <v>0.41620000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2500</v>
+        <v>1300</v>
       </c>
       <c r="C5">
-        <f>(-0.133*LN(B5)+1.711)</f>
-        <v>0.67040188055611316</v>
+        <f t="shared" si="0"/>
+        <v>0.75737410072119948</v>
       </c>
       <c r="D5">
         <v>0.33260000000000001</v>
@@ -10658,31 +10658,31 @@
         <v>0.43309999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="C6">
-        <f>(-0.133*LN(B6)+1.711)</f>
-        <v>0.64615311350251736</v>
+        <f t="shared" si="0"/>
+        <v>0.7475177404247545</v>
       </c>
       <c r="D6">
         <v>0.33260000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="C7">
-        <f>(-0.133*LN(B7)+1.711)</f>
-        <v>0.62565107308549184</v>
+        <f t="shared" si="0"/>
+        <v>0.73834168851698989</v>
       </c>
       <c r="D7">
         <v>0.33260000000000001</v>
@@ -10694,16 +10694,16 @@
         <v>0.36599999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4000</v>
+        <v>1600</v>
       </c>
       <c r="C8">
-        <f>(-0.133*LN(B8)+1.711)</f>
-        <v>0.60789139786643043</v>
+        <f t="shared" si="0"/>
+        <v>0.72975806520569297</v>
       </c>
       <c r="D8">
         <v>0.33260000000000001</v>
@@ -10715,16 +10715,16 @@
         <v>0.39960000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4500</v>
+        <v>1700</v>
       </c>
       <c r="C9">
-        <f>(-0.133*LN(B9)+1.711)</f>
-        <v>0.59222625412413121</v>
+        <f t="shared" si="0"/>
+        <v>0.72169499050410724</v>
       </c>
       <c r="D9">
         <v>0.33260000000000001</v>
@@ -10736,16 +10736,16 @@
         <v>0.41970000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="C10">
-        <f>(-0.133*LN(B10)+1.711)</f>
-        <v>0.5782133055416403</v>
+        <f t="shared" si="0"/>
+        <v>0.71409292146339398</v>
       </c>
       <c r="D10">
         <v>0.33260000000000001</v>
@@ -10757,16 +10757,16 @@
         <v>0.43309999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5500</v>
+        <v>1900</v>
       </c>
       <c r="C11">
-        <f>(-0.133*LN(B11)+1.711)</f>
-        <v>0.56553705162766521</v>
+        <f t="shared" si="0"/>
+        <v>0.70690198103444724</v>
       </c>
       <c r="D11">
         <v>0.33260000000000001</v>
@@ -10775,31 +10775,31 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6000</v>
+        <v>2000</v>
       </c>
       <c r="C12">
-        <f>(-0.133*LN(B12)+1.711)</f>
-        <v>0.5539645384880445</v>
+        <f t="shared" si="0"/>
+        <v>0.70007997288090307</v>
       </c>
       <c r="D12">
         <v>0.33260000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6500</v>
+        <v>2100</v>
       </c>
       <c r="C13">
-        <f>(-0.133*LN(B13)+1.711)</f>
-        <v>0.54331885836746419</v>
+        <f t="shared" si="0"/>
+        <v>0.69359088104636868</v>
       </c>
       <c r="D13">
         <v>0.33260000000000001</v>
@@ -10811,16 +10811,16 @@
         <v>0.29920000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7000</v>
+        <v>2200</v>
       </c>
       <c r="C14">
-        <f>(-0.133*LN(B14)+1.711)</f>
-        <v>0.5334624980710192</v>
+        <f t="shared" si="0"/>
+        <v>0.68740371896692798</v>
       </c>
       <c r="D14">
         <v>0.33260000000000001</v>
@@ -10832,16 +10832,16 @@
         <v>0.34939999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7500</v>
+        <v>2300</v>
       </c>
       <c r="C15">
-        <f>(-0.133*LN(B15)+1.711)</f>
-        <v>0.52428644616325459</v>
+        <f t="shared" si="0"/>
+        <v>0.68149163454500683</v>
       </c>
       <c r="D15">
         <v>0.33260000000000001</v>
@@ -10853,16 +10853,16 @@
         <v>0.3795</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8000</v>
+        <v>2400</v>
       </c>
       <c r="C16">
-        <f>(-0.133*LN(B16)+1.711)</f>
-        <v>0.51570282285195757</v>
+        <f t="shared" si="0"/>
+        <v>0.67583120582730705</v>
       </c>
       <c r="D16">
         <v>0.33260000000000001</v>
@@ -10879,14 +10879,14 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="C17">
-        <f>(-0.121*LN(B17)+1.5196)</f>
-        <v>0.68376161124316148</v>
+        <f t="shared" si="0"/>
+        <v>0.67040188055611316</v>
       </c>
       <c r="D17">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
       <c r="J17" t="s">
         <v>17</v>
@@ -10897,14 +10897,14 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1500</v>
+        <v>2600</v>
       </c>
       <c r="C18">
-        <f>(-0.121*LN(B18)+1.5196)</f>
-        <v>0.63470033316207364</v>
+        <f t="shared" si="0"/>
+        <v>0.66518552570672673</v>
       </c>
       <c r="D18">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -10912,14 +10912,14 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="C19">
-        <f>(-0.121*LN(B19)+1.5196)</f>
-        <v>0.59989080239540815</v>
+        <f t="shared" si="0"/>
+        <v>0.66016606208500805</v>
       </c>
       <c r="D19">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -10927,14 +10927,14 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="C20">
-        <f>(-0.121*LN(B20)+1.5196)</f>
-        <v>0.57289043268638873</v>
+        <f t="shared" si="0"/>
+        <v>0.65532916541028174</v>
       </c>
       <c r="D20">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -10942,14 +10942,14 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="C21">
-        <f>(-0.121*LN(B21)+1.5196)</f>
-        <v>0.55082952431432031</v>
+        <f t="shared" si="0"/>
+        <v>0.65066201987538275</v>
       </c>
       <c r="D21">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -10957,14 +10957,14 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="C22">
-        <f>(-0.121*LN(B22)+1.5196)</f>
-        <v>0.53217729205522202</v>
+        <f t="shared" si="0"/>
+        <v>0.64615311350251736</v>
       </c>
       <c r="D22">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -10972,14 +10972,14 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4000</v>
+        <v>3100</v>
       </c>
       <c r="C23">
-        <f>(-0.121*LN(B23)+1.5196)</f>
-        <v>0.51601999354765482</v>
+        <f t="shared" si="0"/>
+        <v>0.64179206706705938</v>
       </c>
       <c r="D23">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -10987,14 +10987,14 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4500</v>
+        <v>3200</v>
       </c>
       <c r="C24">
-        <f>(-0.121*LN(B24)+1.5196)</f>
-        <v>0.50176824623323224</v>
+        <f t="shared" si="0"/>
+        <v>0.63756949019122011</v>
       </c>
       <c r="D24">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -11002,14 +11002,14 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5000</v>
+        <v>3300</v>
       </c>
       <c r="C25">
-        <f>(-0.121*LN(B25)+1.5196)</f>
-        <v>0.48901962383863529</v>
+        <f t="shared" si="0"/>
+        <v>0.63347685958854205</v>
       </c>
       <c r="D25">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -11017,14 +11017,14 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5500</v>
+        <v>3400</v>
       </c>
       <c r="C26">
-        <f>(-0.121*LN(B26)+1.5196)</f>
-        <v>0.47748709208231199</v>
+        <f t="shared" si="0"/>
+        <v>0.62950641548963437</v>
       </c>
       <c r="D26">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -11032,14 +11032,14 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6000</v>
+        <v>3500</v>
       </c>
       <c r="C27">
-        <f>(-0.121*LN(B27)+1.5196)</f>
-        <v>0.46695871546656686</v>
+        <f t="shared" si="0"/>
+        <v>0.62565107308549184</v>
       </c>
       <c r="D27">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -11047,14 +11047,14 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6500</v>
+        <v>3600</v>
       </c>
       <c r="C28">
-        <f>(-0.121*LN(B28)+1.5196)</f>
-        <v>0.45727354783806895</v>
+        <f t="shared" si="0"/>
+        <v>0.62190434644892134</v>
       </c>
       <c r="D28">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -11062,14 +11062,14 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7000</v>
+        <v>3700</v>
       </c>
       <c r="C29">
-        <f>(-0.121*LN(B29)+1.5196)</f>
-        <v>0.44830648320746858</v>
+        <f t="shared" si="0"/>
+        <v>0.61826028288190193</v>
       </c>
       <c r="D29">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -11077,14 +11077,14 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7500</v>
+        <v>3800</v>
       </c>
       <c r="C30">
-        <f>(-0.121*LN(B30)+1.5196)</f>
-        <v>0.43995834575754755</v>
+        <f t="shared" si="0"/>
+        <v>0.6147134060199746</v>
       </c>
       <c r="D30">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -11092,14 +11092,14 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>8000</v>
+        <v>3900</v>
       </c>
       <c r="C31">
-        <f>(-0.121*LN(B31)+1.5196)</f>
-        <v>0.43214918469990127</v>
+        <f t="shared" si="0"/>
+        <v>0.61125866632834103</v>
       </c>
       <c r="D31">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -11107,14 +11107,14 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="C32">
-        <f>(-0.113*LN(B32)+1.3909)</f>
-        <v>0.61032365347501849</v>
+        <f t="shared" si="0"/>
+        <v>0.60789139786643043</v>
       </c>
       <c r="D32">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -11122,14 +11122,14 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1500</v>
+        <v>4100</v>
       </c>
       <c r="C33">
-        <f>(-0.113*LN(B33)+1.3909)</f>
-        <v>0.56450609625879589</v>
+        <f t="shared" si="0"/>
+        <v>0.60460728039191092</v>
       </c>
       <c r="D33">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -11137,14 +11137,14 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>2000</v>
+        <v>4200</v>
       </c>
       <c r="C34">
-        <f>(-0.113*LN(B34)+1.3909)</f>
-        <v>0.53199802207174474</v>
+        <f t="shared" si="0"/>
+        <v>0.60140230603189582</v>
       </c>
       <c r="D34">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -11152,14 +11152,14 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>2500</v>
+        <v>4300</v>
       </c>
       <c r="C35">
-        <f>(-0.113*LN(B35)+1.3909)</f>
-        <v>0.50678280077323901</v>
+        <f t="shared" si="0"/>
+        <v>0.59827274987634005</v>
       </c>
       <c r="D35">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -11167,14 +11167,14 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>3000</v>
+        <v>4400</v>
       </c>
       <c r="C36">
-        <f>(-0.113*LN(B36)+1.3909)</f>
-        <v>0.48618046485552224</v>
+        <f t="shared" si="0"/>
+        <v>0.59521514395245512</v>
       </c>
       <c r="D36">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -11182,14 +11182,14 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>3500</v>
+        <v>4500</v>
       </c>
       <c r="C37">
-        <f>(-0.113*LN(B37)+1.3909)</f>
-        <v>0.468761438035042</v>
+        <f t="shared" si="0"/>
+        <v>0.59222625412413121</v>
       </c>
       <c r="D37">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -11197,14 +11197,14 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>4000</v>
+        <v>4600</v>
       </c>
       <c r="C38">
-        <f>(-0.113*LN(B38)+1.3909)</f>
-        <v>0.45367239066847087</v>
+        <f t="shared" si="0"/>
+        <v>0.58930305953053419</v>
       </c>
       <c r="D38">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -11212,14 +11212,14 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="C39">
-        <f>(-0.113*LN(B39)+1.3909)</f>
-        <v>0.44036290763929953</v>
+        <f t="shared" si="0"/>
+        <v>0.58644273423614623</v>
       </c>
       <c r="D39">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -11227,14 +11227,14 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="C40">
-        <f>(-0.113*LN(B40)+1.3909)</f>
-        <v>0.42845716936996503</v>
+        <f t="shared" si="0"/>
+        <v>0.58364263081283441</v>
       </c>
       <c r="D40">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -11242,14 +11242,14 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>5500</v>
+        <v>4900</v>
       </c>
       <c r="C41">
-        <f>(-0.113*LN(B41)+1.3909)</f>
-        <v>0.41768711905207645</v>
+        <f t="shared" si="0"/>
+        <v>0.58090026561487051</v>
       </c>
       <c r="D41">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -11257,14 +11257,14 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6000</v>
+        <v>5000</v>
       </c>
       <c r="C42">
-        <f>(-0.113*LN(B42)+1.3909)</f>
-        <v>0.40785483345224838</v>
+        <f t="shared" si="0"/>
+        <v>0.5782133055416403</v>
       </c>
       <c r="D42">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -11272,422 +11272,422 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6500</v>
+        <v>5100</v>
       </c>
       <c r="C43">
-        <f>(-0.113*LN(B43)+1.3909)</f>
-        <v>0.39881000748513873</v>
+        <f t="shared" si="0"/>
+        <v>0.57557955611124845</v>
       </c>
       <c r="D43">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B44">
-        <v>7000</v>
+        <v>5200</v>
       </c>
       <c r="C44">
-        <f>(-0.113*LN(B44)+1.3909)</f>
-        <v>0.39043580663176813</v>
+        <f t="shared" si="0"/>
+        <v>0.57299695069225409</v>
       </c>
       <c r="D44">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45">
-        <v>7500</v>
+        <v>5300</v>
       </c>
       <c r="C45">
-        <f>(-0.113*LN(B45)+1.3909)</f>
-        <v>0.38263961215374254</v>
+        <f t="shared" si="0"/>
+        <v>0.5704635407611518</v>
       </c>
       <c r="D45">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B46">
-        <v>8000</v>
+        <v>5400</v>
       </c>
       <c r="C46">
-        <f>(-0.113*LN(B46)+1.3909)</f>
-        <v>0.37534675926519712</v>
+        <f t="shared" si="0"/>
+        <v>0.56797748707053519</v>
       </c>
       <c r="D46">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B47">
-        <v>1000</v>
+        <v>5500</v>
       </c>
       <c r="C47">
-        <f>(-0.11*LN(B47)+1.6474)</f>
-        <v>0.88754691931196494</v>
+        <f t="shared" si="0"/>
+        <v>0.56553705162766521</v>
       </c>
       <c r="D47">
-        <v>0.29920000000000002</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B48">
-        <v>1500</v>
+        <v>5600</v>
       </c>
       <c r="C48">
-        <f>(-0.11*LN(B48)+1.6474)</f>
-        <v>0.84294575742006683</v>
+        <f t="shared" si="0"/>
+        <v>0.56314059039580888</v>
       </c>
       <c r="D48">
-        <v>0.29920000000000002</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49">
-        <v>2000</v>
+        <v>5700</v>
       </c>
       <c r="C49">
-        <f>(-0.11*LN(B49)+1.6474)</f>
-        <v>0.81130072945037091</v>
+        <f t="shared" si="0"/>
+        <v>0.56078654664158867</v>
       </c>
       <c r="D49">
-        <v>0.29920000000000002</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50">
-        <v>2500</v>
+        <v>5800</v>
       </c>
       <c r="C50">
-        <f>(-0.11*LN(B50)+1.6474)</f>
-        <v>0.78675493880580782</v>
+        <f t="shared" si="0"/>
+        <v>0.55847344486091011</v>
       </c>
       <c r="D50">
-        <v>0.29920000000000002</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51">
-        <v>3000</v>
+        <v>5900</v>
       </c>
       <c r="C51">
-        <f>(-0.11*LN(B51)+1.6474)</f>
-        <v>0.76669956755847291</v>
+        <f t="shared" si="0"/>
+        <v>0.55619988522412322</v>
       </c>
       <c r="D51">
-        <v>0.29920000000000002</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52">
-        <v>3500</v>
+        <v>6000</v>
       </c>
       <c r="C52">
-        <f>(-0.11*LN(B52)+1.6474)</f>
-        <v>0.74974299277747447</v>
+        <f t="shared" si="0"/>
+        <v>0.5539645384880445</v>
       </c>
       <c r="D52">
-        <v>0.29920000000000002</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53">
-        <v>4000</v>
+        <v>6100</v>
       </c>
       <c r="C53">
-        <f>(-0.11*LN(B53)+1.6474)</f>
-        <v>0.73505453958877698</v>
+        <f t="shared" si="0"/>
+        <v>0.55176614132853352</v>
       </c>
       <c r="D53">
-        <v>0.29920000000000002</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54">
-        <v>4500</v>
+        <v>6200</v>
       </c>
       <c r="C54">
-        <f>(-0.11*LN(B54)+1.6474)</f>
-        <v>0.72209840566657468</v>
+        <f t="shared" si="0"/>
+        <v>0.54960349205258674</v>
       </c>
       <c r="D54">
-        <v>0.29920000000000002</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55">
-        <v>5000</v>
+        <v>6300</v>
       </c>
       <c r="C55">
-        <f>(-0.11*LN(B55)+1.6474)</f>
-        <v>0.71050874894421379</v>
+        <f t="shared" si="0"/>
+        <v>0.54747544665351011</v>
       </c>
       <c r="D55">
-        <v>0.29920000000000002</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56">
-        <v>5500</v>
+        <v>6400</v>
       </c>
       <c r="C56">
-        <f>(-0.11*LN(B56)+1.6474)</f>
-        <v>0.70002462916573815</v>
+        <f t="shared" si="0"/>
+        <v>0.54538091517674769</v>
       </c>
       <c r="D56">
-        <v>0.29920000000000002</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57">
-        <v>6000</v>
+        <v>6500</v>
       </c>
       <c r="C57">
-        <f>(-0.11*LN(B57)+1.6474)</f>
-        <v>0.69045337769687898</v>
+        <f t="shared" si="0"/>
+        <v>0.54331885836746419</v>
       </c>
       <c r="D57">
-        <v>0.29920000000000002</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58">
-        <v>6500</v>
+        <v>6600</v>
       </c>
       <c r="C58">
-        <f>(-0.11*LN(B58)+1.6474)</f>
-        <v>0.68164867985278987</v>
+        <f t="shared" si="0"/>
+        <v>0.54128828457406919</v>
       </c>
       <c r="D58">
-        <v>0.29920000000000002</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="C59">
-        <f>(-0.11*LN(B59)+1.6474)</f>
-        <v>0.67349680291588043</v>
+        <f t="shared" si="0"/>
+        <v>0.53928824688458543</v>
       </c>
       <c r="D59">
-        <v>0.29920000000000002</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60">
-        <v>7500</v>
+        <v>6800</v>
       </c>
       <c r="C60">
-        <f>(-0.11*LN(B60)+1.6474)</f>
-        <v>0.66590758705231579</v>
+        <f t="shared" si="0"/>
+        <v>0.53731784047516173</v>
       </c>
       <c r="D60">
-        <v>0.29920000000000002</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61">
-        <v>8000</v>
+        <v>6900</v>
       </c>
       <c r="C61">
-        <f>(-0.11*LN(B61)+1.6474)</f>
-        <v>0.65880834972718294</v>
+        <f t="shared" si="0"/>
+        <v>0.53537620015214848</v>
       </c>
       <c r="D61">
-        <v>0.29920000000000002</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="C62">
-        <f>(-0.092*LN(B62)+1.3571)</f>
-        <v>0.7215865143336434</v>
+        <f t="shared" si="0"/>
+        <v>0.5334624980710192</v>
       </c>
       <c r="D62">
-        <v>0.34939999999999999</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63">
-        <v>1500</v>
+        <v>7100</v>
       </c>
       <c r="C63">
-        <f>(-0.092*LN(B63)+1.3571)</f>
-        <v>0.68428372438769225</v>
+        <f t="shared" si="0"/>
+        <v>0.53157594161708888</v>
       </c>
       <c r="D63">
-        <v>0.34939999999999999</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64">
-        <v>2000</v>
+        <v>7200</v>
       </c>
       <c r="C64">
-        <f>(-0.092*LN(B64)+1.3571)</f>
-        <v>0.65781697372212844</v>
+        <f t="shared" si="0"/>
+        <v>0.52971577143444848</v>
       </c>
       <c r="D64">
-        <v>0.34939999999999999</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65">
-        <v>2500</v>
+        <v>7300</v>
       </c>
       <c r="C65">
-        <f>(-0.092*LN(B65)+1.3571)</f>
-        <v>0.63728776700122114</v>
+        <f t="shared" si="0"/>
+        <v>0.52788125959084775</v>
       </c>
       <c r="D65">
-        <v>0.34939999999999999</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66">
-        <v>3000</v>
+        <v>7400</v>
       </c>
       <c r="C66">
-        <f>(-0.092*LN(B66)+1.3571)</f>
-        <v>0.6205141837761774</v>
+        <f t="shared" si="0"/>
+        <v>0.52607170786742929</v>
       </c>
       <c r="D66">
-        <v>0.34939999999999999</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67">
-        <v>3500</v>
+        <v>7500</v>
       </c>
       <c r="C67">
-        <f>(-0.092*LN(B67)+1.3571)</f>
-        <v>0.60633232123206948</v>
+        <f t="shared" ref="C67:C72" si="1">(-0.133*LN(B67)+1.711)</f>
+        <v>0.52428644616325459</v>
       </c>
       <c r="D67">
-        <v>0.34939999999999999</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68">
-        <v>4000</v>
+        <v>7600</v>
       </c>
       <c r="C68">
-        <f>(-0.092*LN(B68)+1.3571)</f>
-        <v>0.59404743311061348</v>
+        <f t="shared" si="1"/>
+        <v>0.52252483100550173</v>
       </c>
       <c r="D68">
-        <v>0.34939999999999999</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69">
-        <v>4500</v>
+        <v>7700</v>
       </c>
       <c r="C69">
-        <f>(-0.092*LN(B69)+1.3571)</f>
-        <v>0.58321139383022613</v>
+        <f t="shared" si="1"/>
+        <v>0.52078624415704389</v>
       </c>
       <c r="D69">
-        <v>0.34939999999999999</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70">
-        <v>5000</v>
+        <v>7800</v>
       </c>
       <c r="C70">
-        <f>(-0.092*LN(B70)+1.3571)</f>
-        <v>0.57351822638970607</v>
+        <f t="shared" si="1"/>
+        <v>0.51907009131386816</v>
       </c>
       <c r="D70">
-        <v>0.34939999999999999</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B71">
-        <v>5500</v>
+        <v>7900</v>
       </c>
       <c r="C71">
-        <f>(-0.092*LN(B71)+1.3571)</f>
-        <v>0.56474968984770824</v>
+        <f t="shared" si="1"/>
+        <v>0.51737580088547008</v>
       </c>
       <c r="D71">
-        <v>0.34939999999999999</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B72">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="C72">
-        <f>(-0.092*LN(B72)+1.3571)</f>
-        <v>0.55674464316466243</v>
+        <f t="shared" si="1"/>
+        <v>0.51570282285195757</v>
       </c>
       <c r="D72">
-        <v>0.34939999999999999</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73">
-        <v>6500</v>
+        <v>1000</v>
       </c>
       <c r="C73">
-        <f>(-0.092*LN(B73)+1.3571)</f>
-        <v>0.54938071405869704</v>
+        <f t="shared" ref="C73:C136" si="2">(-0.121*LN(B73)+1.5196)</f>
+        <v>0.68376161124316148</v>
       </c>
       <c r="D73">
-        <v>0.34939999999999999</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74">
-        <v>7000</v>
+        <v>1100</v>
       </c>
       <c r="C74">
-        <f>(-0.092*LN(B74)+1.3571)</f>
-        <v>0.54256278062055452</v>
+        <f t="shared" si="2"/>
+        <v>0.67222907948683819</v>
       </c>
       <c r="D74">
-        <v>0.34939999999999999</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B75">
-        <v>7500</v>
+        <v>1200</v>
       </c>
       <c r="C75">
-        <f>(-0.092*LN(B75)+1.3571)</f>
-        <v>0.53621543644375502</v>
+        <f t="shared" si="2"/>
+        <v>0.66170070287109295</v>
       </c>
       <c r="D75">
-        <v>0.34939999999999999</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76">
-        <v>8000</v>
+        <v>1300</v>
       </c>
       <c r="C76">
-        <f>(-0.092*LN(B76)+1.3571)</f>
-        <v>0.53027789249909851</v>
+        <f t="shared" si="2"/>
+        <v>0.65201553524259503</v>
       </c>
       <c r="D76">
-        <v>0.34939999999999999</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="C77">
-        <f>(-0.118*LN(B77)+1.5215)</f>
-        <v>0.706384877080108</v>
+        <f t="shared" si="2"/>
+        <v>0.64304847061199477</v>
       </c>
       <c r="D77">
-        <v>0.3795</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
@@ -11695,886 +11695,7606 @@
         <v>1500</v>
       </c>
       <c r="C78">
-        <f>(-0.118*LN(B78)+1.5215)</f>
-        <v>0.65853999432334454</v>
+        <f t="shared" si="2"/>
+        <v>0.63470033316207364</v>
       </c>
       <c r="D78">
-        <v>0.3795</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B79">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="C79">
-        <f>(-0.118*LN(B79)+1.5215)</f>
-        <v>0.62459350977403438</v>
+        <f t="shared" si="2"/>
+        <v>0.62689117210442746</v>
       </c>
       <c r="D79">
-        <v>0.3795</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B80">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="C80">
-        <f>(-0.118*LN(B80)+1.5215)</f>
-        <v>0.59826257071895772</v>
+        <f t="shared" si="2"/>
+        <v>0.6195555928646389</v>
       </c>
       <c r="D80">
-        <v>0.3795</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="C81">
-        <f>(-0.118*LN(B81)+1.5215)</f>
-        <v>0.57674862701727114</v>
+        <f t="shared" si="2"/>
+        <v>0.6126394247900051</v>
       </c>
       <c r="D81">
-        <v>0.3795</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82">
-        <v>3500</v>
+        <v>1900</v>
       </c>
       <c r="C82">
-        <f>(-0.118*LN(B82)+1.5215)</f>
-        <v>0.55855884679765455</v>
+        <f t="shared" si="2"/>
+        <v>0.60609729101630172</v>
       </c>
       <c r="D82">
-        <v>0.3795</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="C83">
-        <f>(-0.118*LN(B83)+1.5215)</f>
-        <v>0.54280214246796088</v>
+        <f t="shared" si="2"/>
+        <v>0.59989080239540815</v>
       </c>
       <c r="D83">
-        <v>0.3795</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84">
-        <v>4500</v>
+        <v>2100</v>
       </c>
       <c r="C84">
-        <f>(-0.118*LN(B84)+1.5215)</f>
-        <v>0.52890374426050757</v>
+        <f t="shared" si="2"/>
+        <v>0.59398719253090682</v>
       </c>
       <c r="D84">
-        <v>0.3795</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B85">
-        <v>5000</v>
+        <v>2200</v>
       </c>
       <c r="C85">
-        <f>(-0.118*LN(B85)+1.5215)</f>
-        <v>0.51647120341288399</v>
+        <f t="shared" si="2"/>
+        <v>0.58835827063908486</v>
       </c>
       <c r="D85">
-        <v>0.3795</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B86">
-        <v>5500</v>
+        <v>2300</v>
       </c>
       <c r="C86">
-        <f>(-0.118*LN(B86)+1.5215)</f>
-        <v>0.50522460219597387</v>
+        <f t="shared" si="2"/>
+        <v>0.58297960736801391</v>
       </c>
       <c r="D86">
-        <v>0.3795</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B87">
-        <v>6000</v>
+        <v>2400</v>
       </c>
       <c r="C87">
-        <f>(-0.118*LN(B87)+1.5215)</f>
-        <v>0.49495725971119753</v>
+        <f t="shared" si="2"/>
+        <v>0.57782989402333962</v>
       </c>
       <c r="D87">
-        <v>0.3795</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B88">
-        <v>6500</v>
+        <v>2500</v>
       </c>
       <c r="C88">
-        <f>(-0.118*LN(B88)+1.5215)</f>
-        <v>0.48551222020572027</v>
+        <f t="shared" si="2"/>
+        <v>0.57289043268638873</v>
       </c>
       <c r="D88">
-        <v>0.3795</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B89">
-        <v>7000</v>
+        <v>2600</v>
       </c>
       <c r="C89">
-        <f>(-0.118*LN(B89)+1.5215)</f>
-        <v>0.47676747949158105</v>
+        <f t="shared" si="2"/>
+        <v>0.5681447263948417</v>
       </c>
       <c r="D89">
-        <v>0.3795</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90">
-        <v>7500</v>
+        <v>2700</v>
       </c>
       <c r="C90">
-        <f>(-0.118*LN(B90)+1.5215)</f>
-        <v>0.46862632065612075</v>
+        <f t="shared" si="2"/>
+        <v>0.56357814670891726</v>
       </c>
       <c r="D90">
-        <v>0.3795</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91">
-        <v>8000</v>
+        <v>2800</v>
       </c>
       <c r="C91">
-        <f>(-0.118*LN(B91)+1.5215)</f>
-        <v>0.46101077516188727</v>
+        <f t="shared" si="2"/>
+        <v>0.55917766176424133</v>
       </c>
       <c r="D91">
-        <v>0.3795</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92">
-        <v>1000</v>
+        <v>2900</v>
       </c>
       <c r="C92">
-        <f>(-0.119*LN(B92)+1.4798)</f>
-        <v>0.6577771218011258</v>
+        <f t="shared" si="2"/>
+        <v>0.55493161206707764</v>
       </c>
       <c r="D92">
-        <v>0.39960000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="C93">
-        <f>(-0.119*LN(B93)+1.4798)</f>
-        <v>0.60952677393625421</v>
+        <f t="shared" si="2"/>
+        <v>0.55082952431432031</v>
       </c>
       <c r="D93">
-        <v>0.39960000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94">
-        <v>2000</v>
+        <v>3100</v>
       </c>
       <c r="C94">
-        <f>(-0.119*LN(B94)+1.4798)</f>
-        <v>0.57529260731449228</v>
+        <f t="shared" si="2"/>
+        <v>0.54686195575273844</v>
       </c>
       <c r="D94">
-        <v>0.39960000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="C95">
-        <f>(-0.119*LN(B95)+1.4798)</f>
-        <v>0.54873852470810136</v>
+        <f t="shared" si="2"/>
+        <v>0.54302036325667402</v>
       </c>
       <c r="D95">
-        <v>0.39960000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="C96">
-        <f>(-0.119*LN(B96)+1.4798)</f>
-        <v>0.5270422594496208</v>
+        <f t="shared" si="2"/>
+        <v>0.5392969925579969</v>
       </c>
       <c r="D96">
-        <v>0.39960000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B97">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="C97">
-        <f>(-0.119*LN(B97)+1.4798)</f>
-        <v>0.50869832855017694</v>
+        <f t="shared" si="2"/>
+        <v>0.53568478401688557</v>
       </c>
       <c r="D97">
-        <v>0.39960000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B98">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="C98">
-        <f>(-0.119*LN(B98)+1.4798)</f>
-        <v>0.49280809282785876</v>
+        <f t="shared" si="2"/>
+        <v>0.53217729205522202</v>
       </c>
       <c r="D98">
-        <v>0.39960000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B99">
-        <v>4500</v>
+        <v>3600</v>
       </c>
       <c r="C99">
-        <f>(-0.119*LN(B99)+1.4798)</f>
-        <v>0.47879191158474899</v>
+        <f t="shared" si="2"/>
+        <v>0.52876861594225177</v>
       </c>
       <c r="D99">
-        <v>0.39960000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B100">
-        <v>5000</v>
+        <v>3700</v>
       </c>
       <c r="C100">
-        <f>(-0.119*LN(B100)+1.4798)</f>
-        <v>0.46625401022146762</v>
+        <f t="shared" si="2"/>
+        <v>0.52545334006548994</v>
       </c>
       <c r="D100">
-        <v>0.39960000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B101">
-        <v>5500</v>
+        <v>3800</v>
       </c>
       <c r="C101">
-        <f>(-0.119*LN(B101)+1.4798)</f>
-        <v>0.45491209882475325</v>
+        <f t="shared" si="2"/>
+        <v>0.52222648216854828</v>
       </c>
       <c r="D101">
-        <v>0.39960000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B102">
-        <v>6000</v>
+        <v>3900</v>
       </c>
       <c r="C102">
-        <f>(-0.119*LN(B102)+1.4798)</f>
-        <v>0.44455774496298739</v>
+        <f t="shared" si="2"/>
+        <v>0.51908344831375386</v>
       </c>
       <c r="D102">
-        <v>0.39960000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B103">
-        <v>6500</v>
+        <v>4000</v>
       </c>
       <c r="C103">
-        <f>(-0.119*LN(B103)+1.4798)</f>
-        <v>0.43503266274983643</v>
+        <f t="shared" si="2"/>
+        <v>0.51601999354765482</v>
       </c>
       <c r="D103">
-        <v>0.39960000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B104">
-        <v>7000</v>
+        <v>4100</v>
       </c>
       <c r="C104">
-        <f>(-0.119*LN(B104)+1.4798)</f>
-        <v>0.42621381406354342</v>
+        <f t="shared" si="2"/>
+        <v>0.51303218742421985</v>
       </c>
       <c r="D104">
-        <v>0.39960000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B105">
-        <v>7500</v>
+        <v>4200</v>
       </c>
       <c r="C105">
-        <f>(-0.119*LN(B105)+1.4798)</f>
-        <v>0.41800366235659614</v>
+        <f t="shared" si="2"/>
+        <v>0.51011638368315348</v>
       </c>
       <c r="D105">
-        <v>0.39960000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B106">
-        <v>8000</v>
+        <v>4300</v>
       </c>
       <c r="C106">
-        <f>(-0.119*LN(B106)+1.4798)</f>
-        <v>0.41032357834122535</v>
+        <f t="shared" si="2"/>
+        <v>0.50726919349651989</v>
       </c>
       <c r="D106">
-        <v>0.39960000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B107">
-        <v>1000</v>
+        <v>4400</v>
       </c>
       <c r="C107">
-        <f>(-0.118*LN(B107)+1.5267)</f>
-        <v>0.71158487708010787</v>
+        <f t="shared" si="2"/>
+        <v>0.5044874617913313</v>
       </c>
       <c r="D107">
-        <v>0.36599999999999999</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B108">
-        <v>1500</v>
+        <v>4500</v>
       </c>
       <c r="C108">
-        <f>(-0.118*LN(B108)+1.5267)</f>
-        <v>0.66373999432334441</v>
+        <f t="shared" si="2"/>
+        <v>0.50176824623323224</v>
       </c>
       <c r="D108">
-        <v>0.36599999999999999</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B109">
-        <v>2000</v>
+        <v>4600</v>
       </c>
       <c r="C109">
-        <f>(-0.118*LN(B109)+1.5267)</f>
-        <v>0.62979350977403425</v>
+        <f t="shared" si="2"/>
+        <v>0.49910879852026047</v>
       </c>
       <c r="D109">
-        <v>0.36599999999999999</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B110">
-        <v>2500</v>
+        <v>4700</v>
       </c>
       <c r="C110">
-        <f>(-0.118*LN(B110)+1.5267)</f>
-        <v>0.60346257071895759</v>
+        <f t="shared" si="2"/>
+        <v>0.49650654768852398</v>
       </c>
       <c r="D110">
-        <v>0.36599999999999999</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B111">
-        <v>3000</v>
+        <v>4800</v>
       </c>
       <c r="C111">
-        <f>(-0.118*LN(B111)+1.5267)</f>
-        <v>0.58194862701727101</v>
+        <f t="shared" si="2"/>
+        <v>0.49395908517558618</v>
       </c>
       <c r="D111">
-        <v>0.36599999999999999</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B112">
-        <v>3500</v>
+        <v>4900</v>
       </c>
       <c r="C112">
-        <f>(-0.118*LN(B112)+1.5267)</f>
-        <v>0.56375884679765442</v>
+        <f t="shared" si="2"/>
+        <v>0.4914641514240552</v>
       </c>
       <c r="D112">
-        <v>0.36599999999999999</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B113">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="C113">
-        <f>(-0.118*LN(B113)+1.5267)</f>
-        <v>0.54800214246796075</v>
+        <f t="shared" si="2"/>
+        <v>0.48901962383863529</v>
       </c>
       <c r="D113">
-        <v>0.36599999999999999</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B114">
-        <v>4500</v>
+        <v>5100</v>
       </c>
       <c r="C114">
-        <f>(-0.118*LN(B114)+1.5267)</f>
-        <v>0.53410374426050744</v>
+        <f t="shared" si="2"/>
+        <v>0.48662350593579751</v>
       </c>
       <c r="D114">
-        <v>0.36599999999999999</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B115">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="C115">
-        <f>(-0.118*LN(B115)+1.5267)</f>
-        <v>0.52167120341288387</v>
+        <f t="shared" si="2"/>
+        <v>0.48427391754708826</v>
       </c>
       <c r="D115">
-        <v>0.36599999999999999</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B116">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="C116">
-        <f>(-0.118*LN(B116)+1.5267)</f>
-        <v>0.51042460219597374</v>
+        <f t="shared" si="2"/>
+        <v>0.48196908595563448</v>
       </c>
       <c r="D116">
-        <v>0.36599999999999999</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B117">
-        <v>6000</v>
+        <v>5400</v>
       </c>
       <c r="C117">
-        <f>(-0.118*LN(B117)+1.5267)</f>
-        <v>0.5001572597111974</v>
+        <f t="shared" si="2"/>
+        <v>0.47970733786116382</v>
       </c>
       <c r="D117">
-        <v>0.36599999999999999</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B118">
-        <v>6500</v>
+        <v>5500</v>
       </c>
       <c r="C118">
-        <f>(-0.118*LN(B118)+1.5267)</f>
-        <v>0.49071222020572014</v>
+        <f t="shared" si="2"/>
+        <v>0.47748709208231199</v>
       </c>
       <c r="D118">
-        <v>0.36599999999999999</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B119">
-        <v>7000</v>
+        <v>5600</v>
       </c>
       <c r="C119">
-        <f>(-0.118*LN(B119)+1.5267)</f>
-        <v>0.48196747949158092</v>
+        <f t="shared" si="2"/>
+        <v>0.47530685291648789</v>
       </c>
       <c r="D119">
-        <v>0.36599999999999999</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B120">
-        <v>7500</v>
+        <v>5700</v>
       </c>
       <c r="C120">
-        <f>(-0.118*LN(B120)+1.5267)</f>
-        <v>0.47382632065612063</v>
+        <f t="shared" si="2"/>
+        <v>0.47316520408746054</v>
       </c>
       <c r="D120">
-        <v>0.36599999999999999</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B121">
-        <v>8000</v>
+        <v>5800</v>
       </c>
       <c r="C121">
-        <f>(-0.118*LN(B121)+1.5267)</f>
-        <v>0.46621077516188714</v>
+        <f t="shared" si="2"/>
+        <v>0.47106080321932442</v>
       </c>
       <c r="D121">
-        <v>0.36599999999999999</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B122">
-        <v>1000</v>
+        <v>5900</v>
       </c>
       <c r="C122">
-        <f>(-0.138*LN(B122)+1.6153)</f>
-        <v>0.66202977150046505</v>
+        <f t="shared" si="2"/>
+        <v>0.468992376782849</v>
       </c>
       <c r="D122">
-        <v>0.41970000000000002</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B123">
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="C123">
-        <f>(-0.138*LN(B123)+1.6153)</f>
-        <v>0.60607558658153837</v>
+        <f t="shared" si="2"/>
+        <v>0.46695871546656686</v>
       </c>
       <c r="D123">
-        <v>0.41970000000000002</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B124">
-        <v>2000</v>
+        <v>6100</v>
       </c>
       <c r="C124">
-        <f>(-0.138*LN(B124)+1.6153)</f>
-        <v>0.56637546058319255</v>
+        <f t="shared" si="2"/>
+        <v>0.46495866993047041</v>
       </c>
       <c r="D124">
-        <v>0.41970000000000002</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B125">
-        <v>2500</v>
+        <v>6200</v>
       </c>
       <c r="C125">
-        <f>(-0.138*LN(B125)+1.6153)</f>
-        <v>0.5355816505018316</v>
+        <f t="shared" si="2"/>
+        <v>0.462991146904985</v>
       </c>
       <c r="D125">
-        <v>0.41970000000000002</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B126">
-        <v>3000</v>
+        <v>6300</v>
       </c>
       <c r="C126">
-        <f>(-0.138*LN(B126)+1.6153)</f>
-        <v>0.51042127566426587</v>
+        <f t="shared" si="2"/>
+        <v>0.46105510560206575</v>
       </c>
       <c r="D126">
-        <v>0.41970000000000002</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B127">
-        <v>3500</v>
+        <v>6400</v>
       </c>
       <c r="C127">
-        <f>(-0.138*LN(B127)+1.6153)</f>
-        <v>0.48914848184810422</v>
+        <f t="shared" si="2"/>
+        <v>0.4591495544089208</v>
       </c>
       <c r="D127">
-        <v>0.41970000000000002</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B128">
-        <v>4000</v>
+        <v>6500</v>
       </c>
       <c r="C128">
-        <f>(-0.138*LN(B128)+1.6153)</f>
-        <v>0.47072114966592005</v>
+        <f t="shared" si="2"/>
+        <v>0.45727354783806895</v>
       </c>
       <c r="D128">
-        <v>0.41970000000000002</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B129">
-        <v>4500</v>
+        <v>6600</v>
       </c>
       <c r="C129">
-        <f>(-0.138*LN(B129)+1.6153)</f>
-        <v>0.45446709074533898</v>
+        <f t="shared" si="2"/>
+        <v>0.45542618371024357</v>
       </c>
       <c r="D129">
-        <v>0.41970000000000002</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B130">
-        <v>5000</v>
+        <v>6700</v>
       </c>
       <c r="C130">
-        <f>(-0.138*LN(B130)+1.6153)</f>
-        <v>0.4399273395845591</v>
+        <f t="shared" si="2"/>
+        <v>0.45360660054913415</v>
       </c>
       <c r="D130">
-        <v>0.41970000000000002</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B131">
-        <v>5500</v>
+        <v>6800</v>
       </c>
       <c r="C131">
-        <f>(-0.138*LN(B131)+1.6153)</f>
-        <v>0.42677453477156235</v>
+        <f t="shared" si="2"/>
+        <v>0.45181397516913213</v>
       </c>
       <c r="D131">
-        <v>0.41970000000000002</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B132">
-        <v>6000</v>
+        <v>6900</v>
       </c>
       <c r="C132">
-        <f>(-0.138*LN(B132)+1.6153)</f>
-        <v>0.41476696474699337</v>
+        <f t="shared" si="2"/>
+        <v>0.45004752043917273</v>
       </c>
       <c r="D132">
-        <v>0.41970000000000002</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B133">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="C133">
-        <f>(-0.138*LN(B133)+1.6153)</f>
-        <v>0.40372107108804545</v>
+        <f t="shared" si="2"/>
+        <v>0.44830648320746858</v>
       </c>
       <c r="D133">
-        <v>0.41970000000000002</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B134">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="C134">
-        <f>(-0.138*LN(B134)+1.6153)</f>
-        <v>0.39349417093083172</v>
+        <f t="shared" si="2"/>
+        <v>0.44659014237344197</v>
       </c>
       <c r="D134">
-        <v>0.41970000000000002</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B135">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="C135">
-        <f>(-0.138*LN(B135)+1.6153)</f>
-        <v>0.38397315466563242</v>
+        <f t="shared" si="2"/>
+        <v>0.44489780709449844</v>
       </c>
       <c r="D135">
-        <v>0.41970000000000002</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B136">
-        <v>8000</v>
+        <v>7300</v>
       </c>
       <c r="C136">
-        <f>(-0.138*LN(B136)+1.6153)</f>
-        <v>0.37506683874864755</v>
+        <f t="shared" si="2"/>
+        <v>0.4432288151164856</v>
       </c>
       <c r="D136">
-        <v>0.41970000000000002</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B137">
-        <v>1000</v>
+        <v>7400</v>
       </c>
       <c r="C137">
-        <f>(-0.125*LN(B137)+1.4905)</f>
-        <v>0.62703059012723283</v>
+        <f t="shared" ref="C137:C143" si="3">(-0.121*LN(B137)+1.5196)</f>
+        <v>0.44158253121773661</v>
       </c>
       <c r="D137">
-        <v>0.43309999999999998</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B138">
-        <v>1500</v>
+        <v>7500</v>
       </c>
       <c r="C138">
-        <f>(-0.125*LN(B138)+1.4905)</f>
-        <v>0.57634745161371226</v>
+        <f t="shared" si="3"/>
+        <v>0.43995834575754755</v>
       </c>
       <c r="D138">
-        <v>0.43309999999999998</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B139">
-        <v>2000</v>
+        <v>7600</v>
       </c>
       <c r="C139">
-        <f>(-0.125*LN(B139)+1.4905)</f>
-        <v>0.54038719255723966</v>
+        <f t="shared" si="3"/>
+        <v>0.43835567332079495</v>
       </c>
       <c r="D139">
-        <v>0.43309999999999998</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B140">
-        <v>2500</v>
+        <v>7700</v>
       </c>
       <c r="C140">
-        <f>(-0.125*LN(B140)+1.4905)</f>
-        <v>0.51249424864296345</v>
+        <f t="shared" si="3"/>
+        <v>0.43677395145114528</v>
       </c>
       <c r="D140">
-        <v>0.43309999999999998</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B141">
-        <v>3000</v>
+        <v>7800</v>
       </c>
       <c r="C141">
-        <f>(-0.125*LN(B141)+1.4905)</f>
-        <v>0.48970405404371919</v>
+        <f t="shared" si="3"/>
+        <v>0.43521263946600053</v>
       </c>
       <c r="D141">
-        <v>0.43309999999999998</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B142">
-        <v>3500</v>
+        <v>7900</v>
       </c>
       <c r="C142">
-        <f>(-0.125*LN(B142)+1.4905)</f>
-        <v>0.47043521906531183</v>
+        <f t="shared" si="3"/>
+        <v>0.43367121734693148</v>
       </c>
       <c r="D142">
-        <v>0.43309999999999998</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B143">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="C143">
-        <f>(-0.125*LN(B143)+1.4905)</f>
-        <v>0.45374379498724648</v>
+        <f t="shared" si="3"/>
+        <v>0.43214918469990127</v>
       </c>
       <c r="D143">
-        <v>0.43309999999999998</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B144">
-        <v>4500</v>
+        <v>1000</v>
       </c>
       <c r="C144">
-        <f>(-0.125*LN(B144)+1.4905)</f>
-        <v>0.43902091553019851</v>
+        <f t="shared" ref="C144:C207" si="4">(-0.113*LN(B144)+1.3909)</f>
+        <v>0.61032365347501849</v>
       </c>
       <c r="D144">
-        <v>0.43309999999999998</v>
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B145">
-        <v>5000</v>
+        <v>1100</v>
       </c>
       <c r="C145">
-        <f>(-0.125*LN(B145)+1.4905)</f>
-        <v>0.42585085107297016</v>
+        <f t="shared" si="4"/>
+        <v>0.5995536031571298</v>
       </c>
       <c r="D145">
-        <v>0.43309999999999998</v>
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B146">
-        <v>5500</v>
+        <v>1200</v>
       </c>
       <c r="C146">
-        <f>(-0.125*LN(B146)+1.4905)</f>
-        <v>0.41393707859742968</v>
+        <f t="shared" si="4"/>
+        <v>0.58972131755730162</v>
       </c>
       <c r="D146">
-        <v>0.43309999999999998</v>
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B147">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="C147">
-        <f>(-0.125*LN(B147)+1.4905)</f>
-        <v>0.40306065647372602</v>
+        <f t="shared" si="4"/>
+        <v>0.58067649159019208</v>
       </c>
       <c r="D147">
-        <v>0.43309999999999998</v>
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B148">
-        <v>6500</v>
+        <v>1400</v>
       </c>
       <c r="C148">
-        <f>(-0.125*LN(B148)+1.4905)</f>
-        <v>0.39305531801453397</v>
+        <f t="shared" si="4"/>
+        <v>0.57230229073682148</v>
       </c>
       <c r="D148">
-        <v>0.43309999999999998</v>
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B149">
-        <v>7000</v>
+        <v>1500</v>
       </c>
       <c r="C149">
-        <f>(-0.125*LN(B149)+1.4905)</f>
-        <v>0.38379182149531865</v>
+        <f t="shared" si="4"/>
+        <v>0.56450609625879589</v>
       </c>
       <c r="D149">
-        <v>0.43309999999999998</v>
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B150">
-        <v>7500</v>
+        <v>1600</v>
       </c>
       <c r="C150">
-        <f>(-0.125*LN(B150)+1.4905)</f>
-        <v>0.3751677125594497</v>
+        <f t="shared" si="4"/>
+        <v>0.55721324337025036</v>
       </c>
       <c r="D150">
-        <v>0.43309999999999998</v>
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B151">
+        <v>1700</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="4"/>
+        <v>0.55036266110499332</v>
+      </c>
+      <c r="D151">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B152">
+        <v>1800</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="4"/>
+        <v>0.54390376034107901</v>
+      </c>
+      <c r="D152">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B153">
+        <v>1900</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="4"/>
+        <v>0.53779416433753791</v>
+      </c>
+      <c r="D153">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B154">
+        <v>2000</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="4"/>
+        <v>0.53199802207174474</v>
+      </c>
+      <c r="D154">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B155">
+        <v>2100</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="4"/>
+        <v>0.52648473352059888</v>
+      </c>
+      <c r="D155">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B156">
+        <v>2200</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="4"/>
+        <v>0.52122797175385605</v>
+      </c>
+      <c r="D156">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B157">
+        <v>2300</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="4"/>
+        <v>0.51620492258335171</v>
+      </c>
+      <c r="D157">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B158">
+        <v>2400</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="4"/>
+        <v>0.51139568615402786</v>
+      </c>
+      <c r="D158">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B159">
+        <v>2500</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="4"/>
+        <v>0.50678280077323901</v>
+      </c>
+      <c r="D159">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B160">
+        <v>2600</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="4"/>
+        <v>0.50235086018691821</v>
+      </c>
+      <c r="D160">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B161">
+        <v>2700</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="4"/>
+        <v>0.49808620312485652</v>
+      </c>
+      <c r="D161">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B162">
+        <v>2800</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="4"/>
+        <v>0.49397665933354762</v>
+      </c>
+      <c r="D162">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B163">
+        <v>2900</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="4"/>
+        <v>0.49001134019487413</v>
+      </c>
+      <c r="D163">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B164">
+        <v>3000</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="4"/>
+        <v>0.48618046485552224</v>
+      </c>
+      <c r="D164">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B165">
+        <v>3100</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="4"/>
+        <v>0.48247521487652423</v>
+      </c>
+      <c r="D165">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B166">
+        <v>3200</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="4"/>
+        <v>0.47888761196697649</v>
+      </c>
+      <c r="D166">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B167">
+        <v>3300</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="4"/>
+        <v>0.47541041453763344</v>
+      </c>
+      <c r="D167">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B168">
+        <v>3400</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="4"/>
+        <v>0.47203702970171946</v>
+      </c>
+      <c r="D168">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B169">
+        <v>3500</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="4"/>
+        <v>0.468761438035042</v>
+      </c>
+      <c r="D169">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B170">
+        <v>3600</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="4"/>
+        <v>0.46557812893780526</v>
+      </c>
+      <c r="D170">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B171">
+        <v>3700</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="4"/>
+        <v>0.46248204485454836</v>
+      </c>
+      <c r="D171">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B172">
+        <v>3800</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="4"/>
+        <v>0.45946853293426404</v>
+      </c>
+      <c r="D172">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B173">
+        <v>3900</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="4"/>
+        <v>0.45653330297069572</v>
+      </c>
+      <c r="D173">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B174">
+        <v>4000</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="4"/>
+        <v>0.45367239066847087</v>
+      </c>
+      <c r="D174">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B175">
+        <v>4100</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="4"/>
+        <v>0.4508821254457589</v>
+      </c>
+      <c r="D175">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B176">
+        <v>4200</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="4"/>
+        <v>0.44815910211732501</v>
+      </c>
+      <c r="D176">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B177">
+        <v>4300</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="4"/>
+        <v>0.44550015590997316</v>
+      </c>
+      <c r="D177">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B178">
+        <v>4400</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="4"/>
+        <v>0.44290234035058207</v>
+      </c>
+      <c r="D178">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B179">
+        <v>4500</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="4"/>
+        <v>0.44036290763929953</v>
+      </c>
+      <c r="D179">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B180">
+        <v>4600</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="4"/>
+        <v>0.43787929118007785</v>
+      </c>
+      <c r="D180">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B181">
+        <v>4700</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="4"/>
+        <v>0.43544908999010912</v>
+      </c>
+      <c r="D181">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B182">
+        <v>4800</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="4"/>
+        <v>0.433070054750754</v>
+      </c>
+      <c r="D182">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B183">
+        <v>4900</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="4"/>
+        <v>0.43074007529684477</v>
+      </c>
+      <c r="D183">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B184">
+        <v>5000</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="4"/>
+        <v>0.42845716936996503</v>
+      </c>
+      <c r="D184">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B185">
+        <v>5100</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="4"/>
+        <v>0.42621947248549674</v>
+      </c>
+      <c r="D185">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B186">
+        <v>5200</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="4"/>
+        <v>0.42402522878364435</v>
+      </c>
+      <c r="D186">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B187">
+        <v>5300</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="4"/>
+        <v>0.42187278275195594</v>
+      </c>
+      <c r="D187">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B188">
+        <v>5400</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="4"/>
+        <v>0.41976057172158265</v>
+      </c>
+      <c r="D188">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B189">
+        <v>5500</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="4"/>
+        <v>0.41768711905207645</v>
+      </c>
+      <c r="D189">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B190">
+        <v>5600</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="4"/>
+        <v>0.41565102793027375</v>
+      </c>
+      <c r="D190">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B191">
+        <v>5700</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="4"/>
+        <v>0.41365097571804155</v>
+      </c>
+      <c r="D191">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B192">
+        <v>5800</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="4"/>
+        <v>0.41168570879160038</v>
+      </c>
+      <c r="D192">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B193">
+        <v>5900</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="4"/>
+        <v>0.40975403782199937</v>
+      </c>
+      <c r="D193">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B194">
+        <v>6000</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="4"/>
+        <v>0.40785483345224838</v>
+      </c>
+      <c r="D194">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B195">
+        <v>6100</v>
+      </c>
+      <c r="C195">
+        <f t="shared" si="4"/>
+        <v>0.40598702233176154</v>
+      </c>
+      <c r="D195">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B196">
+        <v>6200</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="4"/>
+        <v>0.40414958347325036</v>
+      </c>
+      <c r="D196">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B197">
+        <v>6300</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="4"/>
+        <v>0.40234154490110252</v>
+      </c>
+      <c r="D197">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B198">
+        <v>6400</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="4"/>
+        <v>0.40056198056370285</v>
+      </c>
+      <c r="D198">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B199">
+        <v>6500</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="4"/>
+        <v>0.39881000748513873</v>
+      </c>
+      <c r="D199">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B200">
+        <v>6600</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="4"/>
+        <v>0.39708478313435958</v>
+      </c>
+      <c r="D200">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B201">
+        <v>6700</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="4"/>
+        <v>0.39538550299216657</v>
+      </c>
+      <c r="D201">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B202">
+        <v>6800</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="4"/>
+        <v>0.39371139829844559</v>
+      </c>
+      <c r="D202">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B203">
+        <v>6900</v>
+      </c>
+      <c r="C203">
+        <f t="shared" si="4"/>
+        <v>0.39206173396385535</v>
+      </c>
+      <c r="D203">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B204">
+        <v>7000</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="4"/>
+        <v>0.39043580663176813</v>
+      </c>
+      <c r="D204">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B205">
+        <v>7100</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="4"/>
+        <v>0.38883294287767711</v>
+      </c>
+      <c r="D205">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B206">
+        <v>7200</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="4"/>
+        <v>0.3872524975345315</v>
+      </c>
+      <c r="D206">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B207">
+        <v>7300</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="4"/>
+        <v>0.38569385213357754</v>
+      </c>
+      <c r="D207">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B208">
+        <v>7400</v>
+      </c>
+      <c r="C208">
+        <f t="shared" ref="C208:C214" si="5">(-0.113*LN(B208)+1.3909)</f>
+        <v>0.38415641345127449</v>
+      </c>
+      <c r="D208">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B209">
+        <v>7500</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="5"/>
+        <v>0.38263961215374254</v>
+      </c>
+      <c r="D209">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B210">
+        <v>7600</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="5"/>
+        <v>0.38114290153099017</v>
+      </c>
+      <c r="D210">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B211">
+        <v>7700</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="5"/>
+        <v>0.37966575631387922</v>
+      </c>
+      <c r="D211">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B212">
+        <v>7800</v>
+      </c>
+      <c r="C212">
+        <f t="shared" si="5"/>
+        <v>0.37820767156742185</v>
+      </c>
+      <c r="D212">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B213">
+        <v>7900</v>
+      </c>
+      <c r="C213">
+        <f t="shared" si="5"/>
+        <v>0.37676816165457239</v>
+      </c>
+      <c r="D213">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B214">
         <v>8000</v>
       </c>
-      <c r="C151">
-        <f>(-0.125*LN(B151)+1.4905)</f>
+      <c r="C214">
+        <f t="shared" si="5"/>
+        <v>0.37534675926519712</v>
+      </c>
+      <c r="D214">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B215">
+        <v>1000</v>
+      </c>
+      <c r="C215">
+        <f t="shared" ref="C215:C278" si="6">(-0.11*LN(B215)+1.6474)</f>
+        <v>0.88754691931196494</v>
+      </c>
+      <c r="D215">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B216">
+        <v>1100</v>
+      </c>
+      <c r="C216">
+        <f t="shared" si="6"/>
+        <v>0.8770627995334892</v>
+      </c>
+      <c r="D216">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B217">
+        <v>1200</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="6"/>
+        <v>0.86749154806462991</v>
+      </c>
+      <c r="D217">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B218">
+        <v>1300</v>
+      </c>
+      <c r="C218">
+        <f t="shared" si="6"/>
+        <v>0.85868685022054092</v>
+      </c>
+      <c r="D218">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B219">
+        <v>1400</v>
+      </c>
+      <c r="C219">
+        <f t="shared" si="6"/>
+        <v>0.85053497328363148</v>
+      </c>
+      <c r="D219">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B220">
+        <v>1500</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="6"/>
+        <v>0.84294575742006683</v>
+      </c>
+      <c r="D220">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B221">
+        <v>1600</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="6"/>
+        <v>0.83584652009493399</v>
+      </c>
+      <c r="D221">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B222">
+        <v>1700</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="6"/>
+        <v>0.82917781169512617</v>
+      </c>
+      <c r="D222">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B223">
+        <v>1800</v>
+      </c>
+      <c r="C223">
+        <f t="shared" si="6"/>
+        <v>0.8228903861727318</v>
+      </c>
+      <c r="D223">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B224">
+        <v>1900</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="6"/>
+        <v>0.81694299183300145</v>
+      </c>
+      <c r="D224">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B225">
+        <v>2000</v>
+      </c>
+      <c r="C225">
+        <f t="shared" si="6"/>
+        <v>0.81130072945037091</v>
+      </c>
+      <c r="D225">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B226">
+        <v>2100</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="6"/>
+        <v>0.80593381139173337</v>
+      </c>
+      <c r="D226">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B227">
+        <v>2200</v>
+      </c>
+      <c r="C227">
+        <f t="shared" si="6"/>
+        <v>0.80081660967189516</v>
+      </c>
+      <c r="D227">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B228">
+        <v>2300</v>
+      </c>
+      <c r="C228">
+        <f t="shared" si="6"/>
+        <v>0.79592691578910346</v>
+      </c>
+      <c r="D228">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B229">
+        <v>2400</v>
+      </c>
+      <c r="C229">
+        <f t="shared" si="6"/>
+        <v>0.79124535820303588</v>
+      </c>
+      <c r="D229">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B230">
+        <v>2500</v>
+      </c>
+      <c r="C230">
+        <f t="shared" si="6"/>
+        <v>0.78675493880580782</v>
+      </c>
+      <c r="D230">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B231">
+        <v>2600</v>
+      </c>
+      <c r="C231">
+        <f t="shared" si="6"/>
+        <v>0.78244066035894688</v>
+      </c>
+      <c r="D231">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B232">
+        <v>2700</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="6"/>
+        <v>0.7782892242808338</v>
+      </c>
+      <c r="D232">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B233">
+        <v>2800</v>
+      </c>
+      <c r="C233">
+        <f t="shared" si="6"/>
+        <v>0.77428878342203755</v>
+      </c>
+      <c r="D233">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B234">
+        <v>2900</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="6"/>
+        <v>0.77042873824279778</v>
+      </c>
+      <c r="D234">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B235">
+        <v>3000</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="6"/>
+        <v>0.76669956755847291</v>
+      </c>
+      <c r="D235">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B236">
+        <v>3100</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="6"/>
+        <v>0.76309268704794386</v>
+      </c>
+      <c r="D236">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B237">
+        <v>3200</v>
+      </c>
+      <c r="C237">
+        <f t="shared" si="6"/>
+        <v>0.75960033023333995</v>
+      </c>
+      <c r="D237">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B238">
+        <v>3300</v>
+      </c>
+      <c r="C238">
+        <f t="shared" si="6"/>
+        <v>0.75621544777999705</v>
+      </c>
+      <c r="D238">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B239">
+        <v>3400</v>
+      </c>
+      <c r="C239">
+        <f t="shared" si="6"/>
+        <v>0.75293162183353224</v>
+      </c>
+      <c r="D239">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B240">
+        <v>3500</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="6"/>
+        <v>0.74974299277747447</v>
+      </c>
+      <c r="D240">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B241">
+        <v>3600</v>
+      </c>
+      <c r="C241">
+        <f t="shared" si="6"/>
+        <v>0.74664419631113788</v>
+      </c>
+      <c r="D241">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B242">
+        <v>3700</v>
+      </c>
+      <c r="C242">
+        <f t="shared" si="6"/>
+        <v>0.74363030915044526</v>
+      </c>
+      <c r="D242">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B243">
+        <v>3800</v>
+      </c>
+      <c r="C243">
+        <f t="shared" si="6"/>
+        <v>0.74069680197140741</v>
+      </c>
+      <c r="D243">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B244">
+        <v>3900</v>
+      </c>
+      <c r="C244">
+        <f t="shared" si="6"/>
+        <v>0.73783949846704888</v>
+      </c>
+      <c r="D244">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B245">
+        <v>4000</v>
+      </c>
+      <c r="C245">
+        <f t="shared" si="6"/>
+        <v>0.73505453958877698</v>
+      </c>
+      <c r="D245">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B246">
+        <v>4100</v>
+      </c>
+      <c r="C246">
+        <f t="shared" si="6"/>
+        <v>0.73233835220383614</v>
+      </c>
+      <c r="D246">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B247">
+        <v>4200</v>
+      </c>
+      <c r="C247">
+        <f t="shared" si="6"/>
+        <v>0.72968762153013944</v>
+      </c>
+      <c r="D247">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B248">
+        <v>4300</v>
+      </c>
+      <c r="C248">
+        <f t="shared" si="6"/>
+        <v>0.72709926681501802</v>
+      </c>
+      <c r="D248">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B249">
+        <v>4400</v>
+      </c>
+      <c r="C249">
+        <f t="shared" si="6"/>
+        <v>0.72457041981030113</v>
+      </c>
+      <c r="D249">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B250">
+        <v>4500</v>
+      </c>
+      <c r="C250">
+        <f t="shared" si="6"/>
+        <v>0.72209840566657468</v>
+      </c>
+      <c r="D250">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B251">
+        <v>4600</v>
+      </c>
+      <c r="C251">
+        <f t="shared" si="6"/>
+        <v>0.71968072592750942</v>
+      </c>
+      <c r="D251">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B252">
+        <v>4700</v>
+      </c>
+      <c r="C252">
+        <f t="shared" si="6"/>
+        <v>0.71731504335320351</v>
+      </c>
+      <c r="D252">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B253">
+        <v>4800</v>
+      </c>
+      <c r="C253">
+        <f t="shared" si="6"/>
+        <v>0.71499916834144195</v>
+      </c>
+      <c r="D253">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B254">
+        <v>4900</v>
+      </c>
+      <c r="C254">
+        <f t="shared" si="6"/>
+        <v>0.7127310467491409</v>
+      </c>
+      <c r="D254">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B255">
+        <v>5000</v>
+      </c>
+      <c r="C255">
+        <f t="shared" si="6"/>
+        <v>0.71050874894421379</v>
+      </c>
+      <c r="D255">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B256">
+        <v>5100</v>
+      </c>
+      <c r="C256">
+        <f t="shared" si="6"/>
+        <v>0.70833045994163402</v>
+      </c>
+      <c r="D256">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B257">
+        <v>5200</v>
+      </c>
+      <c r="C257">
+        <f t="shared" si="6"/>
+        <v>0.70619447049735284</v>
+      </c>
+      <c r="D257">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B258">
+        <v>5300</v>
+      </c>
+      <c r="C258">
+        <f t="shared" si="6"/>
+        <v>0.70409916905057657</v>
+      </c>
+      <c r="D258">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B259">
+        <v>5400</v>
+      </c>
+      <c r="C259">
+        <f t="shared" si="6"/>
+        <v>0.70204303441923965</v>
+      </c>
+      <c r="D259">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B260">
+        <v>5500</v>
+      </c>
+      <c r="C260">
+        <f t="shared" si="6"/>
+        <v>0.70002462916573815</v>
+      </c>
+      <c r="D260">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B261">
+        <v>5600</v>
+      </c>
+      <c r="C261">
+        <f t="shared" si="6"/>
+        <v>0.6980425935604434</v>
+      </c>
+      <c r="D261">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B262">
+        <v>5700</v>
+      </c>
+      <c r="C262">
+        <f t="shared" si="6"/>
+        <v>0.69609564007950941</v>
+      </c>
+      <c r="D262">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B263">
+        <v>5800</v>
+      </c>
+      <c r="C263">
+        <f t="shared" si="6"/>
+        <v>0.69418254838120386</v>
+      </c>
+      <c r="D263">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B264">
+        <v>5900</v>
+      </c>
+      <c r="C264">
+        <f t="shared" si="6"/>
+        <v>0.69230216071168083</v>
+      </c>
+      <c r="D264">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B265">
+        <v>6000</v>
+      </c>
+      <c r="C265">
+        <f t="shared" si="6"/>
+        <v>0.69045337769687898</v>
+      </c>
+      <c r="D265">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B266">
+        <v>6100</v>
+      </c>
+      <c r="C266">
+        <f t="shared" si="6"/>
+        <v>0.68863515448224577</v>
+      </c>
+      <c r="D266">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B267">
+        <v>6200</v>
+      </c>
+      <c r="C267">
+        <f t="shared" si="6"/>
+        <v>0.68684649718634994</v>
+      </c>
+      <c r="D267">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="268" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B268">
+        <v>6300</v>
+      </c>
+      <c r="C268">
+        <f t="shared" si="6"/>
+        <v>0.68508645963824144</v>
+      </c>
+      <c r="D268">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B269">
+        <v>6400</v>
+      </c>
+      <c r="C269">
+        <f t="shared" si="6"/>
+        <v>0.68335414037174613</v>
+      </c>
+      <c r="D269">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="270" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B270">
+        <v>6500</v>
+      </c>
+      <c r="C270">
+        <f t="shared" si="6"/>
+        <v>0.68164867985278987</v>
+      </c>
+      <c r="D270">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B271">
+        <v>6600</v>
+      </c>
+      <c r="C271">
+        <f t="shared" si="6"/>
+        <v>0.67996925791840312</v>
+      </c>
+      <c r="D271">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B272">
+        <v>6700</v>
+      </c>
+      <c r="C272">
+        <f t="shared" si="6"/>
+        <v>0.67831509140830371</v>
+      </c>
+      <c r="D272">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B273">
+        <v>6800</v>
+      </c>
+      <c r="C273">
+        <f t="shared" si="6"/>
+        <v>0.6766854319719382</v>
+      </c>
+      <c r="D273">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B274">
+        <v>6900</v>
+      </c>
+      <c r="C274">
+        <f t="shared" si="6"/>
+        <v>0.67507956403561142</v>
+      </c>
+      <c r="D274">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B275">
+        <v>7000</v>
+      </c>
+      <c r="C275">
+        <f t="shared" si="6"/>
+        <v>0.67349680291588043</v>
+      </c>
+      <c r="D275">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="276" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B276">
+        <v>7100</v>
+      </c>
+      <c r="C276">
+        <f t="shared" si="6"/>
+        <v>0.67193649306676528</v>
+      </c>
+      <c r="D276">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="277" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B277">
+        <v>7200</v>
+      </c>
+      <c r="C277">
+        <f t="shared" si="6"/>
+        <v>0.67039800644954384</v>
+      </c>
+      <c r="D277">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="278" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B278">
+        <v>7300</v>
+      </c>
+      <c r="C278">
+        <f t="shared" si="6"/>
+        <v>0.66888074101498685</v>
+      </c>
+      <c r="D278">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B279">
+        <v>7400</v>
+      </c>
+      <c r="C279">
+        <f t="shared" ref="C279:C285" si="7">(-0.11*LN(B279)+1.6474)</f>
+        <v>0.66738411928885122</v>
+      </c>
+      <c r="D279">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="280" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B280">
+        <v>7500</v>
+      </c>
+      <c r="C280">
+        <f t="shared" si="7"/>
+        <v>0.66590758705231579</v>
+      </c>
+      <c r="D280">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="281" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B281">
+        <v>7600</v>
+      </c>
+      <c r="C281">
+        <f t="shared" si="7"/>
+        <v>0.66445061210981349</v>
+      </c>
+      <c r="D281">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="282" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B282">
+        <v>7700</v>
+      </c>
+      <c r="C282">
+        <f t="shared" si="7"/>
+        <v>0.66301268313740458</v>
+      </c>
+      <c r="D282">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="283" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B283">
+        <v>7800</v>
+      </c>
+      <c r="C283">
+        <f t="shared" si="7"/>
+        <v>0.66159330860545484</v>
+      </c>
+      <c r="D283">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="284" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B284">
+        <v>7900</v>
+      </c>
+      <c r="C284">
+        <f t="shared" si="7"/>
+        <v>0.66019201576993758</v>
+      </c>
+      <c r="D284">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="285" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B285">
+        <v>8000</v>
+      </c>
+      <c r="C285">
+        <f t="shared" si="7"/>
+        <v>0.65880834972718294</v>
+      </c>
+      <c r="D285">
+        <v>0.29920000000000002</v>
+      </c>
+    </row>
+    <row r="286" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B286">
+        <v>1000</v>
+      </c>
+      <c r="C286">
+        <f t="shared" ref="C286:C349" si="8">(-0.092*LN(B286)+1.3571)</f>
+        <v>0.7215865143336434</v>
+      </c>
+      <c r="D286">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B287">
+        <v>1100</v>
+      </c>
+      <c r="C287">
+        <f t="shared" si="8"/>
+        <v>0.71281797779164546</v>
+      </c>
+      <c r="D287">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="288" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B288">
+        <v>1200</v>
+      </c>
+      <c r="C288">
+        <f t="shared" si="8"/>
+        <v>0.70481293110859955</v>
+      </c>
+      <c r="D288">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B289">
+        <v>1300</v>
+      </c>
+      <c r="C289">
+        <f t="shared" si="8"/>
+        <v>0.69744900200263416</v>
+      </c>
+      <c r="D289">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B290">
+        <v>1400</v>
+      </c>
+      <c r="C290">
+        <f t="shared" si="8"/>
+        <v>0.69063106856449186</v>
+      </c>
+      <c r="D290">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="291" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B291">
+        <v>1500</v>
+      </c>
+      <c r="C291">
+        <f t="shared" si="8"/>
+        <v>0.68428372438769225</v>
+      </c>
+      <c r="D291">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="292" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B292">
+        <v>1600</v>
+      </c>
+      <c r="C292">
+        <f t="shared" si="8"/>
+        <v>0.67834618044303574</v>
+      </c>
+      <c r="D292">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="293" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B293">
+        <v>1700</v>
+      </c>
+      <c r="C293">
+        <f t="shared" si="8"/>
+        <v>0.67276871523592374</v>
+      </c>
+      <c r="D293">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="294" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B294">
+        <v>1800</v>
+      </c>
+      <c r="C294">
+        <f t="shared" si="8"/>
+        <v>0.6675101411626484</v>
+      </c>
+      <c r="D294">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="295" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B295">
+        <v>1900</v>
+      </c>
+      <c r="C295">
+        <f t="shared" si="8"/>
+        <v>0.66253595680578303</v>
+      </c>
+      <c r="D295">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="296" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B296">
+        <v>2000</v>
+      </c>
+      <c r="C296">
+        <f t="shared" si="8"/>
+        <v>0.65781697372212844</v>
+      </c>
+      <c r="D296">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="297" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B297">
+        <v>2100</v>
+      </c>
+      <c r="C297">
+        <f t="shared" si="8"/>
+        <v>0.6533282786185407</v>
+      </c>
+      <c r="D297">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="298" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B298">
+        <v>2200</v>
+      </c>
+      <c r="C298">
+        <f t="shared" si="8"/>
+        <v>0.6490484371801305</v>
+      </c>
+      <c r="D298">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="299" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B299">
+        <v>2300</v>
+      </c>
+      <c r="C299">
+        <f t="shared" si="8"/>
+        <v>0.64495887502361382</v>
+      </c>
+      <c r="D299">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="300" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B300">
+        <v>2400</v>
+      </c>
+      <c r="C300">
+        <f t="shared" si="8"/>
+        <v>0.64104339049708459</v>
+      </c>
+      <c r="D300">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="301" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B301">
+        <v>2500</v>
+      </c>
+      <c r="C301">
+        <f t="shared" si="8"/>
+        <v>0.63728776700122114</v>
+      </c>
+      <c r="D301">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="302" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B302">
+        <v>2600</v>
+      </c>
+      <c r="C302">
+        <f t="shared" si="8"/>
+        <v>0.63367946139111919</v>
+      </c>
+      <c r="D302">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="303" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B303">
+        <v>2700</v>
+      </c>
+      <c r="C303">
+        <f t="shared" si="8"/>
+        <v>0.63020735121669735</v>
+      </c>
+      <c r="D303">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="304" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B304">
+        <v>2800</v>
+      </c>
+      <c r="C304">
+        <f t="shared" si="8"/>
+        <v>0.62686152795297678</v>
+      </c>
+      <c r="D304">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B305">
+        <v>2900</v>
+      </c>
+      <c r="C305">
+        <f t="shared" si="8"/>
+        <v>0.62363312653033998</v>
+      </c>
+      <c r="D305">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="306" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B306">
+        <v>3000</v>
+      </c>
+      <c r="C306">
+        <f t="shared" si="8"/>
+        <v>0.6205141837761774</v>
+      </c>
+      <c r="D306">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="307" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B307">
+        <v>3100</v>
+      </c>
+      <c r="C307">
+        <f t="shared" si="8"/>
+        <v>0.61749752007646219</v>
+      </c>
+      <c r="D307">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="308" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B308">
+        <v>3200</v>
+      </c>
+      <c r="C308">
+        <f t="shared" si="8"/>
+        <v>0.61457663983152067</v>
+      </c>
+      <c r="D308">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="309" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B309">
+        <v>3300</v>
+      </c>
+      <c r="C309">
+        <f t="shared" si="8"/>
+        <v>0.61174564723417935</v>
+      </c>
+      <c r="D309">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="310" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B310">
+        <v>3400</v>
+      </c>
+      <c r="C310">
+        <f t="shared" si="8"/>
+        <v>0.60899917462440878</v>
+      </c>
+      <c r="D310">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="311" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B311">
+        <v>3500</v>
+      </c>
+      <c r="C311">
+        <f t="shared" si="8"/>
+        <v>0.60633232123206948</v>
+      </c>
+      <c r="D311">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="312" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B312">
+        <v>3600</v>
+      </c>
+      <c r="C312">
+        <f t="shared" si="8"/>
+        <v>0.60374060055113354</v>
+      </c>
+      <c r="D312">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="313" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B313">
+        <v>3700</v>
+      </c>
+      <c r="C313">
+        <f t="shared" si="8"/>
+        <v>0.60121989492582695</v>
+      </c>
+      <c r="D313">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="314" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B314">
+        <v>3800</v>
+      </c>
+      <c r="C314">
+        <f t="shared" si="8"/>
+        <v>0.59876641619426807</v>
+      </c>
+      <c r="D314">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B315">
+        <v>3900</v>
+      </c>
+      <c r="C315">
+        <f t="shared" si="8"/>
+        <v>0.59637667144516815</v>
+      </c>
+      <c r="D315">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="316" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B316">
+        <v>4000</v>
+      </c>
+      <c r="C316">
+        <f t="shared" si="8"/>
+        <v>0.59404743311061348</v>
+      </c>
+      <c r="D316">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="317" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B317">
+        <v>4100</v>
+      </c>
+      <c r="C317">
+        <f t="shared" si="8"/>
+        <v>0.59177571275229934</v>
+      </c>
+      <c r="D317">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="318" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B318">
+        <v>4200</v>
+      </c>
+      <c r="C318">
+        <f t="shared" si="8"/>
+        <v>0.58955873800702574</v>
+      </c>
+      <c r="D318">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="319" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B319">
+        <v>4300</v>
+      </c>
+      <c r="C319">
+        <f t="shared" si="8"/>
+        <v>0.5873939322452878</v>
+      </c>
+      <c r="D319">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="320" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B320">
+        <v>4400</v>
+      </c>
+      <c r="C320">
+        <f t="shared" si="8"/>
+        <v>0.58527889656861554</v>
+      </c>
+      <c r="D320">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="321" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B321">
+        <v>4500</v>
+      </c>
+      <c r="C321">
+        <f t="shared" si="8"/>
+        <v>0.58321139383022613</v>
+      </c>
+      <c r="D321">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="322" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B322">
+        <v>4600</v>
+      </c>
+      <c r="C322">
+        <f t="shared" si="8"/>
+        <v>0.58118933441209875</v>
+      </c>
+      <c r="D322">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="323" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B323">
+        <v>4700</v>
+      </c>
+      <c r="C323">
+        <f t="shared" si="8"/>
+        <v>0.57921076353177026</v>
+      </c>
+      <c r="D323">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="324" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B324">
+        <v>4800</v>
+      </c>
+      <c r="C324">
+        <f t="shared" si="8"/>
+        <v>0.57727384988556962</v>
+      </c>
+      <c r="D324">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="325" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B325">
+        <v>4900</v>
+      </c>
+      <c r="C325">
+        <f t="shared" si="8"/>
+        <v>0.57537687546291783</v>
+      </c>
+      <c r="D325">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="326" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B326">
+        <v>5000</v>
+      </c>
+      <c r="C326">
+        <f t="shared" si="8"/>
+        <v>0.57351822638970607</v>
+      </c>
+      <c r="D326">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="327" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B327">
+        <v>5100</v>
+      </c>
+      <c r="C327">
+        <f t="shared" si="8"/>
+        <v>0.57169638467845751</v>
+      </c>
+      <c r="D327">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="328" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B328">
+        <v>5200</v>
+      </c>
+      <c r="C328">
+        <f t="shared" si="8"/>
+        <v>0.56990992077960423</v>
+      </c>
+      <c r="D328">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="329" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B329">
+        <v>5300</v>
+      </c>
+      <c r="C329">
+        <f t="shared" si="8"/>
+        <v>0.5681574868423005</v>
+      </c>
+      <c r="D329">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="330" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B330">
+        <v>5400</v>
+      </c>
+      <c r="C330">
+        <f t="shared" si="8"/>
+        <v>0.56643781060518228</v>
+      </c>
+      <c r="D330">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="331" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B331">
+        <v>5500</v>
+      </c>
+      <c r="C331">
+        <f t="shared" si="8"/>
+        <v>0.56474968984770824</v>
+      </c>
+      <c r="D331">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="332" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B332">
+        <v>5600</v>
+      </c>
+      <c r="C332">
+        <f t="shared" si="8"/>
+        <v>0.56309198734146182</v>
+      </c>
+      <c r="D332">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="333" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B333">
+        <v>5700</v>
+      </c>
+      <c r="C333">
+        <f t="shared" si="8"/>
+        <v>0.56146362624831703</v>
+      </c>
+      <c r="D333">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="334" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B334">
+        <v>5800</v>
+      </c>
+      <c r="C334">
+        <f t="shared" si="8"/>
+        <v>0.55986358591882501</v>
+      </c>
+      <c r="D334">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="335" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B335">
+        <v>5900</v>
+      </c>
+      <c r="C335">
+        <f t="shared" si="8"/>
+        <v>0.55829089804976939</v>
+      </c>
+      <c r="D335">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="336" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B336">
+        <v>6000</v>
+      </c>
+      <c r="C336">
+        <f t="shared" si="8"/>
+        <v>0.55674464316466243</v>
+      </c>
+      <c r="D336">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="337" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B337">
+        <v>6100</v>
+      </c>
+      <c r="C337">
+        <f t="shared" si="8"/>
+        <v>0.55522394738515102</v>
+      </c>
+      <c r="D337">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="338" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B338">
+        <v>6200</v>
+      </c>
+      <c r="C338">
+        <f t="shared" si="8"/>
+        <v>0.55372797946494723</v>
+      </c>
+      <c r="D338">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="339" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B339">
+        <v>6300</v>
+      </c>
+      <c r="C339">
+        <f t="shared" si="8"/>
+        <v>0.55225594806107459</v>
+      </c>
+      <c r="D339">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="340" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B340">
+        <v>6400</v>
+      </c>
+      <c r="C340">
+        <f t="shared" si="8"/>
+        <v>0.55080709922000581</v>
+      </c>
+      <c r="D340">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="341" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B341">
+        <v>6500</v>
+      </c>
+      <c r="C341">
+        <f t="shared" si="8"/>
+        <v>0.54938071405869704</v>
+      </c>
+      <c r="D341">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="342" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B342">
+        <v>6600</v>
+      </c>
+      <c r="C342">
+        <f t="shared" si="8"/>
+        <v>0.54797610662266438</v>
+      </c>
+      <c r="D342">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="343" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B343">
+        <v>6700</v>
+      </c>
+      <c r="C343">
+        <f t="shared" si="8"/>
+        <v>0.54659262190512681</v>
+      </c>
+      <c r="D343">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="344" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B344">
+        <v>6800</v>
+      </c>
+      <c r="C344">
+        <f t="shared" si="8"/>
+        <v>0.54522963401289382</v>
+      </c>
+      <c r="D344">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="345" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B345">
+        <v>6900</v>
+      </c>
+      <c r="C345">
+        <f t="shared" si="8"/>
+        <v>0.5438865444661477</v>
+      </c>
+      <c r="D345">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="346" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B346">
+        <v>7000</v>
+      </c>
+      <c r="C346">
+        <f t="shared" si="8"/>
+        <v>0.54256278062055452</v>
+      </c>
+      <c r="D346">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="347" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B347">
+        <v>7100</v>
+      </c>
+      <c r="C347">
+        <f t="shared" si="8"/>
+        <v>0.54125779420129461</v>
+      </c>
+      <c r="D347">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="348" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B348">
+        <v>7200</v>
+      </c>
+      <c r="C348">
+        <f t="shared" si="8"/>
+        <v>0.53997105993961858</v>
+      </c>
+      <c r="D348">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="349" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B349">
+        <v>7300</v>
+      </c>
+      <c r="C349">
+        <f t="shared" si="8"/>
+        <v>0.53870207430344352</v>
+      </c>
+      <c r="D349">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="350" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B350">
+        <v>7400</v>
+      </c>
+      <c r="C350">
+        <f t="shared" ref="C350:C356" si="9">(-0.092*LN(B350)+1.3571)</f>
+        <v>0.53745035431431198</v>
+      </c>
+      <c r="D350">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="351" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B351">
+        <v>7500</v>
+      </c>
+      <c r="C351">
+        <f t="shared" si="9"/>
+        <v>0.53621543644375502</v>
+      </c>
+      <c r="D351">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="352" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B352">
+        <v>7600</v>
+      </c>
+      <c r="C352">
+        <f t="shared" si="9"/>
+        <v>0.53499687558275311</v>
+      </c>
+      <c r="D352">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="353" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B353">
+        <v>7700</v>
+      </c>
+      <c r="C353">
+        <f t="shared" si="9"/>
+        <v>0.53379424407855658</v>
+      </c>
+      <c r="D353">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="354" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B354">
+        <v>7800</v>
+      </c>
+      <c r="C354">
+        <f t="shared" si="9"/>
+        <v>0.53260713083365319</v>
+      </c>
+      <c r="D354">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="355" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B355">
+        <v>7900</v>
+      </c>
+      <c r="C355">
+        <f t="shared" si="9"/>
+        <v>0.5314351404621297</v>
+      </c>
+      <c r="D355">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="356" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B356">
+        <v>8000</v>
+      </c>
+      <c r="C356">
+        <f t="shared" si="9"/>
+        <v>0.53027789249909851</v>
+      </c>
+      <c r="D356">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="357" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B357">
+        <v>1000</v>
+      </c>
+      <c r="C357">
+        <f t="shared" ref="C357:C420" si="10">(-0.118*LN(B357)+1.5215)</f>
+        <v>0.706384877080108</v>
+      </c>
+      <c r="D357">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="358" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B358">
+        <v>1100</v>
+      </c>
+      <c r="C358">
+        <f t="shared" si="10"/>
+        <v>0.69513827586319765</v>
+      </c>
+      <c r="D358">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="359" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B359">
+        <v>1200</v>
+      </c>
+      <c r="C359">
+        <f t="shared" si="10"/>
+        <v>0.68487093337842131</v>
+      </c>
+      <c r="D359">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="360" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B360">
+        <v>1300</v>
+      </c>
+      <c r="C360">
+        <f t="shared" si="10"/>
+        <v>0.67542589387294405</v>
+      </c>
+      <c r="D360">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="361" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B361">
+        <v>1400</v>
+      </c>
+      <c r="C361">
+        <f t="shared" si="10"/>
+        <v>0.66668115315880483</v>
+      </c>
+      <c r="D361">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="362" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B362">
+        <v>1500</v>
+      </c>
+      <c r="C362">
+        <f t="shared" si="10"/>
+        <v>0.65853999432334454</v>
+      </c>
+      <c r="D362">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="363" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B363">
+        <v>1600</v>
+      </c>
+      <c r="C363">
+        <f t="shared" si="10"/>
+        <v>0.65092444882911116</v>
+      </c>
+      <c r="D363">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="364" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B364">
+        <v>1700</v>
+      </c>
+      <c r="C364">
+        <f t="shared" si="10"/>
+        <v>0.64377074345477192</v>
+      </c>
+      <c r="D364">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="365" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B365">
+        <v>1800</v>
+      </c>
+      <c r="C365">
+        <f t="shared" si="10"/>
+        <v>0.63702605062165785</v>
+      </c>
+      <c r="D365">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="366" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B366">
+        <v>1900</v>
+      </c>
+      <c r="C366">
+        <f t="shared" si="10"/>
+        <v>0.63064611851176533</v>
+      </c>
+      <c r="D366">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="367" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B367">
+        <v>2000</v>
+      </c>
+      <c r="C367">
+        <f t="shared" si="10"/>
+        <v>0.62459350977403438</v>
+      </c>
+      <c r="D367">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="368" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B368">
+        <v>2100</v>
+      </c>
+      <c r="C368">
+        <f t="shared" si="10"/>
+        <v>0.61883627040204148</v>
+      </c>
+      <c r="D368">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="369" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B369">
+        <v>2200</v>
+      </c>
+      <c r="C369">
+        <f t="shared" si="10"/>
+        <v>0.61334690855712415</v>
+      </c>
+      <c r="D369">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="370" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B370">
+        <v>2300</v>
+      </c>
+      <c r="C370">
+        <f t="shared" si="10"/>
+        <v>0.60810160057376561</v>
+      </c>
+      <c r="D370">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="371" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B371">
+        <v>2400</v>
+      </c>
+      <c r="C371">
+        <f t="shared" si="10"/>
+        <v>0.60307956607234769</v>
+      </c>
+      <c r="D371">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="372" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B372">
+        <v>2500</v>
+      </c>
+      <c r="C372">
+        <f t="shared" si="10"/>
+        <v>0.59826257071895772</v>
+      </c>
+      <c r="D372">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="373" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B373">
+        <v>2600</v>
+      </c>
+      <c r="C373">
+        <f t="shared" si="10"/>
+        <v>0.59363452656687044</v>
+      </c>
+      <c r="D373">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="374" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B374">
+        <v>2700</v>
+      </c>
+      <c r="C374">
+        <f t="shared" si="10"/>
+        <v>0.58918116786489461</v>
+      </c>
+      <c r="D374">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="375" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B375">
+        <v>2800</v>
+      </c>
+      <c r="C375">
+        <f t="shared" si="10"/>
+        <v>0.58488978585273133</v>
+      </c>
+      <c r="D375">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="376" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B376">
+        <v>2900</v>
+      </c>
+      <c r="C376">
+        <f t="shared" si="10"/>
+        <v>0.58074901011500135</v>
+      </c>
+      <c r="D376">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="377" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B377">
+        <v>3000</v>
+      </c>
+      <c r="C377">
+        <f t="shared" si="10"/>
+        <v>0.57674862701727114</v>
+      </c>
+      <c r="D377">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="378" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B378">
+        <v>3100</v>
+      </c>
+      <c r="C378">
+        <f t="shared" si="10"/>
+        <v>0.57287942792415814</v>
+      </c>
+      <c r="D378">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="379" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B379">
+        <v>3200</v>
+      </c>
+      <c r="C379">
+        <f t="shared" si="10"/>
+        <v>0.56913308152303754</v>
+      </c>
+      <c r="D379">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="380" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B380">
+        <v>3300</v>
+      </c>
+      <c r="C380">
+        <f t="shared" si="10"/>
+        <v>0.56550202580036069</v>
+      </c>
+      <c r="D380">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="381" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B381">
+        <v>3400</v>
+      </c>
+      <c r="C381">
+        <f t="shared" si="10"/>
+        <v>0.56197937614869831</v>
+      </c>
+      <c r="D381">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="382" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B382">
+        <v>3500</v>
+      </c>
+      <c r="C382">
+        <f t="shared" si="10"/>
+        <v>0.55855884679765455</v>
+      </c>
+      <c r="D382">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="383" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B383">
+        <v>3600</v>
+      </c>
+      <c r="C383">
+        <f t="shared" si="10"/>
+        <v>0.55523468331558445</v>
+      </c>
+      <c r="D383">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="384" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B384">
+        <v>3700</v>
+      </c>
+      <c r="C384">
+        <f t="shared" si="10"/>
+        <v>0.5520016043613869</v>
+      </c>
+      <c r="D384">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="385" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B385">
+        <v>3800</v>
+      </c>
+      <c r="C385">
+        <f t="shared" si="10"/>
+        <v>0.54885475120569183</v>
+      </c>
+      <c r="D385">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="386" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B386">
+        <v>3900</v>
+      </c>
+      <c r="C386">
+        <f t="shared" si="10"/>
+        <v>0.54578964381010708</v>
+      </c>
+      <c r="D386">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="387" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B387">
+        <v>4000</v>
+      </c>
+      <c r="C387">
+        <f t="shared" si="10"/>
+        <v>0.54280214246796088</v>
+      </c>
+      <c r="D387">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="388" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B388">
+        <v>4100</v>
+      </c>
+      <c r="C388">
+        <f t="shared" si="10"/>
+        <v>0.53988841418229705</v>
+      </c>
+      <c r="D388">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="389" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B389">
+        <v>4200</v>
+      </c>
+      <c r="C389">
+        <f t="shared" si="10"/>
+        <v>0.53704490309596786</v>
+      </c>
+      <c r="D389">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="390" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B390">
+        <v>4300</v>
+      </c>
+      <c r="C390">
+        <f t="shared" si="10"/>
+        <v>0.53426830440156503</v>
+      </c>
+      <c r="D390">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="391" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B391">
+        <v>4400</v>
+      </c>
+      <c r="C391">
+        <f t="shared" si="10"/>
+        <v>0.53155554125105042</v>
+      </c>
+      <c r="D391">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="392" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B392">
+        <v>4500</v>
+      </c>
+      <c r="C392">
+        <f t="shared" si="10"/>
+        <v>0.52890374426050757</v>
+      </c>
+      <c r="D392">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="393" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B393">
+        <v>4600</v>
+      </c>
+      <c r="C393">
+        <f t="shared" si="10"/>
+        <v>0.52631023326769211</v>
+      </c>
+      <c r="D393">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="394" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B394">
+        <v>4700</v>
+      </c>
+      <c r="C394">
+        <f t="shared" si="10"/>
+        <v>0.52377250105161854</v>
+      </c>
+      <c r="D394">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="395" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B395">
+        <v>4800</v>
+      </c>
+      <c r="C395">
+        <f t="shared" si="10"/>
+        <v>0.5212881987662743</v>
+      </c>
+      <c r="D395">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="396" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B396">
+        <v>4900</v>
+      </c>
+      <c r="C396">
+        <f t="shared" si="10"/>
+        <v>0.51885512287635138</v>
+      </c>
+      <c r="D396">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="397" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B397">
+        <v>5000</v>
+      </c>
+      <c r="C397">
+        <f t="shared" si="10"/>
+        <v>0.51647120341288399</v>
+      </c>
+      <c r="D397">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="398" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B398">
+        <v>5100</v>
+      </c>
+      <c r="C398">
+        <f t="shared" si="10"/>
+        <v>0.51413449339193473</v>
+      </c>
+      <c r="D398">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="399" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B399">
+        <v>5200</v>
+      </c>
+      <c r="C399">
+        <f t="shared" si="10"/>
+        <v>0.51184315926079682</v>
+      </c>
+      <c r="D399">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="400" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B400">
+        <v>5300</v>
+      </c>
+      <c r="C400">
+        <f t="shared" si="10"/>
+        <v>0.50959547225425506</v>
+      </c>
+      <c r="D400">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="401" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B401">
+        <v>5400</v>
+      </c>
+      <c r="C401">
+        <f t="shared" si="10"/>
+        <v>0.50738980055882088</v>
+      </c>
+      <c r="D401">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="402" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B402">
+        <v>5500</v>
+      </c>
+      <c r="C402">
+        <f t="shared" si="10"/>
+        <v>0.50522460219597387</v>
+      </c>
+      <c r="D402">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="403" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B403">
+        <v>5600</v>
+      </c>
+      <c r="C403">
+        <f t="shared" si="10"/>
+        <v>0.5030984185466576</v>
+      </c>
+      <c r="D403">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="404" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B404">
+        <v>5700</v>
+      </c>
+      <c r="C404">
+        <f t="shared" si="10"/>
+        <v>0.50100986844892836</v>
+      </c>
+      <c r="D404">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="405" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B405">
+        <v>5800</v>
+      </c>
+      <c r="C405">
+        <f t="shared" si="10"/>
+        <v>0.49895764280892796</v>
+      </c>
+      <c r="D405">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="406" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B406">
+        <v>5900</v>
+      </c>
+      <c r="C406">
+        <f t="shared" si="10"/>
+        <v>0.4969404996725304</v>
+      </c>
+      <c r="D406">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="407" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B407">
+        <v>6000</v>
+      </c>
+      <c r="C407">
+        <f t="shared" si="10"/>
+        <v>0.49495725971119753</v>
+      </c>
+      <c r="D407">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="408" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B408">
+        <v>6100</v>
+      </c>
+      <c r="C408">
+        <f t="shared" si="10"/>
+        <v>0.4930068020809546</v>
+      </c>
+      <c r="D408">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="409" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B409">
+        <v>6200</v>
+      </c>
+      <c r="C409">
+        <f t="shared" si="10"/>
+        <v>0.49108806061808452</v>
+      </c>
+      <c r="D409">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="410" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B410">
+        <v>6300</v>
+      </c>
+      <c r="C410">
+        <f t="shared" si="10"/>
+        <v>0.48920002033920462</v>
+      </c>
+      <c r="D410">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="411" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B411">
+        <v>6400</v>
+      </c>
+      <c r="C411">
+        <f t="shared" si="10"/>
+        <v>0.48734171421696426</v>
+      </c>
+      <c r="D411">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="412" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B412">
+        <v>6500</v>
+      </c>
+      <c r="C412">
+        <f t="shared" si="10"/>
+        <v>0.48551222020572027</v>
+      </c>
+      <c r="D412">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="413" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B413">
+        <v>6600</v>
+      </c>
+      <c r="C413">
+        <f t="shared" si="10"/>
+        <v>0.48371065849428718</v>
+      </c>
+      <c r="D413">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="414" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B414">
+        <v>6700</v>
+      </c>
+      <c r="C414">
+        <f t="shared" si="10"/>
+        <v>0.48193618896527135</v>
+      </c>
+      <c r="D414">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="415" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B415">
+        <v>6800</v>
+      </c>
+      <c r="C415">
+        <f t="shared" si="10"/>
+        <v>0.48018800884262469</v>
+      </c>
+      <c r="D415">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="416" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B416">
+        <v>6900</v>
+      </c>
+      <c r="C416">
+        <f t="shared" si="10"/>
+        <v>0.47846535051092887</v>
+      </c>
+      <c r="D416">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="417" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B417">
+        <v>7000</v>
+      </c>
+      <c r="C417">
+        <f t="shared" si="10"/>
+        <v>0.47676747949158105</v>
+      </c>
+      <c r="D417">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="418" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B418">
+        <v>7100</v>
+      </c>
+      <c r="C418">
+        <f t="shared" si="10"/>
+        <v>0.4750936925625302</v>
+      </c>
+      <c r="D418">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="419" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B419">
+        <v>7200</v>
+      </c>
+      <c r="C419">
+        <f t="shared" si="10"/>
+        <v>0.47344331600951084</v>
+      </c>
+      <c r="D419">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="420" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B420">
+        <v>7300</v>
+      </c>
+      <c r="C420">
+        <f t="shared" si="10"/>
+        <v>0.47181570399789519</v>
+      </c>
+      <c r="D420">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="421" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B421">
+        <v>7400</v>
+      </c>
+      <c r="C421">
+        <f t="shared" ref="C421:C427" si="11">(-0.118*LN(B421)+1.5215)</f>
+        <v>0.4702102370553134</v>
+      </c>
+      <c r="D421">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="422" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B422">
+        <v>7500</v>
+      </c>
+      <c r="C422">
+        <f t="shared" si="11"/>
+        <v>0.46862632065612075</v>
+      </c>
+      <c r="D422">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="423" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B423">
+        <v>7600</v>
+      </c>
+      <c r="C423">
+        <f t="shared" si="11"/>
+        <v>0.46706338389961832</v>
+      </c>
+      <c r="D423">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="424" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B424">
+        <v>7700</v>
+      </c>
+      <c r="C424">
+        <f t="shared" si="11"/>
+        <v>0.46552087827467048</v>
+      </c>
+      <c r="D424">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="425" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B425">
+        <v>7800</v>
+      </c>
+      <c r="C425">
+        <f t="shared" si="11"/>
+        <v>0.46399827650403358</v>
+      </c>
+      <c r="D425">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="426" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B426">
+        <v>7900</v>
+      </c>
+      <c r="C426">
+        <f t="shared" si="11"/>
+        <v>0.46249507146229685</v>
+      </c>
+      <c r="D426">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="427" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B427">
+        <v>8000</v>
+      </c>
+      <c r="C427">
+        <f t="shared" si="11"/>
+        <v>0.46101077516188727</v>
+      </c>
+      <c r="D427">
+        <v>0.3795</v>
+      </c>
+    </row>
+    <row r="428" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B428">
+        <v>1000</v>
+      </c>
+      <c r="C428">
+        <f t="shared" ref="C428:C491" si="12">(-0.119*LN(B428)+1.4798)</f>
+        <v>0.6577771218011258</v>
+      </c>
+      <c r="D428">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="429" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B429">
+        <v>1100</v>
+      </c>
+      <c r="C429">
+        <f t="shared" si="12"/>
+        <v>0.6464352104044111</v>
+      </c>
+      <c r="D429">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="430" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B430">
+        <v>1200</v>
+      </c>
+      <c r="C430">
+        <f t="shared" si="12"/>
+        <v>0.63608085654264512</v>
+      </c>
+      <c r="D430">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="431" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B431">
+        <v>1300</v>
+      </c>
+      <c r="C431">
+        <f t="shared" si="12"/>
+        <v>0.62655577432949427</v>
+      </c>
+      <c r="D431">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="432" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B432">
+        <v>1400</v>
+      </c>
+      <c r="C432">
+        <f t="shared" si="12"/>
+        <v>0.61773692564320137</v>
+      </c>
+      <c r="D432">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="433" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B433">
+        <v>1500</v>
+      </c>
+      <c r="C433">
+        <f t="shared" si="12"/>
+        <v>0.60952677393625421</v>
+      </c>
+      <c r="D433">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="434" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B434">
+        <v>1600</v>
+      </c>
+      <c r="C434">
+        <f t="shared" si="12"/>
+        <v>0.60184668992088319</v>
+      </c>
+      <c r="D434">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="435" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B435">
+        <v>1700</v>
+      </c>
+      <c r="C435">
+        <f t="shared" si="12"/>
+        <v>0.59463235992472752</v>
+      </c>
+      <c r="D435">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="436" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B436">
+        <v>1800</v>
+      </c>
+      <c r="C436">
+        <f t="shared" si="12"/>
+        <v>0.58783050867777353</v>
+      </c>
+      <c r="D436">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="437" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B437">
+        <v>1900</v>
+      </c>
+      <c r="C437">
+        <f t="shared" si="12"/>
+        <v>0.58139650934661069</v>
+      </c>
+      <c r="D437">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="438" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B438">
+        <v>2000</v>
+      </c>
+      <c r="C438">
+        <f t="shared" si="12"/>
+        <v>0.57529260731449228</v>
+      </c>
+      <c r="D438">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="439" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B439">
+        <v>2100</v>
+      </c>
+      <c r="C439">
+        <f t="shared" si="12"/>
+        <v>0.56948657777832978</v>
+      </c>
+      <c r="D439">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="440" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B440">
+        <v>2200</v>
+      </c>
+      <c r="C440">
+        <f t="shared" si="12"/>
+        <v>0.56395069591777758</v>
+      </c>
+      <c r="D440">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="441" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B441">
+        <v>2300</v>
+      </c>
+      <c r="C441">
+        <f t="shared" si="12"/>
+        <v>0.55866093617184831</v>
+      </c>
+      <c r="D441">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="442" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B442">
+        <v>2400</v>
+      </c>
+      <c r="C442">
+        <f t="shared" si="12"/>
+        <v>0.5535963420560116</v>
+      </c>
+      <c r="D442">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="443" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B443">
+        <v>2500</v>
+      </c>
+      <c r="C443">
+        <f t="shared" si="12"/>
+        <v>0.54873852470810136</v>
+      </c>
+      <c r="D443">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="444" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B444">
+        <v>2600</v>
+      </c>
+      <c r="C444">
+        <f t="shared" si="12"/>
+        <v>0.54407125984286075</v>
+      </c>
+      <c r="D444">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="445" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B445">
+        <v>2700</v>
+      </c>
+      <c r="C445">
+        <f t="shared" si="12"/>
+        <v>0.53958016081290205</v>
+      </c>
+      <c r="D445">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="446" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B446">
+        <v>2800</v>
+      </c>
+      <c r="C446">
+        <f t="shared" si="12"/>
+        <v>0.53525241115656796</v>
+      </c>
+      <c r="D446">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="447" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B447">
+        <v>2900</v>
+      </c>
+      <c r="C447">
+        <f t="shared" si="12"/>
+        <v>0.53107654409902671</v>
+      </c>
+      <c r="D447">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="448" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B448">
+        <v>3000</v>
+      </c>
+      <c r="C448">
+        <f t="shared" si="12"/>
+        <v>0.5270422594496208</v>
+      </c>
+      <c r="D448">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="449" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B449">
+        <v>3100</v>
+      </c>
+      <c r="C449">
+        <f t="shared" si="12"/>
+        <v>0.52314027053368484</v>
+      </c>
+      <c r="D449">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="450" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B450">
+        <v>3200</v>
+      </c>
+      <c r="C450">
+        <f t="shared" si="12"/>
+        <v>0.51936217543424956</v>
+      </c>
+      <c r="D450">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="451" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B451">
+        <v>3300</v>
+      </c>
+      <c r="C451">
+        <f t="shared" si="12"/>
+        <v>0.51570034805290599</v>
+      </c>
+      <c r="D451">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="452" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B452">
+        <v>3400</v>
+      </c>
+      <c r="C452">
+        <f t="shared" si="12"/>
+        <v>0.512147845438094</v>
+      </c>
+      <c r="D452">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="453" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B453">
+        <v>3500</v>
+      </c>
+      <c r="C453">
+        <f t="shared" si="12"/>
+        <v>0.50869832855017694</v>
+      </c>
+      <c r="D453">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="454" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B454">
+        <v>3600</v>
+      </c>
+      <c r="C454">
+        <f t="shared" si="12"/>
+        <v>0.50534599419114012</v>
+      </c>
+      <c r="D454">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="455" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B455">
+        <v>3700</v>
+      </c>
+      <c r="C455">
+        <f t="shared" si="12"/>
+        <v>0.50208551626275444</v>
+      </c>
+      <c r="D455">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="456" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B456">
+        <v>3800</v>
+      </c>
+      <c r="C456">
+        <f t="shared" si="12"/>
+        <v>0.49891199485997728</v>
+      </c>
+      <c r="D456">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="457" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B457">
+        <v>3900</v>
+      </c>
+      <c r="C457">
+        <f t="shared" si="12"/>
+        <v>0.49582091197798928</v>
+      </c>
+      <c r="D457">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="458" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B458">
+        <v>4000</v>
+      </c>
+      <c r="C458">
+        <f t="shared" si="12"/>
+        <v>0.49280809282785876</v>
+      </c>
+      <c r="D458">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="459" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B459">
+        <v>4100</v>
+      </c>
+      <c r="C459">
+        <f t="shared" si="12"/>
+        <v>0.48986967192960462</v>
+      </c>
+      <c r="D459">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="460" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B460">
+        <v>4200</v>
+      </c>
+      <c r="C460">
+        <f t="shared" si="12"/>
+        <v>0.48700206329169637</v>
+      </c>
+      <c r="D460">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="461" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B461">
+        <v>4300</v>
+      </c>
+      <c r="C461">
+        <f t="shared" si="12"/>
+        <v>0.48420193409988321</v>
+      </c>
+      <c r="D461">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="462" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B462">
+        <v>4400</v>
+      </c>
+      <c r="C462">
+        <f t="shared" si="12"/>
+        <v>0.48146618143114406</v>
+      </c>
+      <c r="D462">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="463" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B463">
+        <v>4500</v>
+      </c>
+      <c r="C463">
+        <f t="shared" si="12"/>
+        <v>0.47879191158474899</v>
+      </c>
+      <c r="D463">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="464" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B464">
+        <v>4600</v>
+      </c>
+      <c r="C464">
+        <f t="shared" si="12"/>
+        <v>0.4761764216852149</v>
+      </c>
+      <c r="D464">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="465" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B465">
+        <v>4700</v>
+      </c>
+      <c r="C465">
+        <f t="shared" si="12"/>
+        <v>0.47361718326392022</v>
+      </c>
+      <c r="D465">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="466" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B466">
+        <v>4800</v>
+      </c>
+      <c r="C466">
+        <f t="shared" si="12"/>
+        <v>0.47111182756937819</v>
+      </c>
+      <c r="D466">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="467" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B467">
+        <v>4900</v>
+      </c>
+      <c r="C467">
+        <f t="shared" si="12"/>
+        <v>0.46865813239225251</v>
+      </c>
+      <c r="D467">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="468" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B468">
+        <v>5000</v>
+      </c>
+      <c r="C468">
+        <f t="shared" si="12"/>
+        <v>0.46625401022146762</v>
+      </c>
+      <c r="D468">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="469" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B469">
+        <v>5100</v>
+      </c>
+      <c r="C469">
+        <f t="shared" si="12"/>
+        <v>0.46389749757322241</v>
+      </c>
+      <c r="D469">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="470" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B470">
+        <v>5200</v>
+      </c>
+      <c r="C470">
+        <f t="shared" si="12"/>
+        <v>0.46158674535622723</v>
+      </c>
+      <c r="D470">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="471" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B471">
+        <v>5300</v>
+      </c>
+      <c r="C471">
+        <f t="shared" si="12"/>
+        <v>0.4593200101547148</v>
+      </c>
+      <c r="D471">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="472" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B472">
+        <v>5400</v>
+      </c>
+      <c r="C472">
+        <f t="shared" si="12"/>
+        <v>0.45709564632626853</v>
+      </c>
+      <c r="D472">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="473" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B473">
+        <v>5500</v>
+      </c>
+      <c r="C473">
+        <f t="shared" si="12"/>
+        <v>0.45491209882475325</v>
+      </c>
+      <c r="D473">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="474" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B474">
+        <v>5600</v>
+      </c>
+      <c r="C474">
+        <f t="shared" si="12"/>
+        <v>0.45276789666993422</v>
+      </c>
+      <c r="D474">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="475" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B475">
+        <v>5700</v>
+      </c>
+      <c r="C475">
+        <f t="shared" si="12"/>
+        <v>0.45066164699510569</v>
+      </c>
+      <c r="D475">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="476" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B476">
+        <v>5800</v>
+      </c>
+      <c r="C476">
+        <f t="shared" si="12"/>
+        <v>0.44859202961239331</v>
+      </c>
+      <c r="D476">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="477" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B477">
+        <v>5900</v>
+      </c>
+      <c r="C477">
+        <f t="shared" si="12"/>
+        <v>0.44655779204263668</v>
+      </c>
+      <c r="D477">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="478" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B478">
+        <v>6000</v>
+      </c>
+      <c r="C478">
+        <f t="shared" si="12"/>
+        <v>0.44455774496298739</v>
+      </c>
+      <c r="D478">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="479" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B479">
+        <v>6100</v>
+      </c>
+      <c r="C479">
+        <f t="shared" si="12"/>
+        <v>0.44259075803079329</v>
+      </c>
+      <c r="D479">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="480" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B480">
+        <v>6200</v>
+      </c>
+      <c r="C480">
+        <f t="shared" si="12"/>
+        <v>0.44065575604705143</v>
+      </c>
+      <c r="D480">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="481" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B481">
+        <v>6300</v>
+      </c>
+      <c r="C481">
+        <f t="shared" si="12"/>
+        <v>0.43875171542682478</v>
+      </c>
+      <c r="D481">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="482" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B482">
+        <v>6400</v>
+      </c>
+      <c r="C482">
+        <f t="shared" si="12"/>
+        <v>0.43687766094761638</v>
+      </c>
+      <c r="D482">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="483" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B483">
+        <v>6500</v>
+      </c>
+      <c r="C483">
+        <f t="shared" si="12"/>
+        <v>0.43503266274983643</v>
+      </c>
+      <c r="D483">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="484" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B484">
+        <v>6600</v>
+      </c>
+      <c r="C484">
+        <f t="shared" si="12"/>
+        <v>0.43321583356627258</v>
+      </c>
+      <c r="D484">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="485" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B485">
+        <v>6700</v>
+      </c>
+      <c r="C485">
+        <f t="shared" si="12"/>
+        <v>0.43142632615989229</v>
+      </c>
+      <c r="D485">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="486" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B486">
+        <v>6800</v>
+      </c>
+      <c r="C486">
+        <f t="shared" si="12"/>
+        <v>0.42966333095146059</v>
+      </c>
+      <c r="D486">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="487" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B487">
+        <v>6900</v>
+      </c>
+      <c r="C487">
+        <f t="shared" si="12"/>
+        <v>0.42792607382034342</v>
+      </c>
+      <c r="D487">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="488" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B488">
+        <v>7000</v>
+      </c>
+      <c r="C488">
+        <f t="shared" si="12"/>
+        <v>0.42621381406354342</v>
+      </c>
+      <c r="D488">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="489" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B489">
+        <v>7100</v>
+      </c>
+      <c r="C489">
+        <f t="shared" si="12"/>
+        <v>0.42452584249950065</v>
+      </c>
+      <c r="D489">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="490" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B490">
+        <v>7200</v>
+      </c>
+      <c r="C490">
+        <f t="shared" si="12"/>
+        <v>0.42286147970450672</v>
+      </c>
+      <c r="D490">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="491" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B491">
+        <v>7300</v>
+      </c>
+      <c r="C491">
+        <f t="shared" si="12"/>
+        <v>0.42122007437075859</v>
+      </c>
+      <c r="D491">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="492" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B492">
+        <v>7400</v>
+      </c>
+      <c r="C492">
+        <f t="shared" ref="C492:C498" si="13">(-0.119*LN(B492)+1.4798)</f>
+        <v>0.41960100177612092</v>
+      </c>
+      <c r="D492">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="493" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B493">
+        <v>7500</v>
+      </c>
+      <c r="C493">
+        <f t="shared" si="13"/>
+        <v>0.41800366235659614</v>
+      </c>
+      <c r="D493">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="494" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B494">
+        <v>7600</v>
+      </c>
+      <c r="C494">
+        <f t="shared" si="13"/>
+        <v>0.41642748037334365</v>
+      </c>
+      <c r="D494">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="495" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B495">
+        <v>7700</v>
+      </c>
+      <c r="C495">
+        <f t="shared" si="13"/>
+        <v>0.41487190266682861</v>
+      </c>
+      <c r="D495">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="496" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B496">
+        <v>7800</v>
+      </c>
+      <c r="C496">
+        <f t="shared" si="13"/>
+        <v>0.41333639749135576</v>
+      </c>
+      <c r="D496">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="497" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B497">
+        <v>7900</v>
+      </c>
+      <c r="C497">
+        <f t="shared" si="13"/>
+        <v>0.41182045342384166</v>
+      </c>
+      <c r="D497">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="498" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B498">
+        <v>8000</v>
+      </c>
+      <c r="C498">
+        <f t="shared" si="13"/>
+        <v>0.41032357834122535</v>
+      </c>
+      <c r="D498">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="499" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B499">
+        <v>1000</v>
+      </c>
+      <c r="C499">
+        <f t="shared" ref="C499:C562" si="14">(-0.118*LN(B499)+1.5267)</f>
+        <v>0.71158487708010787</v>
+      </c>
+      <c r="D499">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="500" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B500">
+        <v>1100</v>
+      </c>
+      <c r="C500">
+        <f t="shared" si="14"/>
+        <v>0.70033827586319752</v>
+      </c>
+      <c r="D500">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="501" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B501">
+        <v>1200</v>
+      </c>
+      <c r="C501">
+        <f t="shared" si="14"/>
+        <v>0.69007093337842118</v>
+      </c>
+      <c r="D501">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="502" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B502">
+        <v>1300</v>
+      </c>
+      <c r="C502">
+        <f t="shared" si="14"/>
+        <v>0.68062589387294392</v>
+      </c>
+      <c r="D502">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="503" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B503">
+        <v>1400</v>
+      </c>
+      <c r="C503">
+        <f t="shared" si="14"/>
+        <v>0.6718811531588047</v>
+      </c>
+      <c r="D503">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="504" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B504">
+        <v>1500</v>
+      </c>
+      <c r="C504">
+        <f t="shared" si="14"/>
+        <v>0.66373999432334441</v>
+      </c>
+      <c r="D504">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="505" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B505">
+        <v>1600</v>
+      </c>
+      <c r="C505">
+        <f t="shared" si="14"/>
+        <v>0.65612444882911103</v>
+      </c>
+      <c r="D505">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="506" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B506">
+        <v>1700</v>
+      </c>
+      <c r="C506">
+        <f t="shared" si="14"/>
+        <v>0.64897074345477179</v>
+      </c>
+      <c r="D506">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="507" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B507">
+        <v>1800</v>
+      </c>
+      <c r="C507">
+        <f t="shared" si="14"/>
+        <v>0.64222605062165772</v>
+      </c>
+      <c r="D507">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="508" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B508">
+        <v>1900</v>
+      </c>
+      <c r="C508">
+        <f t="shared" si="14"/>
+        <v>0.6358461185117652</v>
+      </c>
+      <c r="D508">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="509" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B509">
+        <v>2000</v>
+      </c>
+      <c r="C509">
+        <f t="shared" si="14"/>
+        <v>0.62979350977403425</v>
+      </c>
+      <c r="D509">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="510" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B510">
+        <v>2100</v>
+      </c>
+      <c r="C510">
+        <f t="shared" si="14"/>
+        <v>0.62403627040204135</v>
+      </c>
+      <c r="D510">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="511" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B511">
+        <v>2200</v>
+      </c>
+      <c r="C511">
+        <f t="shared" si="14"/>
+        <v>0.61854690855712402</v>
+      </c>
+      <c r="D511">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="512" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B512">
+        <v>2300</v>
+      </c>
+      <c r="C512">
+        <f t="shared" si="14"/>
+        <v>0.61330160057376548</v>
+      </c>
+      <c r="D512">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="513" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B513">
+        <v>2400</v>
+      </c>
+      <c r="C513">
+        <f t="shared" si="14"/>
+        <v>0.60827956607234757</v>
+      </c>
+      <c r="D513">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="514" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B514">
+        <v>2500</v>
+      </c>
+      <c r="C514">
+        <f t="shared" si="14"/>
+        <v>0.60346257071895759</v>
+      </c>
+      <c r="D514">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="515" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B515">
+        <v>2600</v>
+      </c>
+      <c r="C515">
+        <f t="shared" si="14"/>
+        <v>0.59883452656687031</v>
+      </c>
+      <c r="D515">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="516" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B516">
+        <v>2700</v>
+      </c>
+      <c r="C516">
+        <f t="shared" si="14"/>
+        <v>0.59438116786489448</v>
+      </c>
+      <c r="D516">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="517" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B517">
+        <v>2800</v>
+      </c>
+      <c r="C517">
+        <f t="shared" si="14"/>
+        <v>0.5900897858527312</v>
+      </c>
+      <c r="D517">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="518" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B518">
+        <v>2900</v>
+      </c>
+      <c r="C518">
+        <f t="shared" si="14"/>
+        <v>0.58594901011500122</v>
+      </c>
+      <c r="D518">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="519" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B519">
+        <v>3000</v>
+      </c>
+      <c r="C519">
+        <f t="shared" si="14"/>
+        <v>0.58194862701727101</v>
+      </c>
+      <c r="D519">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="520" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B520">
+        <v>3100</v>
+      </c>
+      <c r="C520">
+        <f t="shared" si="14"/>
+        <v>0.57807942792415801</v>
+      </c>
+      <c r="D520">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="521" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B521">
+        <v>3200</v>
+      </c>
+      <c r="C521">
+        <f t="shared" si="14"/>
+        <v>0.57433308152303741</v>
+      </c>
+      <c r="D521">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="522" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B522">
+        <v>3300</v>
+      </c>
+      <c r="C522">
+        <f t="shared" si="14"/>
+        <v>0.57070202580036056</v>
+      </c>
+      <c r="D522">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="523" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B523">
+        <v>3400</v>
+      </c>
+      <c r="C523">
+        <f t="shared" si="14"/>
+        <v>0.56717937614869818</v>
+      </c>
+      <c r="D523">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="524" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B524">
+        <v>3500</v>
+      </c>
+      <c r="C524">
+        <f t="shared" si="14"/>
+        <v>0.56375884679765442</v>
+      </c>
+      <c r="D524">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="525" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B525">
+        <v>3600</v>
+      </c>
+      <c r="C525">
+        <f t="shared" si="14"/>
+        <v>0.56043468331558433</v>
+      </c>
+      <c r="D525">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="526" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B526">
+        <v>3700</v>
+      </c>
+      <c r="C526">
+        <f t="shared" si="14"/>
+        <v>0.55720160436138677</v>
+      </c>
+      <c r="D526">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="527" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B527">
+        <v>3800</v>
+      </c>
+      <c r="C527">
+        <f t="shared" si="14"/>
+        <v>0.5540547512056917</v>
+      </c>
+      <c r="D527">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="528" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B528">
+        <v>3900</v>
+      </c>
+      <c r="C528">
+        <f t="shared" si="14"/>
+        <v>0.55098964381010695</v>
+      </c>
+      <c r="D528">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="529" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B529">
+        <v>4000</v>
+      </c>
+      <c r="C529">
+        <f t="shared" si="14"/>
+        <v>0.54800214246796075</v>
+      </c>
+      <c r="D529">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="530" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B530">
+        <v>4100</v>
+      </c>
+      <c r="C530">
+        <f t="shared" si="14"/>
+        <v>0.54508841418229692</v>
+      </c>
+      <c r="D530">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="531" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B531">
+        <v>4200</v>
+      </c>
+      <c r="C531">
+        <f t="shared" si="14"/>
+        <v>0.54224490309596773</v>
+      </c>
+      <c r="D531">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="532" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B532">
+        <v>4300</v>
+      </c>
+      <c r="C532">
+        <f t="shared" si="14"/>
+        <v>0.5394683044015649</v>
+      </c>
+      <c r="D532">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="533" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B533">
+        <v>4400</v>
+      </c>
+      <c r="C533">
+        <f t="shared" si="14"/>
+        <v>0.53675554125105029</v>
+      </c>
+      <c r="D533">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="534" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B534">
+        <v>4500</v>
+      </c>
+      <c r="C534">
+        <f t="shared" si="14"/>
+        <v>0.53410374426050744</v>
+      </c>
+      <c r="D534">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="535" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B535">
+        <v>4600</v>
+      </c>
+      <c r="C535">
+        <f t="shared" si="14"/>
+        <v>0.53151023326769198</v>
+      </c>
+      <c r="D535">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="536" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B536">
+        <v>4700</v>
+      </c>
+      <c r="C536">
+        <f t="shared" si="14"/>
+        <v>0.52897250105161842</v>
+      </c>
+      <c r="D536">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="537" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B537">
+        <v>4800</v>
+      </c>
+      <c r="C537">
+        <f t="shared" si="14"/>
+        <v>0.52648819876627417</v>
+      </c>
+      <c r="D537">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="538" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B538">
+        <v>4900</v>
+      </c>
+      <c r="C538">
+        <f t="shared" si="14"/>
+        <v>0.52405512287635125</v>
+      </c>
+      <c r="D538">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="539" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B539">
+        <v>5000</v>
+      </c>
+      <c r="C539">
+        <f t="shared" si="14"/>
+        <v>0.52167120341288387</v>
+      </c>
+      <c r="D539">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="540" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B540">
+        <v>5100</v>
+      </c>
+      <c r="C540">
+        <f t="shared" si="14"/>
+        <v>0.5193344933919346</v>
+      </c>
+      <c r="D540">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="541" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B541">
+        <v>5200</v>
+      </c>
+      <c r="C541">
+        <f t="shared" si="14"/>
+        <v>0.51704315926079669</v>
+      </c>
+      <c r="D541">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="542" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B542">
+        <v>5300</v>
+      </c>
+      <c r="C542">
+        <f t="shared" si="14"/>
+        <v>0.51479547225425493</v>
+      </c>
+      <c r="D542">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="543" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B543">
+        <v>5400</v>
+      </c>
+      <c r="C543">
+        <f t="shared" si="14"/>
+        <v>0.51258980055882075</v>
+      </c>
+      <c r="D543">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="544" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B544">
+        <v>5500</v>
+      </c>
+      <c r="C544">
+        <f t="shared" si="14"/>
+        <v>0.51042460219597374</v>
+      </c>
+      <c r="D544">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="545" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B545">
+        <v>5600</v>
+      </c>
+      <c r="C545">
+        <f t="shared" si="14"/>
+        <v>0.50829841854665747</v>
+      </c>
+      <c r="D545">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="546" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B546">
+        <v>5700</v>
+      </c>
+      <c r="C546">
+        <f t="shared" si="14"/>
+        <v>0.50620986844892824</v>
+      </c>
+      <c r="D546">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="547" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B547">
+        <v>5800</v>
+      </c>
+      <c r="C547">
+        <f t="shared" si="14"/>
+        <v>0.50415764280892783</v>
+      </c>
+      <c r="D547">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="548" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B548">
+        <v>5900</v>
+      </c>
+      <c r="C548">
+        <f t="shared" si="14"/>
+        <v>0.50214049967253027</v>
+      </c>
+      <c r="D548">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="549" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B549">
+        <v>6000</v>
+      </c>
+      <c r="C549">
+        <f t="shared" si="14"/>
+        <v>0.5001572597111974</v>
+      </c>
+      <c r="D549">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="550" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B550">
+        <v>6100</v>
+      </c>
+      <c r="C550">
+        <f t="shared" si="14"/>
+        <v>0.49820680208095447</v>
+      </c>
+      <c r="D550">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="551" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B551">
+        <v>6200</v>
+      </c>
+      <c r="C551">
+        <f t="shared" si="14"/>
+        <v>0.49628806061808439</v>
+      </c>
+      <c r="D551">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="552" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B552">
+        <v>6300</v>
+      </c>
+      <c r="C552">
+        <f t="shared" si="14"/>
+        <v>0.49440002033920449</v>
+      </c>
+      <c r="D552">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="553" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B553">
+        <v>6400</v>
+      </c>
+      <c r="C553">
+        <f t="shared" si="14"/>
+        <v>0.49254171421696413</v>
+      </c>
+      <c r="D553">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="554" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B554">
+        <v>6500</v>
+      </c>
+      <c r="C554">
+        <f t="shared" si="14"/>
+        <v>0.49071222020572014</v>
+      </c>
+      <c r="D554">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="555" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B555">
+        <v>6600</v>
+      </c>
+      <c r="C555">
+        <f t="shared" si="14"/>
+        <v>0.48891065849428705</v>
+      </c>
+      <c r="D555">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="556" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B556">
+        <v>6700</v>
+      </c>
+      <c r="C556">
+        <f t="shared" si="14"/>
+        <v>0.48713618896527122</v>
+      </c>
+      <c r="D556">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="557" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B557">
+        <v>6800</v>
+      </c>
+      <c r="C557">
+        <f t="shared" si="14"/>
+        <v>0.48538800884262456</v>
+      </c>
+      <c r="D557">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="558" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B558">
+        <v>6900</v>
+      </c>
+      <c r="C558">
+        <f t="shared" si="14"/>
+        <v>0.48366535051092874</v>
+      </c>
+      <c r="D558">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="559" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B559">
+        <v>7000</v>
+      </c>
+      <c r="C559">
+        <f t="shared" si="14"/>
+        <v>0.48196747949158092</v>
+      </c>
+      <c r="D559">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="560" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B560">
+        <v>7100</v>
+      </c>
+      <c r="C560">
+        <f t="shared" si="14"/>
+        <v>0.48029369256253007</v>
+      </c>
+      <c r="D560">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="561" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B561">
+        <v>7200</v>
+      </c>
+      <c r="C561">
+        <f t="shared" si="14"/>
+        <v>0.47864331600951071</v>
+      </c>
+      <c r="D561">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="562" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B562">
+        <v>7300</v>
+      </c>
+      <c r="C562">
+        <f t="shared" si="14"/>
+        <v>0.47701570399789506</v>
+      </c>
+      <c r="D562">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="563" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B563">
+        <v>7400</v>
+      </c>
+      <c r="C563">
+        <f t="shared" ref="C563:C569" si="15">(-0.118*LN(B563)+1.5267)</f>
+        <v>0.47541023705531327</v>
+      </c>
+      <c r="D563">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="564" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B564">
+        <v>7500</v>
+      </c>
+      <c r="C564">
+        <f t="shared" si="15"/>
+        <v>0.47382632065612063</v>
+      </c>
+      <c r="D564">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="565" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B565">
+        <v>7600</v>
+      </c>
+      <c r="C565">
+        <f t="shared" si="15"/>
+        <v>0.47226338389961819</v>
+      </c>
+      <c r="D565">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="566" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B566">
+        <v>7700</v>
+      </c>
+      <c r="C566">
+        <f t="shared" si="15"/>
+        <v>0.47072087827467035</v>
+      </c>
+      <c r="D566">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="567" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B567">
+        <v>7800</v>
+      </c>
+      <c r="C567">
+        <f t="shared" si="15"/>
+        <v>0.46919827650403345</v>
+      </c>
+      <c r="D567">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="568" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B568">
+        <v>7900</v>
+      </c>
+      <c r="C568">
+        <f t="shared" si="15"/>
+        <v>0.46769507146229672</v>
+      </c>
+      <c r="D568">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="569" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B569">
+        <v>8000</v>
+      </c>
+      <c r="C569">
+        <f t="shared" si="15"/>
+        <v>0.46621077516188714</v>
+      </c>
+      <c r="D569">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="570" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B570">
+        <v>1000</v>
+      </c>
+      <c r="C570">
+        <f t="shared" ref="C570:C633" si="16">(-0.138*LN(B570)+1.6153)</f>
+        <v>0.66202977150046505</v>
+      </c>
+      <c r="D570">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="571" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B571">
+        <v>1100</v>
+      </c>
+      <c r="C571">
+        <f t="shared" si="16"/>
+        <v>0.64887696668746819</v>
+      </c>
+      <c r="D571">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="572" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B572">
+        <v>1200</v>
+      </c>
+      <c r="C572">
+        <f t="shared" si="16"/>
+        <v>0.63686939666289921</v>
+      </c>
+      <c r="D572">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="573" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B573">
+        <v>1300</v>
+      </c>
+      <c r="C573">
+        <f t="shared" si="16"/>
+        <v>0.62582350300395118</v>
+      </c>
+      <c r="D573">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="574" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B574">
+        <v>1400</v>
+      </c>
+      <c r="C574">
+        <f t="shared" si="16"/>
+        <v>0.61559660284673756</v>
+      </c>
+      <c r="D574">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="575" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B575">
+        <v>1500</v>
+      </c>
+      <c r="C575">
+        <f t="shared" si="16"/>
+        <v>0.60607558658153837</v>
+      </c>
+      <c r="D575">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="576" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B576">
+        <v>1600</v>
+      </c>
+      <c r="C576">
+        <f t="shared" si="16"/>
+        <v>0.5971692706645535</v>
+      </c>
+      <c r="D576">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="577" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B577">
+        <v>1700</v>
+      </c>
+      <c r="C577">
+        <f t="shared" si="16"/>
+        <v>0.58880307285388556</v>
+      </c>
+      <c r="D577">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="578" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B578">
+        <v>1800</v>
+      </c>
+      <c r="C578">
+        <f t="shared" si="16"/>
+        <v>0.58091521174397243</v>
+      </c>
+      <c r="D578">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="579" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B579">
+        <v>1900</v>
+      </c>
+      <c r="C579">
+        <f t="shared" si="16"/>
+        <v>0.57345393520867449</v>
+      </c>
+      <c r="D579">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="580" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B580">
+        <v>2000</v>
+      </c>
+      <c r="C580">
+        <f t="shared" si="16"/>
+        <v>0.56637546058319255</v>
+      </c>
+      <c r="D580">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="581" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B581">
+        <v>2100</v>
+      </c>
+      <c r="C581">
+        <f t="shared" si="16"/>
+        <v>0.55964241792781078</v>
+      </c>
+      <c r="D581">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="582" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B582">
+        <v>2200</v>
+      </c>
+      <c r="C582">
+        <f t="shared" si="16"/>
+        <v>0.5532226557701958</v>
+      </c>
+      <c r="D582">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="583" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B583">
+        <v>2300</v>
+      </c>
+      <c r="C583">
+        <f t="shared" si="16"/>
+        <v>0.54708831253542045</v>
+      </c>
+      <c r="D583">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="584" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B584">
+        <v>2400</v>
+      </c>
+      <c r="C584">
+        <f t="shared" si="16"/>
+        <v>0.54121508574562682</v>
+      </c>
+      <c r="D584">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="585" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B585">
+        <v>2500</v>
+      </c>
+      <c r="C585">
+        <f t="shared" si="16"/>
+        <v>0.5355816505018316</v>
+      </c>
+      <c r="D585">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="586" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B586">
+        <v>2600</v>
+      </c>
+      <c r="C586">
+        <f t="shared" si="16"/>
+        <v>0.53016919208667868</v>
+      </c>
+      <c r="D586">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="587" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B587">
+        <v>2700</v>
+      </c>
+      <c r="C587">
+        <f t="shared" si="16"/>
+        <v>0.52496102682504597</v>
+      </c>
+      <c r="D587">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="588" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B588">
+        <v>2800</v>
+      </c>
+      <c r="C588">
+        <f t="shared" si="16"/>
+        <v>0.51994229192946517</v>
+      </c>
+      <c r="D588">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="589" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B589">
+        <v>2900</v>
+      </c>
+      <c r="C589">
+        <f t="shared" si="16"/>
+        <v>0.5150996897955098</v>
+      </c>
+      <c r="D589">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="590" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B590">
+        <v>3000</v>
+      </c>
+      <c r="C590">
+        <f t="shared" si="16"/>
+        <v>0.51042127566426587</v>
+      </c>
+      <c r="D590">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="591" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B591">
+        <v>3100</v>
+      </c>
+      <c r="C591">
+        <f t="shared" si="16"/>
+        <v>0.50589628011469312</v>
+      </c>
+      <c r="D591">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="592" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B592">
+        <v>3200</v>
+      </c>
+      <c r="C592">
+        <f t="shared" si="16"/>
+        <v>0.50151495974728078</v>
+      </c>
+      <c r="D592">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="593" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B593">
+        <v>3300</v>
+      </c>
+      <c r="C593">
+        <f t="shared" si="16"/>
+        <v>0.49726847085126891</v>
+      </c>
+      <c r="D593">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="594" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B594">
+        <v>3400</v>
+      </c>
+      <c r="C594">
+        <f t="shared" si="16"/>
+        <v>0.49314876193661306</v>
+      </c>
+      <c r="D594">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="595" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B595">
+        <v>3500</v>
+      </c>
+      <c r="C595">
+        <f t="shared" si="16"/>
+        <v>0.48914848184810422</v>
+      </c>
+      <c r="D595">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="596" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B596">
+        <v>3600</v>
+      </c>
+      <c r="C596">
+        <f t="shared" si="16"/>
+        <v>0.48526090082670015</v>
+      </c>
+      <c r="D596">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="597" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B597">
+        <v>3700</v>
+      </c>
+      <c r="C597">
+        <f t="shared" si="16"/>
+        <v>0.48147984238874031</v>
+      </c>
+      <c r="D597">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="598" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B598">
+        <v>3800</v>
+      </c>
+      <c r="C598">
+        <f t="shared" si="16"/>
+        <v>0.47779962429140199</v>
+      </c>
+      <c r="D598">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="599" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B599">
+        <v>3900</v>
+      </c>
+      <c r="C599">
+        <f t="shared" si="16"/>
+        <v>0.47421500716775222</v>
+      </c>
+      <c r="D599">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="600" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B600">
+        <v>4000</v>
+      </c>
+      <c r="C600">
+        <f t="shared" si="16"/>
+        <v>0.47072114966592005</v>
+      </c>
+      <c r="D600">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="601" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B601">
+        <v>4100</v>
+      </c>
+      <c r="C601">
+        <f t="shared" si="16"/>
+        <v>0.4673135691284489</v>
+      </c>
+      <c r="D601">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="602" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B602">
+        <v>4200</v>
+      </c>
+      <c r="C602">
+        <f t="shared" si="16"/>
+        <v>0.4639881070105385</v>
+      </c>
+      <c r="D602">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="603" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B603">
+        <v>4300</v>
+      </c>
+      <c r="C603">
+        <f t="shared" si="16"/>
+        <v>0.46074089836793175</v>
+      </c>
+      <c r="D603">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="604" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B604">
+        <v>4400</v>
+      </c>
+      <c r="C604">
+        <f t="shared" si="16"/>
+        <v>0.45756834485292308</v>
+      </c>
+      <c r="D604">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="605" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B605">
+        <v>4500</v>
+      </c>
+      <c r="C605">
+        <f t="shared" si="16"/>
+        <v>0.45446709074533898</v>
+      </c>
+      <c r="D605">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="606" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B606">
+        <v>4600</v>
+      </c>
+      <c r="C606">
+        <f t="shared" si="16"/>
+        <v>0.45143400161814817</v>
+      </c>
+      <c r="D606">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="607" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B607">
+        <v>4700</v>
+      </c>
+      <c r="C607">
+        <f t="shared" si="16"/>
+        <v>0.44846614529765527</v>
+      </c>
+      <c r="D607">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="608" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B608">
+        <v>4800</v>
+      </c>
+      <c r="C608">
+        <f t="shared" si="16"/>
+        <v>0.44556077482835432</v>
+      </c>
+      <c r="D608">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="609" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B609">
+        <v>4900</v>
+      </c>
+      <c r="C609">
+        <f t="shared" si="16"/>
+        <v>0.44271531319437663</v>
+      </c>
+      <c r="D609">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="610" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B610">
+        <v>5000</v>
+      </c>
+      <c r="C610">
+        <f t="shared" si="16"/>
+        <v>0.4399273395845591</v>
+      </c>
+      <c r="D610">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="611" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B611">
+        <v>5100</v>
+      </c>
+      <c r="C611">
+        <f t="shared" si="16"/>
+        <v>0.43719457701768616</v>
+      </c>
+      <c r="D611">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="612" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B612">
+        <v>5200</v>
+      </c>
+      <c r="C612">
+        <f t="shared" si="16"/>
+        <v>0.43451488116940618</v>
+      </c>
+      <c r="D612">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="613" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B613">
+        <v>5300</v>
+      </c>
+      <c r="C613">
+        <f t="shared" si="16"/>
+        <v>0.43188623026345052</v>
+      </c>
+      <c r="D613">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="614" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B614">
+        <v>5400</v>
+      </c>
+      <c r="C614">
+        <f t="shared" si="16"/>
+        <v>0.42930671590777325</v>
+      </c>
+      <c r="D614">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="615" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B615">
+        <v>5500</v>
+      </c>
+      <c r="C615">
+        <f t="shared" si="16"/>
+        <v>0.42677453477156235</v>
+      </c>
+      <c r="D615">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="616" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B616">
+        <v>5600</v>
+      </c>
+      <c r="C616">
+        <f t="shared" si="16"/>
+        <v>0.42428798101219245</v>
+      </c>
+      <c r="D616">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="617" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B617">
+        <v>5700</v>
+      </c>
+      <c r="C617">
+        <f t="shared" si="16"/>
+        <v>0.42184543937247532</v>
+      </c>
+      <c r="D617">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="618" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B618">
+        <v>5800</v>
+      </c>
+      <c r="C618">
+        <f t="shared" si="16"/>
+        <v>0.41944537887823752</v>
+      </c>
+      <c r="D618">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="619" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B619">
+        <v>5900</v>
+      </c>
+      <c r="C619">
+        <f t="shared" si="16"/>
+        <v>0.41708634707465397</v>
+      </c>
+      <c r="D619">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="620" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B620">
+        <v>6000</v>
+      </c>
+      <c r="C620">
+        <f t="shared" si="16"/>
+        <v>0.41476696474699337</v>
+      </c>
+      <c r="D620">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="621" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B621">
+        <v>6100</v>
+      </c>
+      <c r="C621">
+        <f t="shared" si="16"/>
+        <v>0.4124859210777263</v>
+      </c>
+      <c r="D621">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="622" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B622">
+        <v>6200</v>
+      </c>
+      <c r="C622">
+        <f t="shared" si="16"/>
+        <v>0.41024196919742062</v>
+      </c>
+      <c r="D622">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="623" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B623">
+        <v>6300</v>
+      </c>
+      <c r="C623">
+        <f t="shared" si="16"/>
+        <v>0.40803392209161182</v>
+      </c>
+      <c r="D623">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="624" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B624">
+        <v>6400</v>
+      </c>
+      <c r="C624">
+        <f t="shared" si="16"/>
+        <v>0.40586064883000872</v>
+      </c>
+      <c r="D624">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="625" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B625">
+        <v>6500</v>
+      </c>
+      <c r="C625">
+        <f t="shared" si="16"/>
+        <v>0.40372107108804545</v>
+      </c>
+      <c r="D625">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="626" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B626">
+        <v>6600</v>
+      </c>
+      <c r="C626">
+        <f t="shared" si="16"/>
+        <v>0.40161415993399641</v>
+      </c>
+      <c r="D626">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="627" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B627">
+        <v>6700</v>
+      </c>
+      <c r="C627">
+        <f t="shared" si="16"/>
+        <v>0.39953893285768993</v>
+      </c>
+      <c r="D627">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="628" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B628">
+        <v>6800</v>
+      </c>
+      <c r="C628">
+        <f t="shared" si="16"/>
+        <v>0.39749445101934056</v>
+      </c>
+      <c r="D628">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="629" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B629">
+        <v>6900</v>
+      </c>
+      <c r="C629">
+        <f t="shared" si="16"/>
+        <v>0.3954798166992215</v>
+      </c>
+      <c r="D629">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="630" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B630">
+        <v>7000</v>
+      </c>
+      <c r="C630">
+        <f t="shared" si="16"/>
+        <v>0.39349417093083172</v>
+      </c>
+      <c r="D630">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="631" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B631">
+        <v>7100</v>
+      </c>
+      <c r="C631">
+        <f t="shared" si="16"/>
+        <v>0.3915366913019418</v>
+      </c>
+      <c r="D631">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="632" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B632">
+        <v>7200</v>
+      </c>
+      <c r="C632">
+        <f t="shared" si="16"/>
+        <v>0.38960658990942765</v>
+      </c>
+      <c r="D632">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="633" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B633">
+        <v>7300</v>
+      </c>
+      <c r="C633">
+        <f t="shared" si="16"/>
+        <v>0.38770311145516523</v>
+      </c>
+      <c r="D633">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="634" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B634">
+        <v>7400</v>
+      </c>
+      <c r="C634">
+        <f t="shared" ref="C634:C640" si="17">(-0.138*LN(B634)+1.6153)</f>
+        <v>0.38582553147146781</v>
+      </c>
+      <c r="D634">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="635" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B635">
+        <v>7500</v>
+      </c>
+      <c r="C635">
+        <f t="shared" si="17"/>
+        <v>0.38397315466563242</v>
+      </c>
+      <c r="D635">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="636" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B636">
+        <v>7600</v>
+      </c>
+      <c r="C636">
+        <f t="shared" si="17"/>
+        <v>0.38214531337412949</v>
+      </c>
+      <c r="D636">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="637" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B637">
+        <v>7700</v>
+      </c>
+      <c r="C637">
+        <f t="shared" si="17"/>
+        <v>0.38034136611783476</v>
+      </c>
+      <c r="D637">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="638" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B638">
+        <v>7800</v>
+      </c>
+      <c r="C638">
+        <f t="shared" si="17"/>
+        <v>0.37856069625047972</v>
+      </c>
+      <c r="D638">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="639" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B639">
+        <v>7900</v>
+      </c>
+      <c r="C639">
+        <f t="shared" si="17"/>
+        <v>0.37680271069319438</v>
+      </c>
+      <c r="D639">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="640" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B640">
+        <v>8000</v>
+      </c>
+      <c r="C640">
+        <f t="shared" si="17"/>
+        <v>0.37506683874864755</v>
+      </c>
+      <c r="D640">
+        <v>0.41970000000000002</v>
+      </c>
+    </row>
+    <row r="641" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B641">
+        <v>1000</v>
+      </c>
+      <c r="C641">
+        <f t="shared" ref="C641:C704" si="18">(-0.125*LN(B641)+1.4905)</f>
+        <v>0.62703059012723283</v>
+      </c>
+      <c r="D641">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="642" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B642">
+        <v>1100</v>
+      </c>
+      <c r="C642">
+        <f t="shared" si="18"/>
+        <v>0.61511681765169224</v>
+      </c>
+      <c r="D642">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="643" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B643">
+        <v>1200</v>
+      </c>
+      <c r="C643">
+        <f t="shared" si="18"/>
+        <v>0.60424039552798847</v>
+      </c>
+      <c r="D643">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="644" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B644">
+        <v>1300</v>
+      </c>
+      <c r="C644">
+        <f t="shared" si="18"/>
+        <v>0.59423505706879642</v>
+      </c>
+      <c r="D644">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="645" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B645">
+        <v>1400</v>
+      </c>
+      <c r="C645">
+        <f t="shared" si="18"/>
+        <v>0.58497156054958122</v>
+      </c>
+      <c r="D645">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="646" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B646">
+        <v>1500</v>
+      </c>
+      <c r="C646">
+        <f t="shared" si="18"/>
+        <v>0.57634745161371226</v>
+      </c>
+      <c r="D646">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="647" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B647">
+        <v>1600</v>
+      </c>
+      <c r="C647">
+        <f t="shared" si="18"/>
+        <v>0.56828013647151587</v>
+      </c>
+      <c r="D647">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="648" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B648">
+        <v>1700</v>
+      </c>
+      <c r="C648">
+        <f t="shared" si="18"/>
+        <v>0.56070205874446155</v>
+      </c>
+      <c r="D648">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="649" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B649">
+        <v>1800</v>
+      </c>
+      <c r="C649">
+        <f t="shared" si="18"/>
+        <v>0.5535572570144679</v>
+      </c>
+      <c r="D649">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="650" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B650">
+        <v>1900</v>
+      </c>
+      <c r="C650">
+        <f t="shared" si="18"/>
+        <v>0.54679885435568343</v>
+      </c>
+      <c r="D650">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="651" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B651">
+        <v>2000</v>
+      </c>
+      <c r="C651">
+        <f t="shared" si="18"/>
+        <v>0.54038719255723966</v>
+      </c>
+      <c r="D651">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="652" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B652">
+        <v>2100</v>
+      </c>
+      <c r="C652">
+        <f t="shared" si="18"/>
+        <v>0.53428842203606064</v>
+      </c>
+      <c r="D652">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="653" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B653">
+        <v>2200</v>
+      </c>
+      <c r="C653">
+        <f t="shared" si="18"/>
+        <v>0.52847342008169906</v>
+      </c>
+      <c r="D653">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="654" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B654">
+        <v>2300</v>
+      </c>
+      <c r="C654">
+        <f t="shared" si="18"/>
+        <v>0.52291694976034475</v>
+      </c>
+      <c r="D654">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="655" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B655">
+        <v>2400</v>
+      </c>
+      <c r="C655">
+        <f t="shared" si="18"/>
+        <v>0.5175969979579953</v>
+      </c>
+      <c r="D655">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="656" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B656">
+        <v>2500</v>
+      </c>
+      <c r="C656">
+        <f t="shared" si="18"/>
+        <v>0.51249424864296345</v>
+      </c>
+      <c r="D656">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="657" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B657">
+        <v>2600</v>
+      </c>
+      <c r="C657">
+        <f t="shared" si="18"/>
+        <v>0.50759165949880325</v>
+      </c>
+      <c r="D657">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="658" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B658">
+        <v>2700</v>
+      </c>
+      <c r="C658">
+        <f t="shared" si="18"/>
+        <v>0.50287411850094743</v>
+      </c>
+      <c r="D658">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="659" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B659">
+        <v>2800</v>
+      </c>
+      <c r="C659">
+        <f t="shared" si="18"/>
+        <v>0.49832816297958804</v>
+      </c>
+      <c r="D659">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="660" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B660">
+        <v>2900</v>
+      </c>
+      <c r="C660">
+        <f t="shared" si="18"/>
+        <v>0.49394174800317925</v>
+      </c>
+      <c r="D660">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="661" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B661">
+        <v>3000</v>
+      </c>
+      <c r="C661">
+        <f t="shared" si="18"/>
+        <v>0.48970405404371919</v>
+      </c>
+      <c r="D661">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="662" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B662">
+        <v>3100</v>
+      </c>
+      <c r="C662">
+        <f t="shared" si="18"/>
+        <v>0.48560532619084529</v>
+      </c>
+      <c r="D662">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="663" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B663">
+        <v>3200</v>
+      </c>
+      <c r="C663">
+        <f t="shared" si="18"/>
+        <v>0.48163673890152259</v>
+      </c>
+      <c r="D663">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="664" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B664">
+        <v>3300</v>
+      </c>
+      <c r="C664">
+        <f t="shared" si="18"/>
+        <v>0.47779028156817849</v>
+      </c>
+      <c r="D664">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="665" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B665">
+        <v>3400</v>
+      </c>
+      <c r="C665">
+        <f t="shared" si="18"/>
+        <v>0.47405866117446838</v>
+      </c>
+      <c r="D665">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="666" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B666">
+        <v>3500</v>
+      </c>
+      <c r="C666">
+        <f t="shared" si="18"/>
+        <v>0.47043521906531183</v>
+      </c>
+      <c r="D666">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="667" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B667">
+        <v>3600</v>
+      </c>
+      <c r="C667">
+        <f t="shared" si="18"/>
+        <v>0.46691385944447483</v>
+      </c>
+      <c r="D667">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="668" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B668">
+        <v>3700</v>
+      </c>
+      <c r="C668">
+        <f t="shared" si="18"/>
+        <v>0.46348898767096047</v>
+      </c>
+      <c r="D668">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="669" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B669">
+        <v>3800</v>
+      </c>
+      <c r="C669">
+        <f t="shared" si="18"/>
+        <v>0.46015545678569025</v>
+      </c>
+      <c r="D669">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="670" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B670">
+        <v>3900</v>
+      </c>
+      <c r="C670">
+        <f t="shared" si="18"/>
+        <v>0.45690852098528278</v>
+      </c>
+      <c r="D670">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="671" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B671">
+        <v>4000</v>
+      </c>
+      <c r="C671">
+        <f t="shared" si="18"/>
+        <v>0.45374379498724648</v>
+      </c>
+      <c r="D671">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="672" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B672">
+        <v>4100</v>
+      </c>
+      <c r="C672">
+        <f t="shared" si="18"/>
+        <v>0.45065721841345008</v>
+      </c>
+      <c r="D672">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="673" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B673">
+        <v>4200</v>
+      </c>
+      <c r="C673">
+        <f t="shared" si="18"/>
+        <v>0.44764502446606746</v>
+      </c>
+      <c r="D673">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="674" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B674">
+        <v>4300</v>
+      </c>
+      <c r="C674">
+        <f t="shared" si="18"/>
+        <v>0.44470371228979322</v>
+      </c>
+      <c r="D674">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="675" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B675">
+        <v>4400</v>
+      </c>
+      <c r="C675">
+        <f t="shared" si="18"/>
+        <v>0.44183002251170578</v>
+      </c>
+      <c r="D675">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="676" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B676">
+        <v>4500</v>
+      </c>
+      <c r="C676">
+        <f t="shared" si="18"/>
+        <v>0.43902091553019851</v>
+      </c>
+      <c r="D676">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="677" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B677">
+        <v>4600</v>
+      </c>
+      <c r="C677">
+        <f t="shared" si="18"/>
+        <v>0.43627355219035158</v>
+      </c>
+      <c r="D677">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="678" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B678">
+        <v>4700</v>
+      </c>
+      <c r="C678">
+        <f t="shared" si="18"/>
+        <v>0.43358527653773127</v>
+      </c>
+      <c r="D678">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="679" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B679">
+        <v>4800</v>
+      </c>
+      <c r="C679">
+        <f t="shared" si="18"/>
+        <v>0.43095360038800212</v>
+      </c>
+      <c r="D679">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="680" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B680">
+        <v>4900</v>
+      </c>
+      <c r="C680">
+        <f t="shared" si="18"/>
+        <v>0.4283761894876601</v>
+      </c>
+      <c r="D680">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="681" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B681">
+        <v>5000</v>
+      </c>
+      <c r="C681">
+        <f t="shared" si="18"/>
+        <v>0.42585085107297016</v>
+      </c>
+      <c r="D681">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="682" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B682">
+        <v>5100</v>
+      </c>
+      <c r="C682">
+        <f t="shared" si="18"/>
+        <v>0.42337552266094769</v>
+      </c>
+      <c r="D682">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="683" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B683">
+        <v>5200</v>
+      </c>
+      <c r="C683">
+        <f t="shared" si="18"/>
+        <v>0.42094826192881007</v>
+      </c>
+      <c r="D683">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="684" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B684">
+        <v>5300</v>
+      </c>
+      <c r="C684">
+        <f t="shared" si="18"/>
+        <v>0.41856723755747338</v>
+      </c>
+      <c r="D684">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="685" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B685">
+        <v>5400</v>
+      </c>
+      <c r="C685">
+        <f t="shared" si="18"/>
+        <v>0.41623072093095415</v>
+      </c>
+      <c r="D685">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="686" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B686">
+        <v>5500</v>
+      </c>
+      <c r="C686">
+        <f t="shared" si="18"/>
+        <v>0.41393707859742968</v>
+      </c>
+      <c r="D686">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="687" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B687">
+        <v>5600</v>
+      </c>
+      <c r="C687">
+        <f t="shared" si="18"/>
+        <v>0.41168476540959476</v>
+      </c>
+      <c r="D687">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="688" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B688">
+        <v>5700</v>
+      </c>
+      <c r="C688">
+        <f t="shared" si="18"/>
+        <v>0.40947231827216979</v>
+      </c>
+      <c r="D688">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="689" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B689">
+        <v>5800</v>
+      </c>
+      <c r="C689">
+        <f t="shared" si="18"/>
+        <v>0.40729835043318618</v>
+      </c>
+      <c r="D689">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="690" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B690">
+        <v>5900</v>
+      </c>
+      <c r="C690">
+        <f t="shared" si="18"/>
+        <v>0.40516154626327361</v>
+      </c>
+      <c r="D690">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="691" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B691">
+        <v>6000</v>
+      </c>
+      <c r="C691">
+        <f t="shared" si="18"/>
+        <v>0.40306065647372602</v>
+      </c>
+      <c r="D691">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="692" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B692">
+        <v>6100</v>
+      </c>
+      <c r="C692">
+        <f t="shared" si="18"/>
+        <v>0.40099449372982465</v>
+      </c>
+      <c r="D692">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="693" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B693">
+        <v>6200</v>
+      </c>
+      <c r="C693">
+        <f t="shared" si="18"/>
+        <v>0.39896192862085211</v>
+      </c>
+      <c r="D693">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="694" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B694">
+        <v>6300</v>
+      </c>
+      <c r="C694">
+        <f t="shared" si="18"/>
+        <v>0.396961885952547</v>
+      </c>
+      <c r="D694">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="695" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B695">
+        <v>6400</v>
+      </c>
+      <c r="C695">
+        <f t="shared" si="18"/>
+        <v>0.39499334133152963</v>
+      </c>
+      <c r="D695">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="696" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B696">
+        <v>6500</v>
+      </c>
+      <c r="C696">
+        <f t="shared" si="18"/>
+        <v>0.39305531801453397</v>
+      </c>
+      <c r="D696">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="697" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B697">
+        <v>6600</v>
+      </c>
+      <c r="C697">
+        <f t="shared" si="18"/>
+        <v>0.39114688399818531</v>
+      </c>
+      <c r="D697">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="698" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B698">
+        <v>6700</v>
+      </c>
+      <c r="C698">
+        <f t="shared" si="18"/>
+        <v>0.38926714932761786</v>
+      </c>
+      <c r="D698">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="699" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B699">
+        <v>6800</v>
+      </c>
+      <c r="C699">
+        <f t="shared" si="18"/>
+        <v>0.3874152636044752</v>
+      </c>
+      <c r="D699">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="700" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B700">
+        <v>6900</v>
+      </c>
+      <c r="C700">
+        <f t="shared" si="18"/>
+        <v>0.38559041367683111</v>
+      </c>
+      <c r="D700">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="701" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B701">
+        <v>7000</v>
+      </c>
+      <c r="C701">
+        <f t="shared" si="18"/>
+        <v>0.38379182149531865</v>
+      </c>
+      <c r="D701">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="702" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B702">
+        <v>7100</v>
+      </c>
+      <c r="C702">
+        <f t="shared" si="18"/>
+        <v>0.38201874212132414</v>
+      </c>
+      <c r="D702">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="703" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B703">
+        <v>7200</v>
+      </c>
+      <c r="C703">
+        <f t="shared" si="18"/>
+        <v>0.38027046187448166</v>
+      </c>
+      <c r="D703">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="704" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B704">
+        <v>7300</v>
+      </c>
+      <c r="C704">
+        <f t="shared" si="18"/>
+        <v>0.37854629660793959</v>
+      </c>
+      <c r="D704">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="705" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B705">
+        <v>7400</v>
+      </c>
+      <c r="C705">
+        <f t="shared" ref="C705:C711" si="19">(-0.125*LN(B705)+1.4905)</f>
+        <v>0.3768455901009673</v>
+      </c>
+      <c r="D705">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="706" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B706">
+        <v>7500</v>
+      </c>
+      <c r="C706">
+        <f t="shared" si="19"/>
+        <v>0.3751677125594497</v>
+      </c>
+      <c r="D706">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="707" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B707">
+        <v>7600</v>
+      </c>
+      <c r="C707">
+        <f t="shared" si="19"/>
+        <v>0.37351205921569708</v>
+      </c>
+      <c r="D707">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="708" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B708">
+        <v>7700</v>
+      </c>
+      <c r="C708">
+        <f t="shared" si="19"/>
+        <v>0.37187804901977795</v>
+      </c>
+      <c r="D708">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="709" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B709">
+        <v>7800</v>
+      </c>
+      <c r="C709">
+        <f t="shared" si="19"/>
+        <v>0.37026512341528961</v>
+      </c>
+      <c r="D709">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="710" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B710">
+        <v>7900</v>
+      </c>
+      <c r="C710">
+        <f t="shared" si="19"/>
+        <v>0.36867274519311088</v>
+      </c>
+      <c r="D710">
+        <v>0.43309999999999998</v>
+      </c>
+    </row>
+    <row r="711" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B711">
+        <v>8000</v>
+      </c>
+      <c r="C711">
+        <f t="shared" si="19"/>
         <v>0.36710039741725331</v>
       </c>
-      <c r="D151">
+      <c r="D711">
         <v>0.43309999999999998</v>
       </c>
     </row>
@@ -12588,7 +19308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>

--- a/f_factor/dP_f_Agulhas/fxReynoldsV3.xlsx
+++ b/f_factor/dP_f_Agulhas/fxReynoldsV3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="18756" windowHeight="15372"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="18756" windowHeight="15372" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -652,7 +652,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1899,7 +1898,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2316,7 +2314,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2733,7 +2730,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3150,7 +3146,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3567,7 +3562,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3984,7 +3978,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10538,7 +10531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T711"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
@@ -19308,7 +19301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C155"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>

--- a/f_factor/dP_f_Agulhas/fxReynoldsV3.xlsx
+++ b/f_factor/dP_f_Agulhas/fxReynoldsV3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T2F\Documents\GitHub\Artificial-Neural-Network\f_factor\dP_f_Agulhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D384935B-1DFF-4405-9CC9-8C9D494A430A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A10A2A-EE26-4B0D-9918-6D946AA22698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7218,16 +7218,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>163830</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>468630</xdr:colOff>
-      <xdr:row>151</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>316230</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7542,8 +7542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D155"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9487,7 +9487,7 @@
   <dimension ref="A1:C710"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C710"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/f_factor/dP_f_Agulhas/fxReynoldsV3.xlsx
+++ b/f_factor/dP_f_Agulhas/fxReynoldsV3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T2F\Documents\GitHub\Artificial-Neural-Network\f_factor\dP_f_Agulhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A10A2A-EE26-4B0D-9918-6D946AA22698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6248A5CC-5F25-43B0-A109-BF84DFD51410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4170" yWindow="990" windowWidth="23175" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +130,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -328,46 +334,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1068.8656796375699</c:v>
+                  <c:v>3961.9446613280425</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1302.1775386598492</c:v>
+                  <c:v>4266.7096352763538</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1526.7943699806624</c:v>
+                  <c:v>4571.4746092246642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1747.8446702585011</c:v>
+                  <c:v>4876.2395831729755</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1967.9428662896544</c:v>
+                  <c:v>5181.0045571212868</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2190.112532371023</c:v>
+                  <c:v>5485.7695310695972</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2407.1717145769535</c:v>
+                  <c:v>5790.5345050179085</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2628.1679765056538</c:v>
+                  <c:v>6095.2994789662198</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2886.4609923571147</c:v>
+                  <c:v>172.41043359087519</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3101.7960939001073</c:v>
+                  <c:v>206.89252030905024</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3315.0211265721241</c:v>
+                  <c:v>241.37460702722527</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3541.2127897820474</c:v>
+                  <c:v>275.85669374540032</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3764.8131854881617</c:v>
+                  <c:v>310.33878046357529</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3989.77740619628</c:v>
+                  <c:v>344.82086718175037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -379,46 +385,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.87582456635999661</c:v>
+                  <c:v>0.48151753123428698</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86027452009692007</c:v>
+                  <c:v>0.45504451134297202</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.84622092080375544</c:v>
+                  <c:v>0.45759574398417202</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8338261164010744</c:v>
+                  <c:v>0.44327133081445264</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.82041590776779172</c:v>
+                  <c:v>0.43806806113222896</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.80669951865071909</c:v>
+                  <c:v>0.43863540071791307</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.79781688819599172</c:v>
+                  <c:v>0.41595829919834193</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.78700472898173701</c:v>
+                  <c:v>0.40705032711583217</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.77653052671149525</c:v>
+                  <c:v>0.99870878046668199</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.77102097233721034</c:v>
+                  <c:v>0.96354875516527694</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.76156579545196035</c:v>
+                  <c:v>0.92316838147332136</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.7509774916744445</c:v>
+                  <c:v>0.90440492297857722</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.74160191376069273</c:v>
+                  <c:v>0.87404669118784895</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.73115079373733549</c:v>
+                  <c:v>0.86197199371210342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -744,46 +750,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1407.7318228900219</c:v>
+                  <c:v>689.64173436350075</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1720.6917066878934</c:v>
+                  <c:v>1034.4626015452511</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2036.4568660634598</c:v>
+                  <c:v>1379.2834687270015</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2331.2551421521512</c:v>
+                  <c:v>1724.1043359087519</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2623.7337306076874</c:v>
+                  <c:v>2068.9252030905022</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2919.9145405257395</c:v>
+                  <c:v>2413.7460702722528</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3252.0133937555602</c:v>
+                  <c:v>2758.566937454003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3545.5497597718149</c:v>
+                  <c:v>3103.3878046357531</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3833.3178358736245</c:v>
+                  <c:v>3448.2086718175037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4122.0045082781335</c:v>
+                  <c:v>3793.0295389992539</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4410.6571585974179</c:v>
+                  <c:v>4137.8504061810045</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4706.6307430869065</c:v>
+                  <c:v>4482.6712733627555</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4963.7882211816059</c:v>
+                  <c:v>4827.4921405445057</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5264.9857422209598</c:v>
+                  <c:v>5172.3130077262558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -795,46 +801,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.68570265887934279</c:v>
+                  <c:v>0.77769787850225114</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66825409211451303</c:v>
+                  <c:v>0.70804326568439446</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65543302683370186</c:v>
+                  <c:v>0.70413955098697212</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64552484260553811</c:v>
+                  <c:v>0.69219188295740108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.6334404047344705</c:v>
+                  <c:v>0.68399566678270829</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.62622663780006493</c:v>
+                  <c:v>0.65408350313515784</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61787908629023369</c:v>
+                  <c:v>0.62726377158772695</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.60887024272211243</c:v>
+                  <c:v>0.6408638594734708</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.60131977720793761</c:v>
+                  <c:v>0.63194869340929083</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.59344527947575143</c:v>
+                  <c:v>0.60936254686728319</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.58609140270906845</c:v>
+                  <c:v>0.60119571213627399</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.57454329322564379</c:v>
+                  <c:v>0.61642412593281348</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.57111089364068701</c:v>
+                  <c:v>0.59938395072759276</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.56087374644144861</c:v>
+                  <c:v>0.57906779473978731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1160,46 +1166,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1953.8968184184394</c:v>
+                  <c:v>5517.133874908006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2257.5719329410449</c:v>
+                  <c:v>5861.954742089757</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2564.9842858576803</c:v>
+                  <c:v>6206.7756092715063</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2885.6659346452275</c:v>
+                  <c:v>6551.5964764532573</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3197.4593947428652</c:v>
+                  <c:v>6896.4173436350075</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3513.3120276280256</c:v>
+                  <c:v>192.55785462697582</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3825.3679342421005</c:v>
+                  <c:v>231.06942555237097</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4145.1257712917641</c:v>
+                  <c:v>269.58099647776612</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4465.0725698333308</c:v>
+                  <c:v>308.0925674031613</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4786.744516809521</c:v>
+                  <c:v>346.60413832855642</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5111.4398476551041</c:v>
+                  <c:v>385.11570925395165</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5454.6429068395946</c:v>
+                  <c:v>770.2314185079033</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5772.4236467988212</c:v>
+                  <c:v>1155.3471277618548</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6096.4996038655845</c:v>
+                  <c:v>1540.4628370158066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1211,46 +1217,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.62185388929089114</c:v>
+                  <c:v>0.60394946052090404</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60823672513871652</c:v>
+                  <c:v>0.59592679848727814</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59485269879474845</c:v>
+                  <c:v>0.57757748749847315</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57878829040364632</c:v>
+                  <c:v>0.57910813438126019</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.56691866309880534</c:v>
+                  <c:v>0.56743779084801438</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.55683975044604561</c:v>
+                  <c:v>0.92763614923597015</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.54754567313703617</c:v>
+                  <c:v>0.88050967640078193</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.53757107753842615</c:v>
+                  <c:v>0.84769144405441954</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52884240006767558</c:v>
+                  <c:v>0.81958074181183593</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.51963701441802479</c:v>
+                  <c:v>0.7989716018029257</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.50962873224070482</c:v>
+                  <c:v>0.80107138099306097</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.49949464087878953</c:v>
+                  <c:v>0.68935562659552219</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.4969660365749386</c:v>
+                  <c:v>0.64968061503101182</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.49109283989593644</c:v>
+                  <c:v>0.66694342842104537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1576,46 +1582,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2141.5903352656219</c:v>
+                  <c:v>1925.5785462697584</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2496.6432854156697</c:v>
+                  <c:v>2310.6942555237097</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2864.6543156079233</c:v>
+                  <c:v>2695.8099647776617</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3234.304081666126</c:v>
+                  <c:v>3080.9256740316132</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3584.8651050007065</c:v>
+                  <c:v>3466.0413832855647</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3964.7015023206473</c:v>
+                  <c:v>3851.1570925395167</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4318.3804055332066</c:v>
+                  <c:v>4236.2728017934687</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4674.0016583826127</c:v>
+                  <c:v>4621.3885110474193</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5037.2872127048995</c:v>
+                  <c:v>5006.5042203013718</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5393.5234780645687</c:v>
+                  <c:v>5391.6199295553233</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5765.3530352983935</c:v>
+                  <c:v>5776.7356388092749</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6142.5775756918738</c:v>
+                  <c:v>6161.8513480632264</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6476.6033259656879</c:v>
+                  <c:v>6546.9670573171788</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6831.7730506430007</c:v>
+                  <c:v>6932.0827665711295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1627,46 +1633,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.55954495619372691</c:v>
+                  <c:v>0.59594546023710204</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54385403877935079</c:v>
+                  <c:v>0.61388903512018356</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52693494239587124</c:v>
+                  <c:v>0.61329973323904585</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51226769152776963</c:v>
+                  <c:v>0.62050056667285891</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.50124205720980253</c:v>
+                  <c:v>0.62739302044370282</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.48571310375028676</c:v>
+                  <c:v>0.63118594488803215</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.47609479341864336</c:v>
+                  <c:v>0.59981314697873978</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46696885997974735</c:v>
+                  <c:v>0.62609689978898464</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.45723317431933536</c:v>
+                  <c:v>0.58083507428606507</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45120451132339667</c:v>
+                  <c:v>0.57133955449283136</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.44240560428678088</c:v>
+                  <c:v>0.5797729805259586</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.43573800244986083</c:v>
+                  <c:v>0.60144558385734037</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.42868394758001344</c:v>
+                  <c:v>0.57242686085582029</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.42382271184688741</c:v>
+                  <c:v>0.54451407829089338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1992,46 +1998,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1081.8486206034447</c:v>
+                  <c:v>7317.198475825081</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1317.1924313487164</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1545.9005119612536</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1776.8986274761098</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1999.1809385119795</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2223.4627576342064</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2453.3817735469052</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2712.976028519</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2931.2349093640132</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3148.2120542562102</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3373.2555907446681</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3599.3513714153464</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3831.7215547501442</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4054.0136313932753</c:v>
+                  <c:v>7702.3141850790335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2043,46 +2013,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.69582240103522719</c:v>
+                  <c:v>0.56156669404016291</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67438709471971481</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.65968931959758947</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.64367794711725745</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.62962969307720162</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.61677212963070194</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.60654343943795186</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.59549582625576203</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.58664136173384795</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.58004103822159037</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.57002875503202111</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.55579508111971754</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.54473873191078903</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.53643048072458122</c:v>
+                  <c:v>0.52139682300954182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2407,48 +2341,6 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1966.2782952771413</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2262.648164067075</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2572.0740042005195</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2888.1843927486207</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3188.4479088839616</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3500.8892835873226</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3816.928197839748</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4021.3378763976798</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4450.6431280694042</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4767.4546454227093</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5095.6067510232906</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5431.1002878511763</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5751.7271711784297</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6076.9011811258406</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2458,48 +2350,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.55467947899567072</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.54405905317221526</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.52999574193795862</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.51505817746950311</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5065823577046995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.49638808545844326</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.47618572154254735</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.47396215200875025</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.45415570436883845</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.44372283346166674</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.43234154658868795</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.42162991186507964</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.41302653151363045</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.40475012545601829</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2823,48 +2673,6 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1782.279216224799</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2171.6069075924634</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2552.3911070014738</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2937.8017598684519</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3307.7921725618367</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3680.9978369164519</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4102.9281038477711</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4490.9056183612556</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4857.4977045657333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5241.6954866992955</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5624.1235454985645</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5998.2674683450286</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6401.451635733175</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6770.0155903941441</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2874,48 +2682,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.56259739752591464</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.53247203522982089</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.51024244877140823</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.48933265570617623</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.47380979623259978</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.46174525930464705</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.44940587494097672</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.44036422525935165</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.43288220741601707</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.42325108122609173</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.41462752595281693</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.40503385031667233</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.3979543942022144</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.39043732594249264</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7542,8 +7308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77:D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7583,10 +7349,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>1096.4936814466009</v>
+        <v>125.52588165658494</v>
       </c>
       <c r="C2" s="2">
-        <v>0.80024139272919437</v>
+        <v>1.3795957161923007</v>
       </c>
       <c r="D2" s="2">
         <v>0.33260000000000001</v>
@@ -7603,10 +7369,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>1347.352134902017</v>
+        <v>150.63105798790195</v>
       </c>
       <c r="C3" s="2">
-        <v>0.73348942790784233</v>
+        <v>1.2844290839342576</v>
       </c>
       <c r="D3" s="2">
         <v>0.33260000000000001</v>
@@ -7623,10 +7389,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>1580.4536971382979</v>
+        <v>175.73623431921894</v>
       </c>
       <c r="C4" s="2">
-        <v>0.72327362634113168</v>
+        <v>1.2150839822737618</v>
       </c>
       <c r="D4" s="2">
         <v>0.33260000000000001</v>
@@ -7643,10 +7409,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>1815.0891856484172</v>
+        <v>200.84141065053592</v>
       </c>
       <c r="C5" s="2">
-        <v>0.7143185851715016</v>
+        <v>1.1642837925153113</v>
       </c>
       <c r="D5" s="2">
         <v>0.33260000000000001</v>
@@ -7663,10 +7429,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>2046.7421792103808</v>
+        <v>225.9465869818529</v>
       </c>
       <c r="C6" s="2">
-        <v>0.69923458716957554</v>
+        <v>1.1276427922286478</v>
       </c>
       <c r="D6" s="2">
         <v>0.33260000000000001</v>
@@ -7677,10 +7443,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>2278.9625497574302</v>
+        <v>251.05176331316989</v>
       </c>
       <c r="C7" s="2">
-        <v>0.68530216711425473</v>
+        <v>1.0973298680610799</v>
       </c>
       <c r="D7" s="2">
         <v>0.33260000000000001</v>
@@ -7697,10 +7463,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>2515.2625114582929</v>
+        <v>502.10352662633977</v>
       </c>
       <c r="C8" s="2">
-        <v>0.67366753049674266</v>
+        <v>0.93305659449608602</v>
       </c>
       <c r="D8" s="2">
         <v>0.33260000000000001</v>
@@ -7717,10 +7483,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>2785.4795663827904</v>
+        <v>753.15528993950966</v>
       </c>
       <c r="C9" s="2">
-        <v>0.66274985262174613</v>
+        <v>0.85740852928242328</v>
       </c>
       <c r="D9" s="2">
         <v>0.33260000000000001</v>
@@ -7737,10 +7503,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>3024.3101298579004</v>
+        <v>1004.2070532526795</v>
       </c>
       <c r="C10" s="2">
-        <v>0.65213044190085878</v>
+        <v>0.80921958585603937</v>
       </c>
       <c r="D10" s="2">
         <v>0.33260000000000001</v>
@@ -7757,10 +7523,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>3250.7412467429222</v>
+        <v>1255.2588165658497</v>
       </c>
       <c r="C11" s="2">
-        <v>0.64194708146574031</v>
+        <v>0.7672959056478964</v>
       </c>
       <c r="D11" s="2">
         <v>0.33260000000000001</v>
@@ -7774,10 +7540,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>3475.5681428604234</v>
+        <v>1506.3105798790193</v>
       </c>
       <c r="C12" s="2">
-        <v>0.63119802143857862</v>
+        <v>0.74884845681769252</v>
       </c>
       <c r="D12" s="2">
         <v>0.33260000000000001</v>
@@ -7788,10 +7554,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>3716.0832636673399</v>
+        <v>1757.3623431921894</v>
       </c>
       <c r="C13" s="2">
-        <v>0.6185726811478971</v>
+        <v>0.73161673378058911</v>
       </c>
       <c r="D13" s="2">
         <v>0.33260000000000001</v>
@@ -7808,10 +7574,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>3942.8357268094273</v>
+        <v>2008.4141065053591</v>
       </c>
       <c r="C14" s="2">
-        <v>0.60733235129415708</v>
+        <v>0.71323344342425521</v>
       </c>
       <c r="D14" s="2">
         <v>0.33260000000000001</v>
@@ -7828,10 +7594,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>4168.4233097697434</v>
+        <v>2259.465869818529</v>
       </c>
       <c r="C15" s="2">
-        <v>0.59801524385348059</v>
+        <v>0.70599231662221562</v>
       </c>
       <c r="D15" s="2">
         <v>0.33260000000000001</v>
@@ -7848,13 +7614,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>1416.337311079722</v>
+        <v>2510.5176331316993</v>
       </c>
       <c r="C16" s="2">
-        <v>0.63564560484741928</v>
+        <v>0.68529103740656383</v>
       </c>
       <c r="D16" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
       <c r="J16" t="s">
         <v>16</v>
@@ -7868,13 +7634,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>1720.1209418119224</v>
+        <v>2761.5693964448687</v>
       </c>
       <c r="C17" s="2">
-        <v>0.61561582967208395</v>
+        <v>0.67343105588179841</v>
       </c>
       <c r="D17" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
       <c r="J17" t="s">
         <v>17</v>
@@ -7885,13 +7651,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>2021.1891166262369</v>
+        <v>3012.6211597580386</v>
       </c>
       <c r="C18" s="2">
-        <v>0.59773451367019637</v>
+        <v>0.66129251604330874</v>
       </c>
       <c r="D18" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -7899,13 +7665,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="3">
-        <v>2325.2836076318649</v>
+        <v>3263.672923071209</v>
       </c>
       <c r="C19" s="2">
-        <v>0.58108009548877726</v>
+        <v>0.65889138856621998</v>
       </c>
       <c r="D19" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -7913,13 +7679,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>2621.9204997249717</v>
+        <v>3514.7246863843789</v>
       </c>
       <c r="C20" s="2">
-        <v>0.56657139746924468</v>
+        <v>0.65772166930869458</v>
       </c>
       <c r="D20" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -7927,13 +7693,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="3">
-        <v>2913.9310595135485</v>
+        <v>3765.7764496975483</v>
       </c>
       <c r="C21" s="2">
-        <v>0.55770711573118326</v>
+        <v>0.64938467286916546</v>
       </c>
       <c r="D21" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -7941,13 +7707,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>3252.6346609607435</v>
+        <v>4016.8282130107182</v>
       </c>
       <c r="C22" s="2">
-        <v>0.54305091754903756</v>
+        <v>0.63951842596261832</v>
       </c>
       <c r="D22" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -7955,13 +7721,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="3">
-        <v>3576.2127767508841</v>
+        <v>4267.8799763238885</v>
       </c>
       <c r="C23" s="2">
-        <v>0.53272618768852431</v>
+        <v>0.64322125213263137</v>
       </c>
       <c r="D23" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -7969,13 +7735,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>3860.3878290592461</v>
+        <v>4518.9317396370579</v>
       </c>
       <c r="C24" s="2">
-        <v>0.52357866054493363</v>
+        <v>0.63763636304086502</v>
       </c>
       <c r="D24" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -7983,13 +7749,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="3">
-        <v>4145.4040326957074</v>
+        <v>4769.9835029502283</v>
       </c>
       <c r="C25" s="2">
-        <v>0.51386797876462376</v>
+        <v>0.63093686809257754</v>
       </c>
       <c r="D25" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -7997,13 +7763,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>4433.4313142747469</v>
+        <v>5021.0352662633986</v>
       </c>
       <c r="C26" s="2">
-        <v>0.50482592427558204</v>
+        <v>0.62680272166187934</v>
       </c>
       <c r="D26" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -8011,10 +7777,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="3">
-        <v>4733.6674807102163</v>
+        <v>152.38248697415548</v>
       </c>
       <c r="C27" s="2">
-        <v>0.49283468396267899</v>
+        <v>1.2042411968304156</v>
       </c>
       <c r="D27" s="2">
         <v>0.3745</v>
@@ -8025,10 +7791,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>5023.9043083504102</v>
+        <v>182.85898436898657</v>
       </c>
       <c r="C28" s="2">
-        <v>0.48208276732176392</v>
+        <v>1.142091816027651</v>
       </c>
       <c r="D28" s="2">
         <v>0.3745</v>
@@ -8039,10 +7805,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="3">
-        <v>5310.0207135428245</v>
+        <v>213.33548176381768</v>
       </c>
       <c r="C29" s="2">
-        <v>0.4721748781766924</v>
+        <v>1.0906891679072397</v>
       </c>
       <c r="D29" s="2">
         <v>0.3745</v>
@@ -8053,13 +7819,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>1885.3763173807381</v>
+        <v>243.8119791586488</v>
       </c>
       <c r="C30" s="2">
-        <v>0.54442025046644815</v>
+        <v>1.0588970301834095</v>
       </c>
       <c r="D30" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -8067,13 +7833,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="3">
-        <v>2272.0825545139087</v>
+        <v>274.28847655347982</v>
       </c>
       <c r="C31" s="2">
-        <v>0.51804418494415505</v>
+        <v>1.0257481878176657</v>
       </c>
       <c r="D31" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -8081,13 +7847,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>2657.8991743587026</v>
+        <v>304.76497394831097</v>
       </c>
       <c r="C32" s="2">
-        <v>0.49750269528836849</v>
+        <v>0.99174034187526694</v>
       </c>
       <c r="D32" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -8095,13 +7861,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="3">
-        <v>3057.7494106487102</v>
+        <v>609.52994789662193</v>
       </c>
       <c r="C33" s="2">
-        <v>0.4765090605503054</v>
+        <v>0.83575095764057172</v>
       </c>
       <c r="D33" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -8109,13 +7875,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>3442.9382918874162</v>
+        <v>914.2949218449329</v>
       </c>
       <c r="C34" s="2">
-        <v>0.46076624205715572</v>
+        <v>0.75595466575914583</v>
       </c>
       <c r="D34" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -8123,13 +7889,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="3">
-        <v>3830.1220725000653</v>
+        <v>1219.0598957932439</v>
       </c>
       <c r="C35" s="2">
-        <v>0.44939931312140946</v>
+        <v>0.70688616427718565</v>
       </c>
       <c r="D35" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -8137,13 +7903,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>4283.507243533465</v>
+        <v>1523.8248697415549</v>
       </c>
       <c r="C36" s="2">
-        <v>0.43767569448667865</v>
+        <v>0.65932521784734666</v>
       </c>
       <c r="D36" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -8151,13 +7917,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="3">
-        <v>4709.3681948264466</v>
+        <v>1828.5898436898658</v>
       </c>
       <c r="C37" s="2">
-        <v>0.42563934296165284</v>
+        <v>0.62586695190454322</v>
       </c>
       <c r="D37" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -8165,13 +7931,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>5083.4349343819404</v>
+        <v>2133.3548176381769</v>
       </c>
       <c r="C38" s="2">
-        <v>0.41975767183662277</v>
+        <v>0.60574341910983986</v>
       </c>
       <c r="D38" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -8179,13 +7945,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="3">
-        <v>5461.6185608692822</v>
+        <v>2438.1197915864877</v>
       </c>
       <c r="C39" s="2">
-        <v>0.41251570540292365</v>
+        <v>0.57558116980230101</v>
       </c>
       <c r="D39" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -8193,13 +7959,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>5843.9306277599044</v>
+        <v>2742.8847655347986</v>
       </c>
       <c r="C40" s="2">
-        <v>0.40600855043868744</v>
+        <v>0.53604388164568306</v>
       </c>
       <c r="D40" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -8207,13 +7973,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="3">
-        <v>6227.6560693034498</v>
+        <v>3047.6497394831099</v>
       </c>
       <c r="C41" s="2">
-        <v>0.40167452085663224</v>
+        <v>0.52129610999385112</v>
       </c>
       <c r="D41" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -8221,13 +7987,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>6598.8228875682235</v>
+        <v>3352.4147134314208</v>
       </c>
       <c r="C42" s="2">
-        <v>0.40130369029566082</v>
+        <v>0.50099583575696172</v>
       </c>
       <c r="D42" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -8235,1248 +8001,817 @@
         <v>41</v>
       </c>
       <c r="B43" s="3">
-        <v>6968.9460422608799</v>
+        <v>3657.1796873797316</v>
       </c>
       <c r="C43" s="2">
-        <v>0.39691014541645614</v>
+        <v>0.49314192466836859</v>
       </c>
       <c r="D43" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>1068.8656796375699</v>
+        <v>3961.9446613280425</v>
       </c>
       <c r="C44">
-        <v>0.87582456635999661</v>
-      </c>
-      <c r="D44">
-        <v>0.29920000000000002</v>
+        <v>0.48151753123428698</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.3745</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
-        <v>1302.1775386598492</v>
+        <v>4266.7096352763538</v>
       </c>
       <c r="C45">
-        <v>0.86027452009692007</v>
-      </c>
-      <c r="D45">
-        <v>0.29920000000000002</v>
+        <v>0.45504451134297202</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.3745</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>1526.7943699806624</v>
+        <v>4571.4746092246642</v>
       </c>
       <c r="C46">
-        <v>0.84622092080375544</v>
-      </c>
-      <c r="D46">
-        <v>0.29920000000000002</v>
+        <v>0.45759574398417202</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.3745</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
-        <v>1747.8446702585011</v>
+        <v>4876.2395831729755</v>
       </c>
       <c r="C47">
-        <v>0.8338261164010744</v>
-      </c>
-      <c r="D47">
-        <v>0.29920000000000002</v>
+        <v>0.44327133081445264</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.3745</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
-        <v>1967.9428662896544</v>
+        <v>5181.0045571212868</v>
       </c>
       <c r="C48">
-        <v>0.82041590776779172</v>
-      </c>
-      <c r="D48">
-        <v>0.29920000000000002</v>
+        <v>0.43806806113222896</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.3745</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
-        <v>2190.112532371023</v>
+        <v>5485.7695310695972</v>
       </c>
       <c r="C49">
-        <v>0.80669951865071909</v>
-      </c>
-      <c r="D49">
-        <v>0.29920000000000002</v>
+        <v>0.43863540071791307</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.3745</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
-        <v>2407.1717145769535</v>
+        <v>5790.5345050179085</v>
       </c>
       <c r="C50">
-        <v>0.79781688819599172</v>
-      </c>
-      <c r="D50">
-        <v>0.29920000000000002</v>
+        <v>0.41595829919834193</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.3745</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
-        <v>2628.1679765056538</v>
+        <v>6095.2994789662198</v>
       </c>
       <c r="C51">
-        <v>0.78700472898173701</v>
-      </c>
-      <c r="D51">
-        <v>0.29920000000000002</v>
+        <v>0.40705032711583217</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.3745</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
-        <v>2886.4609923571147</v>
+        <v>172.41043359087519</v>
       </c>
       <c r="C52">
-        <v>0.77653052671149525</v>
-      </c>
-      <c r="D52">
-        <v>0.29920000000000002</v>
+        <v>0.99870878046668199</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.39960000000000001</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
-        <v>3101.7960939001073</v>
+        <v>206.89252030905024</v>
       </c>
       <c r="C53">
-        <v>0.77102097233721034</v>
-      </c>
-      <c r="D53">
-        <v>0.29920000000000002</v>
+        <v>0.96354875516527694</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.39960000000000001</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
-        <v>3315.0211265721241</v>
+        <v>241.37460702722527</v>
       </c>
       <c r="C54">
-        <v>0.76156579545196035</v>
-      </c>
-      <c r="D54">
-        <v>0.29920000000000002</v>
+        <v>0.92316838147332136</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.39960000000000001</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
-        <v>3541.2127897820474</v>
+        <v>275.85669374540032</v>
       </c>
       <c r="C55">
-        <v>0.7509774916744445</v>
-      </c>
-      <c r="D55">
-        <v>0.29920000000000002</v>
+        <v>0.90440492297857722</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.39960000000000001</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>3764.8131854881617</v>
+        <v>310.33878046357529</v>
       </c>
       <c r="C56">
-        <v>0.74160191376069273</v>
-      </c>
-      <c r="D56">
-        <v>0.29920000000000002</v>
+        <v>0.87404669118784895</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.39960000000000001</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>3989.77740619628</v>
+        <v>344.82086718175037</v>
       </c>
       <c r="C57">
-        <v>0.73115079373733549</v>
-      </c>
-      <c r="D57">
-        <v>0.29920000000000002</v>
+        <v>0.86197199371210342</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.39960000000000001</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
-        <v>1407.7318228900219</v>
+        <v>689.64173436350075</v>
       </c>
       <c r="C58">
-        <v>0.68570265887934279</v>
-      </c>
-      <c r="D58">
-        <v>0.34939999999999999</v>
+        <v>0.77769787850225114</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.39960000000000001</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
-        <v>1720.6917066878934</v>
+        <v>1034.4626015452511</v>
       </c>
       <c r="C59">
-        <v>0.66825409211451303</v>
-      </c>
-      <c r="D59">
-        <v>0.34939999999999999</v>
+        <v>0.70804326568439446</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.39960000000000001</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
-        <v>2036.4568660634598</v>
+        <v>1379.2834687270015</v>
       </c>
       <c r="C60">
-        <v>0.65543302683370186</v>
-      </c>
-      <c r="D60">
-        <v>0.34939999999999999</v>
+        <v>0.70413955098697212</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.39960000000000001</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
-        <v>2331.2551421521512</v>
+        <v>1724.1043359087519</v>
       </c>
       <c r="C61">
-        <v>0.64552484260553811</v>
-      </c>
-      <c r="D61">
-        <v>0.34939999999999999</v>
+        <v>0.69219188295740108</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.39960000000000001</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
-        <v>2623.7337306076874</v>
+        <v>2068.9252030905022</v>
       </c>
       <c r="C62">
-        <v>0.6334404047344705</v>
-      </c>
-      <c r="D62">
-        <v>0.34939999999999999</v>
+        <v>0.68399566678270829</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.39960000000000001</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
-        <v>2919.9145405257395</v>
+        <v>2413.7460702722528</v>
       </c>
       <c r="C63">
-        <v>0.62622663780006493</v>
-      </c>
-      <c r="D63">
-        <v>0.34939999999999999</v>
+        <v>0.65408350313515784</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0.39960000000000001</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
-        <v>3252.0133937555602</v>
+        <v>2758.566937454003</v>
       </c>
       <c r="C64">
-        <v>0.61787908629023369</v>
-      </c>
-      <c r="D64">
-        <v>0.34939999999999999</v>
+        <v>0.62726377158772695</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0.39960000000000001</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
-        <v>3545.5497597718149</v>
+        <v>3103.3878046357531</v>
       </c>
       <c r="C65">
-        <v>0.60887024272211243</v>
-      </c>
-      <c r="D65">
-        <v>0.34939999999999999</v>
+        <v>0.6408638594734708</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0.39960000000000001</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
-        <v>3833.3178358736245</v>
+        <v>3448.2086718175037</v>
       </c>
       <c r="C66">
-        <v>0.60131977720793761</v>
-      </c>
-      <c r="D66">
-        <v>0.34939999999999999</v>
+        <v>0.63194869340929083</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.39960000000000001</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
-        <v>4122.0045082781335</v>
+        <v>3793.0295389992539</v>
       </c>
       <c r="C67">
-        <v>0.59344527947575143</v>
-      </c>
-      <c r="D67">
-        <v>0.34939999999999999</v>
+        <v>0.60936254686728319</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0.39960000000000001</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
-        <v>4410.6571585974179</v>
+        <v>4137.8504061810045</v>
       </c>
       <c r="C68">
-        <v>0.58609140270906845</v>
-      </c>
-      <c r="D68">
-        <v>0.34939999999999999</v>
+        <v>0.60119571213627399</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.39960000000000001</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
-        <v>4706.6307430869065</v>
+        <v>4482.6712733627555</v>
       </c>
       <c r="C69">
-        <v>0.57454329322564379</v>
-      </c>
-      <c r="D69">
-        <v>0.34939999999999999</v>
+        <v>0.61642412593281348</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.39960000000000001</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="3">
-        <v>4963.7882211816059</v>
+        <v>4827.4921405445057</v>
       </c>
       <c r="C70">
-        <v>0.57111089364068701</v>
-      </c>
-      <c r="D70">
-        <v>0.34939999999999999</v>
+        <v>0.59938395072759276</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0.39960000000000001</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="3">
-        <v>5264.9857422209598</v>
+        <v>5172.3130077262558</v>
       </c>
       <c r="C71">
-        <v>0.56087374644144861</v>
-      </c>
-      <c r="D71">
-        <v>0.34939999999999999</v>
+        <v>0.57906779473978731</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.39960000000000001</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="3">
-        <v>1953.8968184184394</v>
+        <v>5517.133874908006</v>
       </c>
       <c r="C72">
-        <v>0.62185388929089114</v>
-      </c>
-      <c r="D72">
-        <v>0.3795</v>
+        <v>0.60394946052090404</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0.39960000000000001</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="3">
-        <v>2257.5719329410449</v>
+        <v>5861.954742089757</v>
       </c>
       <c r="C73">
-        <v>0.60823672513871652</v>
-      </c>
-      <c r="D73">
-        <v>0.3795</v>
+        <v>0.59592679848727814</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.39960000000000001</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="3">
-        <v>2564.9842858576803</v>
+        <v>6206.7756092715063</v>
       </c>
       <c r="C74">
-        <v>0.59485269879474845</v>
-      </c>
-      <c r="D74">
-        <v>0.3795</v>
+        <v>0.57757748749847315</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0.39960000000000001</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="3">
-        <v>2885.6659346452275</v>
+        <v>6551.5964764532573</v>
       </c>
       <c r="C75">
-        <v>0.57878829040364632</v>
-      </c>
-      <c r="D75">
-        <v>0.3795</v>
+        <v>0.57910813438126019</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0.39960000000000001</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="3">
-        <v>3197.4593947428652</v>
+        <v>6896.4173436350075</v>
       </c>
       <c r="C76">
-        <v>0.56691866309880534</v>
-      </c>
-      <c r="D76">
-        <v>0.3795</v>
+        <v>0.56743779084801438</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0.39960000000000001</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>3513.3120276280256</v>
+        <v>192.55785462697582</v>
       </c>
       <c r="C77">
-        <v>0.55683975044604561</v>
-      </c>
-      <c r="D77">
-        <v>0.3795</v>
+        <v>0.92763614923597015</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="3">
-        <v>3825.3679342421005</v>
+        <v>231.06942555237097</v>
       </c>
       <c r="C78">
-        <v>0.54754567313703617</v>
-      </c>
-      <c r="D78">
-        <v>0.3795</v>
+        <v>0.88050967640078193</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="3">
-        <v>4145.1257712917641</v>
+        <v>269.58099647776612</v>
       </c>
       <c r="C79">
-        <v>0.53757107753842615</v>
-      </c>
-      <c r="D79">
-        <v>0.3795</v>
+        <v>0.84769144405441954</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="3">
-        <v>4465.0725698333308</v>
+        <v>308.0925674031613</v>
       </c>
       <c r="C80">
-        <v>0.52884240006767558</v>
-      </c>
-      <c r="D80">
-        <v>0.3795</v>
+        <v>0.81958074181183593</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>4786.744516809521</v>
+        <v>346.60413832855642</v>
       </c>
       <c r="C81">
-        <v>0.51963701441802479</v>
-      </c>
-      <c r="D81">
-        <v>0.3795</v>
+        <v>0.7989716018029257</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="3">
-        <v>5111.4398476551041</v>
+        <v>385.11570925395165</v>
       </c>
       <c r="C82">
-        <v>0.50962873224070482</v>
-      </c>
-      <c r="D82">
-        <v>0.3795</v>
+        <v>0.80107138099306097</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="3">
-        <v>5454.6429068395946</v>
+        <v>770.2314185079033</v>
       </c>
       <c r="C83">
-        <v>0.49949464087878953</v>
-      </c>
-      <c r="D83">
-        <v>0.3795</v>
+        <v>0.68935562659552219</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="3">
-        <v>5772.4236467988212</v>
+        <v>1155.3471277618548</v>
       </c>
       <c r="C84">
-        <v>0.4969660365749386</v>
-      </c>
-      <c r="D84">
-        <v>0.3795</v>
+        <v>0.64968061503101182</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="3">
-        <v>6096.4996038655845</v>
+        <v>1540.4628370158066</v>
       </c>
       <c r="C85">
-        <v>0.49109283989593644</v>
-      </c>
-      <c r="D85">
-        <v>0.3795</v>
+        <v>0.66694342842104537</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>2141.5903352656219</v>
+        <v>1925.5785462697584</v>
       </c>
       <c r="C86">
-        <v>0.55954495619372691</v>
-      </c>
-      <c r="D86">
-        <v>0.39960000000000001</v>
+        <v>0.59594546023710204</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>2496.6432854156697</v>
+        <v>2310.6942555237097</v>
       </c>
       <c r="C87">
-        <v>0.54385403877935079</v>
-      </c>
-      <c r="D87">
-        <v>0.39960000000000001</v>
+        <v>0.61388903512018356</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>2864.6543156079233</v>
+        <v>2695.8099647776617</v>
       </c>
       <c r="C88">
-        <v>0.52693494239587124</v>
-      </c>
-      <c r="D88">
-        <v>0.39960000000000001</v>
+        <v>0.61329973323904585</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="3">
-        <v>3234.304081666126</v>
+        <v>3080.9256740316132</v>
       </c>
       <c r="C89">
-        <v>0.51226769152776963</v>
-      </c>
-      <c r="D89">
-        <v>0.39960000000000001</v>
+        <v>0.62050056667285891</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="3">
-        <v>3584.8651050007065</v>
+        <v>3466.0413832855647</v>
       </c>
       <c r="C90">
-        <v>0.50124205720980253</v>
-      </c>
-      <c r="D90">
-        <v>0.39960000000000001</v>
+        <v>0.62739302044370282</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="3">
-        <v>3964.7015023206473</v>
+        <v>3851.1570925395167</v>
       </c>
       <c r="C91">
-        <v>0.48571310375028676</v>
-      </c>
-      <c r="D91">
-        <v>0.39960000000000001</v>
+        <v>0.63118594488803215</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="3">
-        <v>4318.3804055332066</v>
+        <v>4236.2728017934687</v>
       </c>
       <c r="C92">
-        <v>0.47609479341864336</v>
-      </c>
-      <c r="D92">
-        <v>0.39960000000000001</v>
+        <v>0.59981314697873978</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="3">
-        <v>4674.0016583826127</v>
+        <v>4621.3885110474193</v>
       </c>
       <c r="C93">
-        <v>0.46696885997974735</v>
-      </c>
-      <c r="D93">
-        <v>0.39960000000000001</v>
+        <v>0.62609689978898464</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="3">
-        <v>5037.2872127048995</v>
+        <v>5006.5042203013718</v>
       </c>
       <c r="C94">
-        <v>0.45723317431933536</v>
-      </c>
-      <c r="D94">
-        <v>0.39960000000000001</v>
+        <v>0.58083507428606507</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="3">
-        <v>5393.5234780645687</v>
+        <v>5391.6199295553233</v>
       </c>
       <c r="C95">
-        <v>0.45120451132339667</v>
-      </c>
-      <c r="D95">
-        <v>0.39960000000000001</v>
+        <v>0.57133955449283136</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="3">
-        <v>5765.3530352983935</v>
+        <v>5776.7356388092749</v>
       </c>
       <c r="C96">
-        <v>0.44240560428678088</v>
-      </c>
-      <c r="D96">
-        <v>0.39960000000000001</v>
+        <v>0.5797729805259586</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="3">
-        <v>6142.5775756918738</v>
+        <v>6161.8513480632264</v>
       </c>
       <c r="C97">
-        <v>0.43573800244986083</v>
-      </c>
-      <c r="D97">
-        <v>0.39960000000000001</v>
+        <v>0.60144558385734037</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="3">
-        <v>6476.6033259656879</v>
+        <v>6546.9670573171788</v>
       </c>
       <c r="C98">
-        <v>0.42868394758001344</v>
-      </c>
-      <c r="D98">
-        <v>0.39960000000000001</v>
+        <v>0.57242686085582029</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="3">
-        <v>6831.7730506430007</v>
+        <v>6932.0827665711295</v>
       </c>
       <c r="C99">
-        <v>0.42382271184688741</v>
-      </c>
-      <c r="D99">
-        <v>0.39960000000000001</v>
+        <v>0.54451407829089338</v>
+      </c>
+      <c r="D99" s="2">
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="3">
-        <v>1081.8486206034447</v>
+        <v>7317.198475825081</v>
       </c>
       <c r="C100">
-        <v>0.69582240103522719</v>
-      </c>
-      <c r="D100">
-        <v>0.36599999999999999</v>
+        <v>0.56156669404016291</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="3">
-        <v>1317.1924313487164</v>
+        <v>7702.3141850790335</v>
       </c>
       <c r="C101">
-        <v>0.67438709471971481</v>
-      </c>
-      <c r="D101">
-        <v>0.36599999999999999</v>
+        <v>0.52139682300954182</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0.41620000000000001</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102" s="3">
-        <v>1545.9005119612536</v>
-      </c>
-      <c r="C102">
-        <v>0.65968931959758947</v>
-      </c>
-      <c r="D102">
-        <v>0.36599999999999999</v>
-      </c>
+      <c r="B102" s="3"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B103" s="3">
-        <v>1776.8986274761098</v>
-      </c>
-      <c r="C103">
-        <v>0.64367794711725745</v>
-      </c>
-      <c r="D103">
-        <v>0.36599999999999999</v>
-      </c>
+      <c r="B103" s="3"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B104" s="3">
-        <v>1999.1809385119795</v>
-      </c>
-      <c r="C104">
-        <v>0.62962969307720162</v>
-      </c>
-      <c r="D104">
-        <v>0.36599999999999999</v>
-      </c>
+      <c r="B104" s="3"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B105" s="3">
-        <v>2223.4627576342064</v>
-      </c>
-      <c r="C105">
-        <v>0.61677212963070194</v>
-      </c>
-      <c r="D105">
-        <v>0.36599999999999999</v>
-      </c>
+      <c r="B105" s="3"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B106" s="3">
-        <v>2453.3817735469052</v>
-      </c>
-      <c r="C106">
-        <v>0.60654343943795186</v>
-      </c>
-      <c r="D106">
-        <v>0.36599999999999999</v>
-      </c>
+      <c r="B106" s="3"/>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B107" s="3">
-        <v>2712.976028519</v>
-      </c>
-      <c r="C107">
-        <v>0.59549582625576203</v>
-      </c>
-      <c r="D107">
-        <v>0.36599999999999999</v>
-      </c>
+      <c r="B107" s="3"/>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="3">
-        <v>2931.2349093640132</v>
-      </c>
-      <c r="C108">
-        <v>0.58664136173384795</v>
-      </c>
-      <c r="D108">
-        <v>0.36599999999999999</v>
-      </c>
+      <c r="B108" s="3"/>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" s="3">
-        <v>3148.2120542562102</v>
-      </c>
-      <c r="C109">
-        <v>0.58004103822159037</v>
-      </c>
-      <c r="D109">
-        <v>0.36599999999999999</v>
-      </c>
+      <c r="B109" s="3"/>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110" s="3">
-        <v>3373.2555907446681</v>
-      </c>
-      <c r="C110">
-        <v>0.57002875503202111</v>
-      </c>
-      <c r="D110">
-        <v>0.36599999999999999</v>
-      </c>
+      <c r="B110" s="3"/>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B111" s="3">
-        <v>3599.3513714153464</v>
-      </c>
-      <c r="C111">
-        <v>0.55579508111971754</v>
-      </c>
-      <c r="D111">
-        <v>0.36599999999999999</v>
-      </c>
+      <c r="B111" s="3"/>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="3">
-        <v>3831.7215547501442</v>
-      </c>
-      <c r="C112">
-        <v>0.54473873191078903</v>
-      </c>
-      <c r="D112">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B113" s="3">
-        <v>4054.0136313932753</v>
-      </c>
-      <c r="C113">
-        <v>0.53643048072458122</v>
-      </c>
-      <c r="D113">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B114" s="3">
-        <v>1384.2676466608452</v>
-      </c>
-      <c r="C114">
-        <v>0.59221665376153432</v>
-      </c>
-      <c r="D114">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B115" s="3">
-        <v>1687.0359226657638</v>
-      </c>
-      <c r="C115">
-        <v>0.56796453442381589</v>
-      </c>
-      <c r="D115">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B116" s="3">
-        <v>1982.848245504561</v>
-      </c>
-      <c r="C116">
-        <v>0.55058957119263807</v>
-      </c>
-      <c r="D116">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B117" s="3">
-        <v>2278.4417899800983</v>
-      </c>
-      <c r="C117">
-        <v>0.53364285167699388</v>
-      </c>
-      <c r="D117">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B118" s="3">
-        <v>2563.1653464618703</v>
-      </c>
-      <c r="C118">
-        <v>0.52019342053678419</v>
-      </c>
-      <c r="D118">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B119" s="3">
-        <v>2852.1745612924433</v>
-      </c>
-      <c r="C119">
-        <v>0.50877833405903861</v>
-      </c>
-      <c r="D119">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B120" s="3">
-        <v>3153.2285739578438</v>
-      </c>
-      <c r="C120">
-        <v>0.5010213689355969</v>
-      </c>
-      <c r="D120">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B121" s="3">
-        <v>3464.0167253063819</v>
-      </c>
-      <c r="C121">
-        <v>0.49150313854072264</v>
-      </c>
-      <c r="D121">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B122" s="3">
-        <v>3746.6663827830057</v>
-      </c>
-      <c r="C122">
-        <v>0.48276719440907151</v>
-      </c>
-      <c r="D122">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B123" s="3">
-        <v>4031.8664565217146</v>
-      </c>
-      <c r="C123">
-        <v>0.47316213114695449</v>
-      </c>
-      <c r="D123">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B124" s="3">
-        <v>4328.3021478476385</v>
-      </c>
-      <c r="C124">
-        <v>0.46304613779772757</v>
-      </c>
-      <c r="D124">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B125" s="3">
-        <v>4613.7120090579674</v>
-      </c>
-      <c r="C125">
-        <v>0.45234390776917993</v>
-      </c>
-      <c r="D125">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B126" s="3">
-        <v>4896.409617956705</v>
-      </c>
-      <c r="C126">
-        <v>0.44305712059334951</v>
-      </c>
-      <c r="D126">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B127" s="3">
-        <v>5180.4169000710936</v>
-      </c>
-      <c r="C127">
-        <v>0.4370054647362957</v>
-      </c>
-      <c r="D127">
-        <v>0.39960000000000001</v>
-      </c>
-    </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B128" s="3">
-        <v>1966.2782952771413</v>
-      </c>
-      <c r="C128">
-        <v>0.55467947899567072</v>
-      </c>
-      <c r="D128">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B129" s="3">
-        <v>2262.648164067075</v>
-      </c>
-      <c r="C129">
-        <v>0.54405905317221526</v>
-      </c>
-      <c r="D129">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B130" s="3">
-        <v>2572.0740042005195</v>
-      </c>
-      <c r="C130">
-        <v>0.52999574193795862</v>
-      </c>
-      <c r="D130">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B131" s="3">
-        <v>2888.1843927486207</v>
-      </c>
-      <c r="C131">
-        <v>0.51505817746950311</v>
-      </c>
-      <c r="D131">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B132" s="3">
-        <v>3188.4479088839616</v>
-      </c>
-      <c r="C132">
-        <v>0.5065823577046995</v>
-      </c>
-      <c r="D132">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B133" s="3">
-        <v>3500.8892835873226</v>
-      </c>
-      <c r="C133">
-        <v>0.49638808545844326</v>
-      </c>
-      <c r="D133">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B134" s="3">
-        <v>3816.928197839748</v>
-      </c>
-      <c r="C134">
-        <v>0.47618572154254735</v>
-      </c>
-      <c r="D134">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B135" s="3">
-        <v>4021.3378763976798</v>
-      </c>
-      <c r="C135">
-        <v>0.47396215200875025</v>
-      </c>
-      <c r="D135">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B136" s="3">
-        <v>4450.6431280694042</v>
-      </c>
-      <c r="C136">
-        <v>0.45415570436883845</v>
-      </c>
-      <c r="D136">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B137" s="3">
-        <v>4767.4546454227093</v>
-      </c>
-      <c r="C137">
-        <v>0.44372283346166674</v>
-      </c>
-      <c r="D137">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B138" s="3">
-        <v>5095.6067510232906</v>
-      </c>
-      <c r="C138">
-        <v>0.43234154658868795</v>
-      </c>
-      <c r="D138">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B139" s="3">
-        <v>5431.1002878511763</v>
-      </c>
-      <c r="C139">
-        <v>0.42162991186507964</v>
-      </c>
-      <c r="D139">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B140" s="3">
-        <v>5751.7271711784297</v>
-      </c>
-      <c r="C140">
-        <v>0.41302653151363045</v>
-      </c>
-      <c r="D140">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B141" s="3">
-        <v>6076.9011811258406</v>
-      </c>
-      <c r="C141">
-        <v>0.40475012545601829</v>
-      </c>
-      <c r="D141">
-        <v>0.41970000000000002</v>
-      </c>
-    </row>
-    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B142" s="3">
-        <v>1782.279216224799</v>
-      </c>
-      <c r="C142">
-        <v>0.56259739752591464</v>
-      </c>
-      <c r="D142">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B143" s="3">
-        <v>2171.6069075924634</v>
-      </c>
-      <c r="C143">
-        <v>0.53247203522982089</v>
-      </c>
-      <c r="D143">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B144" s="3">
-        <v>2552.3911070014738</v>
-      </c>
-      <c r="C144">
-        <v>0.51024244877140823</v>
-      </c>
-      <c r="D144">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B145" s="3">
-        <v>2937.8017598684519</v>
-      </c>
-      <c r="C145">
-        <v>0.48933265570617623</v>
-      </c>
-      <c r="D145">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B146" s="3">
-        <v>3307.7921725618367</v>
-      </c>
-      <c r="C146">
-        <v>0.47380979623259978</v>
-      </c>
-      <c r="D146">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B147" s="3">
-        <v>3680.9978369164519</v>
-      </c>
-      <c r="C147">
-        <v>0.46174525930464705</v>
-      </c>
-      <c r="D147">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B148" s="3">
-        <v>4102.9281038477711</v>
-      </c>
-      <c r="C148">
-        <v>0.44940587494097672</v>
-      </c>
-      <c r="D148">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B149" s="3">
-        <v>4490.9056183612556</v>
-      </c>
-      <c r="C149">
-        <v>0.44036422525935165</v>
-      </c>
-      <c r="D149">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B150" s="3">
-        <v>4857.4977045657333</v>
-      </c>
-      <c r="C150">
-        <v>0.43288220741601707</v>
-      </c>
-      <c r="D150">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B151" s="3">
-        <v>5241.6954866992955</v>
-      </c>
-      <c r="C151">
-        <v>0.42325108122609173</v>
-      </c>
-      <c r="D151">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B152" s="3">
-        <v>5624.1235454985645</v>
-      </c>
-      <c r="C152">
-        <v>0.41462752595281693</v>
-      </c>
-      <c r="D152">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B153" s="3">
-        <v>5998.2674683450286</v>
-      </c>
-      <c r="C153">
-        <v>0.40503385031667233</v>
-      </c>
-      <c r="D153">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B154" s="3">
-        <v>6401.451635733175</v>
-      </c>
-      <c r="C154">
-        <v>0.3979543942022144</v>
-      </c>
-      <c r="D154">
-        <v>0.43309999999999998</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B155" s="3">
-        <v>6770.0155903941441</v>
-      </c>
-      <c r="C155">
-        <v>0.39043732594249264</v>
-      </c>
-      <c r="D155">
-        <v>0.43309999999999998</v>
-      </c>
+      <c r="B112" s="3"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B113" s="3"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="3"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B115" s="3"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B116" s="3"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="3"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="3"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="3"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B120" s="3"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B121" s="3"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" s="3"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" s="3"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="3"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" s="3"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" s="3"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B127" s="3"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B128" s="3"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="3"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B130" s="3"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B131" s="3"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B132" s="3"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B133" s="3"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B134" s="3"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="3"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="3"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="3"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="3"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="3"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="3"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="3"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="3"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="3"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="3"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="3"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B146" s="3"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="3"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B148" s="3"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B149" s="3"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="3"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" s="3"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152" s="3"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" s="3"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B154" s="3"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B155" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9486,7 +8821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1272C01E-F875-4640-AC9E-E8067BA8FD86}">
   <dimension ref="A1:C710"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A226" workbookViewId="0">
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>

--- a/f_factor/dP_f_Agulhas/fxReynoldsV3.xlsx
+++ b/f_factor/dP_f_Agulhas/fxReynoldsV3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T2F\Documents\GitHub\Artificial-Neural-Network\f_factor\dP_f_Agulhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\GitHub\Artificial-Neural-Network\f_factor\dP_f_Agulhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6248A5CC-5F25-43B0-A109-BF84DFD51410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7ECBF6-8F4D-4537-8057-E3739380D664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="990" windowWidth="23175" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19005" yWindow="0" windowWidth="19170" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -334,46 +334,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>3961.9446613280425</c:v>
+                  <c:v>5200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4266.7096352763538</c:v>
+                  <c:v>5300</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4571.4746092246642</c:v>
+                  <c:v>5400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4876.2395831729755</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5181.0045571212868</c:v>
+                  <c:v>5600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5485.7695310695972</c:v>
+                  <c:v>5700</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5790.5345050179085</c:v>
+                  <c:v>5800</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6095.2994789662198</c:v>
+                  <c:v>5900</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>172.41043359087519</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>206.89252030905024</c:v>
+                  <c:v>6100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>241.37460702722527</c:v>
+                  <c:v>6200</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>275.85669374540032</c:v>
+                  <c:v>6300</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>310.33878046357529</c:v>
+                  <c:v>6400</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>344.82086718175037</c:v>
+                  <c:v>6500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -385,46 +385,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.48151753123428698</c:v>
+                  <c:v>0.61609796702947595</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45504451134297202</c:v>
+                  <c:v>0.61411784722649165</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45759574398417202</c:v>
+                  <c:v>0.61218092802246049</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.44327133081445264</c:v>
+                  <c:v>0.61028549264535292</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.43806806113222896</c:v>
+                  <c:v>0.60842992220967329</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.43863540071791307</c:v>
+                  <c:v>0.60661268850359695</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41595829919834193</c:v>
+                  <c:v>0.60483234742364422</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.40705032711583217</c:v>
+                  <c:v>0.60308753298870243</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.99870878046668199</c:v>
+                  <c:v>0.60137695187339835</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.96354875516527694</c:v>
+                  <c:v>0.5996993784079353</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.92316838147332136</c:v>
+                  <c:v>0.59805364999766053</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.90440492297857722</c:v>
+                  <c:v>0.59643866292098358</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.87404669118784895</c:v>
+                  <c:v>0.59485336846893444</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.86197199371210342</c:v>
+                  <c:v>0.59329676939372389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -750,46 +750,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>689.64173436350075</c:v>
+                  <c:v>6600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1034.4626015452511</c:v>
+                  <c:v>6700</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1379.2834687270015</c:v>
+                  <c:v>6800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1724.1043359087519</c:v>
+                  <c:v>6900</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2068.9252030905022</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2413.7460702722528</c:v>
+                  <c:v>7100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2758.566937454003</c:v>
+                  <c:v>7200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3103.3878046357531</c:v>
+                  <c:v>7300</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3448.2086718175037</c:v>
+                  <c:v>7400</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3793.0295389992539</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4137.8504061810045</c:v>
+                  <c:v>7600</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4482.6712733627555</c:v>
+                  <c:v>7700</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4827.4921405445057</c:v>
+                  <c:v>7800</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5172.3130077262558</c:v>
+                  <c:v>7900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -801,46 +801,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.77769787850225114</c:v>
+                  <c:v>0.59176791663723671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70804326568439446</c:v>
+                  <c:v>0.59026590631352072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.70413955098697212</c:v>
+                  <c:v>0.58878987692208196</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.69219188295740108</c:v>
+                  <c:v>0.58733900677122708</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.68399566678270829</c:v>
+                  <c:v>0.5859125115928252</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65408350313515784</c:v>
+                  <c:v>0.58450964233176073</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.62726377158772695</c:v>
+                  <c:v>0.58312968309501989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6408638594734708</c:v>
+                  <c:v>0.58177194924684172</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.63194869340929083</c:v>
+                  <c:v>0.58043578563768883</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.60936254686728319</c:v>
+                  <c:v>0.57912056495596576</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.60119571213627399</c:v>
+                  <c:v>0.57782568619246844</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.61642412593281348</c:v>
+                  <c:v>0.57655057320848102</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.59938395072759276</c:v>
+                  <c:v>0.57529467339928009</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.57906779473978731</c:v>
+                  <c:v>0.57405745644555328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1166,46 +1166,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>5517.133874908006</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5861.954742089757</c:v>
+                  <c:v>8100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6206.7756092715063</c:v>
+                  <c:v>8200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6551.5964764532573</c:v>
+                  <c:v>8300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6896.4173436350075</c:v>
+                  <c:v>8400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>192.55785462697582</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>231.06942555237097</c:v>
+                  <c:v>8600</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>269.58099647776612</c:v>
+                  <c:v>8700</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>308.0925674031613</c:v>
+                  <c:v>8800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>346.60413832855642</c:v>
+                  <c:v>8900</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>385.11570925395165</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>770.2314185079033</c:v>
+                  <c:v>9100</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1155.3471277618548</c:v>
+                  <c:v>9200</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1540.4628370158066</c:v>
+                  <c:v>9300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1217,46 +1217,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.60394946052090404</c:v>
+                  <c:v>0.57283841314592143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59592679848727814</c:v>
+                  <c:v>0.57163705432434897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57757748749847315</c:v>
+                  <c:v>0.57045290980678598</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57910813438126019</c:v>
+                  <c:v>0.56928552746186434</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.56743779084801438</c:v>
+                  <c:v>0.56813447230092373</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92763614923597015</c:v>
+                  <c:v>0.56699932563303945</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.88050967640078193</c:v>
+                  <c:v>0.56587968427108437</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.84769144405441954</c:v>
+                  <c:v>0.56477515978519355</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.81958074181183593</c:v>
+                  <c:v>0.56368537780028849</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7989716018029257</c:v>
+                  <c:v>0.56260997733459395</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.80107138099306097</c:v>
+                  <c:v>0.5615486101763244</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.68935562659552219</c:v>
+                  <c:v>0.56050094029594033</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.64968061503101182</c:v>
+                  <c:v>0.55946664329157836</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.66694342842104537</c:v>
+                  <c:v>0.55844540586544522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1582,46 +1582,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1925.5785462697584</c:v>
+                  <c:v>9400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2310.6942555237097</c:v>
+                  <c:v>9500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2695.8099647776617</c:v>
+                  <c:v>9600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3080.9256740316132</c:v>
+                  <c:v>9700</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3466.0413832855647</c:v>
+                  <c:v>9800</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3851.1570925395167</c:v>
+                  <c:v>9900</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4236.2728017934687</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4621.3885110474193</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5006.5042203013718</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5391.6199295553233</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5776.7356388092749</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6161.8513480632264</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6546.9670573171788</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6932.0827665711295</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1633,46 +1633,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.59594546023710204</c:v>
+                  <c:v>0.55743692532913258</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61388903512018356</c:v>
+                  <c:v>0.55644090913596789</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61329973323904585</c:v>
+                  <c:v>0.55545707443865744</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.62050056667285891</c:v>
+                  <c:v>0.55448514767060197</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.62739302044370282</c:v>
+                  <c:v>0.55352486414939261</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.63118594488803215</c:v>
+                  <c:v>0.55257596770109718</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.59981314697873978</c:v>
+                  <c:v>0.55163821030404758</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.62609689978898464</c:v>
+                  <c:v>1.1177708015044736</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.58083507428606507</c:v>
+                  <c:v>1.0828517346958313</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.57133955449283136</c:v>
+                  <c:v>1.0519265239315072</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5797729805259586</c:v>
+                  <c:v>1.0242586125494697</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.60144558385734037</c:v>
+                  <c:v>0.99929134253864227</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.57242686085582029</c:v>
+                  <c:v>0.97659471902211603</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.54451407829089338</c:v>
+                  <c:v>0.9558303284131261</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1998,10 +1998,46 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>7317.198475825081</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7702.3141850790335</c:v>
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2013,10 +2049,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>0.56156669404016291</c:v>
+                  <c:v>0.93672749936826361</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52139682300954182</c:v>
+                  <c:v>0.91906666973952977</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.902667511237912</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88738027777899553</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87307938852422473</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8596585917564854</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84702726749471058</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83510756387001417</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.82383215303331558</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.81314245362137338</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.80298720890615072</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.79332133916054581</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.78410500762665114</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.77530285446437008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2341,6 +2413,48 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5800</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2350,6 +2464,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.67738097317766244</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67244133672499717</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66764280648845908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66297847555588263</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65844191009543085</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65402710807797515</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.64972846234486237</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.64554072748834457</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64145899008613949</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63747864189425063</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63359535565529712</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.62980506322473662</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.62610393575592194</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.62248836571783928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2673,6 +2829,48 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>5900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6600</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7200</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2682,6 +2880,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.61895495054768146</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61550047776470507</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61212191139281114</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60881637955743606</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6055811631380581</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60241368537131246</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59931150231160146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59627229406650084</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.59329385673334611</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59037409497137272</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5875110151507893</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58470271902632986</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.58194739788827921</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.57924332714877846</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7306,10 +7546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T155"/>
+  <dimension ref="A1:T365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77:D101"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7349,10 +7589,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>125.52588165658494</v>
+        <v>1000</v>
       </c>
       <c r="C2" s="2">
-        <v>1.3795957161923007</v>
+        <v>0.81405611095030517</v>
       </c>
       <c r="D2" s="2">
         <v>0.33260000000000001</v>
@@ -7369,10 +7609,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>150.63105798790195</v>
+        <v>1100</v>
       </c>
       <c r="C3" s="2">
-        <v>1.2844290839342576</v>
+        <v>0.80104880524966893</v>
       </c>
       <c r="D3" s="2">
         <v>0.33260000000000001</v>
@@ -7389,10 +7629,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>175.73623431921894</v>
+        <v>1200</v>
       </c>
       <c r="C4" s="2">
-        <v>1.2150839822737618</v>
+        <v>0.78935562881357224</v>
       </c>
       <c r="D4" s="2">
         <v>0.33260000000000001</v>
@@ -7409,10 +7649,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>200.84141065053592</v>
+        <v>1300</v>
       </c>
       <c r="C5" s="2">
-        <v>1.1642837925153113</v>
+        <v>0.77874973927573288</v>
       </c>
       <c r="D5" s="2">
         <v>0.33260000000000001</v>
@@ -7429,10 +7669,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>225.9465869818529</v>
+        <v>1400</v>
       </c>
       <c r="C6" s="2">
-        <v>1.1276427922286478</v>
+        <v>0.7690573068644273</v>
       </c>
       <c r="D6" s="2">
         <v>0.33260000000000001</v>
@@ -7443,10 +7683,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>251.05176331316989</v>
+        <v>1500</v>
       </c>
       <c r="C7" s="2">
-        <v>1.0973298680610799</v>
+        <v>0.76014233050607993</v>
       </c>
       <c r="D7" s="2">
         <v>0.33260000000000001</v>
@@ -7463,10 +7703,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>502.10352662633977</v>
+        <v>1600</v>
       </c>
       <c r="C8" s="2">
-        <v>0.93305659449608602</v>
+        <v>0.75189650086982207</v>
       </c>
       <c r="D8" s="2">
         <v>0.33260000000000001</v>
@@ -7483,10 +7723,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>753.15528993950966</v>
+        <v>1700</v>
       </c>
       <c r="C9" s="2">
-        <v>0.85740852928242328</v>
+        <v>0.74423222876715833</v>
       </c>
       <c r="D9" s="2">
         <v>0.33260000000000001</v>
@@ -7503,10 +7743,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>1004.2070532526795</v>
+        <v>1800</v>
       </c>
       <c r="C10" s="2">
-        <v>0.80921958585603937</v>
+        <v>0.73707772623190815</v>
       </c>
       <c r="D10" s="2">
         <v>0.33260000000000001</v>
@@ -7523,10 +7763,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>1255.2588165658497</v>
+        <v>1900</v>
       </c>
       <c r="C11" s="2">
-        <v>0.7672959056478964</v>
+        <v>0.7303734577128993</v>
       </c>
       <c r="D11" s="2">
         <v>0.33260000000000001</v>
@@ -7540,10 +7780,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>1506.3105798790193</v>
+        <v>2000</v>
       </c>
       <c r="C12" s="2">
-        <v>0.74884845681769252</v>
+        <v>0.7240695291292335</v>
       </c>
       <c r="D12" s="2">
         <v>0.33260000000000001</v>
@@ -7554,10 +7794,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>1757.3623431921894</v>
+        <v>2100</v>
       </c>
       <c r="C13" s="2">
-        <v>0.73161673378058911</v>
+        <v>0.71812373332621804</v>
       </c>
       <c r="D13" s="2">
         <v>0.33260000000000001</v>
@@ -7574,10 +7814,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>2008.4141065053591</v>
+        <v>2200</v>
       </c>
       <c r="C14" s="2">
-        <v>0.71323344342425521</v>
+        <v>0.71250006409210587</v>
       </c>
       <c r="D14" s="2">
         <v>0.33260000000000001</v>
@@ -7594,10 +7834,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>2259.465869818529</v>
+        <v>2300</v>
       </c>
       <c r="C15" s="2">
-        <v>0.70599231662221562</v>
+        <v>0.70716757060154622</v>
       </c>
       <c r="D15" s="2">
         <v>0.33260000000000001</v>
@@ -7614,10 +7854,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>2510.5176331316993</v>
+        <v>2400</v>
       </c>
       <c r="C16" s="2">
-        <v>0.68529103740656383</v>
+        <v>0.70209946314799432</v>
       </c>
       <c r="D16" s="2">
         <v>0.33260000000000001</v>
@@ -7634,10 +7874,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>2761.5693964448687</v>
+        <v>2500</v>
       </c>
       <c r="C17" s="2">
-        <v>0.67343105588179841</v>
+        <v>0.69727240704927751</v>
       </c>
       <c r="D17" s="2">
         <v>0.33260000000000001</v>
@@ -7651,10 +7891,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>3012.6211597580386</v>
+        <v>2600</v>
       </c>
       <c r="C18" s="2">
-        <v>0.66129251604330874</v>
+        <v>0.69266595931409347</v>
       </c>
       <c r="D18" s="2">
         <v>0.33260000000000001</v>
@@ -7665,10 +7905,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="3">
-        <v>3263.672923071209</v>
+        <v>2700</v>
       </c>
       <c r="C19" s="2">
-        <v>0.65889138856621998</v>
+        <v>0.68826211491488731</v>
       </c>
       <c r="D19" s="2">
         <v>0.33260000000000001</v>
@@ -7679,10 +7919,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>3514.7246863843789</v>
+        <v>2800</v>
       </c>
       <c r="C20" s="2">
-        <v>0.65772166930869458</v>
+        <v>0.68404493813659961</v>
       </c>
       <c r="D20" s="2">
         <v>0.33260000000000001</v>
@@ -7693,10 +7933,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="3">
-        <v>3765.7764496975483</v>
+        <v>2900</v>
       </c>
       <c r="C21" s="2">
-        <v>0.64938467286916546</v>
+        <v>0.68000026062794949</v>
       </c>
       <c r="D21" s="2">
         <v>0.33260000000000001</v>
@@ -7707,10 +7947,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="3">
-        <v>4016.8282130107182</v>
+        <v>3000</v>
       </c>
       <c r="C22" s="2">
-        <v>0.63951842596261832</v>
+        <v>0.67611543223748982</v>
       </c>
       <c r="D22" s="2">
         <v>0.33260000000000001</v>
@@ -7721,10 +7961,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="3">
-        <v>4267.8799763238885</v>
+        <v>3100</v>
       </c>
       <c r="C23" s="2">
-        <v>0.64322125213263137</v>
+        <v>0.67237911398124395</v>
       </c>
       <c r="D23" s="2">
         <v>0.33260000000000001</v>
@@ -7735,10 +7975,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="3">
-        <v>4518.9317396370579</v>
+        <v>3200</v>
       </c>
       <c r="C24" s="2">
-        <v>0.63763636304086502</v>
+        <v>0.66878110490833897</v>
       </c>
       <c r="D24" s="2">
         <v>0.33260000000000001</v>
@@ -7749,10 +7989,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="3">
-        <v>4769.9835029502283</v>
+        <v>3300</v>
       </c>
       <c r="C25" s="2">
-        <v>0.63093686809257754</v>
+        <v>0.66531219644362727</v>
       </c>
       <c r="D25" s="2">
         <v>0.33260000000000001</v>
@@ -7763,10 +8003,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="3">
-        <v>5021.0352662633986</v>
+        <v>3400</v>
       </c>
       <c r="C26" s="2">
-        <v>0.62680272166187934</v>
+        <v>0.66196404915770302</v>
       </c>
       <c r="D26" s="2">
         <v>0.33260000000000001</v>
@@ -7777,13 +8017,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="3">
-        <v>152.38248697415548</v>
+        <v>3500</v>
       </c>
       <c r="C27" s="2">
-        <v>1.2042411968304156</v>
+        <v>0.65872908796200835</v>
       </c>
       <c r="D27" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -7791,13 +8031,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="3">
-        <v>182.85898436898657</v>
+        <v>3600</v>
       </c>
       <c r="C28" s="2">
-        <v>1.142091816027651</v>
+        <v>0.65560041253343515</v>
       </c>
       <c r="D28" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -7805,13 +8045,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="3">
-        <v>213.33548176381768</v>
+        <v>3700</v>
       </c>
       <c r="C29" s="2">
-        <v>1.0906891679072397</v>
+        <v>0.65257172039933709</v>
       </c>
       <c r="D29" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -7819,13 +8059,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="3">
-        <v>243.8119791586488</v>
+        <v>3800</v>
       </c>
       <c r="C30" s="2">
-        <v>1.0588970301834095</v>
+        <v>0.64963724060410966</v>
       </c>
       <c r="D30" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -7833,13 +8073,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="3">
-        <v>274.28847655347982</v>
+        <v>3900</v>
       </c>
       <c r="C31" s="2">
-        <v>1.0257481878176657</v>
+        <v>0.64679167626491396</v>
       </c>
       <c r="D31" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -7847,13 +8087,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="3">
-        <v>304.76497394831097</v>
+        <v>4000</v>
       </c>
       <c r="C32" s="2">
-        <v>0.99174034187526694</v>
+        <v>0.64403015463074764</v>
       </c>
       <c r="D32" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -7861,13 +8101,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="3">
-        <v>609.52994789662193</v>
+        <v>4100</v>
       </c>
       <c r="C33" s="2">
-        <v>0.83575095764057172</v>
+        <v>0.64134818350395417</v>
       </c>
       <c r="D33" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -7875,13 +8115,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>914.2949218449329</v>
+        <v>4200</v>
       </c>
       <c r="C34" s="2">
-        <v>0.75595466575914583</v>
+        <v>0.63874161308001554</v>
       </c>
       <c r="D34" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -7889,13 +8129,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="3">
-        <v>1219.0598957932439</v>
+        <v>4300</v>
       </c>
       <c r="C35" s="2">
-        <v>0.70688616427718565</v>
+        <v>0.63620660242047877</v>
       </c>
       <c r="D35" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -7903,13 +8143,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="3">
-        <v>1523.8248697415549</v>
+        <v>4400</v>
       </c>
       <c r="C36" s="2">
-        <v>0.65932521784734666</v>
+        <v>0.63373958990305179</v>
       </c>
       <c r="D36" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -7917,13 +8157,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="3">
-        <v>1828.5898436898658</v>
+        <v>4500</v>
       </c>
       <c r="C37" s="2">
-        <v>0.62586695190454322</v>
+        <v>0.63133726709841664</v>
       </c>
       <c r="D37" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -7931,13 +8171,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="3">
-        <v>2133.3548176381769</v>
+        <v>4600</v>
       </c>
       <c r="C38" s="2">
-        <v>0.60574341910983986</v>
+        <v>0.62899655560989143</v>
       </c>
       <c r="D38" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -7945,13 +8185,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="3">
-        <v>2438.1197915864877</v>
+        <v>4700</v>
       </c>
       <c r="C39" s="2">
-        <v>0.57558116980230101</v>
+        <v>0.62671458648349876</v>
       </c>
       <c r="D39" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -7959,13 +8199,13 @@
         <v>38</v>
       </c>
       <c r="B40" s="3">
-        <v>2742.8847655347986</v>
+        <v>4800</v>
       </c>
       <c r="C40" s="2">
-        <v>0.53604388164568306</v>
+        <v>0.6244886818551133</v>
       </c>
       <c r="D40" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -7973,13 +8213,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="3">
-        <v>3047.6497394831099</v>
+        <v>4900</v>
       </c>
       <c r="C41" s="2">
-        <v>0.52129610999385112</v>
+        <v>0.62231633855058477</v>
       </c>
       <c r="D41" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -7987,13 +8227,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="3">
-        <v>3352.4147134314208</v>
+        <v>5000</v>
       </c>
       <c r="C42" s="2">
-        <v>0.50099583575696172</v>
+        <v>0.62019521339579753</v>
       </c>
       <c r="D42" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -8001,814 +8241,3556 @@
         <v>41</v>
       </c>
       <c r="B43" s="3">
-        <v>3657.1796873797316</v>
+        <v>5100</v>
       </c>
       <c r="C43" s="2">
-        <v>0.49314192466836859</v>
+        <v>0.61812311002809384</v>
       </c>
       <c r="D43" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="3">
-        <v>3961.9446613280425</v>
+        <v>5200</v>
       </c>
       <c r="C44">
-        <v>0.48151753123428698</v>
+        <v>0.61609796702947595</v>
       </c>
       <c r="D44" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="3">
-        <v>4266.7096352763538</v>
+        <v>5300</v>
       </c>
       <c r="C45">
-        <v>0.45504451134297202</v>
+        <v>0.61411784722649165</v>
       </c>
       <c r="D45" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" s="3">
-        <v>4571.4746092246642</v>
+        <v>5400</v>
       </c>
       <c r="C46">
-        <v>0.45759574398417202</v>
+        <v>0.61218092802246049</v>
       </c>
       <c r="D46" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" s="3">
-        <v>4876.2395831729755</v>
+        <v>5500</v>
       </c>
       <c r="C47">
-        <v>0.44327133081445264</v>
+        <v>0.61028549264535292</v>
       </c>
       <c r="D47" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
-        <v>5181.0045571212868</v>
+        <v>5600</v>
       </c>
       <c r="C48">
-        <v>0.43806806113222896</v>
+        <v>0.60842992220967329</v>
       </c>
       <c r="D48" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
-        <v>5485.7695310695972</v>
+        <v>5700</v>
       </c>
       <c r="C49">
-        <v>0.43863540071791307</v>
+        <v>0.60661268850359695</v>
       </c>
       <c r="D49" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
-        <v>5790.5345050179085</v>
+        <v>5800</v>
       </c>
       <c r="C50">
-        <v>0.41595829919834193</v>
+        <v>0.60483234742364422</v>
       </c>
       <c r="D50" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
-        <v>6095.2994789662198</v>
+        <v>5900</v>
       </c>
       <c r="C51">
-        <v>0.40705032711583217</v>
+        <v>0.60308753298870243</v>
       </c>
       <c r="D51" s="2">
-        <v>0.3745</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="3">
-        <v>172.41043359087519</v>
+        <v>6000</v>
       </c>
       <c r="C52">
-        <v>0.99870878046668199</v>
+        <v>0.60137695187339835</v>
       </c>
       <c r="D52" s="2">
-        <v>0.39960000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="3">
-        <v>206.89252030905024</v>
+        <v>6100</v>
       </c>
       <c r="C53">
-        <v>0.96354875516527694</v>
+        <v>0.5996993784079353</v>
       </c>
       <c r="D53" s="2">
-        <v>0.39960000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
-        <v>241.37460702722527</v>
+        <v>6200</v>
       </c>
       <c r="C54">
-        <v>0.92316838147332136</v>
+        <v>0.59805364999766053</v>
       </c>
       <c r="D54" s="2">
-        <v>0.39960000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
-        <v>275.85669374540032</v>
+        <v>6300</v>
       </c>
       <c r="C55">
-        <v>0.90440492297857722</v>
+        <v>0.59643866292098358</v>
       </c>
       <c r="D55" s="2">
-        <v>0.39960000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
-        <v>310.33878046357529</v>
+        <v>6400</v>
       </c>
       <c r="C56">
-        <v>0.87404669118784895</v>
+        <v>0.59485336846893444</v>
       </c>
       <c r="D56" s="2">
-        <v>0.39960000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
-        <v>344.82086718175037</v>
+        <v>6500</v>
       </c>
       <c r="C57">
-        <v>0.86197199371210342</v>
+        <v>0.59329676939372389</v>
       </c>
       <c r="D57" s="2">
-        <v>0.39960000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
-        <v>689.64173436350075</v>
+        <v>6600</v>
       </c>
       <c r="C58">
-        <v>0.77769787850225114</v>
+        <v>0.59176791663723671</v>
       </c>
       <c r="D58" s="2">
-        <v>0.39960000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
-        <v>1034.4626015452511</v>
+        <v>6700</v>
       </c>
       <c r="C59">
-        <v>0.70804326568439446</v>
+        <v>0.59026590631352072</v>
       </c>
       <c r="D59" s="2">
-        <v>0.39960000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="3">
-        <v>1379.2834687270015</v>
+        <v>6800</v>
       </c>
       <c r="C60">
-        <v>0.70413955098697212</v>
+        <v>0.58878987692208196</v>
       </c>
       <c r="D60" s="2">
-        <v>0.39960000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="3">
-        <v>1724.1043359087519</v>
+        <v>6900</v>
       </c>
       <c r="C61">
-        <v>0.69219188295740108</v>
+        <v>0.58733900677122708</v>
       </c>
       <c r="D61" s="2">
-        <v>0.39960000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="3">
-        <v>2068.9252030905022</v>
+        <v>7000</v>
       </c>
       <c r="C62">
-        <v>0.68399566678270829</v>
+        <v>0.5859125115928252</v>
       </c>
       <c r="D62" s="2">
-        <v>0.39960000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
-        <v>2413.7460702722528</v>
+        <v>7100</v>
       </c>
       <c r="C63">
-        <v>0.65408350313515784</v>
+        <v>0.58450964233176073</v>
       </c>
       <c r="D63" s="2">
-        <v>0.39960000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
-        <v>2758.566937454003</v>
+        <v>7200</v>
       </c>
       <c r="C64">
-        <v>0.62726377158772695</v>
+        <v>0.58312968309501989</v>
       </c>
       <c r="D64" s="2">
-        <v>0.39960000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
-        <v>3103.3878046357531</v>
+        <v>7300</v>
       </c>
       <c r="C65">
-        <v>0.6408638594734708</v>
+        <v>0.58177194924684172</v>
       </c>
       <c r="D65" s="2">
-        <v>0.39960000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
-        <v>3448.2086718175037</v>
+        <v>7400</v>
       </c>
       <c r="C66">
-        <v>0.63194869340929083</v>
+        <v>0.58043578563768883</v>
       </c>
       <c r="D66" s="2">
-        <v>0.39960000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
-        <v>3793.0295389992539</v>
+        <v>7500</v>
       </c>
       <c r="C67">
-        <v>0.60936254686728319</v>
+        <v>0.57912056495596576</v>
       </c>
       <c r="D67" s="2">
-        <v>0.39960000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
-        <v>4137.8504061810045</v>
+        <v>7600</v>
       </c>
       <c r="C68">
-        <v>0.60119571213627399</v>
+        <v>0.57782568619246844</v>
       </c>
       <c r="D68" s="2">
-        <v>0.39960000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
-        <v>4482.6712733627555</v>
+        <v>7700</v>
       </c>
       <c r="C69">
-        <v>0.61642412593281348</v>
+        <v>0.57655057320848102</v>
       </c>
       <c r="D69" s="2">
-        <v>0.39960000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="3">
-        <v>4827.4921405445057</v>
+        <v>7800</v>
       </c>
       <c r="C70">
-        <v>0.59938395072759276</v>
+        <v>0.57529467339928009</v>
       </c>
       <c r="D70" s="2">
-        <v>0.39960000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="3">
-        <v>5172.3130077262558</v>
+        <v>7900</v>
       </c>
       <c r="C71">
-        <v>0.57906779473978731</v>
+        <v>0.57405745644555328</v>
       </c>
       <c r="D71" s="2">
-        <v>0.39960000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="3">
-        <v>5517.133874908006</v>
+        <v>8000</v>
       </c>
       <c r="C72">
-        <v>0.60394946052090404</v>
+        <v>0.57283841314592143</v>
       </c>
       <c r="D72" s="2">
-        <v>0.39960000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="3">
-        <v>5861.954742089757</v>
+        <v>8100</v>
       </c>
       <c r="C73">
-        <v>0.59592679848727814</v>
+        <v>0.57163705432434897</v>
       </c>
       <c r="D73" s="2">
-        <v>0.39960000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="3">
-        <v>6206.7756092715063</v>
+        <v>8200</v>
       </c>
       <c r="C74">
-        <v>0.57757748749847315</v>
+        <v>0.57045290980678598</v>
       </c>
       <c r="D74" s="2">
-        <v>0.39960000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="3">
-        <v>6551.5964764532573</v>
+        <v>8300</v>
       </c>
       <c r="C75">
-        <v>0.57910813438126019</v>
+        <v>0.56928552746186434</v>
       </c>
       <c r="D75" s="2">
-        <v>0.39960000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="3">
-        <v>6896.4173436350075</v>
+        <v>8400</v>
       </c>
       <c r="C76">
-        <v>0.56743779084801438</v>
+        <v>0.56813447230092373</v>
       </c>
       <c r="D76" s="2">
-        <v>0.39960000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="3">
-        <v>192.55785462697582</v>
+        <v>8500</v>
       </c>
       <c r="C77">
-        <v>0.92763614923597015</v>
+        <v>0.56699932563303945</v>
       </c>
       <c r="D77" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="3">
-        <v>231.06942555237097</v>
+        <v>8600</v>
       </c>
       <c r="C78">
-        <v>0.88050967640078193</v>
+        <v>0.56587968427108437</v>
       </c>
       <c r="D78" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="3">
-        <v>269.58099647776612</v>
+        <v>8700</v>
       </c>
       <c r="C79">
-        <v>0.84769144405441954</v>
+        <v>0.56477515978519355</v>
       </c>
       <c r="D79" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="3">
-        <v>308.0925674031613</v>
+        <v>8800</v>
       </c>
       <c r="C80">
-        <v>0.81958074181183593</v>
+        <v>0.56368537780028849</v>
       </c>
       <c r="D80" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="3">
-        <v>346.60413832855642</v>
+        <v>8900</v>
       </c>
       <c r="C81">
-        <v>0.7989716018029257</v>
+        <v>0.56260997733459395</v>
       </c>
       <c r="D81" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="3">
-        <v>385.11570925395165</v>
+        <v>9000</v>
       </c>
       <c r="C82">
-        <v>0.80107138099306097</v>
+        <v>0.5615486101763244</v>
       </c>
       <c r="D82" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="3">
-        <v>770.2314185079033</v>
+        <v>9100</v>
       </c>
       <c r="C83">
-        <v>0.68935562659552219</v>
+        <v>0.56050094029594033</v>
       </c>
       <c r="D83" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="3">
-        <v>1155.3471277618548</v>
+        <v>9200</v>
       </c>
       <c r="C84">
-        <v>0.64968061503101182</v>
+        <v>0.55946664329157836</v>
       </c>
       <c r="D84" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="3">
-        <v>1540.4628370158066</v>
+        <v>9300</v>
       </c>
       <c r="C85">
-        <v>0.66694342842104537</v>
+        <v>0.55844540586544522</v>
       </c>
       <c r="D85" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="3">
-        <v>1925.5785462697584</v>
+        <v>9400</v>
       </c>
       <c r="C86">
-        <v>0.59594546023710204</v>
+        <v>0.55743692532913258</v>
       </c>
       <c r="D86" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="3">
-        <v>2310.6942555237097</v>
+        <v>9500</v>
       </c>
       <c r="C87">
-        <v>0.61388903512018356</v>
+        <v>0.55644090913596789</v>
       </c>
       <c r="D87" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="3">
-        <v>2695.8099647776617</v>
+        <v>9600</v>
       </c>
       <c r="C88">
-        <v>0.61329973323904585</v>
+        <v>0.55545707443865744</v>
       </c>
       <c r="D88" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="3">
-        <v>3080.9256740316132</v>
+        <v>9700</v>
       </c>
       <c r="C89">
-        <v>0.62050056667285891</v>
+        <v>0.55448514767060197</v>
       </c>
       <c r="D89" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="3">
-        <v>3466.0413832855647</v>
+        <v>9800</v>
       </c>
       <c r="C90">
-        <v>0.62739302044370282</v>
+        <v>0.55352486414939261</v>
       </c>
       <c r="D90" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="3">
-        <v>3851.1570925395167</v>
+        <v>9900</v>
       </c>
       <c r="C91">
-        <v>0.63118594488803215</v>
+        <v>0.55257596770109718</v>
       </c>
       <c r="D91" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="3">
-        <v>4236.2728017934687</v>
+        <v>10000</v>
       </c>
       <c r="C92">
-        <v>0.59981314697873978</v>
+        <v>0.55163821030404758</v>
       </c>
       <c r="D92" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.33260000000000001</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="3">
-        <v>4621.3885110474193</v>
+        <v>1000</v>
       </c>
       <c r="C93">
-        <v>0.62609689978898464</v>
+        <v>1.1177708015044736</v>
       </c>
       <c r="D93" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="3">
-        <v>5006.5042203013718</v>
+        <v>1100</v>
       </c>
       <c r="C94">
-        <v>0.58083507428606507</v>
+        <v>1.0828517346958313</v>
       </c>
       <c r="D94" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="3">
-        <v>5391.6199295553233</v>
+        <v>1200</v>
       </c>
       <c r="C95">
-        <v>0.57133955449283136</v>
+        <v>1.0519265239315072</v>
       </c>
       <c r="D95" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="3">
-        <v>5776.7356388092749</v>
+        <v>1300</v>
       </c>
       <c r="C96">
-        <v>0.5797729805259586</v>
+        <v>1.0242586125494697</v>
       </c>
       <c r="D96" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="3">
-        <v>6161.8513480632264</v>
+        <v>1400</v>
       </c>
       <c r="C97">
-        <v>0.60144558385734037</v>
+        <v>0.99929134253864227</v>
       </c>
       <c r="D97" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="3">
-        <v>6546.9670573171788</v>
+        <v>1500</v>
       </c>
       <c r="C98">
-        <v>0.57242686085582029</v>
+        <v>0.97659471902211603</v>
       </c>
       <c r="D98" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="3">
-        <v>6932.0827665711295</v>
+        <v>1600</v>
       </c>
       <c r="C99">
-        <v>0.54451407829089338</v>
+        <v>0.9558303284131261</v>
       </c>
       <c r="D99" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="3">
-        <v>7317.198475825081</v>
+        <v>1700</v>
       </c>
       <c r="C100">
-        <v>0.56156669404016291</v>
+        <v>0.93672749936826361</v>
       </c>
       <c r="D100" s="2">
-        <v>0.41620000000000001</v>
+        <v>0.3745</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="3">
-        <v>7702.3141850790335</v>
+        <v>1800</v>
       </c>
       <c r="C101">
-        <v>0.52139682300954182</v>
+        <v>0.91906666973952977</v>
       </c>
       <c r="D101" s="2">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="3">
+        <v>1900</v>
+      </c>
+      <c r="C102">
+        <v>0.902667511237912</v>
+      </c>
+      <c r="D102">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C103">
+        <v>0.88738027777899553</v>
+      </c>
+      <c r="D103">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="3">
+        <v>2100</v>
+      </c>
+      <c r="C104">
+        <v>0.87307938852422473</v>
+      </c>
+      <c r="D104">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="3">
+        <v>2200</v>
+      </c>
+      <c r="C105">
+        <v>0.8596585917564854</v>
+      </c>
+      <c r="D105">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="3">
+        <v>2300</v>
+      </c>
+      <c r="C106">
+        <v>0.84702726749471058</v>
+      </c>
+      <c r="D106">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="3">
+        <v>2400</v>
+      </c>
+      <c r="C107">
+        <v>0.83510756387001417</v>
+      </c>
+      <c r="D107">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="3">
+        <v>2500</v>
+      </c>
+      <c r="C108">
+        <v>0.82383215303331558</v>
+      </c>
+      <c r="D108">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="3">
+        <v>2600</v>
+      </c>
+      <c r="C109">
+        <v>0.81314245362137338</v>
+      </c>
+      <c r="D109">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="3">
+        <v>2700</v>
+      </c>
+      <c r="C110">
+        <v>0.80298720890615072</v>
+      </c>
+      <c r="D110">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="3">
+        <v>2800</v>
+      </c>
+      <c r="C111">
+        <v>0.79332133916054581</v>
+      </c>
+      <c r="D111">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="3">
+        <v>2900</v>
+      </c>
+      <c r="C112">
+        <v>0.78410500762665114</v>
+      </c>
+      <c r="D112">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="3">
+        <v>3000</v>
+      </c>
+      <c r="C113">
+        <v>0.77530285446437008</v>
+      </c>
+      <c r="D113">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="3">
+        <v>3100</v>
+      </c>
+      <c r="C114">
+        <v>0.76688336397358137</v>
+      </c>
+      <c r="D114">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="3">
+        <v>3200</v>
+      </c>
+      <c r="C115">
+        <v>0.75881833842430491</v>
+      </c>
+      <c r="D115">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="3">
+        <v>3300</v>
+      </c>
+      <c r="C116">
+        <v>0.75108245781817617</v>
+      </c>
+      <c r="D116">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="3">
+        <v>3400</v>
+      </c>
+      <c r="C117">
+        <v>0.74365290941025419</v>
+      </c>
+      <c r="D117">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="3">
+        <v>3500</v>
+      </c>
+      <c r="C118">
+        <v>0.7365090742423257</v>
+      </c>
+      <c r="D118">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="3">
+        <v>3600</v>
+      </c>
+      <c r="C119">
+        <v>0.72963226056108099</v>
+      </c>
+      <c r="D119">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="3">
+        <v>3700</v>
+      </c>
+      <c r="C120">
+        <v>0.72300547602055354</v>
+      </c>
+      <c r="D120">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="3">
+        <v>3800</v>
+      </c>
+      <c r="C121">
+        <v>0.71661323214584516</v>
+      </c>
+      <c r="D121">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" s="3">
+        <v>3900</v>
+      </c>
+      <c r="C122">
+        <v>0.71044137577263522</v>
+      </c>
+      <c r="D122">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C123">
+        <v>0.70447694315441045</v>
+      </c>
+      <c r="D123">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="3">
+        <v>4100</v>
+      </c>
+      <c r="C124">
+        <v>0.69870803320642783</v>
+      </c>
+      <c r="D124">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" s="3">
+        <v>4200</v>
+      </c>
+      <c r="C125">
+        <v>0.69312369697701504</v>
+      </c>
+      <c r="D125">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="3">
+        <v>4300</v>
+      </c>
+      <c r="C126">
+        <v>0.68771384093701038</v>
+      </c>
+      <c r="D126">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="3">
+        <v>4400</v>
+      </c>
+      <c r="C127">
+        <v>0.68246914208280718</v>
+      </c>
+      <c r="D127">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128" s="3">
+        <v>4500</v>
+      </c>
+      <c r="C128">
+        <v>0.67738097317766244</v>
+      </c>
+      <c r="D128">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="3">
+        <v>4600</v>
+      </c>
+      <c r="C129">
+        <v>0.67244133672499717</v>
+      </c>
+      <c r="D129">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="3">
+        <v>4700</v>
+      </c>
+      <c r="C130">
+        <v>0.66764280648845908</v>
+      </c>
+      <c r="D130">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131" s="3">
+        <v>4800</v>
+      </c>
+      <c r="C131">
+        <v>0.66297847555588263</v>
+      </c>
+      <c r="D131">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" s="3">
+        <v>4900</v>
+      </c>
+      <c r="C132">
+        <v>0.65844191009543085</v>
+      </c>
+      <c r="D132">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C133">
+        <v>0.65402710807797515</v>
+      </c>
+      <c r="D133">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="3">
+        <v>5100</v>
+      </c>
+      <c r="C134">
+        <v>0.64972846234486237</v>
+      </c>
+      <c r="D134">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" s="3">
+        <v>5200</v>
+      </c>
+      <c r="C135">
+        <v>0.64554072748834457</v>
+      </c>
+      <c r="D135">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136" s="3">
+        <v>5300</v>
+      </c>
+      <c r="C136">
+        <v>0.64145899008613949</v>
+      </c>
+      <c r="D136">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137" s="3">
+        <v>5400</v>
+      </c>
+      <c r="C137">
+        <v>0.63747864189425063</v>
+      </c>
+      <c r="D137">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" s="3">
+        <v>5500</v>
+      </c>
+      <c r="C138">
+        <v>0.63359535565529712</v>
+      </c>
+      <c r="D138">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139" s="3">
+        <v>5600</v>
+      </c>
+      <c r="C139">
+        <v>0.62980506322473662</v>
+      </c>
+      <c r="D139">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" s="3">
+        <v>5700</v>
+      </c>
+      <c r="C140">
+        <v>0.62610393575592194</v>
+      </c>
+      <c r="D140">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" s="3">
+        <v>5800</v>
+      </c>
+      <c r="C141">
+        <v>0.62248836571783928</v>
+      </c>
+      <c r="D141">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B142" s="3">
+        <v>5900</v>
+      </c>
+      <c r="C142">
+        <v>0.61895495054768146</v>
+      </c>
+      <c r="D142">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B143" s="3">
+        <v>6000</v>
+      </c>
+      <c r="C143">
+        <v>0.61550047776470507</v>
+      </c>
+      <c r="D143">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144" s="3">
+        <v>6100</v>
+      </c>
+      <c r="C144">
+        <v>0.61212191139281114</v>
+      </c>
+      <c r="D144">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B145" s="3">
+        <v>6200</v>
+      </c>
+      <c r="C145">
+        <v>0.60881637955743606</v>
+      </c>
+      <c r="D145">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B146" s="3">
+        <v>6300</v>
+      </c>
+      <c r="C146">
+        <v>0.6055811631380581</v>
+      </c>
+      <c r="D146">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" s="3">
+        <v>6400</v>
+      </c>
+      <c r="C147">
+        <v>0.60241368537131246</v>
+      </c>
+      <c r="D147">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148" s="3">
+        <v>6500</v>
+      </c>
+      <c r="C148">
+        <v>0.59931150231160146</v>
+      </c>
+      <c r="D148">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B149" s="3">
+        <v>6600</v>
+      </c>
+      <c r="C149">
+        <v>0.59627229406650084</v>
+      </c>
+      <c r="D149">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B150" s="3">
+        <v>6700</v>
+      </c>
+      <c r="C150">
+        <v>0.59329385673334611</v>
+      </c>
+      <c r="D150">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" s="3">
+        <v>6800</v>
+      </c>
+      <c r="C151">
+        <v>0.59037409497137272</v>
+      </c>
+      <c r="D151">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B152" s="3">
+        <v>6900</v>
+      </c>
+      <c r="C152">
+        <v>0.5875110151507893</v>
+      </c>
+      <c r="D152">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B153" s="3">
+        <v>7000</v>
+      </c>
+      <c r="C153">
+        <v>0.58470271902632986</v>
+      </c>
+      <c r="D153">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B154" s="3">
+        <v>7100</v>
+      </c>
+      <c r="C154">
+        <v>0.58194739788827921</v>
+      </c>
+      <c r="D154">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B155" s="3">
+        <v>7200</v>
+      </c>
+      <c r="C155">
+        <v>0.57924332714877846</v>
+      </c>
+      <c r="D155">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>7300</v>
+      </c>
+      <c r="C156">
+        <v>0.57658886132546805</v>
+      </c>
+      <c r="D156">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>7400</v>
+      </c>
+      <c r="C157">
+        <v>0.57398242938830746</v>
+      </c>
+      <c r="D157">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>7500</v>
+      </c>
+      <c r="C158">
+        <v>0.57142253043876912</v>
+      </c>
+      <c r="D158">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>7600</v>
+      </c>
+      <c r="C159">
+        <v>0.5689077296935805</v>
+      </c>
+      <c r="D159">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>7700</v>
+      </c>
+      <c r="C160">
+        <v>0.56643665474786187</v>
+      </c>
+      <c r="D160">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>7800</v>
+      </c>
+      <c r="C161">
+        <v>0.56400799209487074</v>
+      </c>
+      <c r="D161">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>7900</v>
+      </c>
+      <c r="C162">
+        <v>0.56162048388169461</v>
+      </c>
+      <c r="D162">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>8000</v>
+      </c>
+      <c r="C163">
+        <v>0.55927292488213765</v>
+      </c>
+      <c r="D163">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>8100</v>
+      </c>
+      <c r="C164">
+        <v>0.55696415966974466</v>
+      </c>
+      <c r="D164">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>8200</v>
+      </c>
+      <c r="C165">
+        <v>0.55469307997544248</v>
+      </c>
+      <c r="D165">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>8300</v>
+      </c>
+      <c r="C166">
+        <v>0.55245862221565578</v>
+      </c>
+      <c r="D166">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>8400</v>
+      </c>
+      <c r="C167">
+        <v>0.55025976517799235</v>
+      </c>
+      <c r="D167">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>8500</v>
+      </c>
+      <c r="C168">
+        <v>0.54809552785270776</v>
+      </c>
+      <c r="D168">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>8600</v>
+      </c>
+      <c r="C169">
+        <v>0.5459649673991791</v>
+      </c>
+      <c r="D169">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>8700</v>
+      </c>
+      <c r="C170">
+        <v>0.54386717723751188</v>
+      </c>
+      <c r="D170">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>8800</v>
+      </c>
+      <c r="C171">
+        <v>0.54180128525625137</v>
+      </c>
+      <c r="D171">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>8900</v>
+      </c>
+      <c r="C172">
+        <v>0.53976645212789365</v>
+      </c>
+      <c r="D172">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>9000</v>
+      </c>
+      <c r="C173">
+        <v>0.53776186972459095</v>
+      </c>
+      <c r="D173">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>9100</v>
+      </c>
+      <c r="C174">
+        <v>0.53578675962704869</v>
+      </c>
+      <c r="D174">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>9200</v>
+      </c>
+      <c r="C175">
+        <v>0.53384037172017562</v>
+      </c>
+      <c r="D175">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>9300</v>
+      </c>
+      <c r="C176">
+        <v>0.53192198286955894</v>
+      </c>
+      <c r="D176">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>9400</v>
+      </c>
+      <c r="C177">
+        <v>0.53003089567329864</v>
+      </c>
+      <c r="D177">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>9500</v>
+      </c>
+      <c r="C178">
+        <v>0.52816643728415735</v>
+      </c>
+      <c r="D178">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <v>9600</v>
+      </c>
+      <c r="C179">
+        <v>0.52632795829737866</v>
+      </c>
+      <c r="D179">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B180">
+        <v>9700</v>
+      </c>
+      <c r="C180">
+        <v>0.52451483169985902</v>
+      </c>
+      <c r="D180">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B181">
+        <v>9800</v>
+      </c>
+      <c r="C181">
+        <v>0.52272645187670619</v>
+      </c>
+      <c r="D181">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B182">
+        <v>9900</v>
+      </c>
+      <c r="C182">
+        <v>0.5209622336714943</v>
+      </c>
+      <c r="D182">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B183">
+        <v>10000</v>
+      </c>
+      <c r="C183">
+        <v>0.51922161149680368</v>
+      </c>
+      <c r="D183">
+        <v>0.3745</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B184">
+        <v>1000</v>
+      </c>
+      <c r="C184">
+        <v>0.7376054314729642</v>
+      </c>
+      <c r="D184">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B185">
+        <v>1100</v>
+      </c>
+      <c r="C185">
+        <v>0.72741252384205424</v>
+      </c>
+      <c r="D185">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B186">
+        <v>1200</v>
+      </c>
+      <c r="C186">
+        <v>0.71823016994759714</v>
+      </c>
+      <c r="D186">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B187">
+        <v>1300</v>
+      </c>
+      <c r="C187">
+        <v>0.70988561634239489</v>
+      </c>
+      <c r="D187">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B188">
+        <v>1400</v>
+      </c>
+      <c r="C188">
+        <v>0.70224622428918848</v>
+      </c>
+      <c r="D188">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B189">
+        <v>1500</v>
+      </c>
+      <c r="C189">
+        <v>0.69520803391035702</v>
+      </c>
+      <c r="D189">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B190">
+        <v>1600</v>
+      </c>
+      <c r="C190">
+        <v>0.68868811555469522</v>
+      </c>
+      <c r="D190">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B191">
+        <v>1700</v>
+      </c>
+      <c r="C191">
+        <v>0.68261930065012699</v>
+      </c>
+      <c r="D191">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B192">
+        <v>1800</v>
+      </c>
+      <c r="C192">
+        <v>0.67694645814531573</v>
+      </c>
+      <c r="D192">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B193">
+        <v>1900</v>
+      </c>
+      <c r="C193">
+        <v>0.67162380416989886</v>
+      </c>
+      <c r="D193">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B194">
+        <v>2000</v>
+      </c>
+      <c r="C194">
+        <v>0.66661291996010263</v>
+      </c>
+      <c r="D194">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B195">
+        <v>2100</v>
+      </c>
+      <c r="C195">
+        <v>0.66188126615896903</v>
+      </c>
+      <c r="D195">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B196">
+        <v>2200</v>
+      </c>
+      <c r="C196">
+        <v>0.65740105189514575</v>
+      </c>
+      <c r="D196">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B197">
+        <v>2300</v>
+      </c>
+      <c r="C197">
+        <v>0.65314836193112136</v>
+      </c>
+      <c r="D197">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B198">
+        <v>2400</v>
+      </c>
+      <c r="C198">
+        <v>0.64910247452503667</v>
+      </c>
+      <c r="D198">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B199">
+        <v>2500</v>
+      </c>
+      <c r="C199">
+        <v>0.64524532226001841</v>
+      </c>
+      <c r="D199">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B200">
+        <v>2600</v>
+      </c>
+      <c r="C200">
+        <v>0.64156106145081448</v>
+      </c>
+      <c r="D200">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B201">
+        <v>2700</v>
+      </c>
+      <c r="C201">
+        <v>0.63803572499456929</v>
+      </c>
+      <c r="D201">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B202">
+        <v>2800</v>
+      </c>
+      <c r="C202">
+        <v>0.63465694005200857</v>
+      </c>
+      <c r="D202">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B203">
+        <v>2900</v>
+      </c>
+      <c r="C203">
+        <v>0.63141369660434199</v>
+      </c>
+      <c r="D203">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B204">
+        <v>3000</v>
+      </c>
+      <c r="C204">
+        <v>0.62829615630574653</v>
+      </c>
+      <c r="D204">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B205">
+        <v>3100</v>
+      </c>
+      <c r="C205">
+        <v>0.62529549352600755</v>
+      </c>
+      <c r="D205">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B206">
+        <v>3200</v>
+      </c>
+      <c r="C206">
+        <v>0.6224037623136226</v>
+      </c>
+      <c r="D206">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B207">
+        <v>3300</v>
+      </c>
+      <c r="C207">
+        <v>0.61961378438599057</v>
+      </c>
+      <c r="D207">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B208">
+        <v>3400</v>
+      </c>
+      <c r="C208">
+        <v>0.61691905429547156</v>
+      </c>
+      <c r="D208">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B209">
+        <v>3500</v>
+      </c>
+      <c r="C209">
+        <v>0.6143136587165533</v>
+      </c>
+      <c r="D209">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B210">
+        <v>3600</v>
+      </c>
+      <c r="C210">
+        <v>0.61179220741331897</v>
+      </c>
+      <c r="D210">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B211">
+        <v>3700</v>
+      </c>
+      <c r="C211">
+        <v>0.60934977392355638</v>
+      </c>
+      <c r="D211">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B212">
+        <v>3800</v>
+      </c>
+      <c r="C212">
+        <v>0.60698184436948333</v>
+      </c>
+      <c r="D212">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B213">
+        <v>3900</v>
+      </c>
+      <c r="C213">
+        <v>0.60468427309975759</v>
+      </c>
+      <c r="D213">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B214">
+        <v>4000</v>
+      </c>
+      <c r="C214">
+        <v>0.60245324410144596</v>
+      </c>
+      <c r="D214">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B215">
+        <v>4100</v>
+      </c>
+      <c r="C215">
+        <v>0.60028523730762506</v>
+      </c>
+      <c r="D215">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B216">
+        <v>4200</v>
+      </c>
+      <c r="C216">
+        <v>0.59817699907662947</v>
+      </c>
+      <c r="D216">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B217">
+        <v>4300</v>
+      </c>
+      <c r="C217">
+        <v>0.59612551624053256</v>
+      </c>
+      <c r="D217">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B218">
+        <v>4400</v>
+      </c>
+      <c r="C218">
+        <v>0.5941279932192699</v>
+      </c>
+      <c r="D218">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B219">
+        <v>4500</v>
+      </c>
+      <c r="C219">
+        <v>0.5921818317775801</v>
+      </c>
+      <c r="D219">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B220">
+        <v>4600</v>
+      </c>
+      <c r="C220">
+        <v>0.59028461306825597</v>
+      </c>
+      <c r="D220">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B221">
+        <v>4700</v>
+      </c>
+      <c r="C221">
+        <v>0.5884340816599205</v>
+      </c>
+      <c r="D221">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B222">
+        <v>4800</v>
+      </c>
+      <c r="C222">
+        <v>0.58662813129287916</v>
+      </c>
+      <c r="D222">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B223">
+        <v>4900</v>
+      </c>
+      <c r="C223">
+        <v>0.58486479214434695</v>
+      </c>
+      <c r="D223">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B224">
+        <v>5000</v>
+      </c>
+      <c r="C224">
+        <v>0.58314221941587463</v>
+      </c>
+      <c r="D224">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B225">
+        <v>5100</v>
+      </c>
+      <c r="C225">
+        <v>0.58145868308225923</v>
+      </c>
+      <c r="D225">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B226">
+        <v>5200</v>
+      </c>
+      <c r="C226">
+        <v>0.57981255866349457</v>
+      </c>
+      <c r="D226">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B227">
+        <v>5300</v>
+      </c>
+      <c r="C227">
+        <v>0.57820231890013984</v>
+      </c>
+      <c r="D227">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B228">
+        <v>5400</v>
+      </c>
+      <c r="C228">
+        <v>0.57662652622844779</v>
+      </c>
+      <c r="D228">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B229">
+        <v>5500</v>
+      </c>
+      <c r="C229">
+        <v>0.57508382596516472</v>
+      </c>
+      <c r="D229">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B230">
+        <v>5600</v>
+      </c>
+      <c r="C230">
+        <v>0.57357294012350313</v>
+      </c>
+      <c r="D230">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B231">
+        <v>5700</v>
+      </c>
+      <c r="C231">
+        <v>0.57209266179171003</v>
+      </c>
+      <c r="D231">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B232">
+        <v>5800</v>
+      </c>
+      <c r="C232">
+        <v>0.5706418500141569</v>
+      </c>
+      <c r="D232">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B233">
+        <v>5900</v>
+      </c>
+      <c r="C233">
+        <v>0.5692194251222219</v>
+      </c>
+      <c r="D233">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B234">
+        <v>6000</v>
+      </c>
+      <c r="C234">
+        <v>0.5678243644685449</v>
+      </c>
+      <c r="D234">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B235">
+        <v>6100</v>
+      </c>
+      <c r="C235">
+        <v>0.56645569852372779</v>
+      </c>
+      <c r="D235">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B236">
+        <v>6200</v>
+      </c>
+      <c r="C236">
+        <v>0.5651125072992953</v>
+      </c>
+      <c r="D236">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B237">
+        <v>6300</v>
+      </c>
+      <c r="C237">
+        <v>0.56379391706486315</v>
+      </c>
+      <c r="D237">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B238">
+        <v>6400</v>
+      </c>
+      <c r="C238">
+        <v>0.56249909733107117</v>
+      </c>
+      <c r="D238">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B239">
+        <v>6500</v>
+      </c>
+      <c r="C239">
+        <v>0.56122725807298157</v>
+      </c>
+      <c r="D239">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B240">
+        <v>6600</v>
+      </c>
+      <c r="C240">
+        <v>0.55997764717139831</v>
+      </c>
+      <c r="D240">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B241">
+        <v>6700</v>
+      </c>
+      <c r="C241">
+        <v>0.55874954805199228</v>
+      </c>
+      <c r="D241">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B242">
+        <v>6800</v>
+      </c>
+      <c r="C242">
+        <v>0.55754227750423357</v>
+      </c>
+      <c r="D242">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B243">
+        <v>6900</v>
+      </c>
+      <c r="C243">
+        <v>0.55635518366401793</v>
+      </c>
+      <c r="D243">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B244">
+        <v>7000</v>
+      </c>
+      <c r="C244">
+        <v>0.5551876441455208</v>
+      </c>
+      <c r="D244">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B245">
+        <v>7100</v>
+      </c>
+      <c r="C245">
+        <v>0.55403906430928762</v>
+      </c>
+      <c r="D245">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B246">
+        <v>7200</v>
+      </c>
+      <c r="C246">
+        <v>0.55290887565485292</v>
+      </c>
+      <c r="D246">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B247">
+        <v>7300</v>
+      </c>
+      <c r="C247">
+        <v>0.55179653432734799</v>
+      </c>
+      <c r="D247">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B248">
+        <v>7400</v>
+      </c>
+      <c r="C248">
+        <v>0.55070151972857184</v>
+      </c>
+      <c r="D248">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B249">
+        <v>7500</v>
+      </c>
+      <c r="C249">
+        <v>0.54962333322391177</v>
+      </c>
+      <c r="D249">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B250">
+        <v>7600</v>
+      </c>
+      <c r="C250">
+        <v>0.5485614969373237</v>
+      </c>
+      <c r="D250">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B251">
+        <v>7700</v>
+      </c>
+      <c r="C251">
+        <v>0.54751555262729934</v>
+      </c>
+      <c r="D251">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B252">
+        <v>7800</v>
+      </c>
+      <c r="C252">
+        <v>0.54648506063740421</v>
+      </c>
+      <c r="D252">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B253">
+        <v>7900</v>
+      </c>
+      <c r="C253">
+        <v>0.54546959891555402</v>
+      </c>
+      <c r="D253">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B254">
+        <v>8000</v>
+      </c>
+      <c r="C254">
+        <v>0.54446876209671935</v>
+      </c>
+      <c r="D254">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B255">
+        <v>8100</v>
+      </c>
+      <c r="C255">
+        <v>0.54348216064421906</v>
+      </c>
+      <c r="D255">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B256">
+        <v>8200</v>
+      </c>
+      <c r="C256">
+        <v>0.54250942004518876</v>
+      </c>
+      <c r="D256">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B257">
+        <v>8300</v>
+      </c>
+      <c r="C257">
+        <v>0.54155018005619204</v>
+      </c>
+      <c r="D257">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B258">
+        <v>8400</v>
+      </c>
+      <c r="C258">
+        <v>0.54060409399528564</v>
+      </c>
+      <c r="D258">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B259">
+        <v>8500</v>
+      </c>
+      <c r="C259">
+        <v>0.53967082807716238</v>
+      </c>
+      <c r="D259">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B260">
+        <v>8600</v>
+      </c>
+      <c r="C260">
+        <v>0.53875006078828003</v>
+      </c>
+      <c r="D260">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B261">
+        <v>8700</v>
+      </c>
+      <c r="C261">
+        <v>0.53784148229913331</v>
+      </c>
+      <c r="D261">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B262">
+        <v>8800</v>
+      </c>
+      <c r="C262">
+        <v>0.53694479391106587</v>
+      </c>
+      <c r="D262">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B263">
+        <v>8900</v>
+      </c>
+      <c r="C263">
+        <v>0.53605970753522303</v>
+      </c>
+      <c r="D263">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B264">
+        <v>9000</v>
+      </c>
+      <c r="C264">
+        <v>0.53518594520144092</v>
+      </c>
+      <c r="D264">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B265">
+        <v>9100</v>
+      </c>
+      <c r="C265">
+        <v>0.53432323859503883</v>
+      </c>
+      <c r="D265">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B266">
+        <v>9200</v>
+      </c>
+      <c r="C266">
+        <v>0.53347132861964597</v>
+      </c>
+      <c r="D266">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B267">
+        <v>9300</v>
+      </c>
+      <c r="C267">
+        <v>0.53262996498432835</v>
+      </c>
+      <c r="D267">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B268">
+        <v>9400</v>
+      </c>
+      <c r="C268">
+        <v>0.53179890581342426</v>
+      </c>
+      <c r="D268">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B269">
+        <v>9500</v>
+      </c>
+      <c r="C269">
+        <v>0.53097791727761035</v>
+      </c>
+      <c r="D269">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B270">
+        <v>9600</v>
+      </c>
+      <c r="C270">
+        <v>0.53016677324483352</v>
+      </c>
+      <c r="D270">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B271">
+        <v>9700</v>
+      </c>
+      <c r="C271">
+        <v>0.52936525494984454</v>
+      </c>
+      <c r="D271">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B272">
+        <v>9800</v>
+      </c>
+      <c r="C272">
+        <v>0.52857315068116062</v>
+      </c>
+      <c r="D272">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B273">
+        <v>9900</v>
+      </c>
+      <c r="C273">
+        <v>0.52779025548437086</v>
+      </c>
+      <c r="D273">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B274">
+        <v>10000</v>
+      </c>
+      <c r="C274">
+        <v>0.52701637088077669</v>
+      </c>
+      <c r="D274">
+        <v>0.39960000000000001</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B275">
+        <v>1000</v>
+      </c>
+      <c r="C275">
+        <v>0.69981834148038391</v>
+      </c>
+      <c r="D275">
         <v>0.41620000000000001</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B102" s="3"/>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B103" s="3"/>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B104" s="3"/>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B105" s="3"/>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B106" s="3"/>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B107" s="3"/>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B108" s="3"/>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" s="3"/>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110" s="3"/>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B111" s="3"/>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B112" s="3"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="3"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="3"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="3"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="3"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="3"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="3"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="3"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="3"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="3"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="3"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="3"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="3"/>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="3"/>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="3"/>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="3"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="3"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="3"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="3"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="3"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="3"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="3"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="3"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="3"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="3"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="3"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="3"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="3"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="3"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="3"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="3"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="3"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" s="3"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="3"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="3"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="3"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="3"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="3"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="3"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="3"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="3"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="3"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" s="3"/>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="3"/>
+    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B276">
+        <v>1100</v>
+      </c>
+      <c r="C276">
+        <v>0.69311398142993019</v>
+      </c>
+      <c r="D276">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B277">
+        <v>1200</v>
+      </c>
+      <c r="C277">
+        <v>0.68704947933958249</v>
+      </c>
+      <c r="D277">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B278">
+        <v>1300</v>
+      </c>
+      <c r="C278">
+        <v>0.68151754704192746</v>
+      </c>
+      <c r="D278">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B279">
+        <v>1400</v>
+      </c>
+      <c r="C279">
+        <v>0.67643549588053242</v>
+      </c>
+      <c r="D279">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B280">
+        <v>1500</v>
+      </c>
+      <c r="C280">
+        <v>0.67173828866405805</v>
+      </c>
+      <c r="D280">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B281">
+        <v>1600</v>
+      </c>
+      <c r="C281">
+        <v>0.66737387602081488</v>
+      </c>
+      <c r="D281">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B282">
+        <v>1700</v>
+      </c>
+      <c r="C282">
+        <v>0.66329997300675825</v>
+      </c>
+      <c r="D282">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B283">
+        <v>1800</v>
+      </c>
+      <c r="C283">
+        <v>0.65948177423131982</v>
+      </c>
+      <c r="D283">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B284">
+        <v>1900</v>
+      </c>
+      <c r="C284">
+        <v>0.65589029825495826</v>
+      </c>
+      <c r="D284">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B285">
+        <v>2000</v>
+      </c>
+      <c r="C285">
+        <v>0.65250116455694673</v>
+      </c>
+      <c r="D285">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B286">
+        <v>2100</v>
+      </c>
+      <c r="C286">
+        <v>0.64929367446015829</v>
+      </c>
+      <c r="D286">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B287">
+        <v>2200</v>
+      </c>
+      <c r="C287">
+        <v>0.64625010984569653</v>
+      </c>
+      <c r="D287">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B288">
+        <v>2300</v>
+      </c>
+      <c r="C288">
+        <v>0.64335519066264901</v>
+      </c>
+      <c r="D288">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B289">
+        <v>2400</v>
+      </c>
+      <c r="C289">
+        <v>0.64059565004968855</v>
+      </c>
+      <c r="D289">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B290">
+        <v>2500</v>
+      </c>
+      <c r="C290">
+        <v>0.63795989781130191</v>
+      </c>
+      <c r="D290">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B291">
+        <v>2600</v>
+      </c>
+      <c r="C291">
+        <v>0.63543775113147138</v>
+      </c>
+      <c r="D291">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B292">
+        <v>2700</v>
+      </c>
+      <c r="C292">
+        <v>0.63302021706114564</v>
+      </c>
+      <c r="D292">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B293">
+        <v>2800</v>
+      </c>
+      <c r="C293">
+        <v>0.63069931530520595</v>
+      </c>
+      <c r="D293">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B294">
+        <v>2900</v>
+      </c>
+      <c r="C294">
+        <v>0.62846793269093859</v>
+      </c>
+      <c r="D294">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B295">
+        <v>3000</v>
+      </c>
+      <c r="C295">
+        <v>0.62631970277257187</v>
+      </c>
+      <c r="D295">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="296" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B296">
+        <v>3100</v>
+      </c>
+      <c r="C296">
+        <v>0.62424890554896117</v>
+      </c>
+      <c r="D296">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B297">
+        <v>3200</v>
+      </c>
+      <c r="C297">
+        <v>0.62225038340277783</v>
+      </c>
+      <c r="D297">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B298">
+        <v>3300</v>
+      </c>
+      <c r="C298">
+        <v>0.62031947021908107</v>
+      </c>
+      <c r="D298">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B299">
+        <v>3400</v>
+      </c>
+      <c r="C299">
+        <v>0.61845193128541709</v>
+      </c>
+      <c r="D299">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B300">
+        <v>3500</v>
+      </c>
+      <c r="C300">
+        <v>0.61664391206868341</v>
+      </c>
+      <c r="D300">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B301">
+        <v>3600</v>
+      </c>
+      <c r="C301">
+        <v>0.61489189434466873</v>
+      </c>
+      <c r="D301">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B302">
+        <v>3700</v>
+      </c>
+      <c r="C302">
+        <v>0.61319265845242732</v>
+      </c>
+      <c r="D302">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B303">
+        <v>3800</v>
+      </c>
+      <c r="C303">
+        <v>0.61154325067794679</v>
+      </c>
+      <c r="D303">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B304">
+        <v>3900</v>
+      </c>
+      <c r="C304">
+        <v>0.6099409549550322</v>
+      </c>
+      <c r="D304">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B305">
+        <v>4000</v>
+      </c>
+      <c r="C305">
+        <v>0.60838326821719291</v>
+      </c>
+      <c r="D305">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B306">
+        <v>4100</v>
+      </c>
+      <c r="C306">
+        <v>0.60686787885102988</v>
+      </c>
+      <c r="D306">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B307">
+        <v>4200</v>
+      </c>
+      <c r="C307">
+        <v>0.60539264779556745</v>
+      </c>
+      <c r="D307">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B308">
+        <v>4300</v>
+      </c>
+      <c r="C308">
+        <v>0.60395559190802806</v>
+      </c>
+      <c r="D308">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="309" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B309">
+        <v>4400</v>
+      </c>
+      <c r="C309">
+        <v>0.60255486927844604</v>
+      </c>
+      <c r="D309">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="310" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B310">
+        <v>4500</v>
+      </c>
+      <c r="C310">
+        <v>0.60118876622615902</v>
+      </c>
+      <c r="D310">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="311" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B311">
+        <v>4600</v>
+      </c>
+      <c r="C311">
+        <v>0.59985568575284587</v>
+      </c>
+      <c r="D311">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B312">
+        <v>4700</v>
+      </c>
+      <c r="C312">
+        <v>0.59855413726116169</v>
+      </c>
+      <c r="D312">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="313" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B313">
+        <v>4800</v>
+      </c>
+      <c r="C313">
+        <v>0.59728272737654775</v>
+      </c>
+      <c r="D313">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="314" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B314">
+        <v>4900</v>
+      </c>
+      <c r="C314">
+        <v>0.59604015173355251</v>
+      </c>
+      <c r="D314">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="315" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B315">
+        <v>5000</v>
+      </c>
+      <c r="C315">
+        <v>0.59482518760788039</v>
+      </c>
+      <c r="D315">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="316" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B316">
+        <v>5100</v>
+      </c>
+      <c r="C316">
+        <v>0.59363668729207275</v>
+      </c>
+      <c r="D316">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="317" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B317">
+        <v>5200</v>
+      </c>
+      <c r="C317">
+        <v>0.59247357212679486</v>
+      </c>
+      <c r="D317">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="318" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B318">
+        <v>5300</v>
+      </c>
+      <c r="C318">
+        <v>0.59133482711159802</v>
+      </c>
+      <c r="D318">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B319">
+        <v>5400</v>
+      </c>
+      <c r="C319">
+        <v>0.59021949602912249</v>
+      </c>
+      <c r="D319">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B320">
+        <v>5500</v>
+      </c>
+      <c r="C320">
+        <v>0.5891266770253113</v>
+      </c>
+      <c r="D320">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B321">
+        <v>5600</v>
+      </c>
+      <c r="C321">
+        <v>0.58805551859553695</v>
+      </c>
+      <c r="D321">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B322">
+        <v>5700</v>
+      </c>
+      <c r="C322">
+        <v>0.58700521593284605</v>
+      </c>
+      <c r="D322">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B323">
+        <v>5800</v>
+      </c>
+      <c r="C323">
+        <v>0.58597500759992405</v>
+      </c>
+      <c r="D323">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B324">
+        <v>5900</v>
+      </c>
+      <c r="C324">
+        <v>0.58496417249104271</v>
+      </c>
+      <c r="D324">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B325">
+        <v>6000</v>
+      </c>
+      <c r="C325">
+        <v>0.58397202705427964</v>
+      </c>
+      <c r="D325">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B326">
+        <v>6100</v>
+      </c>
+      <c r="C326">
+        <v>0.58299792274777551</v>
+      </c>
+      <c r="D326">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B327">
+        <v>6200</v>
+      </c>
+      <c r="C327">
+        <v>0.58204124370683419</v>
+      </c>
+      <c r="D327">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B328">
+        <v>6300</v>
+      </c>
+      <c r="C328">
+        <v>0.58110140460129145</v>
+      </c>
+      <c r="D328">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B329">
+        <v>6400</v>
+      </c>
+      <c r="C329">
+        <v>0.58017784866488797</v>
+      </c>
+      <c r="D329">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B330">
+        <v>6500</v>
+      </c>
+      <c r="C330">
+        <v>0.57927004588038511</v>
+      </c>
+      <c r="D330">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B331">
+        <v>6600</v>
+      </c>
+      <c r="C331">
+        <v>0.57837749130592631</v>
+      </c>
+      <c r="D331">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B332">
+        <v>6700</v>
+      </c>
+      <c r="C332">
+        <v>0.57749970352969626</v>
+      </c>
+      <c r="D332">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B333">
+        <v>6800</v>
+      </c>
+      <c r="C333">
+        <v>0.57663622324128339</v>
+      </c>
+      <c r="D333">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B334">
+        <v>6900</v>
+      </c>
+      <c r="C334">
+        <v>0.57578661190936542</v>
+      </c>
+      <c r="D334">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B335">
+        <v>7000</v>
+      </c>
+      <c r="C335">
+        <v>0.57495045055638283</v>
+      </c>
+      <c r="D335">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B336">
+        <v>7100</v>
+      </c>
+      <c r="C336">
+        <v>0.57412733862181664</v>
+      </c>
+      <c r="D336">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="337" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B337">
+        <v>7200</v>
+      </c>
+      <c r="C337">
+        <v>0.57331689290651378</v>
+      </c>
+      <c r="D337">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="338" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B338">
+        <v>7300</v>
+      </c>
+      <c r="C338">
+        <v>0.57251874659124213</v>
+      </c>
+      <c r="D338">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="339" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B339">
+        <v>7400</v>
+      </c>
+      <c r="C339">
+        <v>0.57173254832331943</v>
+      </c>
+      <c r="D339">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="340" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B340">
+        <v>7500</v>
+      </c>
+      <c r="C340">
+        <v>0.57095796136574228</v>
+      </c>
+      <c r="D340">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="341" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B341">
+        <v>7600</v>
+      </c>
+      <c r="C341">
+        <v>0.57019466280376996</v>
+      </c>
+      <c r="D341">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="342" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B342">
+        <v>7700</v>
+      </c>
+      <c r="C342">
+        <v>0.56944234280438166</v>
+      </c>
+      <c r="D342">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="343" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B343">
+        <v>7800</v>
+      </c>
+      <c r="C343">
+        <v>0.56870070392444882</v>
+      </c>
+      <c r="D343">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="344" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B344">
+        <v>7900</v>
+      </c>
+      <c r="C344">
+        <v>0.56796946046383556</v>
+      </c>
+      <c r="D344">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="345" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B345">
+        <v>8000</v>
+      </c>
+      <c r="C345">
+        <v>0.56724833785998552</v>
+      </c>
+      <c r="D345">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="346" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B346">
+        <v>8100</v>
+      </c>
+      <c r="C346">
+        <v>0.56653707212084958</v>
+      </c>
+      <c r="D346">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="347" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B347">
+        <v>8200</v>
+      </c>
+      <c r="C347">
+        <v>0.56583540929328502</v>
+      </c>
+      <c r="D347">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="348" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B348">
+        <v>8300</v>
+      </c>
+      <c r="C348">
+        <v>0.56514310496430875</v>
+      </c>
+      <c r="D348">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="349" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B349">
+        <v>8400</v>
+      </c>
+      <c r="C349">
+        <v>0.56445992379279997</v>
+      </c>
+      <c r="D349">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="350" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B350">
+        <v>8500</v>
+      </c>
+      <c r="C350">
+        <v>0.56378563906945867</v>
+      </c>
+      <c r="D350">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="351" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B351">
+        <v>8600</v>
+      </c>
+      <c r="C351">
+        <v>0.56312003230300378</v>
+      </c>
+      <c r="D351">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="352" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B352">
+        <v>8700</v>
+      </c>
+      <c r="C352">
+        <v>0.5624628928307599</v>
+      </c>
+      <c r="D352">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B353">
+        <v>8800</v>
+      </c>
+      <c r="C353">
+        <v>0.56181401745193515</v>
+      </c>
+      <c r="D353">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B354">
+        <v>8900</v>
+      </c>
+      <c r="C354">
+        <v>0.56117321008202503</v>
+      </c>
+      <c r="D354">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B355">
+        <v>9000</v>
+      </c>
+      <c r="C355">
+        <v>0.56054028142690271</v>
+      </c>
+      <c r="D355">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="356" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B356">
+        <v>9100</v>
+      </c>
+      <c r="C356">
+        <v>0.55991504867527153</v>
+      </c>
+      <c r="D356">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B357">
+        <v>9200</v>
+      </c>
+      <c r="C357">
+        <v>0.55929733520825253</v>
+      </c>
+      <c r="D357">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="358" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B358">
+        <v>9300</v>
+      </c>
+      <c r="C358">
+        <v>0.55868697032498094</v>
+      </c>
+      <c r="D358">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="359" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B359">
+        <v>9400</v>
+      </c>
+      <c r="C359">
+        <v>0.55808378898316413</v>
+      </c>
+      <c r="D359">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B360">
+        <v>9500</v>
+      </c>
+      <c r="C360">
+        <v>0.55748763155363801</v>
+      </c>
+      <c r="D360">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B361">
+        <v>9600</v>
+      </c>
+      <c r="C361">
+        <v>0.55689834358802781</v>
+      </c>
+      <c r="D361">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B362">
+        <v>9700</v>
+      </c>
+      <c r="C362">
+        <v>0.55631577559868362</v>
+      </c>
+      <c r="D362">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B363">
+        <v>9800</v>
+      </c>
+      <c r="C363">
+        <v>0.5557397828501236</v>
+      </c>
+      <c r="D363">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="364" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B364">
+        <v>9900</v>
+      </c>
+      <c r="C364">
+        <v>0.55517022516127401</v>
+      </c>
+      <c r="D364">
+        <v>0.41620000000000001</v>
+      </c>
+    </row>
+    <row r="365" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B365">
+        <v>10000</v>
+      </c>
+      <c r="C365">
+        <v>0.55460696671784138</v>
+      </c>
+      <c r="D365">
+        <v>0.41620000000000001</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
